--- a/self_paced/ENGG1811_spreadsheet_lab.xlsx
+++ b/self_paced/ENGG1811_spreadsheet_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\engg1811\self_paced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2B97A-68EE-45A2-B932-B68DBE47C0F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32395B15-8BD5-4545-8A74-7C0ACDDF5FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BirMjOQMnRt0KxuAAnBaaNQvLMsoGXJvrJbFT7I81+zjMojhy19GMe3Wk051hPaoo5SEox3Nw6bC8OjQEPsLaA==" workbookSaltValue="8hp2Wgrb2RjZOU6UgYOjqQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4333353-DF9F-F147-AC41-CE4ED384F43B}"/>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,6 +469,657 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Freefall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Speed SImulation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Freefall!$A$10:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Freefall!$B$10:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7273940237383947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1196575004728562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.200548230583717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.992139795916309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.514940956022521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.788006580261793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.829040715794388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.654492348962869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.279644378036132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.718696278570491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.984840908525634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.090335868575259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.046569803600896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.864124003994583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.552829639972302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.12182093847953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.579584590322909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.934005654772164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.192410209930401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.361604979569442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.447914150771865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.457213581526943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.394962583309685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.266233450555355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.075738896754579</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.827857545571341</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.526657614865385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08F6-4C63-B66F-6C3F65344D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493342288"/>
+        <c:axId val="493342616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493342288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493342616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="493342616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Velocity (m.s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.8992562306854087E-3"/>
+              <c:y val="0.43475659248542442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493342288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4322,6 +4995,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4877,7 +5590,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141612</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E1B6F2-B74C-4907-A3E9-72C1D7FD5F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5219,8 +6489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C1FFDB-2E83-5342-900F-48ED14AFCC81}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5319,8 +6589,8 @@
         <v>0</v>
       </c>
       <c r="B10" s="6">
-        <f>(($C$7*$C$4)/$C$5)*(1-(EXP(-$C$5/$C$4)*A10))</f>
-        <v>66.685220000000001</v>
+        <f>(($C$7*$C$4)/$C$5)*(1-(EXP((-$C$5/$C$4)*A10)))</f>
+        <v>0</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -5329,8 +6599,8 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="6">
-        <f>(($C$7*$C$4)/$C$5)*(1-(EXP(-$C$5/$C$4)*A11))</f>
-        <v>37.902438750236435</v>
+        <f t="shared" ref="B11:B50" si="0">(($C$7*$C$4)/$C$5)*(1-(EXP((-$C$5/$C$4)*A11)))</f>
+        <v>4.7273940237383947</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5339,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" ref="B11:B50" si="0">(($C$7*$C$4)/$C$5)*(1-(EXP(-$C$5/$C$4)*A12))</f>
+        <f t="shared" si="0"/>
         <v>9.1196575004728562</v>
       </c>
       <c r="C12" s="6"/>
@@ -5350,7 +6620,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>-19.663123749290719</v>
+        <v>13.200548230583717</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5359,7 +6629,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>-48.445904999054285</v>
+        <v>16.992139795916309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,7 +6638,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>-77.228686248817851</v>
+        <v>20.514940956022521</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,7 +6647,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>-106.01146749858144</v>
+        <v>23.788006580261793</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5386,7 +6656,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>-134.79424874834498</v>
+        <v>26.829040715794388</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +6665,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>-163.57702999810857</v>
+        <v>29.654492348962869</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +6674,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>-192.35981124787216</v>
+        <v>32.279644378036132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,7 +6683,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>-221.14259249763572</v>
+        <v>34.718696278570491</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5422,7 +6692,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>-249.92537374739928</v>
+        <v>36.984840908525634</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +6701,7 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>-278.70815499716286</v>
+        <v>39.090335868575259</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +6710,7 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>-307.49093624692642</v>
+        <v>41.046569803600896</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5449,7 +6719,7 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>-336.27371749668998</v>
+        <v>42.864124003994583</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5458,7 +6728,7 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>-365.0564987464536</v>
+        <v>44.552829639972302</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,7 +6737,7 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>-393.83927999621716</v>
+        <v>46.12182093847953</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +6746,7 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>-422.62206124598072</v>
+        <v>47.579584590322909</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +6755,7 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>-451.40484249574433</v>
+        <v>48.934005654772164</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5494,7 +6764,7 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>-480.18762374550789</v>
+        <v>50.192410209930401</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5503,7 +6773,7 @@
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>-508.97040499527145</v>
+        <v>51.361604979569442</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +6782,7 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>-537.75318624503495</v>
+        <v>52.447914150771865</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +6791,7 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>-566.53596749479857</v>
+        <v>53.457213581526943</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5530,7 +6800,7 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>-595.31874874456219</v>
+        <v>54.394962583309685</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5539,7 +6809,7 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>-624.1015299943258</v>
+        <v>55.266233450555355</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +6818,7 @@
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>-652.8843112440893</v>
+        <v>56.075738896754579</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +6827,7 @@
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>-681.66709249385292</v>
+        <v>56.827857545571341</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5566,7 +6836,7 @@
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>-710.44987374361642</v>
+        <v>57.526657614865385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,7 +6845,7 @@
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>-739.23265499337992</v>
+        <v>58.175918921726499</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +6854,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>-768.01543624314365</v>
+        <v>58.779153327545671</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,7 +6863,7 @@
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>-796.79821749290716</v>
+        <v>59.3396237337112</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5602,7 +6872,7 @@
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>-825.58099874267077</v>
+        <v>59.860361730677376</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,7 +6881,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>-854.36377999243427</v>
+        <v>60.344183995869841</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +6890,7 @@
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>-883.14656124219789</v>
+        <v>60.793707529124056</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +6899,7 @@
       </c>
       <c r="B44" s="6">
         <f t="shared" si="0"/>
-        <v>-911.92934249196139</v>
+        <v>61.211363808065606</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5638,7 +6908,7 @@
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>-940.71212374172501</v>
+        <v>61.599411939998802</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,7 +6917,7 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>-969.49490499148862</v>
+        <v>61.959950881442353</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +6926,7 @@
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>-998.27768624125224</v>
+        <v>62.294930791407793</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +6935,7 @@
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>-1027.0604674910157</v>
+        <v>62.606163579830501</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5674,7 +6944,7 @@
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>-1055.8432487407792</v>
+        <v>62.895332708210084</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,12 +6953,13 @@
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>-1084.626029990543</v>
+        <v>63.164002295471697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5697,11 +6968,12 @@
   <dimension ref="A1:J603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5754,7 +7026,7 @@
         <v>2.39</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f>IF(AND(B3&gt;Threshold,B2&lt;B3,B3&gt;B4), $J$1,$J$2)</f>
+        <f>IF(AND(B3&gt;Threshold,B2&gt;B3), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D3" s="14"/>
@@ -5764,7 +7036,7 @@
       </c>
       <c r="H3" s="20">
         <f>COUNTIF(C2:C601,J1)</f>
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5775,7 +7047,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>IF(AND(B4&gt;Threshold,B3&lt;B4,B4&gt;B5), $J$1,$J$2)</f>
+        <f>IF(AND(B4&gt;Threshold,B3&gt;B4), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D4" s="14"/>
@@ -5798,7 +7070,7 @@
         <v>1.83</v>
       </c>
       <c r="C5" s="14" t="str">
-        <f>IF(AND(B5&gt;Threshold,B4&lt;B5,B5&gt;B6), $J$1,$J$2)</f>
+        <f>IF(AND(B5&gt;Threshold,B4&gt;B5), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D5" s="14"/>
@@ -5814,7 +7086,7 @@
         <v>1.62</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>IF(AND(B6&gt;Threshold,B5&lt;B6,B6&gt;B7), $J$1,$J$2)</f>
+        <f>IF(AND(B6&gt;Threshold,B5&gt;B6), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D6" s="14"/>
@@ -5830,7 +7102,7 @@
         <v>1.74</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>IF(AND(B7&gt;Threshold,B6&lt;B7,B7&gt;B8), $J$1,$J$2)</f>
+        <f>IF(AND(B7&gt;Threshold,B6&gt;B7), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D7" s="14"/>
@@ -5846,7 +7118,7 @@
         <v>1.78</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>IF(AND(B8&gt;Threshold,B7&lt;B8,B8&gt;B9), $J$1,$J$2)</f>
+        <f>IF(AND(B8&gt;Threshold,B7&gt;B8), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D8" s="14"/>
@@ -5862,7 +7134,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>IF(AND(B9&gt;Threshold,B8&lt;B9,B9&gt;B10), $J$1,$J$2)</f>
+        <f>IF(AND(B9&gt;Threshold,B8&gt;B9), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D9" s="14"/>
@@ -5878,8 +7150,8 @@
         <v>4.26</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f>IF(AND(B10&gt;Threshold,B9&lt;B10,B10&gt;B11), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B10&gt;Threshold,B9&gt;B10), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D10" s="14"/>
       <c r="F10" s="14"/>
@@ -5894,7 +7166,7 @@
         <v>2.52</v>
       </c>
       <c r="C11" s="14" t="str">
-        <f>IF(AND(B11&gt;Threshold,B10&lt;B11,B11&gt;B12), $J$1,$J$2)</f>
+        <f>IF(AND(B11&gt;Threshold,B10&gt;B11), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D11" s="14"/>
@@ -5910,7 +7182,7 @@
         <v>2.29</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>IF(AND(B12&gt;Threshold,B11&lt;B12,B12&gt;B13), $J$1,$J$2)</f>
+        <f>IF(AND(B12&gt;Threshold,B11&gt;B12), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D12" s="14"/>
@@ -5926,7 +7198,7 @@
         <v>2.04</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>IF(AND(B13&gt;Threshold,B12&lt;B13,B13&gt;B14), $J$1,$J$2)</f>
+        <f>IF(AND(B13&gt;Threshold,B12&gt;B13), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D13" s="14"/>
@@ -5942,7 +7214,7 @@
         <v>1.72</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>IF(AND(B14&gt;Threshold,B13&lt;B14,B14&gt;B15), $J$1,$J$2)</f>
+        <f>IF(AND(B14&gt;Threshold,B13&gt;B14), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D14" s="14"/>
@@ -5958,7 +7230,7 @@
         <v>1.75</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>IF(AND(B15&gt;Threshold,B14&lt;B15,B15&gt;B16), $J$1,$J$2)</f>
+        <f>IF(AND(B15&gt;Threshold,B14&gt;B15), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D15" s="14"/>
@@ -5974,7 +7246,7 @@
         <v>1.74</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>IF(AND(B16&gt;Threshold,B15&lt;B16,B16&gt;B17), $J$1,$J$2)</f>
+        <f>IF(AND(B16&gt;Threshold,B15&gt;B16), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D16" s="14"/>
@@ -5990,7 +7262,7 @@
         <v>3.46</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>IF(AND(B17&gt;Threshold,B16&lt;B17,B17&gt;B18), $J$1,$J$2)</f>
+        <f>IF(AND(B17&gt;Threshold,B16&gt;B17), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D17" s="14"/>
@@ -6006,8 +7278,8 @@
         <v>4.26</v>
       </c>
       <c r="C18" s="14" t="str">
-        <f>IF(AND(B18&gt;Threshold,B17&lt;B18,B18&gt;B19), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B18&gt;Threshold,B17&gt;B18), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D18" s="14"/>
       <c r="F18" s="14"/>
@@ -6022,7 +7294,7 @@
         <v>2.62</v>
       </c>
       <c r="C19" s="14" t="str">
-        <f>IF(AND(B19&gt;Threshold,B18&lt;B19,B19&gt;B20), $J$1,$J$2)</f>
+        <f>IF(AND(B19&gt;Threshold,B18&gt;B19), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D19" s="14"/>
@@ -6038,7 +7310,7 @@
         <v>2.13</v>
       </c>
       <c r="C20" s="14" t="str">
-        <f>IF(AND(B20&gt;Threshold,B19&lt;B20,B20&gt;B21), $J$1,$J$2)</f>
+        <f>IF(AND(B20&gt;Threshold,B19&gt;B20), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D20" s="14"/>
@@ -6054,7 +7326,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C21" s="14" t="str">
-        <f>IF(AND(B21&gt;Threshold,B20&lt;B21,B21&gt;B22), $J$1,$J$2)</f>
+        <f>IF(AND(B21&gt;Threshold,B20&gt;B21), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D21" s="14"/>
@@ -6070,7 +7342,7 @@
         <v>1.77</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>IF(AND(B22&gt;Threshold,B21&lt;B22,B22&gt;B23), $J$1,$J$2)</f>
+        <f>IF(AND(B22&gt;Threshold,B21&gt;B22), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D22" s="14"/>
@@ -6086,7 +7358,7 @@
         <v>1.64</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>IF(AND(B23&gt;Threshold,B22&lt;B23,B23&gt;B24), $J$1,$J$2)</f>
+        <f>IF(AND(B23&gt;Threshold,B22&gt;B23), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D23" s="14"/>
@@ -6102,7 +7374,7 @@
         <v>1.8</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>IF(AND(B24&gt;Threshold,B23&lt;B24,B24&gt;B25), $J$1,$J$2)</f>
+        <f>IF(AND(B24&gt;Threshold,B23&gt;B24), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D24" s="14"/>
@@ -6118,7 +7390,7 @@
         <v>3.18</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>IF(AND(B25&gt;Threshold,B24&lt;B25,B25&gt;B26), $J$1,$J$2)</f>
+        <f>IF(AND(B25&gt;Threshold,B24&gt;B25), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D25" s="14"/>
@@ -6134,8 +7406,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C26" s="14" t="str">
-        <f>IF(AND(B26&gt;Threshold,B25&lt;B26,B26&gt;B27), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B26&gt;Threshold,B25&gt;B26), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D26" s="14"/>
       <c r="F26" s="14"/>
@@ -6150,7 +7422,7 @@
         <v>2.71</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>IF(AND(B27&gt;Threshold,B26&lt;B27,B27&gt;B28), $J$1,$J$2)</f>
+        <f>IF(AND(B27&gt;Threshold,B26&gt;B27), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D27" s="14"/>
@@ -6166,7 +7438,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C28" s="14" t="str">
-        <f>IF(AND(B28&gt;Threshold,B27&lt;B28,B28&gt;B29), $J$1,$J$2)</f>
+        <f>IF(AND(B28&gt;Threshold,B27&gt;B28), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D28" s="14"/>
@@ -6182,7 +7454,7 @@
         <v>2.13</v>
       </c>
       <c r="C29" s="14" t="str">
-        <f>IF(AND(B29&gt;Threshold,B28&lt;B29,B29&gt;B30), $J$1,$J$2)</f>
+        <f>IF(AND(B29&gt;Threshold,B28&gt;B29), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D29" s="14"/>
@@ -6198,7 +7470,7 @@
         <v>1.81</v>
       </c>
       <c r="C30" s="14" t="str">
-        <f>IF(AND(B30&gt;Threshold,B29&lt;B30,B30&gt;B31), $J$1,$J$2)</f>
+        <f>IF(AND(B30&gt;Threshold,B29&gt;B30), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D30" s="14"/>
@@ -6214,7 +7486,7 @@
         <v>1.52</v>
       </c>
       <c r="C31" s="14" t="str">
-        <f>IF(AND(B31&gt;Threshold,B30&lt;B31,B31&gt;B32), $J$1,$J$2)</f>
+        <f>IF(AND(B31&gt;Threshold,B30&gt;B31), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D31" s="14"/>
@@ -6230,7 +7502,7 @@
         <v>1.78</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>IF(AND(B32&gt;Threshold,B31&lt;B32,B32&gt;B33), $J$1,$J$2)</f>
+        <f>IF(AND(B32&gt;Threshold,B31&gt;B32), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D32" s="14"/>
@@ -6246,7 +7518,7 @@
         <v>3.09</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>IF(AND(B33&gt;Threshold,B32&lt;B33,B33&gt;B34), $J$1,$J$2)</f>
+        <f>IF(AND(B33&gt;Threshold,B32&gt;B33), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D33" s="14"/>
@@ -6262,8 +7534,8 @@
         <v>4.43</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>IF(AND(B34&gt;Threshold,B33&lt;B34,B34&gt;B35), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B34&gt;Threshold,B33&gt;B34), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D34" s="14"/>
       <c r="F34" s="14"/>
@@ -6278,7 +7550,7 @@
         <v>2.99</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>IF(AND(B35&gt;Threshold,B34&lt;B35,B35&gt;B36), $J$1,$J$2)</f>
+        <f>IF(AND(B35&gt;Threshold,B34&gt;B35), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D35" s="14"/>
@@ -6294,7 +7566,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>IF(AND(B36&gt;Threshold,B35&lt;B36,B36&gt;B37), $J$1,$J$2)</f>
+        <f>IF(AND(B36&gt;Threshold,B35&gt;B36), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D36" s="14"/>
@@ -6310,7 +7582,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>IF(AND(B37&gt;Threshold,B36&lt;B37,B37&gt;B38), $J$1,$J$2)</f>
+        <f>IF(AND(B37&gt;Threshold,B36&gt;B37), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D37" s="14"/>
@@ -6326,7 +7598,7 @@
         <v>1.8</v>
       </c>
       <c r="C38" s="14" t="str">
-        <f>IF(AND(B38&gt;Threshold,B37&lt;B38,B38&gt;B39), $J$1,$J$2)</f>
+        <f>IF(AND(B38&gt;Threshold,B37&gt;B38), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D38" s="14"/>
@@ -6342,7 +7614,7 @@
         <v>1.64</v>
       </c>
       <c r="C39" s="14" t="str">
-        <f>IF(AND(B39&gt;Threshold,B38&lt;B39,B39&gt;B40), $J$1,$J$2)</f>
+        <f>IF(AND(B39&gt;Threshold,B38&gt;B39), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D39" s="14"/>
@@ -6358,7 +7630,7 @@
         <v>1.68</v>
       </c>
       <c r="C40" s="14" t="str">
-        <f>IF(AND(B40&gt;Threshold,B39&lt;B40,B40&gt;B41), $J$1,$J$2)</f>
+        <f>IF(AND(B40&gt;Threshold,B39&gt;B40), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D40" s="14"/>
@@ -6374,7 +7646,7 @@
         <v>3.03</v>
       </c>
       <c r="C41" s="14" t="str">
-        <f>IF(AND(B41&gt;Threshold,B40&lt;B41,B41&gt;B42), $J$1,$J$2)</f>
+        <f>IF(AND(B41&gt;Threshold,B40&gt;B41), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D41" s="14"/>
@@ -6390,8 +7662,8 @@
         <v>4.58</v>
       </c>
       <c r="C42" s="14" t="str">
-        <f>IF(AND(B42&gt;Threshold,B41&lt;B42,B42&gt;B43), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B42&gt;Threshold,B41&gt;B42), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D42" s="14"/>
       <c r="F42" s="14"/>
@@ -6406,7 +7678,7 @@
         <v>2.99</v>
       </c>
       <c r="C43" s="14" t="str">
-        <f>IF(AND(B43&gt;Threshold,B42&lt;B43,B43&gt;B44), $J$1,$J$2)</f>
+        <f>IF(AND(B43&gt;Threshold,B42&gt;B43), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D43" s="14"/>
@@ -6422,7 +7694,7 @@
         <v>2.15</v>
       </c>
       <c r="C44" s="14" t="str">
-        <f>IF(AND(B44&gt;Threshold,B43&lt;B44,B44&gt;B45), $J$1,$J$2)</f>
+        <f>IF(AND(B44&gt;Threshold,B43&gt;B44), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D44" s="14"/>
@@ -6438,7 +7710,7 @@
         <v>2.16</v>
       </c>
       <c r="C45" s="14" t="str">
-        <f>IF(AND(B45&gt;Threshold,B44&lt;B45,B45&gt;B46), $J$1,$J$2)</f>
+        <f>IF(AND(B45&gt;Threshold,B44&gt;B45), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D45" s="14"/>
@@ -6454,7 +7726,7 @@
         <v>1.87</v>
       </c>
       <c r="C46" s="14" t="str">
-        <f>IF(AND(B46&gt;Threshold,B45&lt;B46,B46&gt;B47), $J$1,$J$2)</f>
+        <f>IF(AND(B46&gt;Threshold,B45&gt;B46), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D46" s="14"/>
@@ -6470,7 +7742,7 @@
         <v>1.63</v>
       </c>
       <c r="C47" s="14" t="str">
-        <f>IF(AND(B47&gt;Threshold,B46&lt;B47,B47&gt;B48), $J$1,$J$2)</f>
+        <f>IF(AND(B47&gt;Threshold,B46&gt;B47), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D47" s="14"/>
@@ -6486,7 +7758,7 @@
         <v>1.76</v>
       </c>
       <c r="C48" s="14" t="str">
-        <f>IF(AND(B48&gt;Threshold,B47&lt;B48,B48&gt;B49), $J$1,$J$2)</f>
+        <f>IF(AND(B48&gt;Threshold,B47&gt;B48), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D48" s="14"/>
@@ -6502,7 +7774,7 @@
         <v>2.6</v>
       </c>
       <c r="C49" s="14" t="str">
-        <f>IF(AND(B49&gt;Threshold,B48&lt;B49,B49&gt;B50), $J$1,$J$2)</f>
+        <f>IF(AND(B49&gt;Threshold,B48&gt;B49), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D49" s="14"/>
@@ -6518,8 +7790,8 @@
         <v>4.63</v>
       </c>
       <c r="C50" s="14" t="str">
-        <f>IF(AND(B50&gt;Threshold,B49&lt;B50,B50&gt;B51), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B50&gt;Threshold,B49&gt;B50), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D50" s="14"/>
       <c r="F50" s="14"/>
@@ -6534,8 +7806,8 @@
         <v>3.53</v>
       </c>
       <c r="C51" s="14" t="str">
-        <f>IF(AND(B51&gt;Threshold,B50&lt;B51,B51&gt;B52), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B51&gt;Threshold,B50&gt;B51), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D51" s="14"/>
       <c r="F51" s="14"/>
@@ -6550,7 +7822,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C52" s="14" t="str">
-        <f>IF(AND(B52&gt;Threshold,B51&lt;B52,B52&gt;B53), $J$1,$J$2)</f>
+        <f>IF(AND(B52&gt;Threshold,B51&gt;B52), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D52" s="14"/>
@@ -6566,7 +7838,7 @@
         <v>2.29</v>
       </c>
       <c r="C53" s="14" t="str">
-        <f>IF(AND(B53&gt;Threshold,B52&lt;B53,B53&gt;B54), $J$1,$J$2)</f>
+        <f>IF(AND(B53&gt;Threshold,B52&gt;B53), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D53" s="14"/>
@@ -6582,7 +7854,7 @@
         <v>1.73</v>
       </c>
       <c r="C54" s="14" t="str">
-        <f>IF(AND(B54&gt;Threshold,B53&lt;B54,B54&gt;B55), $J$1,$J$2)</f>
+        <f>IF(AND(B54&gt;Threshold,B53&gt;B54), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D54" s="14"/>
@@ -6598,7 +7870,7 @@
         <v>1.66</v>
       </c>
       <c r="C55" s="14" t="str">
-        <f>IF(AND(B55&gt;Threshold,B54&lt;B55,B55&gt;B56), $J$1,$J$2)</f>
+        <f>IF(AND(B55&gt;Threshold,B54&gt;B55), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D55" s="14"/>
@@ -6614,7 +7886,7 @@
         <v>1.76</v>
       </c>
       <c r="C56" s="14" t="str">
-        <f>IF(AND(B56&gt;Threshold,B55&lt;B56,B56&gt;B57), $J$1,$J$2)</f>
+        <f>IF(AND(B56&gt;Threshold,B55&gt;B56), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D56" s="14"/>
@@ -6630,7 +7902,7 @@
         <v>2.42</v>
       </c>
       <c r="C57" s="14" t="str">
-        <f>IF(AND(B57&gt;Threshold,B56&lt;B57,B57&gt;B58), $J$1,$J$2)</f>
+        <f>IF(AND(B57&gt;Threshold,B56&gt;B57), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D57" s="14"/>
@@ -6646,8 +7918,8 @@
         <v>4.57</v>
       </c>
       <c r="C58" s="14" t="str">
-        <f>IF(AND(B58&gt;Threshold,B57&lt;B58,B58&gt;B59), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B58&gt;Threshold,B57&gt;B58), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D58" s="14"/>
       <c r="F58" s="14"/>
@@ -6662,8 +7934,8 @@
         <v>3.33</v>
       </c>
       <c r="C59" s="14" t="str">
-        <f>IF(AND(B59&gt;Threshold,B58&lt;B59,B59&gt;B60), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B59&gt;Threshold,B58&gt;B59), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D59" s="14"/>
       <c r="F59" s="14"/>
@@ -6678,7 +7950,7 @@
         <v>2.16</v>
       </c>
       <c r="C60" s="14" t="str">
-        <f>IF(AND(B60&gt;Threshold,B59&lt;B60,B60&gt;B61), $J$1,$J$2)</f>
+        <f>IF(AND(B60&gt;Threshold,B59&gt;B60), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D60" s="14"/>
@@ -6694,7 +7966,7 @@
         <v>2.12</v>
       </c>
       <c r="C61" s="14" t="str">
-        <f>IF(AND(B61&gt;Threshold,B60&lt;B61,B61&gt;B62), $J$1,$J$2)</f>
+        <f>IF(AND(B61&gt;Threshold,B60&gt;B61), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D61" s="14"/>
@@ -6710,7 +7982,7 @@
         <v>1.76</v>
       </c>
       <c r="C62" s="14" t="str">
-        <f>IF(AND(B62&gt;Threshold,B61&lt;B62,B62&gt;B63), $J$1,$J$2)</f>
+        <f>IF(AND(B62&gt;Threshold,B61&gt;B62), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D62" s="14"/>
@@ -6726,7 +7998,7 @@
         <v>1.65</v>
       </c>
       <c r="C63" s="14" t="str">
-        <f>IF(AND(B63&gt;Threshold,B62&lt;B63,B63&gt;B64), $J$1,$J$2)</f>
+        <f>IF(AND(B63&gt;Threshold,B62&gt;B63), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D63" s="14"/>
@@ -6742,7 +8014,7 @@
         <v>1.75</v>
       </c>
       <c r="C64" s="14" t="str">
-        <f>IF(AND(B64&gt;Threshold,B63&lt;B64,B64&gt;B65), $J$1,$J$2)</f>
+        <f>IF(AND(B64&gt;Threshold,B63&gt;B64), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D64" s="14"/>
@@ -6758,7 +8030,7 @@
         <v>2.57</v>
       </c>
       <c r="C65" s="14" t="str">
-        <f>IF(AND(B65&gt;Threshold,B64&lt;B65,B65&gt;B66), $J$1,$J$2)</f>
+        <f>IF(AND(B65&gt;Threshold,B64&gt;B65), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D65" s="14"/>
@@ -6774,8 +8046,8 @@
         <v>4.62</v>
       </c>
       <c r="C66" s="14" t="str">
-        <f>IF(AND(B66&gt;Threshold,B65&lt;B66,B66&gt;B67), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B66&gt;Threshold,B65&gt;B66), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D66" s="14"/>
       <c r="F66" s="14"/>
@@ -6790,8 +8062,8 @@
         <v>3.18</v>
       </c>
       <c r="C67" s="14" t="str">
-        <f>IF(AND(B67&gt;Threshold,B66&lt;B67,B67&gt;B68), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B67&gt;Threshold,B66&gt;B67), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D67" s="14"/>
       <c r="F67" s="14"/>
@@ -6806,7 +8078,7 @@
         <v>2.14</v>
       </c>
       <c r="C68" s="14" t="str">
-        <f>IF(AND(B68&gt;Threshold,B67&lt;B68,B68&gt;B69), $J$1,$J$2)</f>
+        <f>IF(AND(B68&gt;Threshold,B67&gt;B68), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D68" s="14"/>
@@ -6822,7 +8094,7 @@
         <v>2.14</v>
       </c>
       <c r="C69" s="14" t="str">
-        <f>IF(AND(B69&gt;Threshold,B68&lt;B69,B69&gt;B70), $J$1,$J$2)</f>
+        <f>IF(AND(B69&gt;Threshold,B68&gt;B69), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D69" s="14"/>
@@ -6838,7 +8110,7 @@
         <v>1.7</v>
       </c>
       <c r="C70" s="14" t="str">
-        <f>IF(AND(B70&gt;Threshold,B69&lt;B70,B70&gt;B71), $J$1,$J$2)</f>
+        <f>IF(AND(B70&gt;Threshold,B69&gt;B70), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D70" s="14"/>
@@ -6854,7 +8126,7 @@
         <v>1.58</v>
       </c>
       <c r="C71" s="14" t="str">
-        <f>IF(AND(B71&gt;Threshold,B70&lt;B71,B71&gt;B72), $J$1,$J$2)</f>
+        <f>IF(AND(B71&gt;Threshold,B70&gt;B71), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D71" s="14"/>
@@ -6870,7 +8142,7 @@
         <v>1.71</v>
       </c>
       <c r="C72" s="14" t="str">
-        <f>IF(AND(B72&gt;Threshold,B71&lt;B72,B72&gt;B73), $J$1,$J$2)</f>
+        <f>IF(AND(B72&gt;Threshold,B71&gt;B72), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D72" s="14"/>
@@ -6886,7 +8158,7 @@
         <v>2.39</v>
       </c>
       <c r="C73" s="14" t="str">
-        <f>IF(AND(B73&gt;Threshold,B72&lt;B73,B73&gt;B74), $J$1,$J$2)</f>
+        <f>IF(AND(B73&gt;Threshold,B72&gt;B73), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D73" s="14"/>
@@ -6902,8 +8174,8 @@
         <v>4.37</v>
       </c>
       <c r="C74" s="14" t="str">
-        <f>IF(AND(B74&gt;Threshold,B73&lt;B74,B74&gt;B75), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B74&gt;Threshold,B73&gt;B74), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
@@ -6918,7 +8190,7 @@
         <v>2.99</v>
       </c>
       <c r="C75" s="14" t="str">
-        <f>IF(AND(B75&gt;Threshold,B74&lt;B75,B75&gt;B76), $J$1,$J$2)</f>
+        <f>IF(AND(B75&gt;Threshold,B74&gt;B75), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D75" s="14"/>
@@ -6934,7 +8206,7 @@
         <v>1.88</v>
       </c>
       <c r="C76" s="14" t="str">
-        <f>IF(AND(B76&gt;Threshold,B75&lt;B76,B76&gt;B77), $J$1,$J$2)</f>
+        <f>IF(AND(B76&gt;Threshold,B75&gt;B76), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D76" s="14"/>
@@ -6950,7 +8222,7 @@
         <v>1.88</v>
       </c>
       <c r="C77" s="14" t="str">
-        <f>IF(AND(B77&gt;Threshold,B76&lt;B77,B77&gt;B78), $J$1,$J$2)</f>
+        <f>IF(AND(B77&gt;Threshold,B76&gt;B77), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D77" s="14"/>
@@ -6966,7 +8238,7 @@
         <v>1.63</v>
       </c>
       <c r="C78" s="14" t="str">
-        <f>IF(AND(B78&gt;Threshold,B77&lt;B78,B78&gt;B79), $J$1,$J$2)</f>
+        <f>IF(AND(B78&gt;Threshold,B77&gt;B78), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D78" s="14"/>
@@ -6982,7 +8254,7 @@
         <v>1.58</v>
       </c>
       <c r="C79" s="14" t="str">
-        <f>IF(AND(B79&gt;Threshold,B78&lt;B79,B79&gt;B80), $J$1,$J$2)</f>
+        <f>IF(AND(B79&gt;Threshold,B78&gt;B79), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D79" s="14"/>
@@ -6998,7 +8270,7 @@
         <v>1.55</v>
       </c>
       <c r="C80" s="14" t="str">
-        <f>IF(AND(B80&gt;Threshold,B79&lt;B80,B80&gt;B81), $J$1,$J$2)</f>
+        <f>IF(AND(B80&gt;Threshold,B79&gt;B80), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D80" s="14"/>
@@ -7014,7 +8286,7 @@
         <v>1.82</v>
       </c>
       <c r="C81" s="14" t="str">
-        <f>IF(AND(B81&gt;Threshold,B80&lt;B81,B81&gt;B82), $J$1,$J$2)</f>
+        <f>IF(AND(B81&gt;Threshold,B80&gt;B81), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D81" s="14"/>
@@ -7030,8 +8302,8 @@
         <v>3.76</v>
       </c>
       <c r="C82" s="14" t="str">
-        <f>IF(AND(B82&gt;Threshold,B81&lt;B82,B82&gt;B83), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B82&gt;Threshold,B81&gt;B82), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D82" s="14"/>
       <c r="F82" s="14"/>
@@ -7046,8 +8318,8 @@
         <v>3.09</v>
       </c>
       <c r="C83" s="14" t="str">
-        <f>IF(AND(B83&gt;Threshold,B82&lt;B83,B83&gt;B84), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B83&gt;Threshold,B82&gt;B83), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D83" s="14"/>
       <c r="F83" s="14"/>
@@ -7062,7 +8334,7 @@
         <v>2.09</v>
       </c>
       <c r="C84" s="14" t="str">
-        <f>IF(AND(B84&gt;Threshold,B83&lt;B84,B84&gt;B85), $J$1,$J$2)</f>
+        <f>IF(AND(B84&gt;Threshold,B83&gt;B84), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D84" s="14"/>
@@ -7078,7 +8350,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C85" s="14" t="str">
-        <f>IF(AND(B85&gt;Threshold,B84&lt;B85,B85&gt;B86), $J$1,$J$2)</f>
+        <f>IF(AND(B85&gt;Threshold,B84&gt;B85), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D85" s="14"/>
@@ -7094,7 +8366,7 @@
         <v>1.87</v>
       </c>
       <c r="C86" s="14" t="str">
-        <f>IF(AND(B86&gt;Threshold,B85&lt;B86,B86&gt;B87), $J$1,$J$2)</f>
+        <f>IF(AND(B86&gt;Threshold,B85&gt;B86), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D86" s="14"/>
@@ -7110,7 +8382,7 @@
         <v>1.66</v>
       </c>
       <c r="C87" s="14" t="str">
-        <f>IF(AND(B87&gt;Threshold,B86&lt;B87,B87&gt;B88), $J$1,$J$2)</f>
+        <f>IF(AND(B87&gt;Threshold,B86&gt;B87), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D87" s="14"/>
@@ -7126,7 +8398,7 @@
         <v>1.79</v>
       </c>
       <c r="C88" s="14" t="str">
-        <f>IF(AND(B88&gt;Threshold,B87&lt;B88,B88&gt;B89), $J$1,$J$2)</f>
+        <f>IF(AND(B88&gt;Threshold,B87&gt;B88), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D88" s="14"/>
@@ -7142,7 +8414,7 @@
         <v>1.86</v>
       </c>
       <c r="C89" s="14" t="str">
-        <f>IF(AND(B89&gt;Threshold,B88&lt;B89,B89&gt;B90), $J$1,$J$2)</f>
+        <f>IF(AND(B89&gt;Threshold,B88&gt;B89), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D89" s="14"/>
@@ -7158,7 +8430,7 @@
         <v>3.33</v>
       </c>
       <c r="C90" s="14" t="str">
-        <f>IF(AND(B90&gt;Threshold,B89&lt;B90,B90&gt;B91), $J$1,$J$2)</f>
+        <f>IF(AND(B90&gt;Threshold,B89&gt;B90), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D90" s="14"/>
@@ -7174,8 +8446,8 @@
         <v>3.73</v>
       </c>
       <c r="C91" s="14" t="str">
-        <f>IF(AND(B91&gt;Threshold,B90&lt;B91,B91&gt;B92), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B91&gt;Threshold,B90&gt;B91), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D91" s="14"/>
       <c r="F91" s="14"/>
@@ -7190,7 +8462,7 @@
         <v>2.48</v>
       </c>
       <c r="C92" s="14" t="str">
-        <f>IF(AND(B92&gt;Threshold,B91&lt;B92,B92&gt;B93), $J$1,$J$2)</f>
+        <f>IF(AND(B92&gt;Threshold,B91&gt;B92), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D92" s="14"/>
@@ -7206,7 +8478,7 @@
         <v>2.23</v>
       </c>
       <c r="C93" s="14" t="str">
-        <f>IF(AND(B93&gt;Threshold,B92&lt;B93,B93&gt;B94), $J$1,$J$2)</f>
+        <f>IF(AND(B93&gt;Threshold,B92&gt;B93), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D93" s="14"/>
@@ -7222,7 +8494,7 @@
         <v>2.11</v>
       </c>
       <c r="C94" s="14" t="str">
-        <f>IF(AND(B94&gt;Threshold,B93&lt;B94,B94&gt;B95), $J$1,$J$2)</f>
+        <f>IF(AND(B94&gt;Threshold,B93&gt;B94), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D94" s="14"/>
@@ -7238,7 +8510,7 @@
         <v>1.85</v>
       </c>
       <c r="C95" s="14" t="str">
-        <f>IF(AND(B95&gt;Threshold,B94&lt;B95,B95&gt;B96), $J$1,$J$2)</f>
+        <f>IF(AND(B95&gt;Threshold,B94&gt;B95), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D95" s="14"/>
@@ -7254,7 +8526,7 @@
         <v>1.9</v>
       </c>
       <c r="C96" s="14" t="str">
-        <f>IF(AND(B96&gt;Threshold,B95&lt;B96,B96&gt;B97), $J$1,$J$2)</f>
+        <f>IF(AND(B96&gt;Threshold,B95&gt;B96), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D96" s="14"/>
@@ -7270,7 +8542,7 @@
         <v>1.9</v>
       </c>
       <c r="C97" s="14" t="str">
-        <f>IF(AND(B97&gt;Threshold,B96&lt;B97,B97&gt;B98), $J$1,$J$2)</f>
+        <f>IF(AND(B97&gt;Threshold,B96&gt;B97), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D97" s="14"/>
@@ -7286,7 +8558,7 @@
         <v>2.89</v>
       </c>
       <c r="C98" s="14" t="str">
-        <f>IF(AND(B98&gt;Threshold,B97&lt;B98,B98&gt;B99), $J$1,$J$2)</f>
+        <f>IF(AND(B98&gt;Threshold,B97&gt;B98), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D98" s="14"/>
@@ -7302,8 +8574,8 @@
         <v>3.87</v>
       </c>
       <c r="C99" s="14" t="str">
-        <f>IF(AND(B99&gt;Threshold,B98&lt;B99,B99&gt;B100), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B99&gt;Threshold,B98&gt;B99), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D99" s="14"/>
       <c r="F99" s="14"/>
@@ -7318,7 +8590,7 @@
         <v>2.56</v>
       </c>
       <c r="C100" s="14" t="str">
-        <f>IF(AND(B100&gt;Threshold,B99&lt;B100,B100&gt;B101), $J$1,$J$2)</f>
+        <f>IF(AND(B100&gt;Threshold,B99&gt;B100), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D100" s="14"/>
@@ -7334,7 +8606,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C101" s="14" t="str">
-        <f>IF(AND(B101&gt;Threshold,B100&lt;B101,B101&gt;B102), $J$1,$J$2)</f>
+        <f>IF(AND(B101&gt;Threshold,B100&gt;B101), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D101" s="14"/>
@@ -7350,7 +8622,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C102" s="14" t="str">
-        <f>IF(AND(B102&gt;Threshold,B101&lt;B102,B102&gt;B103), $J$1,$J$2)</f>
+        <f>IF(AND(B102&gt;Threshold,B101&gt;B102), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D102" s="14"/>
@@ -7366,7 +8638,7 @@
         <v>1.87</v>
       </c>
       <c r="C103" s="14" t="str">
-        <f>IF(AND(B103&gt;Threshold,B102&lt;B103,B103&gt;B104), $J$1,$J$2)</f>
+        <f>IF(AND(B103&gt;Threshold,B102&gt;B103), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D103" s="14"/>
@@ -7382,7 +8654,7 @@
         <v>1.86</v>
       </c>
       <c r="C104" s="14" t="str">
-        <f>IF(AND(B104&gt;Threshold,B103&lt;B104,B104&gt;B105), $J$1,$J$2)</f>
+        <f>IF(AND(B104&gt;Threshold,B103&gt;B104), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D104" s="14"/>
@@ -7398,7 +8670,7 @@
         <v>1.88</v>
       </c>
       <c r="C105" s="14" t="str">
-        <f>IF(AND(B105&gt;Threshold,B104&lt;B105,B105&gt;B106), $J$1,$J$2)</f>
+        <f>IF(AND(B105&gt;Threshold,B104&gt;B105), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D105" s="14"/>
@@ -7414,7 +8686,7 @@
         <v>2.74</v>
       </c>
       <c r="C106" s="14" t="str">
-        <f>IF(AND(B106&gt;Threshold,B105&lt;B106,B106&gt;B107), $J$1,$J$2)</f>
+        <f>IF(AND(B106&gt;Threshold,B105&gt;B106), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D106" s="14"/>
@@ -7430,8 +8702,8 @@
         <v>3.94</v>
       </c>
       <c r="C107" s="14" t="str">
-        <f>IF(AND(B107&gt;Threshold,B106&lt;B107,B107&gt;B108), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B107&gt;Threshold,B106&gt;B107), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D107" s="14"/>
       <c r="F107" s="14"/>
@@ -7446,7 +8718,7 @@
         <v>2.66</v>
       </c>
       <c r="C108" s="14" t="str">
-        <f>IF(AND(B108&gt;Threshold,B107&lt;B108,B108&gt;B109), $J$1,$J$2)</f>
+        <f>IF(AND(B108&gt;Threshold,B107&gt;B108), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D108" s="14"/>
@@ -7462,7 +8734,7 @@
         <v>2.21</v>
       </c>
       <c r="C109" s="14" t="str">
-        <f>IF(AND(B109&gt;Threshold,B108&lt;B109,B109&gt;B110), $J$1,$J$2)</f>
+        <f>IF(AND(B109&gt;Threshold,B108&gt;B109), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D109" s="14"/>
@@ -7478,7 +8750,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C110" s="14" t="str">
-        <f>IF(AND(B110&gt;Threshold,B109&lt;B110,B110&gt;B111), $J$1,$J$2)</f>
+        <f>IF(AND(B110&gt;Threshold,B109&gt;B110), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D110" s="14"/>
@@ -7494,7 +8766,7 @@
         <v>1.92</v>
       </c>
       <c r="C111" s="14" t="str">
-        <f>IF(AND(B111&gt;Threshold,B110&lt;B111,B111&gt;B112), $J$1,$J$2)</f>
+        <f>IF(AND(B111&gt;Threshold,B110&gt;B111), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D111" s="14"/>
@@ -7510,7 +8782,7 @@
         <v>1.82</v>
       </c>
       <c r="C112" s="14" t="str">
-        <f>IF(AND(B112&gt;Threshold,B111&lt;B112,B112&gt;B113), $J$1,$J$2)</f>
+        <f>IF(AND(B112&gt;Threshold,B111&gt;B112), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D112" s="14"/>
@@ -7526,7 +8798,7 @@
         <v>1.91</v>
       </c>
       <c r="C113" s="14" t="str">
-        <f>IF(AND(B113&gt;Threshold,B112&lt;B113,B113&gt;B114), $J$1,$J$2)</f>
+        <f>IF(AND(B113&gt;Threshold,B112&gt;B113), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D113" s="14"/>
@@ -7542,7 +8814,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C114" s="14" t="str">
-        <f>IF(AND(B114&gt;Threshold,B113&lt;B114,B114&gt;B115), $J$1,$J$2)</f>
+        <f>IF(AND(B114&gt;Threshold,B113&gt;B114), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D114" s="14"/>
@@ -7558,8 +8830,8 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C115" s="14" t="str">
-        <f>IF(AND(B115&gt;Threshold,B114&lt;B115,B115&gt;B116), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B115&gt;Threshold,B114&gt;B115), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D115" s="14"/>
       <c r="F115" s="14"/>
@@ -7574,7 +8846,7 @@
         <v>2.95</v>
       </c>
       <c r="C116" s="14" t="str">
-        <f>IF(AND(B116&gt;Threshold,B115&lt;B116,B116&gt;B117), $J$1,$J$2)</f>
+        <f>IF(AND(B116&gt;Threshold,B115&gt;B116), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D116" s="14"/>
@@ -7590,7 +8862,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C117" s="14" t="str">
-        <f>IF(AND(B117&gt;Threshold,B116&lt;B117,B117&gt;B118), $J$1,$J$2)</f>
+        <f>IF(AND(B117&gt;Threshold,B116&gt;B117), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D117" s="14"/>
@@ -7606,7 +8878,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C118" s="14" t="str">
-        <f>IF(AND(B118&gt;Threshold,B117&lt;B118,B118&gt;B119), $J$1,$J$2)</f>
+        <f>IF(AND(B118&gt;Threshold,B117&gt;B118), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D118" s="14"/>
@@ -7622,7 +8894,7 @@
         <v>1.97</v>
       </c>
       <c r="C119" s="14" t="str">
-        <f>IF(AND(B119&gt;Threshold,B118&lt;B119,B119&gt;B120), $J$1,$J$2)</f>
+        <f>IF(AND(B119&gt;Threshold,B118&gt;B119), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D119" s="14"/>
@@ -7638,7 +8910,7 @@
         <v>1.91</v>
       </c>
       <c r="C120" s="14" t="str">
-        <f>IF(AND(B120&gt;Threshold,B119&lt;B120,B120&gt;B121), $J$1,$J$2)</f>
+        <f>IF(AND(B120&gt;Threshold,B119&gt;B120), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D120" s="14"/>
@@ -7654,7 +8926,7 @@
         <v>1.93</v>
       </c>
       <c r="C121" s="14" t="str">
-        <f>IF(AND(B121&gt;Threshold,B120&lt;B121,B121&gt;B122), $J$1,$J$2)</f>
+        <f>IF(AND(B121&gt;Threshold,B120&gt;B121), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D121" s="14"/>
@@ -7670,7 +8942,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C122" s="14" t="str">
-        <f>IF(AND(B122&gt;Threshold,B121&lt;B122,B122&gt;B123), $J$1,$J$2)</f>
+        <f>IF(AND(B122&gt;Threshold,B121&gt;B122), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D122" s="14"/>
@@ -7686,8 +8958,8 @@
         <v>3.97</v>
       </c>
       <c r="C123" s="14" t="str">
-        <f>IF(AND(B123&gt;Threshold,B122&lt;B123,B123&gt;B124), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B123&gt;Threshold,B122&gt;B123), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D123" s="14"/>
       <c r="F123" s="14"/>
@@ -7702,8 +8974,8 @@
         <v>3.01</v>
       </c>
       <c r="C124" s="14" t="str">
-        <f>IF(AND(B124&gt;Threshold,B123&lt;B124,B124&gt;B125), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B124&gt;Threshold,B123&gt;B124), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D124" s="14"/>
       <c r="F124" s="14"/>
@@ -7718,7 +8990,7 @@
         <v>2.31</v>
       </c>
       <c r="C125" s="14" t="str">
-        <f>IF(AND(B125&gt;Threshold,B124&lt;B125,B125&gt;B126), $J$1,$J$2)</f>
+        <f>IF(AND(B125&gt;Threshold,B124&gt;B125), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D125" s="14"/>
@@ -7734,7 +9006,7 @@
         <v>2.23</v>
       </c>
       <c r="C126" s="14" t="str">
-        <f>IF(AND(B126&gt;Threshold,B125&lt;B126,B126&gt;B127), $J$1,$J$2)</f>
+        <f>IF(AND(B126&gt;Threshold,B125&gt;B126), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D126" s="14"/>
@@ -7750,7 +9022,7 @@
         <v>2.12</v>
       </c>
       <c r="C127" s="14" t="str">
-        <f>IF(AND(B127&gt;Threshold,B126&lt;B127,B127&gt;B128), $J$1,$J$2)</f>
+        <f>IF(AND(B127&gt;Threshold,B126&gt;B127), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D127" s="14"/>
@@ -7766,7 +9038,7 @@
         <v>1.86</v>
       </c>
       <c r="C128" s="14" t="str">
-        <f>IF(AND(B128&gt;Threshold,B127&lt;B128,B128&gt;B129), $J$1,$J$2)</f>
+        <f>IF(AND(B128&gt;Threshold,B127&gt;B128), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D128" s="14"/>
@@ -7782,7 +9054,7 @@
         <v>1.94</v>
       </c>
       <c r="C129" s="14" t="str">
-        <f>IF(AND(B129&gt;Threshold,B128&lt;B129,B129&gt;B130), $J$1,$J$2)</f>
+        <f>IF(AND(B129&gt;Threshold,B128&gt;B129), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D129" s="14"/>
@@ -7798,7 +9070,7 @@
         <v>2.16</v>
       </c>
       <c r="C130" s="14" t="str">
-        <f>IF(AND(B130&gt;Threshold,B129&lt;B130,B130&gt;B131), $J$1,$J$2)</f>
+        <f>IF(AND(B130&gt;Threshold,B129&gt;B130), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D130" s="14"/>
@@ -7814,8 +9086,8 @@
         <v>3.94</v>
       </c>
       <c r="C131" s="14" t="str">
-        <f>IF(AND(B131&gt;Threshold,B130&lt;B131,B131&gt;B132), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B131&gt;Threshold,B130&gt;B131), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D131" s="14"/>
       <c r="F131" s="14"/>
@@ -7830,8 +9102,8 @@
         <v>3.14</v>
       </c>
       <c r="C132" s="14" t="str">
-        <f>IF(AND(B132&gt;Threshold,B131&lt;B132,B132&gt;B133), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B132&gt;Threshold,B131&gt;B132), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D132" s="14"/>
       <c r="F132" s="14"/>
@@ -7846,7 +9118,7 @@
         <v>2.27</v>
       </c>
       <c r="C133" s="14" t="str">
-        <f>IF(AND(B133&gt;Threshold,B132&lt;B133,B133&gt;B134), $J$1,$J$2)</f>
+        <f>IF(AND(B133&gt;Threshold,B132&gt;B133), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D133" s="14"/>
@@ -7862,7 +9134,7 @@
         <v>2.35</v>
       </c>
       <c r="C134" s="14" t="str">
-        <f>IF(AND(B134&gt;Threshold,B133&lt;B134,B134&gt;B135), $J$1,$J$2)</f>
+        <f>IF(AND(B134&gt;Threshold,B133&gt;B134), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D134" s="14"/>
@@ -7878,7 +9150,7 @@
         <v>2.11</v>
       </c>
       <c r="C135" s="14" t="str">
-        <f>IF(AND(B135&gt;Threshold,B134&lt;B135,B135&gt;B136), $J$1,$J$2)</f>
+        <f>IF(AND(B135&gt;Threshold,B134&gt;B135), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D135" s="14"/>
@@ -7894,7 +9166,7 @@
         <v>1.89</v>
       </c>
       <c r="C136" s="14" t="str">
-        <f>IF(AND(B136&gt;Threshold,B135&lt;B136,B136&gt;B137), $J$1,$J$2)</f>
+        <f>IF(AND(B136&gt;Threshold,B135&gt;B136), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D136" s="14"/>
@@ -7910,7 +9182,7 @@
         <v>1.93</v>
       </c>
       <c r="C137" s="14" t="str">
-        <f>IF(AND(B137&gt;Threshold,B136&lt;B137,B137&gt;B138), $J$1,$J$2)</f>
+        <f>IF(AND(B137&gt;Threshold,B136&gt;B137), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D137" s="14"/>
@@ -7926,7 +9198,7 @@
         <v>2.63</v>
       </c>
       <c r="C138" s="14" t="str">
-        <f>IF(AND(B138&gt;Threshold,B137&lt;B138,B138&gt;B139), $J$1,$J$2)</f>
+        <f>IF(AND(B138&gt;Threshold,B137&gt;B138), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D138" s="14"/>
@@ -7942,8 +9214,8 @@
         <v>3.96</v>
       </c>
       <c r="C139" s="14" t="str">
-        <f>IF(AND(B139&gt;Threshold,B138&lt;B139,B139&gt;B140), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B139&gt;Threshold,B138&gt;B139), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D139" s="14"/>
       <c r="F139" s="14"/>
@@ -7958,7 +9230,7 @@
         <v>2.7</v>
       </c>
       <c r="C140" s="14" t="str">
-        <f>IF(AND(B140&gt;Threshold,B139&lt;B140,B140&gt;B141), $J$1,$J$2)</f>
+        <f>IF(AND(B140&gt;Threshold,B139&gt;B140), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D140" s="14"/>
@@ -7974,7 +9246,7 @@
         <v>2.31</v>
       </c>
       <c r="C141" s="14" t="str">
-        <f>IF(AND(B141&gt;Threshold,B140&lt;B141,B141&gt;B142), $J$1,$J$2)</f>
+        <f>IF(AND(B141&gt;Threshold,B140&gt;B141), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D141" s="14"/>
@@ -7990,7 +9262,7 @@
         <v>2.27</v>
       </c>
       <c r="C142" s="14" t="str">
-        <f>IF(AND(B142&gt;Threshold,B141&lt;B142,B142&gt;B143), $J$1,$J$2)</f>
+        <f>IF(AND(B142&gt;Threshold,B141&gt;B142), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D142" s="14"/>
@@ -8006,7 +9278,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C143" s="14" t="str">
-        <f>IF(AND(B143&gt;Threshold,B142&lt;B143,B143&gt;B144), $J$1,$J$2)</f>
+        <f>IF(AND(B143&gt;Threshold,B142&gt;B143), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D143" s="14"/>
@@ -8022,7 +9294,7 @@
         <v>1.9</v>
       </c>
       <c r="C144" s="14" t="str">
-        <f>IF(AND(B144&gt;Threshold,B143&lt;B144,B144&gt;B145), $J$1,$J$2)</f>
+        <f>IF(AND(B144&gt;Threshold,B143&gt;B144), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D144" s="14"/>
@@ -8038,7 +9310,7 @@
         <v>2.15</v>
       </c>
       <c r="C145" s="14" t="str">
-        <f>IF(AND(B145&gt;Threshold,B144&lt;B145,B145&gt;B146), $J$1,$J$2)</f>
+        <f>IF(AND(B145&gt;Threshold,B144&gt;B145), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D145" s="14"/>
@@ -8054,7 +9326,7 @@
         <v>3.13</v>
       </c>
       <c r="C146" s="14" t="str">
-        <f>IF(AND(B146&gt;Threshold,B145&lt;B146,B146&gt;B147), $J$1,$J$2)</f>
+        <f>IF(AND(B146&gt;Threshold,B145&gt;B146), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D146" s="14"/>
@@ -8070,8 +9342,8 @@
         <v>3.95</v>
       </c>
       <c r="C147" s="14" t="str">
-        <f>IF(AND(B147&gt;Threshold,B146&lt;B147,B147&gt;B148), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B147&gt;Threshold,B146&gt;B147), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D147" s="14"/>
       <c r="F147" s="14"/>
@@ -8086,7 +9358,7 @@
         <v>2.67</v>
       </c>
       <c r="C148" s="14" t="str">
-        <f>IF(AND(B148&gt;Threshold,B147&lt;B148,B148&gt;B149), $J$1,$J$2)</f>
+        <f>IF(AND(B148&gt;Threshold,B147&gt;B148), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D148" s="14"/>
@@ -8102,7 +9374,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C149" s="14" t="str">
-        <f>IF(AND(B149&gt;Threshold,B148&lt;B149,B149&gt;B150), $J$1,$J$2)</f>
+        <f>IF(AND(B149&gt;Threshold,B148&gt;B149), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D149" s="14"/>
@@ -8118,7 +9390,7 @@
         <v>2.25</v>
       </c>
       <c r="C150" s="14" t="str">
-        <f>IF(AND(B150&gt;Threshold,B149&lt;B150,B150&gt;B151), $J$1,$J$2)</f>
+        <f>IF(AND(B150&gt;Threshold,B149&gt;B150), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D150" s="14"/>
@@ -8134,7 +9406,7 @@
         <v>2.06</v>
       </c>
       <c r="C151" s="14" t="str">
-        <f>IF(AND(B151&gt;Threshold,B150&lt;B151,B151&gt;B152), $J$1,$J$2)</f>
+        <f>IF(AND(B151&gt;Threshold,B150&gt;B151), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D151" s="14"/>
@@ -8150,7 +9422,7 @@
         <v>1.86</v>
       </c>
       <c r="C152" s="14" t="str">
-        <f>IF(AND(B152&gt;Threshold,B151&lt;B152,B152&gt;B153), $J$1,$J$2)</f>
+        <f>IF(AND(B152&gt;Threshold,B151&gt;B152), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D152" s="14"/>
@@ -8166,7 +9438,7 @@
         <v>2.08</v>
       </c>
       <c r="C153" s="14" t="str">
-        <f>IF(AND(B153&gt;Threshold,B152&lt;B153,B153&gt;B154), $J$1,$J$2)</f>
+        <f>IF(AND(B153&gt;Threshold,B152&gt;B153), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D153" s="14"/>
@@ -8182,7 +9454,7 @@
         <v>3.43</v>
       </c>
       <c r="C154" s="14" t="str">
-        <f>IF(AND(B154&gt;Threshold,B153&lt;B154,B154&gt;B155), $J$1,$J$2)</f>
+        <f>IF(AND(B154&gt;Threshold,B153&gt;B154), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D154" s="14"/>
@@ -8198,8 +9470,8 @@
         <v>3.97</v>
       </c>
       <c r="C155" s="14" t="str">
-        <f>IF(AND(B155&gt;Threshold,B154&lt;B155,B155&gt;B156), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B155&gt;Threshold,B154&gt;B155), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D155" s="14"/>
       <c r="F155" s="14"/>
@@ -8214,7 +9486,7 @@
         <v>2.69</v>
       </c>
       <c r="C156" s="14" t="str">
-        <f>IF(AND(B156&gt;Threshold,B155&lt;B156,B156&gt;B157), $J$1,$J$2)</f>
+        <f>IF(AND(B156&gt;Threshold,B155&gt;B156), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D156" s="14"/>
@@ -8230,7 +9502,7 @@
         <v>2.33</v>
       </c>
       <c r="C157" s="14" t="str">
-        <f>IF(AND(B157&gt;Threshold,B156&lt;B157,B157&gt;B158), $J$1,$J$2)</f>
+        <f>IF(AND(B157&gt;Threshold,B156&gt;B157), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D157" s="14"/>
@@ -8246,7 +9518,7 @@
         <v>2.13</v>
       </c>
       <c r="C158" s="14" t="str">
-        <f>IF(AND(B158&gt;Threshold,B157&lt;B158,B158&gt;B159), $J$1,$J$2)</f>
+        <f>IF(AND(B158&gt;Threshold,B157&gt;B158), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D158" s="14"/>
@@ -8262,7 +9534,7 @@
         <v>1.85</v>
       </c>
       <c r="C159" s="14" t="str">
-        <f>IF(AND(B159&gt;Threshold,B158&lt;B159,B159&gt;B160), $J$1,$J$2)</f>
+        <f>IF(AND(B159&gt;Threshold,B158&gt;B159), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D159" s="14"/>
@@ -8278,7 +9550,7 @@
         <v>1.91</v>
       </c>
       <c r="C160" s="14" t="str">
-        <f>IF(AND(B160&gt;Threshold,B159&lt;B160,B160&gt;B161), $J$1,$J$2)</f>
+        <f>IF(AND(B160&gt;Threshold,B159&gt;B160), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D160" s="14"/>
@@ -8294,7 +9566,7 @@
         <v>1.93</v>
       </c>
       <c r="C161" s="14" t="str">
-        <f>IF(AND(B161&gt;Threshold,B160&lt;B161,B161&gt;B162), $J$1,$J$2)</f>
+        <f>IF(AND(B161&gt;Threshold,B160&gt;B161), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D161" s="14"/>
@@ -8310,7 +9582,7 @@
         <v>3.39</v>
       </c>
       <c r="C162" s="14" t="str">
-        <f>IF(AND(B162&gt;Threshold,B161&lt;B162,B162&gt;B163), $J$1,$J$2)</f>
+        <f>IF(AND(B162&gt;Threshold,B161&gt;B162), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D162" s="14"/>
@@ -8326,8 +9598,8 @@
         <v>3.83</v>
       </c>
       <c r="C163" s="14" t="str">
-        <f>IF(AND(B163&gt;Threshold,B162&lt;B163,B163&gt;B164), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B163&gt;Threshold,B162&gt;B163), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D163" s="14"/>
       <c r="F163" s="14"/>
@@ -8342,7 +9614,7 @@
         <v>2.57</v>
       </c>
       <c r="C164" s="14" t="str">
-        <f>IF(AND(B164&gt;Threshold,B163&lt;B164,B164&gt;B165), $J$1,$J$2)</f>
+        <f>IF(AND(B164&gt;Threshold,B163&gt;B164), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D164" s="14"/>
@@ -8358,7 +9630,7 @@
         <v>2.39</v>
       </c>
       <c r="C165" s="14" t="str">
-        <f>IF(AND(B165&gt;Threshold,B164&lt;B165,B165&gt;B166), $J$1,$J$2)</f>
+        <f>IF(AND(B165&gt;Threshold,B164&gt;B165), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D165" s="14"/>
@@ -8374,7 +9646,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C166" s="14" t="str">
-        <f>IF(AND(B166&gt;Threshold,B165&lt;B166,B166&gt;B167), $J$1,$J$2)</f>
+        <f>IF(AND(B166&gt;Threshold,B165&gt;B166), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D166" s="14"/>
@@ -8390,7 +9662,7 @@
         <v>1.87</v>
       </c>
       <c r="C167" s="14" t="str">
-        <f>IF(AND(B167&gt;Threshold,B166&lt;B167,B167&gt;B168), $J$1,$J$2)</f>
+        <f>IF(AND(B167&gt;Threshold,B166&gt;B167), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D167" s="14"/>
@@ -8406,7 +9678,7 @@
         <v>1.88</v>
       </c>
       <c r="C168" s="14" t="str">
-        <f>IF(AND(B168&gt;Threshold,B167&lt;B168,B168&gt;B169), $J$1,$J$2)</f>
+        <f>IF(AND(B168&gt;Threshold,B167&gt;B168), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D168" s="14"/>
@@ -8422,7 +9694,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C169" s="14" t="str">
-        <f>IF(AND(B169&gt;Threshold,B168&lt;B169,B169&gt;B170), $J$1,$J$2)</f>
+        <f>IF(AND(B169&gt;Threshold,B168&gt;B169), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D169" s="14"/>
@@ -8438,8 +9710,8 @@
         <v>3.64</v>
       </c>
       <c r="C170" s="14" t="str">
-        <f>IF(AND(B170&gt;Threshold,B169&lt;B170,B170&gt;B171), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B170&gt;Threshold,B169&gt;B170), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D170" s="14"/>
       <c r="F170" s="14"/>
@@ -8454,8 +9726,8 @@
         <v>3.58</v>
       </c>
       <c r="C171" s="14" t="str">
-        <f>IF(AND(B171&gt;Threshold,B170&lt;B171,B171&gt;B172), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B171&gt;Threshold,B170&gt;B171), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D171" s="14"/>
       <c r="F171" s="14"/>
@@ -8470,7 +9742,7 @@
         <v>2.41</v>
       </c>
       <c r="C172" s="14" t="str">
-        <f>IF(AND(B172&gt;Threshold,B171&lt;B172,B172&gt;B173), $J$1,$J$2)</f>
+        <f>IF(AND(B172&gt;Threshold,B171&gt;B172), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D172" s="14"/>
@@ -8486,7 +9758,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C173" s="14" t="str">
-        <f>IF(AND(B173&gt;Threshold,B172&lt;B173,B173&gt;B174), $J$1,$J$2)</f>
+        <f>IF(AND(B173&gt;Threshold,B172&gt;B173), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D173" s="14"/>
@@ -8502,7 +9774,7 @@
         <v>2.02</v>
       </c>
       <c r="C174" s="14" t="str">
-        <f>IF(AND(B174&gt;Threshold,B173&lt;B174,B174&gt;B175), $J$1,$J$2)</f>
+        <f>IF(AND(B174&gt;Threshold,B173&gt;B174), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D174" s="14"/>
@@ -8518,7 +9790,7 @@
         <v>1.87</v>
       </c>
       <c r="C175" s="14" t="str">
-        <f>IF(AND(B175&gt;Threshold,B174&lt;B175,B175&gt;B176), $J$1,$J$2)</f>
+        <f>IF(AND(B175&gt;Threshold,B174&gt;B175), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D175" s="14"/>
@@ -8534,7 +9806,7 @@
         <v>1.8</v>
       </c>
       <c r="C176" s="14" t="str">
-        <f>IF(AND(B176&gt;Threshold,B175&lt;B176,B176&gt;B177), $J$1,$J$2)</f>
+        <f>IF(AND(B176&gt;Threshold,B175&gt;B176), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D176" s="14"/>
@@ -8550,7 +9822,7 @@
         <v>1.99</v>
       </c>
       <c r="C177" s="14" t="str">
-        <f>IF(AND(B177&gt;Threshold,B176&lt;B177,B177&gt;B178), $J$1,$J$2)</f>
+        <f>IF(AND(B177&gt;Threshold,B176&gt;B177), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D177" s="14"/>
@@ -8566,8 +9838,8 @@
         <v>3.68</v>
       </c>
       <c r="C178" s="14" t="str">
-        <f>IF(AND(B178&gt;Threshold,B177&lt;B178,B178&gt;B179), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B178&gt;Threshold,B177&gt;B178), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D178" s="14"/>
       <c r="F178" s="14"/>
@@ -8582,8 +9854,8 @@
         <v>3.65</v>
       </c>
       <c r="C179" s="14" t="str">
-        <f>IF(AND(B179&gt;Threshold,B178&lt;B179,B179&gt;B180), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B179&gt;Threshold,B178&gt;B179), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D179" s="14"/>
       <c r="F179" s="14"/>
@@ -8598,7 +9870,7 @@
         <v>2.38</v>
       </c>
       <c r="C180" s="14" t="str">
-        <f>IF(AND(B180&gt;Threshold,B179&lt;B180,B180&gt;B181), $J$1,$J$2)</f>
+        <f>IF(AND(B180&gt;Threshold,B179&gt;B180), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D180" s="14"/>
@@ -8614,7 +9886,7 @@
         <v>2.27</v>
       </c>
       <c r="C181" s="14" t="str">
-        <f>IF(AND(B181&gt;Threshold,B180&lt;B181,B181&gt;B182), $J$1,$J$2)</f>
+        <f>IF(AND(B181&gt;Threshold,B180&gt;B181), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D181" s="14"/>
@@ -8630,7 +9902,7 @@
         <v>2.08</v>
       </c>
       <c r="C182" s="14" t="str">
-        <f>IF(AND(B182&gt;Threshold,B181&lt;B182,B182&gt;B183), $J$1,$J$2)</f>
+        <f>IF(AND(B182&gt;Threshold,B181&gt;B182), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D182" s="14"/>
@@ -8646,7 +9918,7 @@
         <v>1.82</v>
       </c>
       <c r="C183" s="14" t="str">
-        <f>IF(AND(B183&gt;Threshold,B182&lt;B183,B183&gt;B184), $J$1,$J$2)</f>
+        <f>IF(AND(B183&gt;Threshold,B182&gt;B183), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D183" s="14"/>
@@ -8662,7 +9934,7 @@
         <v>1.89</v>
       </c>
       <c r="C184" s="14" t="str">
-        <f>IF(AND(B184&gt;Threshold,B183&lt;B184,B184&gt;B185), $J$1,$J$2)</f>
+        <f>IF(AND(B184&gt;Threshold,B183&gt;B184), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D184" s="14"/>
@@ -8678,7 +9950,7 @@
         <v>1.95</v>
       </c>
       <c r="C185" s="14" t="str">
-        <f>IF(AND(B185&gt;Threshold,B184&lt;B185,B185&gt;B186), $J$1,$J$2)</f>
+        <f>IF(AND(B185&gt;Threshold,B184&gt;B185), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D185" s="14"/>
@@ -8694,7 +9966,7 @@
         <v>3.62</v>
       </c>
       <c r="C186" s="14" t="str">
-        <f>IF(AND(B186&gt;Threshold,B185&lt;B186,B186&gt;B187), $J$1,$J$2)</f>
+        <f>IF(AND(B186&gt;Threshold,B185&gt;B186), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D186" s="14"/>
@@ -8710,8 +9982,8 @@
         <v>3.74</v>
       </c>
       <c r="C187" s="14" t="str">
-        <f>IF(AND(B187&gt;Threshold,B186&lt;B187,B187&gt;B188), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B187&gt;Threshold,B186&gt;B187), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D187" s="14"/>
       <c r="F187" s="14"/>
@@ -8726,7 +9998,7 @@
         <v>2.41</v>
       </c>
       <c r="C188" s="14" t="str">
-        <f>IF(AND(B188&gt;Threshold,B187&lt;B188,B188&gt;B189), $J$1,$J$2)</f>
+        <f>IF(AND(B188&gt;Threshold,B187&gt;B188), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D188" s="14"/>
@@ -8742,7 +10014,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C189" s="14" t="str">
-        <f>IF(AND(B189&gt;Threshold,B188&lt;B189,B189&gt;B190), $J$1,$J$2)</f>
+        <f>IF(AND(B189&gt;Threshold,B188&gt;B189), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D189" s="14"/>
@@ -8758,7 +10030,7 @@
         <v>2.11</v>
       </c>
       <c r="C190" s="14" t="str">
-        <f>IF(AND(B190&gt;Threshold,B189&lt;B190,B190&gt;B191), $J$1,$J$2)</f>
+        <f>IF(AND(B190&gt;Threshold,B189&gt;B190), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D190" s="14"/>
@@ -8774,7 +10046,7 @@
         <v>1.93</v>
       </c>
       <c r="C191" s="14" t="str">
-        <f>IF(AND(B191&gt;Threshold,B190&lt;B191,B191&gt;B192), $J$1,$J$2)</f>
+        <f>IF(AND(B191&gt;Threshold,B190&gt;B191), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D191" s="14"/>
@@ -8790,7 +10062,7 @@
         <v>1.8</v>
       </c>
       <c r="C192" s="14" t="str">
-        <f>IF(AND(B192&gt;Threshold,B191&lt;B192,B192&gt;B193), $J$1,$J$2)</f>
+        <f>IF(AND(B192&gt;Threshold,B191&gt;B192), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D192" s="14"/>
@@ -8806,7 +10078,7 @@
         <v>1.82</v>
       </c>
       <c r="C193" s="14" t="str">
-        <f>IF(AND(B193&gt;Threshold,B192&lt;B193,B193&gt;B194), $J$1,$J$2)</f>
+        <f>IF(AND(B193&gt;Threshold,B192&gt;B193), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D193" s="14"/>
@@ -8822,7 +10094,7 @@
         <v>3.29</v>
       </c>
       <c r="C194" s="14" t="str">
-        <f>IF(AND(B194&gt;Threshold,B193&lt;B194,B194&gt;B195), $J$1,$J$2)</f>
+        <f>IF(AND(B194&gt;Threshold,B193&gt;B194), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D194" s="14"/>
@@ -8838,8 +10110,8 @@
         <v>3.74</v>
       </c>
       <c r="C195" s="14" t="str">
-        <f>IF(AND(B195&gt;Threshold,B194&lt;B195,B195&gt;B196), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B195&gt;Threshold,B194&gt;B195), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D195" s="14"/>
       <c r="F195" s="14"/>
@@ -8854,7 +10126,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C196" s="14" t="str">
-        <f>IF(AND(B196&gt;Threshold,B195&lt;B196,B196&gt;B197), $J$1,$J$2)</f>
+        <f>IF(AND(B196&gt;Threshold,B195&gt;B196), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D196" s="14"/>
@@ -8870,7 +10142,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C197" s="14" t="str">
-        <f>IF(AND(B197&gt;Threshold,B196&lt;B197,B197&gt;B198), $J$1,$J$2)</f>
+        <f>IF(AND(B197&gt;Threshold,B196&gt;B197), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D197" s="14"/>
@@ -8886,7 +10158,7 @@
         <v>2.14</v>
       </c>
       <c r="C198" s="14" t="str">
-        <f>IF(AND(B198&gt;Threshold,B197&lt;B198,B198&gt;B199), $J$1,$J$2)</f>
+        <f>IF(AND(B198&gt;Threshold,B197&gt;B198), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D198" s="14"/>
@@ -8902,7 +10174,7 @@
         <v>1.9</v>
       </c>
       <c r="C199" s="14" t="str">
-        <f>IF(AND(B199&gt;Threshold,B198&lt;B199,B199&gt;B200), $J$1,$J$2)</f>
+        <f>IF(AND(B199&gt;Threshold,B198&gt;B199), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D199" s="14"/>
@@ -8918,7 +10190,7 @@
         <v>1.91</v>
       </c>
       <c r="C200" s="14" t="str">
-        <f>IF(AND(B200&gt;Threshold,B199&lt;B200,B200&gt;B201), $J$1,$J$2)</f>
+        <f>IF(AND(B200&gt;Threshold,B199&gt;B200), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D200" s="14"/>
@@ -8934,7 +10206,7 @@
         <v>2.02</v>
       </c>
       <c r="C201" s="14" t="str">
-        <f>IF(AND(B201&gt;Threshold,B200&lt;B201,B201&gt;B202), $J$1,$J$2)</f>
+        <f>IF(AND(B201&gt;Threshold,B200&gt;B201), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D201" s="14"/>
@@ -8950,8 +10222,8 @@
         <v>3.57</v>
       </c>
       <c r="C202" s="14" t="str">
-        <f>IF(AND(B202&gt;Threshold,B201&lt;B202,B202&gt;B203), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B202&gt;Threshold,B201&gt;B202), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D202" s="14"/>
       <c r="F202" s="14"/>
@@ -8966,8 +10238,8 @@
         <v>3.39</v>
       </c>
       <c r="C203" s="14" t="str">
-        <f>IF(AND(B203&gt;Threshold,B202&lt;B203,B203&gt;B204), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B203&gt;Threshold,B202&gt;B203), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D203" s="14"/>
       <c r="F203" s="14"/>
@@ -8982,7 +10254,7 @@
         <v>2.29</v>
       </c>
       <c r="C204" s="14" t="str">
-        <f>IF(AND(B204&gt;Threshold,B203&lt;B204,B204&gt;B205), $J$1,$J$2)</f>
+        <f>IF(AND(B204&gt;Threshold,B203&gt;B204), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D204" s="14"/>
@@ -8998,7 +10270,7 @@
         <v>2.35</v>
       </c>
       <c r="C205" s="14" t="str">
-        <f>IF(AND(B205&gt;Threshold,B204&lt;B205,B205&gt;B206), $J$1,$J$2)</f>
+        <f>IF(AND(B205&gt;Threshold,B204&gt;B205), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D205" s="14"/>
@@ -9014,7 +10286,7 @@
         <v>2.06</v>
       </c>
       <c r="C206" s="14" t="str">
-        <f>IF(AND(B206&gt;Threshold,B205&lt;B206,B206&gt;B207), $J$1,$J$2)</f>
+        <f>IF(AND(B206&gt;Threshold,B205&gt;B206), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D206" s="14"/>
@@ -9030,7 +10302,7 @@
         <v>1.87</v>
       </c>
       <c r="C207" s="14" t="str">
-        <f>IF(AND(B207&gt;Threshold,B206&lt;B207,B207&gt;B208), $J$1,$J$2)</f>
+        <f>IF(AND(B207&gt;Threshold,B206&gt;B207), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D207" s="14"/>
@@ -9046,7 +10318,7 @@
         <v>1.88</v>
       </c>
       <c r="C208" s="14" t="str">
-        <f>IF(AND(B208&gt;Threshold,B207&lt;B208,B208&gt;B209), $J$1,$J$2)</f>
+        <f>IF(AND(B208&gt;Threshold,B207&gt;B208), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D208" s="14"/>
@@ -9062,7 +10334,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C209" s="14" t="str">
-        <f>IF(AND(B209&gt;Threshold,B208&lt;B209,B209&gt;B210), $J$1,$J$2)</f>
+        <f>IF(AND(B209&gt;Threshold,B208&gt;B209), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D209" s="14"/>
@@ -9078,8 +10350,8 @@
         <v>3.86</v>
       </c>
       <c r="C210" s="14" t="str">
-        <f>IF(AND(B210&gt;Threshold,B209&lt;B210,B210&gt;B211), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B210&gt;Threshold,B209&gt;B210), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D210" s="14"/>
       <c r="F210" s="14"/>
@@ -9094,8 +10366,8 @@
         <v>3.12</v>
       </c>
       <c r="C211" s="14" t="str">
-        <f>IF(AND(B211&gt;Threshold,B210&lt;B211,B211&gt;B212), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B211&gt;Threshold,B210&gt;B211), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D211" s="14"/>
       <c r="F211" s="14"/>
@@ -9110,7 +10382,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C212" s="14" t="str">
-        <f>IF(AND(B212&gt;Threshold,B211&lt;B212,B212&gt;B213), $J$1,$J$2)</f>
+        <f>IF(AND(B212&gt;Threshold,B211&gt;B212), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D212" s="14"/>
@@ -9126,7 +10398,7 @@
         <v>2.23</v>
       </c>
       <c r="C213" s="14" t="str">
-        <f>IF(AND(B213&gt;Threshold,B212&lt;B213,B213&gt;B214), $J$1,$J$2)</f>
+        <f>IF(AND(B213&gt;Threshold,B212&gt;B213), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D213" s="14"/>
@@ -9142,7 +10414,7 @@
         <v>2.02</v>
       </c>
       <c r="C214" s="14" t="str">
-        <f>IF(AND(B214&gt;Threshold,B213&lt;B214,B214&gt;B215), $J$1,$J$2)</f>
+        <f>IF(AND(B214&gt;Threshold,B213&gt;B214), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D214" s="14"/>
@@ -9158,7 +10430,7 @@
         <v>1.92</v>
       </c>
       <c r="C215" s="14" t="str">
-        <f>IF(AND(B215&gt;Threshold,B214&lt;B215,B215&gt;B216), $J$1,$J$2)</f>
+        <f>IF(AND(B215&gt;Threshold,B214&gt;B215), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D215" s="14"/>
@@ -9174,7 +10446,7 @@
         <v>1.93</v>
       </c>
       <c r="C216" s="14" t="str">
-        <f>IF(AND(B216&gt;Threshold,B215&lt;B216,B216&gt;B217), $J$1,$J$2)</f>
+        <f>IF(AND(B216&gt;Threshold,B215&gt;B216), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D216" s="14"/>
@@ -9190,7 +10462,7 @@
         <v>2.84</v>
       </c>
       <c r="C217" s="14" t="str">
-        <f>IF(AND(B217&gt;Threshold,B216&lt;B217,B217&gt;B218), $J$1,$J$2)</f>
+        <f>IF(AND(B217&gt;Threshold,B216&gt;B217), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D217" s="14"/>
@@ -9206,8 +10478,8 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C218" s="14" t="str">
-        <f>IF(AND(B218&gt;Threshold,B217&lt;B218,B218&gt;B219), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B218&gt;Threshold,B217&gt;B218), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D218" s="14"/>
       <c r="F218" s="14"/>
@@ -9222,7 +10494,7 @@
         <v>2.87</v>
       </c>
       <c r="C219" s="14" t="str">
-        <f>IF(AND(B219&gt;Threshold,B218&lt;B219,B219&gt;B220), $J$1,$J$2)</f>
+        <f>IF(AND(B219&gt;Threshold,B218&gt;B219), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D219" s="14"/>
@@ -9238,7 +10510,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C220" s="14" t="str">
-        <f>IF(AND(B220&gt;Threshold,B219&lt;B220,B220&gt;B221), $J$1,$J$2)</f>
+        <f>IF(AND(B220&gt;Threshold,B219&gt;B220), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D220" s="14"/>
@@ -9254,7 +10526,7 @@
         <v>2.31</v>
       </c>
       <c r="C221" s="14" t="str">
-        <f>IF(AND(B221&gt;Threshold,B220&lt;B221,B221&gt;B222), $J$1,$J$2)</f>
+        <f>IF(AND(B221&gt;Threshold,B220&gt;B221), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D221" s="14"/>
@@ -9270,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="14" t="str">
-        <f>IF(AND(B222&gt;Threshold,B221&lt;B222,B222&gt;B223), $J$1,$J$2)</f>
+        <f>IF(AND(B222&gt;Threshold,B221&gt;B222), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D222" s="14"/>
@@ -9286,7 +10558,7 @@
         <v>1.89</v>
       </c>
       <c r="C223" s="14" t="str">
-        <f>IF(AND(B223&gt;Threshold,B222&lt;B223,B223&gt;B224), $J$1,$J$2)</f>
+        <f>IF(AND(B223&gt;Threshold,B222&gt;B223), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D223" s="14"/>
@@ -9302,7 +10574,7 @@
         <v>1.93</v>
       </c>
       <c r="C224" s="14" t="str">
-        <f>IF(AND(B224&gt;Threshold,B223&lt;B224,B224&gt;B225), $J$1,$J$2)</f>
+        <f>IF(AND(B224&gt;Threshold,B223&gt;B224), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D224" s="14"/>
@@ -9318,7 +10590,7 @@
         <v>3.2</v>
       </c>
       <c r="C225" s="14" t="str">
-        <f>IF(AND(B225&gt;Threshold,B224&lt;B225,B225&gt;B226), $J$1,$J$2)</f>
+        <f>IF(AND(B225&gt;Threshold,B224&gt;B225), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D225" s="14"/>
@@ -9334,8 +10606,8 @@
         <v>4.03</v>
       </c>
       <c r="C226" s="14" t="str">
-        <f>IF(AND(B226&gt;Threshold,B225&lt;B226,B226&gt;B227), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B226&gt;Threshold,B225&gt;B226), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D226" s="14"/>
       <c r="F226" s="14"/>
@@ -9350,7 +10622,7 @@
         <v>2.72</v>
       </c>
       <c r="C227" s="14" t="str">
-        <f>IF(AND(B227&gt;Threshold,B226&lt;B227,B227&gt;B228), $J$1,$J$2)</f>
+        <f>IF(AND(B227&gt;Threshold,B226&gt;B227), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D227" s="14"/>
@@ -9366,7 +10638,7 @@
         <v>2.37</v>
       </c>
       <c r="C228" s="14" t="str">
-        <f>IF(AND(B228&gt;Threshold,B227&lt;B228,B228&gt;B229), $J$1,$J$2)</f>
+        <f>IF(AND(B228&gt;Threshold,B227&gt;B228), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D228" s="14"/>
@@ -9382,7 +10654,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C229" s="14" t="str">
-        <f>IF(AND(B229&gt;Threshold,B228&lt;B229,B229&gt;B230), $J$1,$J$2)</f>
+        <f>IF(AND(B229&gt;Threshold,B228&gt;B229), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D229" s="14"/>
@@ -9398,7 +10670,7 @@
         <v>1.97</v>
       </c>
       <c r="C230" s="14" t="str">
-        <f>IF(AND(B230&gt;Threshold,B229&lt;B230,B230&gt;B231), $J$1,$J$2)</f>
+        <f>IF(AND(B230&gt;Threshold,B229&gt;B230), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D230" s="14"/>
@@ -9414,7 +10686,7 @@
         <v>1.9</v>
       </c>
       <c r="C231" s="14" t="str">
-        <f>IF(AND(B231&gt;Threshold,B230&lt;B231,B231&gt;B232), $J$1,$J$2)</f>
+        <f>IF(AND(B231&gt;Threshold,B230&gt;B231), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D231" s="14"/>
@@ -9430,7 +10702,7 @@
         <v>2.1</v>
       </c>
       <c r="C232" s="14" t="str">
-        <f>IF(AND(B232&gt;Threshold,B231&lt;B232,B232&gt;B233), $J$1,$J$2)</f>
+        <f>IF(AND(B232&gt;Threshold,B231&gt;B232), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D232" s="14"/>
@@ -9446,8 +10718,8 @@
         <v>3.97</v>
       </c>
       <c r="C233" s="14" t="str">
-        <f>IF(AND(B233&gt;Threshold,B232&lt;B233,B233&gt;B234), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B233&gt;Threshold,B232&gt;B233), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D233" s="14"/>
       <c r="F233" s="14"/>
@@ -9462,8 +10734,8 @@
         <v>3.58</v>
       </c>
       <c r="C234" s="14" t="str">
-        <f>IF(AND(B234&gt;Threshold,B233&lt;B234,B234&gt;B235), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B234&gt;Threshold,B233&gt;B234), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D234" s="14"/>
       <c r="F234" s="14"/>
@@ -9478,7 +10750,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C235" s="14" t="str">
-        <f>IF(AND(B235&gt;Threshold,B234&lt;B235,B235&gt;B236), $J$1,$J$2)</f>
+        <f>IF(AND(B235&gt;Threshold,B234&gt;B235), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D235" s="14"/>
@@ -9494,7 +10766,7 @@
         <v>2.34</v>
       </c>
       <c r="C236" s="14" t="str">
-        <f>IF(AND(B236&gt;Threshold,B235&lt;B236,B236&gt;B237), $J$1,$J$2)</f>
+        <f>IF(AND(B236&gt;Threshold,B235&gt;B236), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D236" s="14"/>
@@ -9510,7 +10782,7 @@
         <v>2.02</v>
       </c>
       <c r="C237" s="14" t="str">
-        <f>IF(AND(B237&gt;Threshold,B236&lt;B237,B237&gt;B238), $J$1,$J$2)</f>
+        <f>IF(AND(B237&gt;Threshold,B236&gt;B237), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D237" s="14"/>
@@ -9526,7 +10798,7 @@
         <v>1.9</v>
       </c>
       <c r="C238" s="14" t="str">
-        <f>IF(AND(B238&gt;Threshold,B237&lt;B238,B238&gt;B239), $J$1,$J$2)</f>
+        <f>IF(AND(B238&gt;Threshold,B237&gt;B238), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D238" s="14"/>
@@ -9542,7 +10814,7 @@
         <v>1.86</v>
       </c>
       <c r="C239" s="14" t="str">
-        <f>IF(AND(B239&gt;Threshold,B238&lt;B239,B239&gt;B240), $J$1,$J$2)</f>
+        <f>IF(AND(B239&gt;Threshold,B238&gt;B239), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D239" s="14"/>
@@ -9558,7 +10830,7 @@
         <v>2.68</v>
       </c>
       <c r="C240" s="14" t="str">
-        <f>IF(AND(B240&gt;Threshold,B239&lt;B240,B240&gt;B241), $J$1,$J$2)</f>
+        <f>IF(AND(B240&gt;Threshold,B239&gt;B240), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D240" s="14"/>
@@ -9574,8 +10846,8 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C241" s="14" t="str">
-        <f>IF(AND(B241&gt;Threshold,B240&lt;B241,B241&gt;B242), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B241&gt;Threshold,B240&gt;B241), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D241" s="14"/>
       <c r="F241" s="14"/>
@@ -9590,8 +10862,8 @@
         <v>3.05</v>
       </c>
       <c r="C242" s="14" t="str">
-        <f>IF(AND(B242&gt;Threshold,B241&lt;B242,B242&gt;B243), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B242&gt;Threshold,B241&gt;B242), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D242" s="14"/>
       <c r="F242" s="14"/>
@@ -9606,7 +10878,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C243" s="14" t="str">
-        <f>IF(AND(B243&gt;Threshold,B242&lt;B243,B243&gt;B244), $J$1,$J$2)</f>
+        <f>IF(AND(B243&gt;Threshold,B242&gt;B243), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D243" s="14"/>
@@ -9622,7 +10894,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C244" s="14" t="str">
-        <f>IF(AND(B244&gt;Threshold,B243&lt;B244,B244&gt;B245), $J$1,$J$2)</f>
+        <f>IF(AND(B244&gt;Threshold,B243&gt;B244), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D244" s="14"/>
@@ -9638,7 +10910,7 @@
         <v>1.95</v>
       </c>
       <c r="C245" s="14" t="str">
-        <f>IF(AND(B245&gt;Threshold,B244&lt;B245,B245&gt;B246), $J$1,$J$2)</f>
+        <f>IF(AND(B245&gt;Threshold,B244&gt;B245), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D245" s="14"/>
@@ -9654,7 +10926,7 @@
         <v>1.85</v>
       </c>
       <c r="C246" s="14" t="str">
-        <f>IF(AND(B246&gt;Threshold,B245&lt;B246,B246&gt;B247), $J$1,$J$2)</f>
+        <f>IF(AND(B246&gt;Threshold,B245&gt;B246), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D246" s="14"/>
@@ -9670,7 +10942,7 @@
         <v>1.91</v>
       </c>
       <c r="C247" s="14" t="str">
-        <f>IF(AND(B247&gt;Threshold,B246&lt;B247,B247&gt;B248), $J$1,$J$2)</f>
+        <f>IF(AND(B247&gt;Threshold,B246&gt;B247), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D247" s="14"/>
@@ -9686,7 +10958,7 @@
         <v>3.38</v>
       </c>
       <c r="C248" s="14" t="str">
-        <f>IF(AND(B248&gt;Threshold,B247&lt;B248,B248&gt;B249), $J$1,$J$2)</f>
+        <f>IF(AND(B248&gt;Threshold,B247&gt;B248), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D248" s="14"/>
@@ -9702,8 +10974,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C249" s="14" t="str">
-        <f>IF(AND(B249&gt;Threshold,B248&lt;B249,B249&gt;B250), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B249&gt;Threshold,B248&gt;B249), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D249" s="14"/>
       <c r="F249" s="14"/>
@@ -9718,7 +10990,7 @@
         <v>2.78</v>
       </c>
       <c r="C250" s="14" t="str">
-        <f>IF(AND(B250&gt;Threshold,B249&lt;B250,B250&gt;B251), $J$1,$J$2)</f>
+        <f>IF(AND(B250&gt;Threshold,B249&gt;B250), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D250" s="14"/>
@@ -9734,7 +11006,7 @@
         <v>2.29</v>
       </c>
       <c r="C251" s="14" t="str">
-        <f>IF(AND(B251&gt;Threshold,B250&lt;B251,B251&gt;B252), $J$1,$J$2)</f>
+        <f>IF(AND(B251&gt;Threshold,B250&gt;B251), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D251" s="14"/>
@@ -9750,7 +11022,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C252" s="14" t="str">
-        <f>IF(AND(B252&gt;Threshold,B251&lt;B252,B252&gt;B253), $J$1,$J$2)</f>
+        <f>IF(AND(B252&gt;Threshold,B251&gt;B252), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D252" s="14"/>
@@ -9766,7 +11038,7 @@
         <v>1.76</v>
       </c>
       <c r="C253" s="14" t="str">
-        <f>IF(AND(B253&gt;Threshold,B252&lt;B253,B253&gt;B254), $J$1,$J$2)</f>
+        <f>IF(AND(B253&gt;Threshold,B252&gt;B253), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D253" s="14"/>
@@ -9782,7 +11054,7 @@
         <v>1.87</v>
       </c>
       <c r="C254" s="14" t="str">
-        <f>IF(AND(B254&gt;Threshold,B253&lt;B254,B254&gt;B255), $J$1,$J$2)</f>
+        <f>IF(AND(B254&gt;Threshold,B253&gt;B254), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D254" s="14"/>
@@ -9798,7 +11070,7 @@
         <v>1.91</v>
       </c>
       <c r="C255" s="14" t="str">
-        <f>IF(AND(B255&gt;Threshold,B254&lt;B255,B255&gt;B256), $J$1,$J$2)</f>
+        <f>IF(AND(B255&gt;Threshold,B254&gt;B255), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D255" s="14"/>
@@ -9814,7 +11086,7 @@
         <v>3.92</v>
       </c>
       <c r="C256" s="14" t="str">
-        <f>IF(AND(B256&gt;Threshold,B255&lt;B256,B256&gt;B257), $J$1,$J$2)</f>
+        <f>IF(AND(B256&gt;Threshold,B255&gt;B256), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D256" s="14"/>
@@ -9830,8 +11102,8 @@
         <v>4</v>
       </c>
       <c r="C257" s="14" t="str">
-        <f>IF(AND(B257&gt;Threshold,B256&lt;B257,B257&gt;B258), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B257&gt;Threshold,B256&gt;B257), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D257" s="14"/>
       <c r="F257" s="14"/>
@@ -9846,7 +11118,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C258" s="14" t="str">
-        <f>IF(AND(B258&gt;Threshold,B257&lt;B258,B258&gt;B259), $J$1,$J$2)</f>
+        <f>IF(AND(B258&gt;Threshold,B257&gt;B258), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D258" s="14"/>
@@ -9862,7 +11134,7 @@
         <v>2.29</v>
       </c>
       <c r="C259" s="14" t="str">
-        <f>IF(AND(B259&gt;Threshold,B258&lt;B259,B259&gt;B260), $J$1,$J$2)</f>
+        <f>IF(AND(B259&gt;Threshold,B258&gt;B259), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D259" s="14"/>
@@ -9878,7 +11150,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C260" s="14" t="str">
-        <f>IF(AND(B260&gt;Threshold,B259&lt;B260,B260&gt;B261), $J$1,$J$2)</f>
+        <f>IF(AND(B260&gt;Threshold,B259&gt;B260), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D260" s="14"/>
@@ -9894,7 +11166,7 @@
         <v>1.76</v>
       </c>
       <c r="C261" s="14" t="str">
-        <f>IF(AND(B261&gt;Threshold,B260&lt;B261,B261&gt;B262), $J$1,$J$2)</f>
+        <f>IF(AND(B261&gt;Threshold,B260&gt;B261), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D261" s="14"/>
@@ -9910,7 +11182,7 @@
         <v>1.8</v>
       </c>
       <c r="C262" s="14" t="str">
-        <f>IF(AND(B262&gt;Threshold,B261&lt;B262,B262&gt;B263), $J$1,$J$2)</f>
+        <f>IF(AND(B262&gt;Threshold,B261&gt;B262), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D262" s="14"/>
@@ -9926,7 +11198,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C263" s="14" t="str">
-        <f>IF(AND(B263&gt;Threshold,B262&lt;B263,B263&gt;B264), $J$1,$J$2)</f>
+        <f>IF(AND(B263&gt;Threshold,B262&gt;B263), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D263" s="14"/>
@@ -9942,8 +11214,8 @@
         <v>4.37</v>
       </c>
       <c r="C264" s="14" t="str">
-        <f>IF(AND(B264&gt;Threshold,B263&lt;B264,B264&gt;B265), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B264&gt;Threshold,B263&gt;B264), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D264" s="14"/>
       <c r="F264" s="14"/>
@@ -9958,8 +11230,8 @@
         <v>3.14</v>
       </c>
       <c r="C265" s="14" t="str">
-        <f>IF(AND(B265&gt;Threshold,B264&lt;B265,B265&gt;B266), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B265&gt;Threshold,B264&gt;B265), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D265" s="14"/>
       <c r="F265" s="14"/>
@@ -9974,7 +11246,7 @@
         <v>2.17</v>
       </c>
       <c r="C266" s="14" t="str">
-        <f>IF(AND(B266&gt;Threshold,B265&lt;B266,B266&gt;B267), $J$1,$J$2)</f>
+        <f>IF(AND(B266&gt;Threshold,B265&gt;B266), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D266" s="14"/>
@@ -9990,7 +11262,7 @@
         <v>2.25</v>
       </c>
       <c r="C267" s="14" t="str">
-        <f>IF(AND(B267&gt;Threshold,B266&lt;B267,B267&gt;B268), $J$1,$J$2)</f>
+        <f>IF(AND(B267&gt;Threshold,B266&gt;B267), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D267" s="14"/>
@@ -10006,7 +11278,7 @@
         <v>1.86</v>
       </c>
       <c r="C268" s="14" t="str">
-        <f>IF(AND(B268&gt;Threshold,B267&lt;B268,B268&gt;B269), $J$1,$J$2)</f>
+        <f>IF(AND(B268&gt;Threshold,B267&gt;B268), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D268" s="14"/>
@@ -10022,7 +11294,7 @@
         <v>1.77</v>
       </c>
       <c r="C269" s="14" t="str">
-        <f>IF(AND(B269&gt;Threshold,B268&lt;B269,B269&gt;B270), $J$1,$J$2)</f>
+        <f>IF(AND(B269&gt;Threshold,B268&gt;B269), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D269" s="14"/>
@@ -10038,7 +11310,7 @@
         <v>1.83</v>
       </c>
       <c r="C270" s="14" t="str">
-        <f>IF(AND(B270&gt;Threshold,B269&lt;B270,B270&gt;B271), $J$1,$J$2)</f>
+        <f>IF(AND(B270&gt;Threshold,B269&gt;B270), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D270" s="14"/>
@@ -10054,7 +11326,7 @@
         <v>2.94</v>
       </c>
       <c r="C271" s="14" t="str">
-        <f>IF(AND(B271&gt;Threshold,B270&lt;B271,B271&gt;B272), $J$1,$J$2)</f>
+        <f>IF(AND(B271&gt;Threshold,B270&gt;B271), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D271" s="14"/>
@@ -10070,8 +11342,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C272" s="14" t="str">
-        <f>IF(AND(B272&gt;Threshold,B271&lt;B272,B272&gt;B273), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B272&gt;Threshold,B271&gt;B272), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D272" s="14"/>
       <c r="F272" s="14"/>
@@ -10086,7 +11358,7 @@
         <v>2.91</v>
       </c>
       <c r="C273" s="14" t="str">
-        <f>IF(AND(B273&gt;Threshold,B272&lt;B273,B273&gt;B274), $J$1,$J$2)</f>
+        <f>IF(AND(B273&gt;Threshold,B272&gt;B273), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D273" s="14"/>
@@ -10102,7 +11374,7 @@
         <v>2.23</v>
       </c>
       <c r="C274" s="14" t="str">
-        <f>IF(AND(B274&gt;Threshold,B273&lt;B274,B274&gt;B275), $J$1,$J$2)</f>
+        <f>IF(AND(B274&gt;Threshold,B273&gt;B274), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D274" s="14"/>
@@ -10118,7 +11390,7 @@
         <v>2.13</v>
       </c>
       <c r="C275" s="14" t="str">
-        <f>IF(AND(B275&gt;Threshold,B274&lt;B275,B275&gt;B276), $J$1,$J$2)</f>
+        <f>IF(AND(B275&gt;Threshold,B274&gt;B275), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D275" s="14"/>
@@ -10134,7 +11406,7 @@
         <v>1.86</v>
       </c>
       <c r="C276" s="14" t="str">
-        <f>IF(AND(B276&gt;Threshold,B275&lt;B276,B276&gt;B277), $J$1,$J$2)</f>
+        <f>IF(AND(B276&gt;Threshold,B275&gt;B276), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D276" s="14"/>
@@ -10150,7 +11422,7 @@
         <v>1.72</v>
       </c>
       <c r="C277" s="14" t="str">
-        <f>IF(AND(B277&gt;Threshold,B276&lt;B277,B277&gt;B278), $J$1,$J$2)</f>
+        <f>IF(AND(B277&gt;Threshold,B276&gt;B277), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D277" s="14"/>
@@ -10166,7 +11438,7 @@
         <v>1.81</v>
       </c>
       <c r="C278" s="14" t="str">
-        <f>IF(AND(B278&gt;Threshold,B277&lt;B278,B278&gt;B279), $J$1,$J$2)</f>
+        <f>IF(AND(B278&gt;Threshold,B277&gt;B278), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D278" s="14"/>
@@ -10182,7 +11454,7 @@
         <v>3.3</v>
       </c>
       <c r="C279" s="14" t="str">
-        <f>IF(AND(B279&gt;Threshold,B278&lt;B279,B279&gt;B280), $J$1,$J$2)</f>
+        <f>IF(AND(B279&gt;Threshold,B278&gt;B279), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D279" s="14"/>
@@ -10198,8 +11470,8 @@
         <v>4.26</v>
       </c>
       <c r="C280" s="14" t="str">
-        <f>IF(AND(B280&gt;Threshold,B279&lt;B280,B280&gt;B281), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B280&gt;Threshold,B279&gt;B280), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D280" s="14"/>
       <c r="F280" s="14"/>
@@ -10214,7 +11486,7 @@
         <v>2.81</v>
       </c>
       <c r="C281" s="14" t="str">
-        <f>IF(AND(B281&gt;Threshold,B280&lt;B281,B281&gt;B282), $J$1,$J$2)</f>
+        <f>IF(AND(B281&gt;Threshold,B280&gt;B281), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D281" s="14"/>
@@ -10230,7 +11502,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C282" s="14" t="str">
-        <f>IF(AND(B282&gt;Threshold,B281&lt;B282,B282&gt;B283), $J$1,$J$2)</f>
+        <f>IF(AND(B282&gt;Threshold,B281&gt;B282), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D282" s="14"/>
@@ -10246,7 +11518,7 @@
         <v>2.17</v>
       </c>
       <c r="C283" s="14" t="str">
-        <f>IF(AND(B283&gt;Threshold,B282&lt;B283,B283&gt;B284), $J$1,$J$2)</f>
+        <f>IF(AND(B283&gt;Threshold,B282&gt;B283), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D283" s="14"/>
@@ -10262,7 +11534,7 @@
         <v>1.7</v>
       </c>
       <c r="C284" s="14" t="str">
-        <f>IF(AND(B284&gt;Threshold,B283&lt;B284,B284&gt;B285), $J$1,$J$2)</f>
+        <f>IF(AND(B284&gt;Threshold,B283&gt;B284), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D284" s="14"/>
@@ -10278,7 +11550,7 @@
         <v>1.75</v>
       </c>
       <c r="C285" s="14" t="str">
-        <f>IF(AND(B285&gt;Threshold,B284&lt;B285,B285&gt;B286), $J$1,$J$2)</f>
+        <f>IF(AND(B285&gt;Threshold,B284&gt;B285), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D285" s="14"/>
@@ -10294,7 +11566,7 @@
         <v>1.81</v>
       </c>
       <c r="C286" s="14" t="str">
-        <f>IF(AND(B286&gt;Threshold,B285&lt;B286,B286&gt;B287), $J$1,$J$2)</f>
+        <f>IF(AND(B286&gt;Threshold,B285&gt;B286), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D286" s="14"/>
@@ -10310,7 +11582,7 @@
         <v>3.32</v>
       </c>
       <c r="C287" s="14" t="str">
-        <f>IF(AND(B287&gt;Threshold,B286&lt;B287,B287&gt;B288), $J$1,$J$2)</f>
+        <f>IF(AND(B287&gt;Threshold,B286&gt;B287), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D287" s="14"/>
@@ -10326,8 +11598,8 @@
         <v>4.04</v>
       </c>
       <c r="C288" s="14" t="str">
-        <f>IF(AND(B288&gt;Threshold,B287&lt;B288,B288&gt;B289), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B288&gt;Threshold,B287&gt;B288), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D288" s="14"/>
       <c r="F288" s="14"/>
@@ -10342,7 +11614,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C289" s="14" t="str">
-        <f>IF(AND(B289&gt;Threshold,B288&lt;B289,B289&gt;B290), $J$1,$J$2)</f>
+        <f>IF(AND(B289&gt;Threshold,B288&gt;B289), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D289" s="14"/>
@@ -10358,7 +11630,7 @@
         <v>2.29</v>
       </c>
       <c r="C290" s="14" t="str">
-        <f>IF(AND(B290&gt;Threshold,B289&lt;B290,B290&gt;B291), $J$1,$J$2)</f>
+        <f>IF(AND(B290&gt;Threshold,B289&gt;B290), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D290" s="14"/>
@@ -10374,7 +11646,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C291" s="14" t="str">
-        <f>IF(AND(B291&gt;Threshold,B290&lt;B291,B291&gt;B292), $J$1,$J$2)</f>
+        <f>IF(AND(B291&gt;Threshold,B290&gt;B291), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D291" s="14"/>
@@ -10390,7 +11662,7 @@
         <v>1.81</v>
       </c>
       <c r="C292" s="14" t="str">
-        <f>IF(AND(B292&gt;Threshold,B291&lt;B292,B292&gt;B293), $J$1,$J$2)</f>
+        <f>IF(AND(B292&gt;Threshold,B291&gt;B292), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D292" s="14"/>
@@ -10406,7 +11678,7 @@
         <v>1.84</v>
       </c>
       <c r="C293" s="14" t="str">
-        <f>IF(AND(B293&gt;Threshold,B292&lt;B293,B293&gt;B294), $J$1,$J$2)</f>
+        <f>IF(AND(B293&gt;Threshold,B292&gt;B293), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D293" s="14"/>
@@ -10422,7 +11694,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C294" s="14" t="str">
-        <f>IF(AND(B294&gt;Threshold,B293&lt;B294,B294&gt;B295), $J$1,$J$2)</f>
+        <f>IF(AND(B294&gt;Threshold,B293&gt;B294), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D294" s="14"/>
@@ -10438,8 +11710,8 @@
         <v>4.09</v>
       </c>
       <c r="C295" s="14" t="str">
-        <f>IF(AND(B295&gt;Threshold,B294&lt;B295,B295&gt;B296), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B295&gt;Threshold,B294&gt;B295), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D295" s="14"/>
       <c r="F295" s="14"/>
@@ -10454,8 +11726,8 @@
         <v>3.46</v>
       </c>
       <c r="C296" s="14" t="str">
-        <f>IF(AND(B296&gt;Threshold,B295&lt;B296,B296&gt;B297), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B296&gt;Threshold,B295&gt;B296), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D296" s="14"/>
       <c r="F296" s="14"/>
@@ -10470,7 +11742,7 @@
         <v>2.21</v>
       </c>
       <c r="C297" s="14" t="str">
-        <f>IF(AND(B297&gt;Threshold,B296&lt;B297,B297&gt;B298), $J$1,$J$2)</f>
+        <f>IF(AND(B297&gt;Threshold,B296&gt;B297), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D297" s="14"/>
@@ -10486,7 +11758,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C298" s="14" t="str">
-        <f>IF(AND(B298&gt;Threshold,B297&lt;B298,B298&gt;B299), $J$1,$J$2)</f>
+        <f>IF(AND(B298&gt;Threshold,B297&gt;B298), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D298" s="14"/>
@@ -10502,7 +11774,7 @@
         <v>2.02</v>
       </c>
       <c r="C299" s="14" t="str">
-        <f>IF(AND(B299&gt;Threshold,B298&lt;B299,B299&gt;B300), $J$1,$J$2)</f>
+        <f>IF(AND(B299&gt;Threshold,B298&gt;B299), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D299" s="14"/>
@@ -10518,7 +11790,7 @@
         <v>1.84</v>
       </c>
       <c r="C300" s="14" t="str">
-        <f>IF(AND(B300&gt;Threshold,B299&lt;B300,B300&gt;B301), $J$1,$J$2)</f>
+        <f>IF(AND(B300&gt;Threshold,B299&gt;B300), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D300" s="14"/>
@@ -10534,7 +11806,7 @@
         <v>1.83</v>
       </c>
       <c r="C301" s="14" t="str">
-        <f>IF(AND(B301&gt;Threshold,B300&lt;B301,B301&gt;B302), $J$1,$J$2)</f>
+        <f>IF(AND(B301&gt;Threshold,B300&gt;B301), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D301" s="14"/>
@@ -10550,7 +11822,7 @@
         <v>2.76</v>
       </c>
       <c r="C302" s="14" t="str">
-        <f>IF(AND(B302&gt;Threshold,B301&lt;B302,B302&gt;B303), $J$1,$J$2)</f>
+        <f>IF(AND(B302&gt;Threshold,B301&gt;B302), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D302" s="14"/>
@@ -10566,8 +11838,8 @@
         <v>4.46</v>
       </c>
       <c r="C303" s="14" t="str">
-        <f>IF(AND(B303&gt;Threshold,B302&lt;B303,B303&gt;B304), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B303&gt;Threshold,B302&gt;B303), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D303" s="14"/>
       <c r="F303" s="14"/>
@@ -10582,8 +11854,8 @@
         <v>3.03</v>
       </c>
       <c r="C304" s="14" t="str">
-        <f>IF(AND(B304&gt;Threshold,B303&lt;B304,B304&gt;B305), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B304&gt;Threshold,B303&gt;B304), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D304" s="14"/>
       <c r="F304" s="14"/>
@@ -10598,7 +11870,7 @@
         <v>2.34</v>
       </c>
       <c r="C305" s="14" t="str">
-        <f>IF(AND(B305&gt;Threshold,B304&lt;B305,B305&gt;B306), $J$1,$J$2)</f>
+        <f>IF(AND(B305&gt;Threshold,B304&gt;B305), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D305" s="14"/>
@@ -10614,7 +11886,7 @@
         <v>2.27</v>
       </c>
       <c r="C306" s="14" t="str">
-        <f>IF(AND(B306&gt;Threshold,B305&lt;B306,B306&gt;B307), $J$1,$J$2)</f>
+        <f>IF(AND(B306&gt;Threshold,B305&gt;B306), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D306" s="14"/>
@@ -10630,7 +11902,7 @@
         <v>1.93</v>
       </c>
       <c r="C307" s="14" t="str">
-        <f>IF(AND(B307&gt;Threshold,B306&lt;B307,B307&gt;B308), $J$1,$J$2)</f>
+        <f>IF(AND(B307&gt;Threshold,B306&gt;B307), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D307" s="14"/>
@@ -10646,7 +11918,7 @@
         <v>1.85</v>
       </c>
       <c r="C308" s="14" t="str">
-        <f>IF(AND(B308&gt;Threshold,B307&lt;B308,B308&gt;B309), $J$1,$J$2)</f>
+        <f>IF(AND(B308&gt;Threshold,B307&gt;B308), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D308" s="14"/>
@@ -10662,7 +11934,7 @@
         <v>1.86</v>
       </c>
       <c r="C309" s="14" t="str">
-        <f>IF(AND(B309&gt;Threshold,B308&lt;B309,B309&gt;B310), $J$1,$J$2)</f>
+        <f>IF(AND(B309&gt;Threshold,B308&gt;B309), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D309" s="14"/>
@@ -10678,8 +11950,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C310" s="14" t="str">
-        <f>IF(AND(B310&gt;Threshold,B309&lt;B310,B310&gt;B311), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B310&gt;Threshold,B309&gt;B310), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D310" s="14"/>
       <c r="F310" s="14"/>
@@ -10694,8 +11966,8 @@
         <v>4.07</v>
       </c>
       <c r="C311" s="14" t="str">
-        <f>IF(AND(B311&gt;Threshold,B310&lt;B311,B311&gt;B312), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B311&gt;Threshold,B310&gt;B311), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D311" s="14"/>
       <c r="F311" s="14"/>
@@ -10710,7 +11982,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C312" s="14" t="str">
-        <f>IF(AND(B312&gt;Threshold,B311&lt;B312,B312&gt;B313), $J$1,$J$2)</f>
+        <f>IF(AND(B312&gt;Threshold,B311&gt;B312), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D312" s="14"/>
@@ -10726,7 +11998,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C313" s="14" t="str">
-        <f>IF(AND(B313&gt;Threshold,B312&lt;B313,B313&gt;B314), $J$1,$J$2)</f>
+        <f>IF(AND(B313&gt;Threshold,B312&gt;B313), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D313" s="14"/>
@@ -10742,7 +12014,7 @@
         <v>2.21</v>
       </c>
       <c r="C314" s="14" t="str">
-        <f>IF(AND(B314&gt;Threshold,B313&lt;B314,B314&gt;B315), $J$1,$J$2)</f>
+        <f>IF(AND(B314&gt;Threshold,B313&gt;B314), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D314" s="14"/>
@@ -10758,7 +12030,7 @@
         <v>1.78</v>
       </c>
       <c r="C315" s="14" t="str">
-        <f>IF(AND(B315&gt;Threshold,B314&lt;B315,B315&gt;B316), $J$1,$J$2)</f>
+        <f>IF(AND(B315&gt;Threshold,B314&gt;B315), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D315" s="14"/>
@@ -10774,7 +12046,7 @@
         <v>1.82</v>
       </c>
       <c r="C316" s="14" t="str">
-        <f>IF(AND(B316&gt;Threshold,B315&lt;B316,B316&gt;B317), $J$1,$J$2)</f>
+        <f>IF(AND(B316&gt;Threshold,B315&gt;B316), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D316" s="14"/>
@@ -10790,7 +12062,7 @@
         <v>2.8</v>
       </c>
       <c r="C317" s="14" t="str">
-        <f>IF(AND(B317&gt;Threshold,B316&lt;B317,B317&gt;B318), $J$1,$J$2)</f>
+        <f>IF(AND(B317&gt;Threshold,B316&gt;B317), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D317" s="14"/>
@@ -10806,8 +12078,8 @@
         <v>4.58</v>
       </c>
       <c r="C318" s="14" t="str">
-        <f>IF(AND(B318&gt;Threshold,B317&lt;B318,B318&gt;B319), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B318&gt;Threshold,B317&gt;B318), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D318" s="14"/>
       <c r="F318" s="14"/>
@@ -10822,7 +12094,7 @@
         <v>2.83</v>
       </c>
       <c r="C319" s="14" t="str">
-        <f>IF(AND(B319&gt;Threshold,B318&lt;B319,B319&gt;B320), $J$1,$J$2)</f>
+        <f>IF(AND(B319&gt;Threshold,B318&gt;B319), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D319" s="14"/>
@@ -10838,7 +12110,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C320" s="14" t="str">
-        <f>IF(AND(B320&gt;Threshold,B319&lt;B320,B320&gt;B321), $J$1,$J$2)</f>
+        <f>IF(AND(B320&gt;Threshold,B319&gt;B320), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D320" s="14"/>
@@ -10854,7 +12126,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C321" s="14" t="str">
-        <f>IF(AND(B321&gt;Threshold,B320&lt;B321,B321&gt;B322), $J$1,$J$2)</f>
+        <f>IF(AND(B321&gt;Threshold,B320&gt;B321), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D321" s="14"/>
@@ -10870,7 +12142,7 @@
         <v>1.97</v>
       </c>
       <c r="C322" s="14" t="str">
-        <f>IF(AND(B322&gt;Threshold,B321&lt;B322,B322&gt;B323), $J$1,$J$2)</f>
+        <f>IF(AND(B322&gt;Threshold,B321&gt;B322), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D322" s="14"/>
@@ -10886,7 +12158,7 @@
         <v>1.73</v>
       </c>
       <c r="C323" s="14" t="str">
-        <f>IF(AND(B323&gt;Threshold,B322&lt;B323,B323&gt;B324), $J$1,$J$2)</f>
+        <f>IF(AND(B323&gt;Threshold,B322&gt;B323), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D323" s="14"/>
@@ -10902,7 +12174,7 @@
         <v>1.93</v>
       </c>
       <c r="C324" s="14" t="str">
-        <f>IF(AND(B324&gt;Threshold,B323&lt;B324,B324&gt;B325), $J$1,$J$2)</f>
+        <f>IF(AND(B324&gt;Threshold,B323&gt;B324), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D324" s="14"/>
@@ -10918,8 +12190,8 @@
         <v>4.34</v>
       </c>
       <c r="C325" s="14" t="str">
-        <f>IF(AND(B325&gt;Threshold,B324&lt;B325,B325&gt;B326), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B325&gt;Threshold,B324&gt;B325), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D325" s="14"/>
       <c r="F325" s="14"/>
@@ -10934,8 +12206,8 @@
         <v>3.75</v>
       </c>
       <c r="C326" s="14" t="str">
-        <f>IF(AND(B326&gt;Threshold,B325&lt;B326,B326&gt;B327), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B326&gt;Threshold,B325&gt;B326), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D326" s="14"/>
       <c r="F326" s="14"/>
@@ -10950,7 +12222,7 @@
         <v>2.19</v>
       </c>
       <c r="C327" s="14" t="str">
-        <f>IF(AND(B327&gt;Threshold,B326&lt;B327,B327&gt;B328), $J$1,$J$2)</f>
+        <f>IF(AND(B327&gt;Threshold,B326&gt;B327), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D327" s="14"/>
@@ -10966,7 +12238,7 @@
         <v>2.38</v>
       </c>
       <c r="C328" s="14" t="str">
-        <f>IF(AND(B328&gt;Threshold,B327&lt;B328,B328&gt;B329), $J$1,$J$2)</f>
+        <f>IF(AND(B328&gt;Threshold,B327&gt;B328), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D328" s="14"/>
@@ -10982,7 +12254,7 @@
         <v>1.95</v>
       </c>
       <c r="C329" s="14" t="str">
-        <f>IF(AND(B329&gt;Threshold,B328&lt;B329,B329&gt;B330), $J$1,$J$2)</f>
+        <f>IF(AND(B329&gt;Threshold,B328&gt;B329), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D329" s="14"/>
@@ -10998,7 +12270,7 @@
         <v>1.69</v>
       </c>
       <c r="C330" s="14" t="str">
-        <f>IF(AND(B330&gt;Threshold,B329&lt;B330,B330&gt;B331), $J$1,$J$2)</f>
+        <f>IF(AND(B330&gt;Threshold,B329&gt;B330), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D330" s="14"/>
@@ -11014,7 +12286,7 @@
         <v>1.79</v>
       </c>
       <c r="C331" s="14" t="str">
-        <f>IF(AND(B331&gt;Threshold,B330&lt;B331,B331&gt;B332), $J$1,$J$2)</f>
+        <f>IF(AND(B331&gt;Threshold,B330&gt;B331), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D331" s="14"/>
@@ -11030,7 +12302,7 @@
         <v>2.98</v>
       </c>
       <c r="C332" s="14" t="str">
-        <f>IF(AND(B332&gt;Threshold,B331&lt;B332,B332&gt;B333), $J$1,$J$2)</f>
+        <f>IF(AND(B332&gt;Threshold,B331&gt;B332), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D332" s="14"/>
@@ -11046,8 +12318,8 @@
         <v>4.63</v>
       </c>
       <c r="C333" s="14" t="str">
-        <f>IF(AND(B333&gt;Threshold,B332&lt;B333,B333&gt;B334), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B333&gt;Threshold,B332&gt;B333), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D333" s="14"/>
       <c r="F333" s="14"/>
@@ -11062,7 +12334,7 @@
         <v>2.88</v>
       </c>
       <c r="C334" s="14" t="str">
-        <f>IF(AND(B334&gt;Threshold,B333&lt;B334,B334&gt;B335), $J$1,$J$2)</f>
+        <f>IF(AND(B334&gt;Threshold,B333&gt;B334), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D334" s="14"/>
@@ -11078,7 +12350,7 @@
         <v>2.09</v>
       </c>
       <c r="C335" s="14" t="str">
-        <f>IF(AND(B335&gt;Threshold,B334&lt;B335,B335&gt;B336), $J$1,$J$2)</f>
+        <f>IF(AND(B335&gt;Threshold,B334&gt;B335), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D335" s="14"/>
@@ -11094,7 +12366,7 @@
         <v>2.16</v>
       </c>
       <c r="C336" s="14" t="str">
-        <f>IF(AND(B336&gt;Threshold,B335&lt;B336,B336&gt;B337), $J$1,$J$2)</f>
+        <f>IF(AND(B336&gt;Threshold,B335&gt;B336), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D336" s="14"/>
@@ -11110,7 +12382,7 @@
         <v>1.78</v>
       </c>
       <c r="C337" s="14" t="str">
-        <f>IF(AND(B337&gt;Threshold,B336&lt;B337,B337&gt;B338), $J$1,$J$2)</f>
+        <f>IF(AND(B337&gt;Threshold,B336&gt;B337), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D337" s="14"/>
@@ -11126,7 +12398,7 @@
         <v>1.75</v>
       </c>
       <c r="C338" s="14" t="str">
-        <f>IF(AND(B338&gt;Threshold,B337&lt;B338,B338&gt;B339), $J$1,$J$2)</f>
+        <f>IF(AND(B338&gt;Threshold,B337&gt;B338), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D338" s="14"/>
@@ -11142,7 +12414,7 @@
         <v>1.8</v>
       </c>
       <c r="C339" s="14" t="str">
-        <f>IF(AND(B339&gt;Threshold,B338&lt;B339,B339&gt;B340), $J$1,$J$2)</f>
+        <f>IF(AND(B339&gt;Threshold,B338&gt;B339), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D339" s="14"/>
@@ -11158,7 +12430,7 @@
         <v>3.85</v>
       </c>
       <c r="C340" s="14" t="str">
-        <f>IF(AND(B340&gt;Threshold,B339&lt;B340,B340&gt;B341), $J$1,$J$2)</f>
+        <f>IF(AND(B340&gt;Threshold,B339&gt;B340), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D340" s="14"/>
@@ -11174,8 +12446,8 @@
         <v>4.38</v>
       </c>
       <c r="C341" s="14" t="str">
-        <f>IF(AND(B341&gt;Threshold,B340&lt;B341,B341&gt;B342), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B341&gt;Threshold,B340&gt;B341), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D341" s="14"/>
       <c r="F341" s="14"/>
@@ -11190,7 +12462,7 @@
         <v>2.6</v>
       </c>
       <c r="C342" s="14" t="str">
-        <f>IF(AND(B342&gt;Threshold,B341&lt;B342,B342&gt;B343), $J$1,$J$2)</f>
+        <f>IF(AND(B342&gt;Threshold,B341&gt;B342), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D342" s="14"/>
@@ -11206,7 +12478,7 @@
         <v>2.14</v>
       </c>
       <c r="C343" s="14" t="str">
-        <f>IF(AND(B343&gt;Threshold,B342&lt;B343,B343&gt;B344), $J$1,$J$2)</f>
+        <f>IF(AND(B343&gt;Threshold,B342&gt;B343), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D343" s="14"/>
@@ -11222,7 +12494,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C344" s="14" t="str">
-        <f>IF(AND(B344&gt;Threshold,B343&lt;B344,B344&gt;B345), $J$1,$J$2)</f>
+        <f>IF(AND(B344&gt;Threshold,B343&gt;B344), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D344" s="14"/>
@@ -11238,7 +12510,7 @@
         <v>1.74</v>
       </c>
       <c r="C345" s="14" t="str">
-        <f>IF(AND(B345&gt;Threshold,B344&lt;B345,B345&gt;B346), $J$1,$J$2)</f>
+        <f>IF(AND(B345&gt;Threshold,B344&gt;B345), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D345" s="14"/>
@@ -11254,7 +12526,7 @@
         <v>1.73</v>
       </c>
       <c r="C346" s="14" t="str">
-        <f>IF(AND(B346&gt;Threshold,B345&lt;B346,B346&gt;B347), $J$1,$J$2)</f>
+        <f>IF(AND(B346&gt;Threshold,B345&gt;B346), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D346" s="14"/>
@@ -11270,7 +12542,7 @@
         <v>1.84</v>
       </c>
       <c r="C347" s="14" t="str">
-        <f>IF(AND(B347&gt;Threshold,B346&lt;B347,B347&gt;B348), $J$1,$J$2)</f>
+        <f>IF(AND(B347&gt;Threshold,B346&gt;B347), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D347" s="14"/>
@@ -11286,7 +12558,7 @@
         <v>3.58</v>
       </c>
       <c r="C348" s="14" t="str">
-        <f>IF(AND(B348&gt;Threshold,B347&lt;B348,B348&gt;B349), $J$1,$J$2)</f>
+        <f>IF(AND(B348&gt;Threshold,B347&gt;B348), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D348" s="14"/>
@@ -11302,8 +12574,8 @@
         <v>4.38</v>
       </c>
       <c r="C349" s="14" t="str">
-        <f>IF(AND(B349&gt;Threshold,B348&lt;B349,B349&gt;B350), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B349&gt;Threshold,B348&gt;B349), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D349" s="14"/>
       <c r="F349" s="14"/>
@@ -11318,7 +12590,7 @@
         <v>2.6</v>
       </c>
       <c r="C350" s="14" t="str">
-        <f>IF(AND(B350&gt;Threshold,B349&lt;B350,B350&gt;B351), $J$1,$J$2)</f>
+        <f>IF(AND(B350&gt;Threshold,B349&gt;B350), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D350" s="14"/>
@@ -11334,7 +12606,7 @@
         <v>2.21</v>
       </c>
       <c r="C351" s="14" t="str">
-        <f>IF(AND(B351&gt;Threshold,B350&lt;B351,B351&gt;B352), $J$1,$J$2)</f>
+        <f>IF(AND(B351&gt;Threshold,B350&gt;B351), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D351" s="14"/>
@@ -11350,7 +12622,7 @@
         <v>2.13</v>
       </c>
       <c r="C352" s="14" t="str">
-        <f>IF(AND(B352&gt;Threshold,B351&lt;B352,B352&gt;B353), $J$1,$J$2)</f>
+        <f>IF(AND(B352&gt;Threshold,B351&gt;B352), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D352" s="14"/>
@@ -11366,7 +12638,7 @@
         <v>1.72</v>
       </c>
       <c r="C353" s="14" t="str">
-        <f>IF(AND(B353&gt;Threshold,B352&lt;B353,B353&gt;B354), $J$1,$J$2)</f>
+        <f>IF(AND(B353&gt;Threshold,B352&gt;B353), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D353" s="14"/>
@@ -11382,7 +12654,7 @@
         <v>1.77</v>
       </c>
       <c r="C354" s="14" t="str">
-        <f>IF(AND(B354&gt;Threshold,B353&lt;B354,B354&gt;B355), $J$1,$J$2)</f>
+        <f>IF(AND(B354&gt;Threshold,B353&gt;B354), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D354" s="14"/>
@@ -11398,7 +12670,7 @@
         <v>1.79</v>
       </c>
       <c r="C355" s="14" t="str">
-        <f>IF(AND(B355&gt;Threshold,B354&lt;B355,B355&gt;B356), $J$1,$J$2)</f>
+        <f>IF(AND(B355&gt;Threshold,B354&gt;B355), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D355" s="14"/>
@@ -11414,7 +12686,7 @@
         <v>3.62</v>
       </c>
       <c r="C356" s="14" t="str">
-        <f>IF(AND(B356&gt;Threshold,B355&lt;B356,B356&gt;B357), $J$1,$J$2)</f>
+        <f>IF(AND(B356&gt;Threshold,B355&gt;B356), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D356" s="14"/>
@@ -11430,8 +12702,8 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C357" s="14" t="str">
-        <f>IF(AND(B357&gt;Threshold,B356&lt;B357,B357&gt;B358), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B357&gt;Threshold,B356&gt;B357), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D357" s="14"/>
       <c r="F357" s="14"/>
@@ -11446,7 +12718,7 @@
         <v>2.54</v>
       </c>
       <c r="C358" s="14" t="str">
-        <f>IF(AND(B358&gt;Threshold,B357&lt;B358,B358&gt;B359), $J$1,$J$2)</f>
+        <f>IF(AND(B358&gt;Threshold,B357&gt;B358), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D358" s="14"/>
@@ -11462,7 +12734,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C359" s="14" t="str">
-        <f>IF(AND(B359&gt;Threshold,B358&lt;B359,B359&gt;B360), $J$1,$J$2)</f>
+        <f>IF(AND(B359&gt;Threshold,B358&gt;B359), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D359" s="14"/>
@@ -11478,7 +12750,7 @@
         <v>2.15</v>
       </c>
       <c r="C360" s="14" t="str">
-        <f>IF(AND(B360&gt;Threshold,B359&lt;B360,B360&gt;B361), $J$1,$J$2)</f>
+        <f>IF(AND(B360&gt;Threshold,B359&gt;B360), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D360" s="14"/>
@@ -11494,7 +12766,7 @@
         <v>1.78</v>
       </c>
       <c r="C361" s="14" t="str">
-        <f>IF(AND(B361&gt;Threshold,B360&lt;B361,B361&gt;B362), $J$1,$J$2)</f>
+        <f>IF(AND(B361&gt;Threshold,B360&gt;B361), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D361" s="14"/>
@@ -11510,7 +12782,7 @@
         <v>1.74</v>
       </c>
       <c r="C362" s="14" t="str">
-        <f>IF(AND(B362&gt;Threshold,B361&lt;B362,B362&gt;B363), $J$1,$J$2)</f>
+        <f>IF(AND(B362&gt;Threshold,B361&gt;B362), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D362" s="14"/>
@@ -11526,7 +12798,7 @@
         <v>1.8</v>
       </c>
       <c r="C363" s="14" t="str">
-        <f>IF(AND(B363&gt;Threshold,B362&lt;B363,B363&gt;B364), $J$1,$J$2)</f>
+        <f>IF(AND(B363&gt;Threshold,B362&gt;B363), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D363" s="14"/>
@@ -11542,7 +12814,7 @@
         <v>3.89</v>
       </c>
       <c r="C364" s="14" t="str">
-        <f>IF(AND(B364&gt;Threshold,B363&lt;B364,B364&gt;B365), $J$1,$J$2)</f>
+        <f>IF(AND(B364&gt;Threshold,B363&gt;B364), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D364" s="14"/>
@@ -11558,8 +12830,8 @@
         <v>4.21</v>
       </c>
       <c r="C365" s="14" t="str">
-        <f>IF(AND(B365&gt;Threshold,B364&lt;B365,B365&gt;B366), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B365&gt;Threshold,B364&gt;B365), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D365" s="14"/>
       <c r="F365" s="14"/>
@@ -11574,7 +12846,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C366" s="14" t="str">
-        <f>IF(AND(B366&gt;Threshold,B365&lt;B366,B366&gt;B367), $J$1,$J$2)</f>
+        <f>IF(AND(B366&gt;Threshold,B365&gt;B366), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D366" s="14"/>
@@ -11590,7 +12862,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C367" s="14" t="str">
-        <f>IF(AND(B367&gt;Threshold,B366&lt;B367,B367&gt;B368), $J$1,$J$2)</f>
+        <f>IF(AND(B367&gt;Threshold,B366&gt;B367), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D367" s="14"/>
@@ -11606,7 +12878,7 @@
         <v>2.08</v>
       </c>
       <c r="C368" s="14" t="str">
-        <f>IF(AND(B368&gt;Threshold,B367&lt;B368,B368&gt;B369), $J$1,$J$2)</f>
+        <f>IF(AND(B368&gt;Threshold,B367&gt;B368), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D368" s="14"/>
@@ -11622,7 +12894,7 @@
         <v>1.7</v>
       </c>
       <c r="C369" s="14" t="str">
-        <f>IF(AND(B369&gt;Threshold,B368&lt;B369,B369&gt;B370), $J$1,$J$2)</f>
+        <f>IF(AND(B369&gt;Threshold,B368&gt;B369), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D369" s="14"/>
@@ -11638,7 +12910,7 @@
         <v>1.76</v>
       </c>
       <c r="C370" s="14" t="str">
-        <f>IF(AND(B370&gt;Threshold,B369&lt;B370,B370&gt;B371), $J$1,$J$2)</f>
+        <f>IF(AND(B370&gt;Threshold,B369&gt;B370), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D370" s="14"/>
@@ -11654,7 +12926,7 @@
         <v>1.73</v>
       </c>
       <c r="C371" s="14" t="str">
-        <f>IF(AND(B371&gt;Threshold,B370&lt;B371,B371&gt;B372), $J$1,$J$2)</f>
+        <f>IF(AND(B371&gt;Threshold,B370&gt;B371), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D371" s="14"/>
@@ -11670,7 +12942,7 @@
         <v>3.74</v>
       </c>
       <c r="C372" s="14" t="str">
-        <f>IF(AND(B372&gt;Threshold,B371&lt;B372,B372&gt;B373), $J$1,$J$2)</f>
+        <f>IF(AND(B372&gt;Threshold,B371&gt;B372), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D372" s="14"/>
@@ -11686,8 +12958,8 @@
         <v>4.43</v>
       </c>
       <c r="C373" s="14" t="str">
-        <f>IF(AND(B373&gt;Threshold,B372&lt;B373,B373&gt;B374), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B373&gt;Threshold,B372&gt;B373), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D373" s="14"/>
       <c r="F373" s="14"/>
@@ -11702,7 +12974,7 @@
         <v>2.79</v>
       </c>
       <c r="C374" s="14" t="str">
-        <f>IF(AND(B374&gt;Threshold,B373&lt;B374,B374&gt;B375), $J$1,$J$2)</f>
+        <f>IF(AND(B374&gt;Threshold,B373&gt;B374), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D374" s="14"/>
@@ -11718,7 +12990,7 @@
         <v>2.29</v>
       </c>
       <c r="C375" s="14" t="str">
-        <f>IF(AND(B375&gt;Threshold,B374&lt;B375,B375&gt;B376), $J$1,$J$2)</f>
+        <f>IF(AND(B375&gt;Threshold,B374&gt;B375), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D375" s="14"/>
@@ -11734,7 +13006,7 @@
         <v>2.09</v>
       </c>
       <c r="C376" s="14" t="str">
-        <f>IF(AND(B376&gt;Threshold,B375&lt;B376,B376&gt;B377), $J$1,$J$2)</f>
+        <f>IF(AND(B376&gt;Threshold,B375&gt;B376), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D376" s="14"/>
@@ -11750,7 +13022,7 @@
         <v>1.79</v>
       </c>
       <c r="C377" s="14" t="str">
-        <f>IF(AND(B377&gt;Threshold,B376&lt;B377,B377&gt;B378), $J$1,$J$2)</f>
+        <f>IF(AND(B377&gt;Threshold,B376&gt;B377), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D377" s="14"/>
@@ -11766,7 +13038,7 @@
         <v>1.75</v>
       </c>
       <c r="C378" s="14" t="str">
-        <f>IF(AND(B378&gt;Threshold,B377&lt;B378,B378&gt;B379), $J$1,$J$2)</f>
+        <f>IF(AND(B378&gt;Threshold,B377&gt;B378), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D378" s="14"/>
@@ -11782,7 +13054,7 @@
         <v>1.72</v>
       </c>
       <c r="C379" s="14" t="str">
-        <f>IF(AND(B379&gt;Threshold,B378&lt;B379,B379&gt;B380), $J$1,$J$2)</f>
+        <f>IF(AND(B379&gt;Threshold,B378&gt;B379), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D379" s="14"/>
@@ -11798,7 +13070,7 @@
         <v>3.63</v>
       </c>
       <c r="C380" s="14" t="str">
-        <f>IF(AND(B380&gt;Threshold,B379&lt;B380,B380&gt;B381), $J$1,$J$2)</f>
+        <f>IF(AND(B380&gt;Threshold,B379&gt;B380), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D380" s="14"/>
@@ -11814,8 +13086,8 @@
         <v>4.66</v>
       </c>
       <c r="C381" s="14" t="str">
-        <f>IF(AND(B381&gt;Threshold,B380&lt;B381,B381&gt;B382), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B381&gt;Threshold,B380&gt;B381), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D381" s="14"/>
       <c r="F381" s="14"/>
@@ -11830,7 +13102,7 @@
         <v>2.76</v>
       </c>
       <c r="C382" s="14" t="str">
-        <f>IF(AND(B382&gt;Threshold,B381&lt;B382,B382&gt;B383), $J$1,$J$2)</f>
+        <f>IF(AND(B382&gt;Threshold,B381&gt;B382), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D382" s="14"/>
@@ -11846,7 +13118,7 @@
         <v>2.23</v>
       </c>
       <c r="C383" s="14" t="str">
-        <f>IF(AND(B383&gt;Threshold,B382&lt;B383,B383&gt;B384), $J$1,$J$2)</f>
+        <f>IF(AND(B383&gt;Threshold,B382&gt;B383), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D383" s="14"/>
@@ -11862,7 +13134,7 @@
         <v>2.16</v>
       </c>
       <c r="C384" s="14" t="str">
-        <f>IF(AND(B384&gt;Threshold,B383&lt;B384,B384&gt;B385), $J$1,$J$2)</f>
+        <f>IF(AND(B384&gt;Threshold,B383&gt;B384), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D384" s="14"/>
@@ -11878,7 +13150,7 @@
         <v>1.63</v>
       </c>
       <c r="C385" s="14" t="str">
-        <f>IF(AND(B385&gt;Threshold,B384&lt;B385,B385&gt;B386), $J$1,$J$2)</f>
+        <f>IF(AND(B385&gt;Threshold,B384&gt;B385), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D385" s="14"/>
@@ -11894,7 +13166,7 @@
         <v>1.53</v>
       </c>
       <c r="C386" s="14" t="str">
-        <f>IF(AND(B386&gt;Threshold,B385&lt;B386,B386&gt;B387), $J$1,$J$2)</f>
+        <f>IF(AND(B386&gt;Threshold,B385&gt;B386), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D386" s="14"/>
@@ -11910,7 +13182,7 @@
         <v>1.42</v>
       </c>
       <c r="C387" s="14" t="str">
-        <f>IF(AND(B387&gt;Threshold,B386&lt;B387,B387&gt;B388), $J$1,$J$2)</f>
+        <f>IF(AND(B387&gt;Threshold,B386&gt;B387), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D387" s="14"/>
@@ -11926,7 +13198,7 @@
         <v>3.66</v>
       </c>
       <c r="C388" s="14" t="str">
-        <f>IF(AND(B388&gt;Threshold,B387&lt;B388,B388&gt;B389), $J$1,$J$2)</f>
+        <f>IF(AND(B388&gt;Threshold,B387&gt;B388), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D388" s="14"/>
@@ -11942,8 +13214,8 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C389" s="14" t="str">
-        <f>IF(AND(B389&gt;Threshold,B388&lt;B389,B389&gt;B390), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B389&gt;Threshold,B388&gt;B389), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D389" s="14"/>
       <c r="F389" s="14"/>
@@ -11958,7 +13230,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C390" s="14" t="str">
-        <f>IF(AND(B390&gt;Threshold,B389&lt;B390,B390&gt;B391), $J$1,$J$2)</f>
+        <f>IF(AND(B390&gt;Threshold,B389&gt;B390), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D390" s="14"/>
@@ -11974,7 +13246,7 @@
         <v>2.14</v>
       </c>
       <c r="C391" s="14" t="str">
-        <f>IF(AND(B391&gt;Threshold,B390&lt;B391,B391&gt;B392), $J$1,$J$2)</f>
+        <f>IF(AND(B391&gt;Threshold,B390&gt;B391), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D391" s="14"/>
@@ -11990,7 +13262,7 @@
         <v>2.1</v>
       </c>
       <c r="C392" s="14" t="str">
-        <f>IF(AND(B392&gt;Threshold,B391&lt;B392,B392&gt;B393), $J$1,$J$2)</f>
+        <f>IF(AND(B392&gt;Threshold,B391&gt;B392), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D392" s="14"/>
@@ -12006,7 +13278,7 @@
         <v>1.66</v>
       </c>
       <c r="C393" s="14" t="str">
-        <f>IF(AND(B393&gt;Threshold,B392&lt;B393,B393&gt;B394), $J$1,$J$2)</f>
+        <f>IF(AND(B393&gt;Threshold,B392&gt;B393), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D393" s="14"/>
@@ -12022,7 +13294,7 @@
         <v>1.63</v>
       </c>
       <c r="C394" s="14" t="str">
-        <f>IF(AND(B394&gt;Threshold,B393&lt;B394,B394&gt;B395), $J$1,$J$2)</f>
+        <f>IF(AND(B394&gt;Threshold,B393&gt;B394), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D394" s="14"/>
@@ -12038,7 +13310,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C395" s="14" t="str">
-        <f>IF(AND(B395&gt;Threshold,B394&lt;B395,B395&gt;B396), $J$1,$J$2)</f>
+        <f>IF(AND(B395&gt;Threshold,B394&gt;B395), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D395" s="14"/>
@@ -12054,8 +13326,8 @@
         <v>4.7</v>
       </c>
       <c r="C396" s="14" t="str">
-        <f>IF(AND(B396&gt;Threshold,B395&lt;B396,B396&gt;B397), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B396&gt;Threshold,B395&gt;B396), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D396" s="14"/>
       <c r="F396" s="14"/>
@@ -12070,8 +13342,8 @@
         <v>3.31</v>
       </c>
       <c r="C397" s="14" t="str">
-        <f>IF(AND(B397&gt;Threshold,B396&lt;B397,B397&gt;B398), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B397&gt;Threshold,B396&gt;B397), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D397" s="14"/>
       <c r="F397" s="14"/>
@@ -12086,7 +13358,7 @@
         <v>2.09</v>
       </c>
       <c r="C398" s="14" t="str">
-        <f>IF(AND(B398&gt;Threshold,B397&lt;B398,B398&gt;B399), $J$1,$J$2)</f>
+        <f>IF(AND(B398&gt;Threshold,B397&gt;B398), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D398" s="14"/>
@@ -12102,7 +13374,7 @@
         <v>2.13</v>
       </c>
       <c r="C399" s="14" t="str">
-        <f>IF(AND(B399&gt;Threshold,B398&lt;B399,B399&gt;B400), $J$1,$J$2)</f>
+        <f>IF(AND(B399&gt;Threshold,B398&gt;B399), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D399" s="14"/>
@@ -12118,7 +13390,7 @@
         <v>1.72</v>
       </c>
       <c r="C400" s="14" t="str">
-        <f>IF(AND(B400&gt;Threshold,B399&lt;B400,B400&gt;B401), $J$1,$J$2)</f>
+        <f>IF(AND(B400&gt;Threshold,B399&gt;B400), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D400" s="14"/>
@@ -12134,7 +13406,7 @@
         <v>1.5</v>
       </c>
       <c r="C401" s="14" t="str">
-        <f>IF(AND(B401&gt;Threshold,B400&lt;B401,B401&gt;B402), $J$1,$J$2)</f>
+        <f>IF(AND(B401&gt;Threshold,B400&gt;B401), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D401" s="14"/>
@@ -12150,7 +13422,7 @@
         <v>1.63</v>
       </c>
       <c r="C402" s="14" t="str">
-        <f>IF(AND(B402&gt;Threshold,B401&lt;B402,B402&gt;B403), $J$1,$J$2)</f>
+        <f>IF(AND(B402&gt;Threshold,B401&gt;B402), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D402" s="14"/>
@@ -12166,7 +13438,7 @@
         <v>3.27</v>
       </c>
       <c r="C403" s="14" t="str">
-        <f>IF(AND(B403&gt;Threshold,B402&lt;B403,B403&gt;B404), $J$1,$J$2)</f>
+        <f>IF(AND(B403&gt;Threshold,B402&gt;B403), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D403" s="14"/>
@@ -12182,8 +13454,8 @@
         <v>4.12</v>
       </c>
       <c r="C404" s="14" t="str">
-        <f>IF(AND(B404&gt;Threshold,B403&lt;B404,B404&gt;B405), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B404&gt;Threshold,B403&gt;B404), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D404" s="14"/>
       <c r="F404" s="14"/>
@@ -12198,7 +13470,7 @@
         <v>2.56</v>
       </c>
       <c r="C405" s="14" t="str">
-        <f>IF(AND(B405&gt;Threshold,B404&lt;B405,B405&gt;B406), $J$1,$J$2)</f>
+        <f>IF(AND(B405&gt;Threshold,B404&gt;B405), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D405" s="14"/>
@@ -12214,7 +13486,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C406" s="14" t="str">
-        <f>IF(AND(B406&gt;Threshold,B405&lt;B406,B406&gt;B407), $J$1,$J$2)</f>
+        <f>IF(AND(B406&gt;Threshold,B405&gt;B406), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D406" s="14"/>
@@ -12230,7 +13502,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C407" s="14" t="str">
-        <f>IF(AND(B407&gt;Threshold,B406&lt;B407,B407&gt;B408), $J$1,$J$2)</f>
+        <f>IF(AND(B407&gt;Threshold,B406&gt;B407), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D407" s="14"/>
@@ -12246,7 +13518,7 @@
         <v>1.72</v>
       </c>
       <c r="C408" s="14" t="str">
-        <f>IF(AND(B408&gt;Threshold,B407&lt;B408,B408&gt;B409), $J$1,$J$2)</f>
+        <f>IF(AND(B408&gt;Threshold,B407&gt;B408), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D408" s="14"/>
@@ -12262,7 +13534,7 @@
         <v>1.63</v>
       </c>
       <c r="C409" s="14" t="str">
-        <f>IF(AND(B409&gt;Threshold,B408&lt;B409,B409&gt;B410), $J$1,$J$2)</f>
+        <f>IF(AND(B409&gt;Threshold,B408&gt;B409), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D409" s="14"/>
@@ -12278,7 +13550,7 @@
         <v>2.09</v>
       </c>
       <c r="C410" s="14" t="str">
-        <f>IF(AND(B410&gt;Threshold,B409&lt;B410,B410&gt;B411), $J$1,$J$2)</f>
+        <f>IF(AND(B410&gt;Threshold,B409&gt;B410), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D410" s="14"/>
@@ -12294,8 +13566,8 @@
         <v>4.2</v>
       </c>
       <c r="C411" s="14" t="str">
-        <f>IF(AND(B411&gt;Threshold,B410&lt;B411,B411&gt;B412), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B411&gt;Threshold,B410&gt;B411), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D411" s="14"/>
       <c r="F411" s="14"/>
@@ -12310,8 +13582,8 @@
         <v>3.59</v>
       </c>
       <c r="C412" s="14" t="str">
-        <f>IF(AND(B412&gt;Threshold,B411&lt;B412,B412&gt;B413), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B412&gt;Threshold,B411&gt;B412), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D412" s="14"/>
       <c r="F412" s="14"/>
@@ -12326,7 +13598,7 @@
         <v>2.33</v>
       </c>
       <c r="C413" s="14" t="str">
-        <f>IF(AND(B413&gt;Threshold,B412&lt;B413,B413&gt;B414), $J$1,$J$2)</f>
+        <f>IF(AND(B413&gt;Threshold,B412&gt;B413), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D413" s="14"/>
@@ -12342,7 +13614,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C414" s="14" t="str">
-        <f>IF(AND(B414&gt;Threshold,B413&lt;B414,B414&gt;B415), $J$1,$J$2)</f>
+        <f>IF(AND(B414&gt;Threshold,B413&gt;B414), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D414" s="14"/>
@@ -12358,7 +13630,7 @@
         <v>1.95</v>
       </c>
       <c r="C415" s="14" t="str">
-        <f>IF(AND(B415&gt;Threshold,B414&lt;B415,B415&gt;B416), $J$1,$J$2)</f>
+        <f>IF(AND(B415&gt;Threshold,B414&gt;B415), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D415" s="14"/>
@@ -12374,7 +13646,7 @@
         <v>1.74</v>
       </c>
       <c r="C416" s="14" t="str">
-        <f>IF(AND(B416&gt;Threshold,B415&lt;B416,B416&gt;B417), $J$1,$J$2)</f>
+        <f>IF(AND(B416&gt;Threshold,B415&gt;B416), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D416" s="14"/>
@@ -12390,7 +13662,7 @@
         <v>1.78</v>
       </c>
       <c r="C417" s="14" t="str">
-        <f>IF(AND(B417&gt;Threshold,B416&lt;B417,B417&gt;B418), $J$1,$J$2)</f>
+        <f>IF(AND(B417&gt;Threshold,B416&gt;B417), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D417" s="14"/>
@@ -12406,7 +13678,7 @@
         <v>3</v>
       </c>
       <c r="C418" s="14" t="str">
-        <f>IF(AND(B418&gt;Threshold,B417&lt;B418,B418&gt;B419), $J$1,$J$2)</f>
+        <f>IF(AND(B418&gt;Threshold,B417&gt;B418), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D418" s="14"/>
@@ -12422,8 +13694,8 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C419" s="14" t="str">
-        <f>IF(AND(B419&gt;Threshold,B418&lt;B419,B419&gt;B420), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B419&gt;Threshold,B418&gt;B419), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D419" s="14"/>
       <c r="F419" s="14"/>
@@ -12438,8 +13710,8 @@
         <v>3.08</v>
       </c>
       <c r="C420" s="14" t="str">
-        <f>IF(AND(B420&gt;Threshold,B419&lt;B420,B420&gt;B421), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B420&gt;Threshold,B419&gt;B420), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D420" s="14"/>
       <c r="F420" s="14"/>
@@ -12454,7 +13726,7 @@
         <v>2.31</v>
       </c>
       <c r="C421" s="14" t="str">
-        <f>IF(AND(B421&gt;Threshold,B420&lt;B421,B421&gt;B422), $J$1,$J$2)</f>
+        <f>IF(AND(B421&gt;Threshold,B420&gt;B421), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D421" s="14"/>
@@ -12470,7 +13742,7 @@
         <v>2.23</v>
       </c>
       <c r="C422" s="14" t="str">
-        <f>IF(AND(B422&gt;Threshold,B421&lt;B422,B422&gt;B423), $J$1,$J$2)</f>
+        <f>IF(AND(B422&gt;Threshold,B421&gt;B422), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D422" s="14"/>
@@ -12486,7 +13758,7 @@
         <v>1.74</v>
       </c>
       <c r="C423" s="14" t="str">
-        <f>IF(AND(B423&gt;Threshold,B422&lt;B423,B423&gt;B424), $J$1,$J$2)</f>
+        <f>IF(AND(B423&gt;Threshold,B422&gt;B423), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D423" s="14"/>
@@ -12502,7 +13774,7 @@
         <v>1.7</v>
       </c>
       <c r="C424" s="14" t="str">
-        <f>IF(AND(B424&gt;Threshold,B423&lt;B424,B424&gt;B425), $J$1,$J$2)</f>
+        <f>IF(AND(B424&gt;Threshold,B423&gt;B424), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D424" s="14"/>
@@ -12518,7 +13790,7 @@
         <v>1.94</v>
       </c>
       <c r="C425" s="14" t="str">
-        <f>IF(AND(B425&gt;Threshold,B424&lt;B425,B425&gt;B426), $J$1,$J$2)</f>
+        <f>IF(AND(B425&gt;Threshold,B424&gt;B425), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D425" s="14"/>
@@ -12534,8 +13806,8 @@
         <v>4.37</v>
       </c>
       <c r="C426" s="14" t="str">
-        <f>IF(AND(B426&gt;Threshold,B425&lt;B426,B426&gt;B427), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B426&gt;Threshold,B425&gt;B426), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D426" s="14"/>
       <c r="F426" s="14"/>
@@ -12550,8 +13822,8 @@
         <v>3.87</v>
       </c>
       <c r="C427" s="14" t="str">
-        <f>IF(AND(B427&gt;Threshold,B426&lt;B427,B427&gt;B428), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B427&gt;Threshold,B426&gt;B427), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D427" s="14"/>
       <c r="F427" s="14"/>
@@ -12566,7 +13838,7 @@
         <v>2.39</v>
       </c>
       <c r="C428" s="14" t="str">
-        <f>IF(AND(B428&gt;Threshold,B427&lt;B428,B428&gt;B429), $J$1,$J$2)</f>
+        <f>IF(AND(B428&gt;Threshold,B427&gt;B428), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D428" s="14"/>
@@ -12582,7 +13854,7 @@
         <v>2.21</v>
       </c>
       <c r="C429" s="14" t="str">
-        <f>IF(AND(B429&gt;Threshold,B428&lt;B429,B429&gt;B430), $J$1,$J$2)</f>
+        <f>IF(AND(B429&gt;Threshold,B428&gt;B429), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D429" s="14"/>
@@ -12598,7 +13870,7 @@
         <v>1.93</v>
       </c>
       <c r="C430" s="14" t="str">
-        <f>IF(AND(B430&gt;Threshold,B429&lt;B430,B430&gt;B431), $J$1,$J$2)</f>
+        <f>IF(AND(B430&gt;Threshold,B429&gt;B430), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D430" s="14"/>
@@ -12614,7 +13886,7 @@
         <v>1.56</v>
       </c>
       <c r="C431" s="14" t="str">
-        <f>IF(AND(B431&gt;Threshold,B430&lt;B431,B431&gt;B432), $J$1,$J$2)</f>
+        <f>IF(AND(B431&gt;Threshold,B430&gt;B431), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D431" s="14"/>
@@ -12630,7 +13902,7 @@
         <v>1.7</v>
       </c>
       <c r="C432" s="14" t="str">
-        <f>IF(AND(B432&gt;Threshold,B431&lt;B432,B432&gt;B433), $J$1,$J$2)</f>
+        <f>IF(AND(B432&gt;Threshold,B431&gt;B432), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D432" s="14"/>
@@ -12646,7 +13918,7 @@
         <v>3.09</v>
       </c>
       <c r="C433" s="14" t="str">
-        <f>IF(AND(B433&gt;Threshold,B432&lt;B433,B433&gt;B434), $J$1,$J$2)</f>
+        <f>IF(AND(B433&gt;Threshold,B432&gt;B433), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D433" s="14"/>
@@ -12662,8 +13934,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C434" s="14" t="str">
-        <f>IF(AND(B434&gt;Threshold,B433&lt;B434,B434&gt;B435), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B434&gt;Threshold,B433&gt;B434), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D434" s="14"/>
       <c r="F434" s="14"/>
@@ -12678,7 +13950,7 @@
         <v>2.86</v>
       </c>
       <c r="C435" s="14" t="str">
-        <f>IF(AND(B435&gt;Threshold,B434&lt;B435,B435&gt;B436), $J$1,$J$2)</f>
+        <f>IF(AND(B435&gt;Threshold,B434&gt;B435), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D435" s="14"/>
@@ -12694,7 +13966,7 @@
         <v>2.39</v>
       </c>
       <c r="C436" s="14" t="str">
-        <f>IF(AND(B436&gt;Threshold,B435&lt;B436,B436&gt;B437), $J$1,$J$2)</f>
+        <f>IF(AND(B436&gt;Threshold,B435&gt;B436), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D436" s="14"/>
@@ -12710,7 +13982,7 @@
         <v>2.15</v>
       </c>
       <c r="C437" s="14" t="str">
-        <f>IF(AND(B437&gt;Threshold,B436&lt;B437,B437&gt;B438), $J$1,$J$2)</f>
+        <f>IF(AND(B437&gt;Threshold,B436&gt;B437), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D437" s="14"/>
@@ -12726,7 +13998,7 @@
         <v>1.68</v>
       </c>
       <c r="C438" s="14" t="str">
-        <f>IF(AND(B438&gt;Threshold,B437&lt;B438,B438&gt;B439), $J$1,$J$2)</f>
+        <f>IF(AND(B438&gt;Threshold,B437&gt;B438), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D438" s="14"/>
@@ -12742,7 +14014,7 @@
         <v>1.58</v>
       </c>
       <c r="C439" s="14" t="str">
-        <f>IF(AND(B439&gt;Threshold,B438&lt;B439,B439&gt;B440), $J$1,$J$2)</f>
+        <f>IF(AND(B439&gt;Threshold,B438&gt;B439), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D439" s="14"/>
@@ -12758,7 +14030,7 @@
         <v>1.7</v>
       </c>
       <c r="C440" s="14" t="str">
-        <f>IF(AND(B440&gt;Threshold,B439&lt;B440,B440&gt;B441), $J$1,$J$2)</f>
+        <f>IF(AND(B440&gt;Threshold,B439&gt;B440), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D440" s="14"/>
@@ -12774,7 +14046,7 @@
         <v>4.21</v>
       </c>
       <c r="C441" s="14" t="str">
-        <f>IF(AND(B441&gt;Threshold,B440&lt;B441,B441&gt;B442), $J$1,$J$2)</f>
+        <f>IF(AND(B441&gt;Threshold,B440&gt;B441), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D441" s="14"/>
@@ -12790,8 +14062,8 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C442" s="14" t="str">
-        <f>IF(AND(B442&gt;Threshold,B441&lt;B442,B442&gt;B443), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B442&gt;Threshold,B441&gt;B442), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D442" s="14"/>
       <c r="F442" s="14"/>
@@ -12806,7 +14078,7 @@
         <v>2.67</v>
       </c>
       <c r="C443" s="14" t="str">
-        <f>IF(AND(B443&gt;Threshold,B442&lt;B443,B443&gt;B444), $J$1,$J$2)</f>
+        <f>IF(AND(B443&gt;Threshold,B442&gt;B443), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D443" s="14"/>
@@ -12822,7 +14094,7 @@
         <v>2.27</v>
       </c>
       <c r="C444" s="14" t="str">
-        <f>IF(AND(B444&gt;Threshold,B443&lt;B444,B444&gt;B445), $J$1,$J$2)</f>
+        <f>IF(AND(B444&gt;Threshold,B443&gt;B444), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D444" s="14"/>
@@ -12838,7 +14110,7 @@
         <v>1.98</v>
       </c>
       <c r="C445" s="14" t="str">
-        <f>IF(AND(B445&gt;Threshold,B444&lt;B445,B445&gt;B446), $J$1,$J$2)</f>
+        <f>IF(AND(B445&gt;Threshold,B444&gt;B445), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D445" s="14"/>
@@ -12854,7 +14126,7 @@
         <v>1.52</v>
       </c>
       <c r="C446" s="14" t="str">
-        <f>IF(AND(B446&gt;Threshold,B445&lt;B446,B446&gt;B447), $J$1,$J$2)</f>
+        <f>IF(AND(B446&gt;Threshold,B445&gt;B446), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D446" s="14"/>
@@ -12870,7 +14142,7 @@
         <v>1.65</v>
       </c>
       <c r="C447" s="14" t="str">
-        <f>IF(AND(B447&gt;Threshold,B446&lt;B447,B447&gt;B448), $J$1,$J$2)</f>
+        <f>IF(AND(B447&gt;Threshold,B446&gt;B447), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D447" s="14"/>
@@ -12886,7 +14158,7 @@
         <v>1.62</v>
       </c>
       <c r="C448" s="14" t="str">
-        <f>IF(AND(B448&gt;Threshold,B447&lt;B448,B448&gt;B449), $J$1,$J$2)</f>
+        <f>IF(AND(B448&gt;Threshold,B447&gt;B448), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D448" s="14"/>
@@ -12902,7 +14174,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C449" s="14" t="str">
-        <f>IF(AND(B449&gt;Threshold,B448&lt;B449,B449&gt;B450), $J$1,$J$2)</f>
+        <f>IF(AND(B449&gt;Threshold,B448&gt;B449), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D449" s="14"/>
@@ -12918,8 +14190,8 @@
         <v>4.63</v>
       </c>
       <c r="C450" s="14" t="str">
-        <f>IF(AND(B450&gt;Threshold,B449&lt;B450,B450&gt;B451), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B450&gt;Threshold,B449&gt;B450), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D450" s="14"/>
       <c r="F450" s="14"/>
@@ -12934,7 +14206,7 @@
         <v>2.69</v>
       </c>
       <c r="C451" s="14" t="str">
-        <f>IF(AND(B451&gt;Threshold,B450&lt;B451,B451&gt;B452), $J$1,$J$2)</f>
+        <f>IF(AND(B451&gt;Threshold,B450&gt;B451), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D451" s="14"/>
@@ -12950,7 +14222,7 @@
         <v>2.15</v>
       </c>
       <c r="C452" s="14" t="str">
-        <f>IF(AND(B452&gt;Threshold,B451&lt;B452,B452&gt;B453), $J$1,$J$2)</f>
+        <f>IF(AND(B452&gt;Threshold,B451&gt;B452), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D452" s="14"/>
@@ -12966,7 +14238,7 @@
         <v>1.86</v>
       </c>
       <c r="C453" s="14" t="str">
-        <f>IF(AND(B453&gt;Threshold,B452&lt;B453,B453&gt;B454), $J$1,$J$2)</f>
+        <f>IF(AND(B453&gt;Threshold,B452&gt;B453), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D453" s="14"/>
@@ -12982,7 +14254,7 @@
         <v>1.59</v>
       </c>
       <c r="C454" s="14" t="str">
-        <f>IF(AND(B454&gt;Threshold,B453&lt;B454,B454&gt;B455), $J$1,$J$2)</f>
+        <f>IF(AND(B454&gt;Threshold,B453&gt;B454), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D454" s="14"/>
@@ -12998,7 +14270,7 @@
         <v>1.49</v>
       </c>
       <c r="C455" s="14" t="str">
-        <f>IF(AND(B455&gt;Threshold,B454&lt;B455,B455&gt;B456), $J$1,$J$2)</f>
+        <f>IF(AND(B455&gt;Threshold,B454&gt;B455), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D455" s="14"/>
@@ -13014,7 +14286,7 @@
         <v>1.75</v>
       </c>
       <c r="C456" s="14" t="str">
-        <f>IF(AND(B456&gt;Threshold,B455&lt;B456,B456&gt;B457), $J$1,$J$2)</f>
+        <f>IF(AND(B456&gt;Threshold,B455&gt;B456), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D456" s="14"/>
@@ -13030,7 +14302,7 @@
         <v>3.46</v>
       </c>
       <c r="C457" s="14" t="str">
-        <f>IF(AND(B457&gt;Threshold,B456&lt;B457,B457&gt;B458), $J$1,$J$2)</f>
+        <f>IF(AND(B457&gt;Threshold,B456&gt;B457), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D457" s="14"/>
@@ -13046,8 +14318,8 @@
         <v>4.66</v>
       </c>
       <c r="C458" s="14" t="str">
-        <f>IF(AND(B458&gt;Threshold,B457&lt;B458,B458&gt;B459), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B458&gt;Threshold,B457&gt;B458), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D458" s="14"/>
       <c r="F458" s="14"/>
@@ -13062,7 +14334,7 @@
         <v>2.79</v>
       </c>
       <c r="C459" s="14" t="str">
-        <f>IF(AND(B459&gt;Threshold,B458&lt;B459,B459&gt;B460), $J$1,$J$2)</f>
+        <f>IF(AND(B459&gt;Threshold,B458&gt;B459), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D459" s="14"/>
@@ -13078,7 +14350,7 @@
         <v>2.15</v>
       </c>
       <c r="C460" s="14" t="str">
-        <f>IF(AND(B460&gt;Threshold,B459&lt;B460,B460&gt;B461), $J$1,$J$2)</f>
+        <f>IF(AND(B460&gt;Threshold,B459&gt;B460), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D460" s="14"/>
@@ -13094,7 +14366,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C461" s="14" t="str">
-        <f>IF(AND(B461&gt;Threshold,B460&lt;B461,B461&gt;B462), $J$1,$J$2)</f>
+        <f>IF(AND(B461&gt;Threshold,B460&gt;B461), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D461" s="14"/>
@@ -13110,7 +14382,7 @@
         <v>1.46</v>
       </c>
       <c r="C462" s="14" t="str">
-        <f>IF(AND(B462&gt;Threshold,B461&lt;B462,B462&gt;B463), $J$1,$J$2)</f>
+        <f>IF(AND(B462&gt;Threshold,B461&gt;B462), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D462" s="14"/>
@@ -13126,7 +14398,7 @@
         <v>1.48</v>
       </c>
       <c r="C463" s="14" t="str">
-        <f>IF(AND(B463&gt;Threshold,B462&lt;B463,B463&gt;B464), $J$1,$J$2)</f>
+        <f>IF(AND(B463&gt;Threshold,B462&gt;B463), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D463" s="14"/>
@@ -13142,7 +14414,7 @@
         <v>1.64</v>
       </c>
       <c r="C464" s="14" t="str">
-        <f>IF(AND(B464&gt;Threshold,B463&lt;B464,B464&gt;B465), $J$1,$J$2)</f>
+        <f>IF(AND(B464&gt;Threshold,B463&gt;B464), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D464" s="14"/>
@@ -13158,7 +14430,7 @@
         <v>3.05</v>
       </c>
       <c r="C465" s="14" t="str">
-        <f>IF(AND(B465&gt;Threshold,B464&lt;B465,B465&gt;B466), $J$1,$J$2)</f>
+        <f>IF(AND(B465&gt;Threshold,B464&gt;B465), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D465" s="14"/>
@@ -13174,8 +14446,8 @@
         <v>4.74</v>
       </c>
       <c r="C466" s="14" t="str">
-        <f>IF(AND(B466&gt;Threshold,B465&lt;B466,B466&gt;B467), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B466&gt;Threshold,B465&gt;B466), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D466" s="14"/>
       <c r="F466" s="14"/>
@@ -13190,7 +14462,7 @@
         <v>2.99</v>
       </c>
       <c r="C467" s="14" t="str">
-        <f>IF(AND(B467&gt;Threshold,B466&lt;B467,B467&gt;B468), $J$1,$J$2)</f>
+        <f>IF(AND(B467&gt;Threshold,B466&gt;B467), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D467" s="14"/>
@@ -13206,7 +14478,7 @@
         <v>2.16</v>
       </c>
       <c r="C468" s="14" t="str">
-        <f>IF(AND(B468&gt;Threshold,B467&lt;B468,B468&gt;B469), $J$1,$J$2)</f>
+        <f>IF(AND(B468&gt;Threshold,B467&gt;B468), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D468" s="14"/>
@@ -13222,7 +14494,7 @@
         <v>2.06</v>
       </c>
       <c r="C469" s="14" t="str">
-        <f>IF(AND(B469&gt;Threshold,B468&lt;B469,B469&gt;B470), $J$1,$J$2)</f>
+        <f>IF(AND(B469&gt;Threshold,B468&gt;B469), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D469" s="14"/>
@@ -13238,7 +14510,7 @@
         <v>1.57</v>
       </c>
       <c r="C470" s="14" t="str">
-        <f>IF(AND(B470&gt;Threshold,B469&lt;B470,B470&gt;B471), $J$1,$J$2)</f>
+        <f>IF(AND(B470&gt;Threshold,B469&gt;B470), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D470" s="14"/>
@@ -13254,7 +14526,7 @@
         <v>1.54</v>
       </c>
       <c r="C471" s="14" t="str">
-        <f>IF(AND(B471&gt;Threshold,B470&lt;B471,B471&gt;B472), $J$1,$J$2)</f>
+        <f>IF(AND(B471&gt;Threshold,B470&gt;B471), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D471" s="14"/>
@@ -13270,7 +14542,7 @@
         <v>1.62</v>
       </c>
       <c r="C472" s="14" t="str">
-        <f>IF(AND(B472&gt;Threshold,B471&lt;B472,B472&gt;B473), $J$1,$J$2)</f>
+        <f>IF(AND(B472&gt;Threshold,B471&gt;B472), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D472" s="14"/>
@@ -13286,7 +14558,7 @@
         <v>2.75</v>
       </c>
       <c r="C473" s="14" t="str">
-        <f>IF(AND(B473&gt;Threshold,B472&lt;B473,B473&gt;B474), $J$1,$J$2)</f>
+        <f>IF(AND(B473&gt;Threshold,B472&gt;B473), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D473" s="14"/>
@@ -13302,8 +14574,8 @@
         <v>4.74</v>
       </c>
       <c r="C474" s="14" t="str">
-        <f>IF(AND(B474&gt;Threshold,B473&lt;B474,B474&gt;B475), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B474&gt;Threshold,B473&gt;B474), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D474" s="14"/>
       <c r="F474" s="14"/>
@@ -13318,8 +14590,8 @@
         <v>3.41</v>
       </c>
       <c r="C475" s="14" t="str">
-        <f>IF(AND(B475&gt;Threshold,B474&lt;B475,B475&gt;B476), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B475&gt;Threshold,B474&gt;B475), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D475" s="14"/>
       <c r="F475" s="14"/>
@@ -13334,7 +14606,7 @@
         <v>2.13</v>
       </c>
       <c r="C476" s="14" t="str">
-        <f>IF(AND(B476&gt;Threshold,B475&lt;B476,B476&gt;B477), $J$1,$J$2)</f>
+        <f>IF(AND(B476&gt;Threshold,B475&gt;B476), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D476" s="14"/>
@@ -13350,7 +14622,7 @@
         <v>2.11</v>
       </c>
       <c r="C477" s="14" t="str">
-        <f>IF(AND(B477&gt;Threshold,B476&lt;B477,B477&gt;B478), $J$1,$J$2)</f>
+        <f>IF(AND(B477&gt;Threshold,B476&gt;B477), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D477" s="14"/>
@@ -13366,7 +14638,7 @@
         <v>1.58</v>
       </c>
       <c r="C478" s="14" t="str">
-        <f>IF(AND(B478&gt;Threshold,B477&lt;B478,B478&gt;B479), $J$1,$J$2)</f>
+        <f>IF(AND(B478&gt;Threshold,B477&gt;B478), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D478" s="14"/>
@@ -13382,7 +14654,7 @@
         <v>1.5</v>
       </c>
       <c r="C479" s="14" t="str">
-        <f>IF(AND(B479&gt;Threshold,B478&lt;B479,B479&gt;B480), $J$1,$J$2)</f>
+        <f>IF(AND(B479&gt;Threshold,B478&gt;B479), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D479" s="14"/>
@@ -13398,7 +14670,7 @@
         <v>1.65</v>
       </c>
       <c r="C480" s="14" t="str">
-        <f>IF(AND(B480&gt;Threshold,B479&lt;B480,B480&gt;B481), $J$1,$J$2)</f>
+        <f>IF(AND(B480&gt;Threshold,B479&gt;B480), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D480" s="14"/>
@@ -13414,7 +14686,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C481" s="14" t="str">
-        <f>IF(AND(B481&gt;Threshold,B480&lt;B481,B481&gt;B482), $J$1,$J$2)</f>
+        <f>IF(AND(B481&gt;Threshold,B480&gt;B481), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D481" s="14"/>
@@ -13430,8 +14702,8 @@
         <v>4.74</v>
       </c>
       <c r="C482" s="14" t="str">
-        <f>IF(AND(B482&gt;Threshold,B481&lt;B482,B482&gt;B483), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B482&gt;Threshold,B481&gt;B482), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D482" s="14"/>
       <c r="F482" s="14"/>
@@ -13446,8 +14718,8 @@
         <v>3.91</v>
       </c>
       <c r="C483" s="14" t="str">
-        <f>IF(AND(B483&gt;Threshold,B482&lt;B483,B483&gt;B484), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B483&gt;Threshold,B482&gt;B483), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D483" s="14"/>
       <c r="F483" s="14"/>
@@ -13462,7 +14734,7 @@
         <v>2.16</v>
       </c>
       <c r="C484" s="14" t="str">
-        <f>IF(AND(B484&gt;Threshold,B483&lt;B484,B484&gt;B485), $J$1,$J$2)</f>
+        <f>IF(AND(B484&gt;Threshold,B483&gt;B484), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D484" s="14"/>
@@ -13478,7 +14750,7 @@
         <v>2.14</v>
       </c>
       <c r="C485" s="14" t="str">
-        <f>IF(AND(B485&gt;Threshold,B484&lt;B485,B485&gt;B486), $J$1,$J$2)</f>
+        <f>IF(AND(B485&gt;Threshold,B484&gt;B485), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D485" s="14"/>
@@ -13494,7 +14766,7 @@
         <v>1.67</v>
       </c>
       <c r="C486" s="14" t="str">
-        <f>IF(AND(B486&gt;Threshold,B485&lt;B486,B486&gt;B487), $J$1,$J$2)</f>
+        <f>IF(AND(B486&gt;Threshold,B485&gt;B486), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D486" s="14"/>
@@ -13510,7 +14782,7 @@
         <v>1.43</v>
       </c>
       <c r="C487" s="14" t="str">
-        <f>IF(AND(B487&gt;Threshold,B486&lt;B487,B487&gt;B488), $J$1,$J$2)</f>
+        <f>IF(AND(B487&gt;Threshold,B486&gt;B487), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D487" s="14"/>
@@ -13526,7 +14798,7 @@
         <v>1.63</v>
       </c>
       <c r="C488" s="14" t="str">
-        <f>IF(AND(B488&gt;Threshold,B487&lt;B488,B488&gt;B489), $J$1,$J$2)</f>
+        <f>IF(AND(B488&gt;Threshold,B487&gt;B488), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D488" s="14"/>
@@ -13542,7 +14814,7 @@
         <v>1.74</v>
       </c>
       <c r="C489" s="14" t="str">
-        <f>IF(AND(B489&gt;Threshold,B488&lt;B489,B489&gt;B490), $J$1,$J$2)</f>
+        <f>IF(AND(B489&gt;Threshold,B488&gt;B489), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D489" s="14"/>
@@ -13558,8 +14830,8 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C490" s="14" t="str">
-        <f>IF(AND(B490&gt;Threshold,B489&lt;B490,B490&gt;B491), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B490&gt;Threshold,B489&gt;B490), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D490" s="14"/>
       <c r="F490" s="14"/>
@@ -13574,8 +14846,8 @@
         <v>4.58</v>
       </c>
       <c r="C491" s="14" t="str">
-        <f>IF(AND(B491&gt;Threshold,B490&lt;B491,B491&gt;B492), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B491&gt;Threshold,B490&gt;B491), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D491" s="14"/>
       <c r="F491" s="14"/>
@@ -13590,7 +14862,7 @@
         <v>2.38</v>
       </c>
       <c r="C492" s="14" t="str">
-        <f>IF(AND(B492&gt;Threshold,B491&lt;B492,B492&gt;B493), $J$1,$J$2)</f>
+        <f>IF(AND(B492&gt;Threshold,B491&gt;B492), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D492" s="14"/>
@@ -13606,7 +14878,7 @@
         <v>2.12</v>
       </c>
       <c r="C493" s="14" t="str">
-        <f>IF(AND(B493&gt;Threshold,B492&lt;B493,B493&gt;B494), $J$1,$J$2)</f>
+        <f>IF(AND(B493&gt;Threshold,B492&gt;B493), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D493" s="14"/>
@@ -13622,7 +14894,7 @@
         <v>1.82</v>
       </c>
       <c r="C494" s="14" t="str">
-        <f>IF(AND(B494&gt;Threshold,B493&lt;B494,B494&gt;B495), $J$1,$J$2)</f>
+        <f>IF(AND(B494&gt;Threshold,B493&gt;B494), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D494" s="14"/>
@@ -13638,7 +14910,7 @@
         <v>1.56</v>
       </c>
       <c r="C495" s="14" t="str">
-        <f>IF(AND(B495&gt;Threshold,B494&lt;B495,B495&gt;B496), $J$1,$J$2)</f>
+        <f>IF(AND(B495&gt;Threshold,B494&gt;B495), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D495" s="14"/>
@@ -13654,7 +14926,7 @@
         <v>1.58</v>
       </c>
       <c r="C496" s="14" t="str">
-        <f>IF(AND(B496&gt;Threshold,B495&lt;B496,B496&gt;B497), $J$1,$J$2)</f>
+        <f>IF(AND(B496&gt;Threshold,B495&gt;B496), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D496" s="14"/>
@@ -13670,7 +14942,7 @@
         <v>1.71</v>
       </c>
       <c r="C497" s="14" t="str">
-        <f>IF(AND(B497&gt;Threshold,B496&lt;B497,B497&gt;B498), $J$1,$J$2)</f>
+        <f>IF(AND(B497&gt;Threshold,B496&gt;B497), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D497" s="14"/>
@@ -13686,8 +14958,8 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C498" s="14" t="str">
-        <f>IF(AND(B498&gt;Threshold,B497&lt;B498,B498&gt;B499), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B498&gt;Threshold,B497&gt;B498), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D498" s="14"/>
       <c r="F498" s="14"/>
@@ -13702,8 +14974,8 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C499" s="14" t="str">
-        <f>IF(AND(B499&gt;Threshold,B498&lt;B499,B499&gt;B500), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B499&gt;Threshold,B498&gt;B499), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D499" s="14"/>
       <c r="F499" s="14"/>
@@ -13718,7 +14990,7 @@
         <v>2.23</v>
       </c>
       <c r="C500" s="14" t="str">
-        <f>IF(AND(B500&gt;Threshold,B499&lt;B500,B500&gt;B501), $J$1,$J$2)</f>
+        <f>IF(AND(B500&gt;Threshold,B499&gt;B500), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D500" s="14"/>
@@ -13734,7 +15006,7 @@
         <v>2.12</v>
       </c>
       <c r="C501" s="14" t="str">
-        <f>IF(AND(B501&gt;Threshold,B500&lt;B501,B501&gt;B502), $J$1,$J$2)</f>
+        <f>IF(AND(B501&gt;Threshold,B500&gt;B501), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D501" s="14"/>
@@ -13750,7 +15022,7 @@
         <v>1.83</v>
       </c>
       <c r="C502" s="14" t="str">
-        <f>IF(AND(B502&gt;Threshold,B501&lt;B502,B502&gt;B503), $J$1,$J$2)</f>
+        <f>IF(AND(B502&gt;Threshold,B501&gt;B502), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D502" s="14"/>
@@ -13766,7 +15038,7 @@
         <v>1.5</v>
       </c>
       <c r="C503" s="14" t="str">
-        <f>IF(AND(B503&gt;Threshold,B502&lt;B503,B503&gt;B504), $J$1,$J$2)</f>
+        <f>IF(AND(B503&gt;Threshold,B502&gt;B503), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D503" s="14"/>
@@ -13782,7 +15054,7 @@
         <v>1.56</v>
       </c>
       <c r="C504" s="14" t="str">
-        <f>IF(AND(B504&gt;Threshold,B503&lt;B504,B504&gt;B505), $J$1,$J$2)</f>
+        <f>IF(AND(B504&gt;Threshold,B503&gt;B504), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D504" s="14"/>
@@ -13798,7 +15070,7 @@
         <v>1.74</v>
       </c>
       <c r="C505" s="14" t="str">
-        <f>IF(AND(B505&gt;Threshold,B504&lt;B505,B505&gt;B506), $J$1,$J$2)</f>
+        <f>IF(AND(B505&gt;Threshold,B504&gt;B505), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D505" s="14"/>
@@ -13814,8 +15086,8 @@
         <v>4.57</v>
       </c>
       <c r="C506" s="14" t="str">
-        <f>IF(AND(B506&gt;Threshold,B505&lt;B506,B506&gt;B507), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B506&gt;Threshold,B505&gt;B506), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D506" s="14"/>
       <c r="F506" s="14"/>
@@ -13830,8 +15102,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C507" s="14" t="str">
-        <f>IF(AND(B507&gt;Threshold,B506&lt;B507,B507&gt;B508), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B507&gt;Threshold,B506&gt;B507), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D507" s="14"/>
       <c r="F507" s="14"/>
@@ -13846,7 +15118,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C508" s="14" t="str">
-        <f>IF(AND(B508&gt;Threshold,B507&lt;B508,B508&gt;B509), $J$1,$J$2)</f>
+        <f>IF(AND(B508&gt;Threshold,B507&gt;B508), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D508" s="14"/>
@@ -13862,7 +15134,7 @@
         <v>2.12</v>
       </c>
       <c r="C509" s="14" t="str">
-        <f>IF(AND(B509&gt;Threshold,B508&lt;B509,B509&gt;B510), $J$1,$J$2)</f>
+        <f>IF(AND(B509&gt;Threshold,B508&gt;B509), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D509" s="14"/>
@@ -13878,7 +15150,7 @@
         <v>1.81</v>
       </c>
       <c r="C510" s="14" t="str">
-        <f>IF(AND(B510&gt;Threshold,B509&lt;B510,B510&gt;B511), $J$1,$J$2)</f>
+        <f>IF(AND(B510&gt;Threshold,B509&gt;B510), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D510" s="14"/>
@@ -13894,7 +15166,7 @@
         <v>1.52</v>
       </c>
       <c r="C511" s="14" t="str">
-        <f>IF(AND(B511&gt;Threshold,B510&lt;B511,B511&gt;B512), $J$1,$J$2)</f>
+        <f>IF(AND(B511&gt;Threshold,B510&gt;B511), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D511" s="14"/>
@@ -13910,7 +15182,7 @@
         <v>1.62</v>
       </c>
       <c r="C512" s="14" t="str">
-        <f>IF(AND(B512&gt;Threshold,B511&lt;B512,B512&gt;B513), $J$1,$J$2)</f>
+        <f>IF(AND(B512&gt;Threshold,B511&gt;B512), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D512" s="14"/>
@@ -13926,7 +15198,7 @@
         <v>1.76</v>
       </c>
       <c r="C513" s="14" t="str">
-        <f>IF(AND(B513&gt;Threshold,B512&lt;B513,B513&gt;B514), $J$1,$J$2)</f>
+        <f>IF(AND(B513&gt;Threshold,B512&gt;B513), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D513" s="14"/>
@@ -13942,7 +15214,7 @@
         <v>4.59</v>
       </c>
       <c r="C514" s="14" t="str">
-        <f>IF(AND(B514&gt;Threshold,B513&lt;B514,B514&gt;B515), $J$1,$J$2)</f>
+        <f>IF(AND(B514&gt;Threshold,B513&gt;B514), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D514" s="14"/>
@@ -13958,8 +15230,8 @@
         <v>4.74</v>
       </c>
       <c r="C515" s="14" t="str">
-        <f>IF(AND(B515&gt;Threshold,B514&lt;B515,B515&gt;B516), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B515&gt;Threshold,B514&gt;B515), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D515" s="14"/>
       <c r="F515" s="14"/>
@@ -13974,7 +15246,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C516" s="14" t="str">
-        <f>IF(AND(B516&gt;Threshold,B515&lt;B516,B516&gt;B517), $J$1,$J$2)</f>
+        <f>IF(AND(B516&gt;Threshold,B515&gt;B516), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D516" s="14"/>
@@ -13990,7 +15262,7 @@
         <v>2.08</v>
       </c>
       <c r="C517" s="14" t="str">
-        <f>IF(AND(B517&gt;Threshold,B516&lt;B517,B517&gt;B518), $J$1,$J$2)</f>
+        <f>IF(AND(B517&gt;Threshold,B516&gt;B517), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D517" s="14"/>
@@ -14006,7 +15278,7 @@
         <v>1.91</v>
       </c>
       <c r="C518" s="14" t="str">
-        <f>IF(AND(B518&gt;Threshold,B517&lt;B518,B518&gt;B519), $J$1,$J$2)</f>
+        <f>IF(AND(B518&gt;Threshold,B517&gt;B518), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D518" s="14"/>
@@ -14022,7 +15294,7 @@
         <v>1.48</v>
       </c>
       <c r="C519" s="14" t="str">
-        <f>IF(AND(B519&gt;Threshold,B518&lt;B519,B519&gt;B520), $J$1,$J$2)</f>
+        <f>IF(AND(B519&gt;Threshold,B518&gt;B519), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D519" s="14"/>
@@ -14038,7 +15310,7 @@
         <v>1.5</v>
       </c>
       <c r="C520" s="14" t="str">
-        <f>IF(AND(B520&gt;Threshold,B519&lt;B520,B520&gt;B521), $J$1,$J$2)</f>
+        <f>IF(AND(B520&gt;Threshold,B519&gt;B520), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D520" s="14"/>
@@ -14054,7 +15326,7 @@
         <v>1.62</v>
       </c>
       <c r="C521" s="14" t="str">
-        <f>IF(AND(B521&gt;Threshold,B520&lt;B521,B521&gt;B522), $J$1,$J$2)</f>
+        <f>IF(AND(B521&gt;Threshold,B520&gt;B521), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D521" s="14"/>
@@ -14070,7 +15342,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C522" s="14" t="str">
-        <f>IF(AND(B522&gt;Threshold,B521&lt;B522,B522&gt;B523), $J$1,$J$2)</f>
+        <f>IF(AND(B522&gt;Threshold,B521&gt;B522), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D522" s="14"/>
@@ -14086,8 +15358,8 @@
         <v>4.74</v>
       </c>
       <c r="C523" s="14" t="str">
-        <f>IF(AND(B523&gt;Threshold,B522&lt;B523,B523&gt;B524), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B523&gt;Threshold,B522&gt;B523), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D523" s="14"/>
       <c r="F523" s="14"/>
@@ -14102,7 +15374,7 @@
         <v>2.6</v>
       </c>
       <c r="C524" s="14" t="str">
-        <f>IF(AND(B524&gt;Threshold,B523&lt;B524,B524&gt;B525), $J$1,$J$2)</f>
+        <f>IF(AND(B524&gt;Threshold,B523&gt;B524), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D524" s="14"/>
@@ -14118,7 +15390,7 @@
         <v>2.15</v>
       </c>
       <c r="C525" s="14" t="str">
-        <f>IF(AND(B525&gt;Threshold,B524&lt;B525,B525&gt;B526), $J$1,$J$2)</f>
+        <f>IF(AND(B525&gt;Threshold,B524&gt;B525), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D525" s="14"/>
@@ -14134,7 +15406,7 @@
         <v>1.98</v>
       </c>
       <c r="C526" s="14" t="str">
-        <f>IF(AND(B526&gt;Threshold,B525&lt;B526,B526&gt;B527), $J$1,$J$2)</f>
+        <f>IF(AND(B526&gt;Threshold,B525&gt;B526), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D526" s="14"/>
@@ -14150,7 +15422,7 @@
         <v>1.51</v>
       </c>
       <c r="C527" s="14" t="str">
-        <f>IF(AND(B527&gt;Threshold,B526&lt;B527,B527&gt;B528), $J$1,$J$2)</f>
+        <f>IF(AND(B527&gt;Threshold,B526&gt;B527), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D527" s="14"/>
@@ -14166,7 +15438,7 @@
         <v>1.54</v>
       </c>
       <c r="C528" s="14" t="str">
-        <f>IF(AND(B528&gt;Threshold,B527&lt;B528,B528&gt;B529), $J$1,$J$2)</f>
+        <f>IF(AND(B528&gt;Threshold,B527&gt;B528), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D528" s="14"/>
@@ -14182,7 +15454,7 @@
         <v>1.8</v>
       </c>
       <c r="C529" s="14" t="str">
-        <f>IF(AND(B529&gt;Threshold,B528&lt;B529,B529&gt;B530), $J$1,$J$2)</f>
+        <f>IF(AND(B529&gt;Threshold,B528&gt;B529), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D529" s="14"/>
@@ -14198,8 +15470,8 @@
         <v>4.67</v>
       </c>
       <c r="C530" s="14" t="str">
-        <f>IF(AND(B530&gt;Threshold,B529&lt;B530,B530&gt;B531), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B530&gt;Threshold,B529&gt;B530), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D530" s="14"/>
       <c r="F530" s="14"/>
@@ -14214,8 +15486,8 @@
         <v>4.45</v>
       </c>
       <c r="C531" s="14" t="str">
-        <f>IF(AND(B531&gt;Threshold,B530&lt;B531,B531&gt;B532), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B531&gt;Threshold,B530&gt;B531), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D531" s="14"/>
       <c r="F531" s="14"/>
@@ -14230,7 +15502,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C532" s="14" t="str">
-        <f>IF(AND(B532&gt;Threshold,B531&lt;B532,B532&gt;B533), $J$1,$J$2)</f>
+        <f>IF(AND(B532&gt;Threshold,B531&gt;B532), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D532" s="14"/>
@@ -14246,7 +15518,7 @@
         <v>2.09</v>
       </c>
       <c r="C533" s="14" t="str">
-        <f>IF(AND(B533&gt;Threshold,B532&lt;B533,B533&gt;B534), $J$1,$J$2)</f>
+        <f>IF(AND(B533&gt;Threshold,B532&gt;B533), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D533" s="14"/>
@@ -14262,7 +15534,7 @@
         <v>1.8</v>
       </c>
       <c r="C534" s="14" t="str">
-        <f>IF(AND(B534&gt;Threshold,B533&lt;B534,B534&gt;B535), $J$1,$J$2)</f>
+        <f>IF(AND(B534&gt;Threshold,B533&gt;B534), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D534" s="14"/>
@@ -14278,7 +15550,7 @@
         <v>1.43</v>
       </c>
       <c r="C535" s="14" t="str">
-        <f>IF(AND(B535&gt;Threshold,B534&lt;B535,B535&gt;B536), $J$1,$J$2)</f>
+        <f>IF(AND(B535&gt;Threshold,B534&gt;B535), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D535" s="14"/>
@@ -14294,7 +15566,7 @@
         <v>1.6</v>
       </c>
       <c r="C536" s="14" t="str">
-        <f>IF(AND(B536&gt;Threshold,B535&lt;B536,B536&gt;B537), $J$1,$J$2)</f>
+        <f>IF(AND(B536&gt;Threshold,B535&gt;B536), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D536" s="14"/>
@@ -14310,7 +15582,7 @@
         <v>2.23</v>
       </c>
       <c r="C537" s="14" t="str">
-        <f>IF(AND(B537&gt;Threshold,B536&lt;B537,B537&gt;B538), $J$1,$J$2)</f>
+        <f>IF(AND(B537&gt;Threshold,B536&gt;B537), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D537" s="14"/>
@@ -14326,8 +15598,8 @@
         <v>4.75</v>
       </c>
       <c r="C538" s="14" t="str">
-        <f>IF(AND(B538&gt;Threshold,B537&lt;B538,B538&gt;B539), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B538&gt;Threshold,B537&gt;B538), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D538" s="14"/>
       <c r="F538" s="14"/>
@@ -14342,8 +15614,8 @@
         <v>4.22</v>
       </c>
       <c r="C539" s="14" t="str">
-        <f>IF(AND(B539&gt;Threshold,B538&lt;B539,B539&gt;B540), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B539&gt;Threshold,B538&gt;B539), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D539" s="14"/>
       <c r="F539" s="14"/>
@@ -14358,7 +15630,7 @@
         <v>2.15</v>
       </c>
       <c r="C540" s="14" t="str">
-        <f>IF(AND(B540&gt;Threshold,B539&lt;B540,B540&gt;B541), $J$1,$J$2)</f>
+        <f>IF(AND(B540&gt;Threshold,B539&gt;B540), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D540" s="14"/>
@@ -14374,7 +15646,7 @@
         <v>2.13</v>
       </c>
       <c r="C541" s="14" t="str">
-        <f>IF(AND(B541&gt;Threshold,B540&lt;B541,B541&gt;B542), $J$1,$J$2)</f>
+        <f>IF(AND(B541&gt;Threshold,B540&gt;B541), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D541" s="14"/>
@@ -14390,7 +15662,7 @@
         <v>1.67</v>
       </c>
       <c r="C542" s="14" t="str">
-        <f>IF(AND(B542&gt;Threshold,B541&lt;B542,B542&gt;B543), $J$1,$J$2)</f>
+        <f>IF(AND(B542&gt;Threshold,B541&gt;B542), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D542" s="14"/>
@@ -14406,7 +15678,7 @@
         <v>1.42</v>
       </c>
       <c r="C543" s="14" t="str">
-        <f>IF(AND(B543&gt;Threshold,B542&lt;B543,B543&gt;B544), $J$1,$J$2)</f>
+        <f>IF(AND(B543&gt;Threshold,B542&gt;B543), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D543" s="14"/>
@@ -14422,7 +15694,7 @@
         <v>1.6</v>
       </c>
       <c r="C544" s="14" t="str">
-        <f>IF(AND(B544&gt;Threshold,B543&lt;B544,B544&gt;B545), $J$1,$J$2)</f>
+        <f>IF(AND(B544&gt;Threshold,B543&gt;B544), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D544" s="14"/>
@@ -14438,7 +15710,7 @@
         <v>2.75</v>
       </c>
       <c r="C545" s="14" t="str">
-        <f>IF(AND(B545&gt;Threshold,B544&lt;B545,B545&gt;B546), $J$1,$J$2)</f>
+        <f>IF(AND(B545&gt;Threshold,B544&gt;B545), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D545" s="14"/>
@@ -14454,8 +15726,8 @@
         <v>4.75</v>
       </c>
       <c r="C546" s="14" t="str">
-        <f>IF(AND(B546&gt;Threshold,B545&lt;B546,B546&gt;B547), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B546&gt;Threshold,B545&gt;B546), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D546" s="14"/>
       <c r="F546" s="14"/>
@@ -14470,8 +15742,8 @@
         <v>4.74</v>
       </c>
       <c r="C547" s="14" t="str">
-        <f>IF(AND(B547&gt;Threshold,B546&lt;B547,B547&gt;B548), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B547&gt;Threshold,B546&gt;B547), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D547" s="14"/>
       <c r="F547" s="14"/>
@@ -14486,7 +15758,7 @@
         <v>2.16</v>
       </c>
       <c r="C548" s="14" t="str">
-        <f>IF(AND(B548&gt;Threshold,B547&lt;B548,B548&gt;B549), $J$1,$J$2)</f>
+        <f>IF(AND(B548&gt;Threshold,B547&gt;B548), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D548" s="14"/>
@@ -14502,7 +15774,7 @@
         <v>1.93</v>
       </c>
       <c r="C549" s="14" t="str">
-        <f>IF(AND(B549&gt;Threshold,B548&lt;B549,B549&gt;B550), $J$1,$J$2)</f>
+        <f>IF(AND(B549&gt;Threshold,B548&gt;B549), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D549" s="14"/>
@@ -14518,7 +15790,7 @@
         <v>1.52</v>
       </c>
       <c r="C550" s="14" t="str">
-        <f>IF(AND(B550&gt;Threshold,B549&lt;B550,B550&gt;B551), $J$1,$J$2)</f>
+        <f>IF(AND(B550&gt;Threshold,B549&gt;B550), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D550" s="14"/>
@@ -14534,7 +15806,7 @@
         <v>1.37</v>
       </c>
       <c r="C551" s="14" t="str">
-        <f>IF(AND(B551&gt;Threshold,B550&lt;B551,B551&gt;B552), $J$1,$J$2)</f>
+        <f>IF(AND(B551&gt;Threshold,B550&gt;B551), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D551" s="14"/>
@@ -14550,7 +15822,7 @@
         <v>1.53</v>
       </c>
       <c r="C552" s="14" t="str">
-        <f>IF(AND(B552&gt;Threshold,B551&lt;B552,B552&gt;B553), $J$1,$J$2)</f>
+        <f>IF(AND(B552&gt;Threshold,B551&gt;B552), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D552" s="14"/>
@@ -14566,7 +15838,7 @@
         <v>3.03</v>
       </c>
       <c r="C553" s="14" t="str">
-        <f>IF(AND(B553&gt;Threshold,B552&lt;B553,B553&gt;B554), $J$1,$J$2)</f>
+        <f>IF(AND(B553&gt;Threshold,B552&gt;B553), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D553" s="14"/>
@@ -14582,7 +15854,7 @@
         <v>4.75</v>
       </c>
       <c r="C554" s="14" t="str">
-        <f>IF(AND(B554&gt;Threshold,B553&lt;B554,B554&gt;B555), $J$1,$J$2)</f>
+        <f>IF(AND(B554&gt;Threshold,B553&gt;B554), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D554" s="14"/>
@@ -14598,7 +15870,7 @@
         <v>4.75</v>
       </c>
       <c r="C555" s="14" t="str">
-        <f>IF(AND(B555&gt;Threshold,B554&lt;B555,B555&gt;B556), $J$1,$J$2)</f>
+        <f>IF(AND(B555&gt;Threshold,B554&gt;B555), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D555" s="14"/>
@@ -14614,7 +15886,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C556" s="14" t="str">
-        <f>IF(AND(B556&gt;Threshold,B555&lt;B556,B556&gt;B557), $J$1,$J$2)</f>
+        <f>IF(AND(B556&gt;Threshold,B555&gt;B556), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D556" s="14"/>
@@ -14630,7 +15902,7 @@
         <v>1.83</v>
       </c>
       <c r="C557" s="14" t="str">
-        <f>IF(AND(B557&gt;Threshold,B556&lt;B557,B557&gt;B558), $J$1,$J$2)</f>
+        <f>IF(AND(B557&gt;Threshold,B556&gt;B557), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D557" s="14"/>
@@ -14646,7 +15918,7 @@
         <v>1.45</v>
       </c>
       <c r="C558" s="14" t="str">
-        <f>IF(AND(B558&gt;Threshold,B557&lt;B558,B558&gt;B559), $J$1,$J$2)</f>
+        <f>IF(AND(B558&gt;Threshold,B557&gt;B558), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D558" s="14"/>
@@ -14662,7 +15934,7 @@
         <v>1.42</v>
       </c>
       <c r="C559" s="14" t="str">
-        <f>IF(AND(B559&gt;Threshold,B558&lt;B559,B559&gt;B560), $J$1,$J$2)</f>
+        <f>IF(AND(B559&gt;Threshold,B558&gt;B559), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D559" s="14"/>
@@ -14678,7 +15950,7 @@
         <v>1.54</v>
       </c>
       <c r="C560" s="14" t="str">
-        <f>IF(AND(B560&gt;Threshold,B559&lt;B560,B560&gt;B561), $J$1,$J$2)</f>
+        <f>IF(AND(B560&gt;Threshold,B559&gt;B560), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D560" s="14"/>
@@ -14694,7 +15966,7 @@
         <v>3.78</v>
       </c>
       <c r="C561" s="14" t="str">
-        <f>IF(AND(B561&gt;Threshold,B560&lt;B561,B561&gt;B562), $J$1,$J$2)</f>
+        <f>IF(AND(B561&gt;Threshold,B560&gt;B561), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D561" s="14"/>
@@ -14710,8 +15982,8 @@
         <v>4.75</v>
       </c>
       <c r="C562" s="14" t="str">
-        <f>IF(AND(B562&gt;Threshold,B561&lt;B562,B562&gt;B563), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B562&gt;Threshold,B561&gt;B562), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D562" s="14"/>
       <c r="F562" s="14"/>
@@ -14726,8 +15998,8 @@
         <v>3.83</v>
       </c>
       <c r="C563" s="14" t="str">
-        <f>IF(AND(B563&gt;Threshold,B562&lt;B563,B563&gt;B564), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B563&gt;Threshold,B562&gt;B563), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D563" s="14"/>
       <c r="F563" s="14"/>
@@ -14742,7 +16014,7 @@
         <v>1.89</v>
       </c>
       <c r="C564" s="14" t="str">
-        <f>IF(AND(B564&gt;Threshold,B563&lt;B564,B564&gt;B565), $J$1,$J$2)</f>
+        <f>IF(AND(B564&gt;Threshold,B563&gt;B564), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D564" s="14"/>
@@ -14758,7 +16030,7 @@
         <v>1.71</v>
       </c>
       <c r="C565" s="14" t="str">
-        <f>IF(AND(B565&gt;Threshold,B564&lt;B565,B565&gt;B566), $J$1,$J$2)</f>
+        <f>IF(AND(B565&gt;Threshold,B564&gt;B565), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D565" s="14"/>
@@ -14774,7 +16046,7 @@
         <v>1.36</v>
       </c>
       <c r="C566" s="14" t="str">
-        <f>IF(AND(B566&gt;Threshold,B565&lt;B566,B566&gt;B567), $J$1,$J$2)</f>
+        <f>IF(AND(B566&gt;Threshold,B565&gt;B566), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D566" s="14"/>
@@ -14790,7 +16062,7 @@
         <v>1.44</v>
       </c>
       <c r="C567" s="14" t="str">
-        <f>IF(AND(B567&gt;Threshold,B566&lt;B567,B567&gt;B568), $J$1,$J$2)</f>
+        <f>IF(AND(B567&gt;Threshold,B566&gt;B567), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D567" s="14"/>
@@ -14806,7 +16078,7 @@
         <v>1.48</v>
       </c>
       <c r="C568" s="14" t="str">
-        <f>IF(AND(B568&gt;Threshold,B567&lt;B568,B568&gt;B569), $J$1,$J$2)</f>
+        <f>IF(AND(B568&gt;Threshold,B567&gt;B568), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D568" s="14"/>
@@ -14822,7 +16094,7 @@
         <v>4.75</v>
       </c>
       <c r="C569" s="14" t="str">
-        <f>IF(AND(B569&gt;Threshold,B568&lt;B569,B569&gt;B570), $J$1,$J$2)</f>
+        <f>IF(AND(B569&gt;Threshold,B568&gt;B569), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D569" s="14"/>
@@ -14838,7 +16110,7 @@
         <v>4.75</v>
       </c>
       <c r="C570" s="14" t="str">
-        <f>IF(AND(B570&gt;Threshold,B569&lt;B570,B570&gt;B571), $J$1,$J$2)</f>
+        <f>IF(AND(B570&gt;Threshold,B569&gt;B570), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D570" s="14"/>
@@ -14854,7 +16126,7 @@
         <v>2.85</v>
       </c>
       <c r="C571" s="14" t="str">
-        <f>IF(AND(B571&gt;Threshold,B570&lt;B571,B571&gt;B572), $J$1,$J$2)</f>
+        <f>IF(AND(B571&gt;Threshold,B570&gt;B571), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D571" s="14"/>
@@ -14870,13 +16142,16 @@
         <v>1.71</v>
       </c>
       <c r="C572" s="14" t="str">
-        <f>IF(AND(B572&gt;Threshold,B571&lt;B572,B572&gt;B573), $J$1,$J$2)</f>
+        <f>IF(AND(B572&gt;Threshold,B571&gt;B572), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D572" s="14"/>
       <c r="F572" s="14"/>
       <c r="G572" s="14"/>
-      <c r="H572" s="14"/>
+      <c r="H572" s="14" t="e" cm="1">
+        <f t="array" ref="H572">is</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="14">
@@ -14886,7 +16161,7 @@
         <v>1.54</v>
       </c>
       <c r="C573" s="14" t="str">
-        <f>IF(AND(B573&gt;Threshold,B572&lt;B573,B573&gt;B574), $J$1,$J$2)</f>
+        <f>IF(AND(B573&gt;Threshold,B572&gt;B573), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D573" s="14"/>
@@ -14902,7 +16177,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C574" s="14" t="str">
-        <f>IF(AND(B574&gt;Threshold,B573&lt;B574,B574&gt;B575), $J$1,$J$2)</f>
+        <f>IF(AND(B574&gt;Threshold,B573&gt;B574), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D574" s="14"/>
@@ -14918,7 +16193,7 @@
         <v>1.55</v>
       </c>
       <c r="C575" s="14" t="str">
-        <f>IF(AND(B575&gt;Threshold,B574&lt;B575,B575&gt;B576), $J$1,$J$2)</f>
+        <f>IF(AND(B575&gt;Threshold,B574&gt;B575), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D575" s="14"/>
@@ -14934,7 +16209,7 @@
         <v>1.77</v>
       </c>
       <c r="C576" s="14" t="str">
-        <f>IF(AND(B576&gt;Threshold,B575&lt;B576,B576&gt;B577), $J$1,$J$2)</f>
+        <f>IF(AND(B576&gt;Threshold,B575&gt;B576), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D576" s="14"/>
@@ -14950,7 +16225,7 @@
         <v>4.75</v>
       </c>
       <c r="C577" s="14" t="str">
-        <f>IF(AND(B577&gt;Threshold,B576&lt;B577,B577&gt;B578), $J$1,$J$2)</f>
+        <f>IF(AND(B577&gt;Threshold,B576&gt;B577), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D577" s="14"/>
@@ -14966,7 +16241,7 @@
         <v>4.75</v>
       </c>
       <c r="C578" s="14" t="str">
-        <f>IF(AND(B578&gt;Threshold,B577&lt;B578,B578&gt;B579), $J$1,$J$2)</f>
+        <f>IF(AND(B578&gt;Threshold,B577&gt;B578), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D578" s="14"/>
@@ -14982,7 +16257,7 @@
         <v>2.44</v>
       </c>
       <c r="C579" s="14" t="str">
-        <f>IF(AND(B579&gt;Threshold,B578&lt;B579,B579&gt;B580), $J$1,$J$2)</f>
+        <f>IF(AND(B579&gt;Threshold,B578&gt;B579), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D579" s="14"/>
@@ -14998,7 +16273,7 @@
         <v>1.67</v>
       </c>
       <c r="C580" s="14" t="str">
-        <f>IF(AND(B580&gt;Threshold,B579&lt;B580,B580&gt;B581), $J$1,$J$2)</f>
+        <f>IF(AND(B580&gt;Threshold,B579&gt;B580), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D580" s="14"/>
@@ -15014,7 +16289,7 @@
         <v>1.45</v>
       </c>
       <c r="C581" s="14" t="str">
-        <f>IF(AND(B581&gt;Threshold,B580&lt;B581,B581&gt;B582), $J$1,$J$2)</f>
+        <f>IF(AND(B581&gt;Threshold,B580&gt;B581), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D581" s="14"/>
@@ -15030,7 +16305,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C582" s="14" t="str">
-        <f>IF(AND(B582&gt;Threshold,B581&lt;B582,B582&gt;B583), $J$1,$J$2)</f>
+        <f>IF(AND(B582&gt;Threshold,B581&gt;B582), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D582" s="14"/>
@@ -15046,7 +16321,7 @@
         <v>1.42</v>
       </c>
       <c r="C583" s="14" t="str">
-        <f>IF(AND(B583&gt;Threshold,B582&lt;B583,B583&gt;B584), $J$1,$J$2)</f>
+        <f>IF(AND(B583&gt;Threshold,B582&gt;B583), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D583" s="14"/>
@@ -15062,7 +16337,7 @@
         <v>1.92</v>
       </c>
       <c r="C584" s="14" t="str">
-        <f>IF(AND(B584&gt;Threshold,B583&lt;B584,B584&gt;B585), $J$1,$J$2)</f>
+        <f>IF(AND(B584&gt;Threshold,B583&gt;B584), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D584" s="14"/>
@@ -15078,7 +16353,7 @@
         <v>4.75</v>
       </c>
       <c r="C585" s="14" t="str">
-        <f>IF(AND(B585&gt;Threshold,B584&lt;B585,B585&gt;B586), $J$1,$J$2)</f>
+        <f>IF(AND(B585&gt;Threshold,B584&gt;B585), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D585" s="14"/>
@@ -15094,7 +16369,7 @@
         <v>4.75</v>
       </c>
       <c r="C586" s="14" t="str">
-        <f>IF(AND(B586&gt;Threshold,B585&lt;B586,B586&gt;B587), $J$1,$J$2)</f>
+        <f>IF(AND(B586&gt;Threshold,B585&gt;B586), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D586" s="14"/>
@@ -15110,7 +16385,7 @@
         <v>2.16</v>
       </c>
       <c r="C587" s="14" t="str">
-        <f>IF(AND(B587&gt;Threshold,B586&lt;B587,B587&gt;B588), $J$1,$J$2)</f>
+        <f>IF(AND(B587&gt;Threshold,B586&gt;B587), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D587" s="14"/>
@@ -15126,7 +16401,7 @@
         <v>2.13</v>
       </c>
       <c r="C588" s="14" t="str">
-        <f>IF(AND(B588&gt;Threshold,B587&lt;B588,B588&gt;B589), $J$1,$J$2)</f>
+        <f>IF(AND(B588&gt;Threshold,B587&gt;B588), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D588" s="14"/>
@@ -15142,7 +16417,7 @@
         <v>1.67</v>
       </c>
       <c r="C589" s="14" t="str">
-        <f>IF(AND(B589&gt;Threshold,B588&lt;B589,B589&gt;B590), $J$1,$J$2)</f>
+        <f>IF(AND(B589&gt;Threshold,B588&gt;B589), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D589" s="14"/>
@@ -15158,7 +16433,7 @@
         <v>1.42</v>
       </c>
       <c r="C590" s="14" t="str">
-        <f>IF(AND(B590&gt;Threshold,B589&lt;B590,B590&gt;B591), $J$1,$J$2)</f>
+        <f>IF(AND(B590&gt;Threshold,B589&gt;B590), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D590" s="14"/>
@@ -15174,7 +16449,7 @@
         <v>1.6</v>
       </c>
       <c r="C591" s="14" t="str">
-        <f>IF(AND(B591&gt;Threshold,B590&lt;B591,B591&gt;B592), $J$1,$J$2)</f>
+        <f>IF(AND(B591&gt;Threshold,B590&gt;B591), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D591" s="14"/>
@@ -15190,7 +16465,7 @@
         <v>2.75</v>
       </c>
       <c r="C592" s="14" t="str">
-        <f>IF(AND(B592&gt;Threshold,B591&lt;B592,B592&gt;B593), $J$1,$J$2)</f>
+        <f>IF(AND(B592&gt;Threshold,B591&gt;B592), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D592" s="14"/>
@@ -15206,8 +16481,8 @@
         <v>4.75</v>
       </c>
       <c r="C593" s="14" t="str">
-        <f>IF(AND(B593&gt;Threshold,B592&lt;B593,B593&gt;B594), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B593&gt;Threshold,B592&gt;B593), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D593" s="14"/>
       <c r="F593" s="14"/>
@@ -15222,8 +16497,8 @@
         <v>4.74</v>
       </c>
       <c r="C594" s="14" t="str">
-        <f>IF(AND(B594&gt;Threshold,B593&lt;B594,B594&gt;B595), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B594&gt;Threshold,B593&gt;B594), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D594" s="14"/>
       <c r="F594" s="14"/>
@@ -15238,7 +16513,7 @@
         <v>2.16</v>
       </c>
       <c r="C595" s="14" t="str">
-        <f>IF(AND(B595&gt;Threshold,B594&lt;B595,B595&gt;B596), $J$1,$J$2)</f>
+        <f>IF(AND(B595&gt;Threshold,B594&gt;B595), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D595" s="14"/>
@@ -15254,7 +16529,7 @@
         <v>1.67</v>
       </c>
       <c r="C596" s="14" t="str">
-        <f>IF(AND(B596&gt;Threshold,B595&lt;B596,B596&gt;B597), $J$1,$J$2)</f>
+        <f>IF(AND(B596&gt;Threshold,B595&gt;B596), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D596" s="14"/>
@@ -15270,7 +16545,7 @@
         <v>1.45</v>
       </c>
       <c r="C597" s="14" t="str">
-        <f>IF(AND(B597&gt;Threshold,B596&lt;B597,B597&gt;B598), $J$1,$J$2)</f>
+        <f>IF(AND(B597&gt;Threshold,B596&gt;B597), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D597" s="14"/>
@@ -15286,7 +16561,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C598" s="14" t="str">
-        <f>IF(AND(B598&gt;Threshold,B597&lt;B598,B598&gt;B599), $J$1,$J$2)</f>
+        <f>IF(AND(B598&gt;Threshold,B597&gt;B598), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D598" s="14"/>
@@ -15302,7 +16577,7 @@
         <v>1.42</v>
       </c>
       <c r="C599" s="14" t="str">
-        <f>IF(AND(B599&gt;Threshold,B598&lt;B599,B599&gt;B600), $J$1,$J$2)</f>
+        <f>IF(AND(B599&gt;Threshold,B598&gt;B599), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D599" s="14"/>
@@ -15318,7 +16593,7 @@
         <v>1.92</v>
       </c>
       <c r="C600" s="14" t="str">
-        <f>IF(AND(B600&gt;Threshold,B599&lt;B600,B600&gt;B601), $J$1,$J$2)</f>
+        <f>IF(AND(B600&gt;Threshold,B599&gt;B600), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D600" s="14"/>
@@ -15334,8 +16609,8 @@
         <v>4.75</v>
       </c>
       <c r="C601" s="14" t="str">
-        <f>IF(AND(B601&gt;Threshold,B600&lt;B601,B601&gt;B602), $J$1,$J$2)</f>
-        <v>Beat</v>
+        <f>IF(AND(B601&gt;Threshold,B600&gt;B601), $J$1,$J$2)</f>
+        <v>Not</v>
       </c>
       <c r="D601" s="14"/>
       <c r="F601" s="14"/>

--- a/self_paced/ENGG1811_spreadsheet_lab.xlsx
+++ b/self_paced/ENGG1811_spreadsheet_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\engg1811\self_paced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32395B15-8BD5-4545-8A74-7C0ACDDF5FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CF5E8-E379-49F1-AE12-E9614420EE2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BirMjOQMnRt0KxuAAnBaaNQvLMsoGXJvrJbFT7I81+zjMojhy19GMe3Wk051hPaoo5SEox3Nw6bC8OjQEPsLaA==" workbookSaltValue="8hp2Wgrb2RjZOU6UgYOjqQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4333353-DF9F-F147-AC41-CE4ED384F43B}"/>
@@ -6487,15 +6487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C1FFDB-2E83-5342-900F-48ED14AFCC81}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -6513,7 +6513,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
         <v>11</v>
@@ -6535,7 +6535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -6558,8 +6558,11 @@
       <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="11" t="s">
         <v>4</v>
@@ -6571,12 +6574,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -6594,7 +6597,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.5</v>
       </c>
@@ -6604,7 +6607,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -6614,7 +6617,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1.5</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>13.200548230583717</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>16.992139795916309</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2.5</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>20.514940956022521</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -6968,7 +6971,7 @@
   <dimension ref="A1:J603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7026,7 +7029,7 @@
         <v>2.39</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f>IF(AND(B3&gt;Threshold,B2&gt;B3), $J$1,$J$2)</f>
+        <f>IF(AND(B3&gt;Threshold,ISBLANK(B4&lt;Threshold)), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D3" s="14"/>
@@ -7036,7 +7039,7 @@
       </c>
       <c r="H3" s="20">
         <f>COUNTIF(C2:C601,J1)</f>
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7047,7 +7050,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>IF(AND(B4&gt;Threshold,B3&gt;B4), $J$1,$J$2)</f>
+        <f>IF(AND(B4&gt;Threshold,B5&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D4" s="14"/>
@@ -7070,7 +7073,7 @@
         <v>1.83</v>
       </c>
       <c r="C5" s="14" t="str">
-        <f>IF(AND(B5&gt;Threshold,B4&gt;B5), $J$1,$J$2)</f>
+        <f>IF(AND(B5&gt;Threshold,B6&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D5" s="14"/>
@@ -7086,7 +7089,7 @@
         <v>1.62</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>IF(AND(B6&gt;Threshold,B5&gt;B6), $J$1,$J$2)</f>
+        <f>IF(AND(B6&gt;Threshold,B7&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D6" s="14"/>
@@ -7102,7 +7105,7 @@
         <v>1.74</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>IF(AND(B7&gt;Threshold,B6&gt;B7), $J$1,$J$2)</f>
+        <f>IF(AND(B7&gt;Threshold,B8&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D7" s="14"/>
@@ -7118,7 +7121,7 @@
         <v>1.78</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>IF(AND(B8&gt;Threshold,B7&gt;B8), $J$1,$J$2)</f>
+        <f>IF(AND(B8&gt;Threshold,B9&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D8" s="14"/>
@@ -7134,7 +7137,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>IF(AND(B9&gt;Threshold,B8&gt;B9), $J$1,$J$2)</f>
+        <f>IF(AND(B9&gt;Threshold,B10&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D9" s="14"/>
@@ -7150,8 +7153,8 @@
         <v>4.26</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f>IF(AND(B10&gt;Threshold,B9&gt;B10), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B10&gt;Threshold,B11&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D10" s="14"/>
       <c r="F10" s="14"/>
@@ -7166,7 +7169,7 @@
         <v>2.52</v>
       </c>
       <c r="C11" s="14" t="str">
-        <f>IF(AND(B11&gt;Threshold,B10&gt;B11), $J$1,$J$2)</f>
+        <f>IF(AND(B11&gt;Threshold,B12&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D11" s="14"/>
@@ -7182,7 +7185,7 @@
         <v>2.29</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>IF(AND(B12&gt;Threshold,B11&gt;B12), $J$1,$J$2)</f>
+        <f>IF(AND(B12&gt;Threshold,B13&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D12" s="14"/>
@@ -7198,7 +7201,7 @@
         <v>2.04</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>IF(AND(B13&gt;Threshold,B12&gt;B13), $J$1,$J$2)</f>
+        <f>IF(AND(B13&gt;Threshold,B14&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D13" s="14"/>
@@ -7214,7 +7217,7 @@
         <v>1.72</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>IF(AND(B14&gt;Threshold,B13&gt;B14), $J$1,$J$2)</f>
+        <f>IF(AND(B14&gt;Threshold,B15&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D14" s="14"/>
@@ -7230,7 +7233,7 @@
         <v>1.75</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>IF(AND(B15&gt;Threshold,B14&gt;B15), $J$1,$J$2)</f>
+        <f>IF(AND(B15&gt;Threshold,B16&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D15" s="14"/>
@@ -7246,7 +7249,7 @@
         <v>1.74</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>IF(AND(B16&gt;Threshold,B15&gt;B16), $J$1,$J$2)</f>
+        <f>IF(AND(B16&gt;Threshold,B17&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D16" s="14"/>
@@ -7262,7 +7265,7 @@
         <v>3.46</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>IF(AND(B17&gt;Threshold,B16&gt;B17), $J$1,$J$2)</f>
+        <f>IF(AND(B17&gt;Threshold,B18&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D17" s="14"/>
@@ -7278,8 +7281,8 @@
         <v>4.26</v>
       </c>
       <c r="C18" s="14" t="str">
-        <f>IF(AND(B18&gt;Threshold,B17&gt;B18), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B18&gt;Threshold,B19&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D18" s="14"/>
       <c r="F18" s="14"/>
@@ -7294,7 +7297,7 @@
         <v>2.62</v>
       </c>
       <c r="C19" s="14" t="str">
-        <f>IF(AND(B19&gt;Threshold,B18&gt;B19), $J$1,$J$2)</f>
+        <f>IF(AND(B19&gt;Threshold,B20&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D19" s="14"/>
@@ -7310,7 +7313,7 @@
         <v>2.13</v>
       </c>
       <c r="C20" s="14" t="str">
-        <f>IF(AND(B20&gt;Threshold,B19&gt;B20), $J$1,$J$2)</f>
+        <f>IF(AND(B20&gt;Threshold,B21&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D20" s="14"/>
@@ -7326,7 +7329,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C21" s="14" t="str">
-        <f>IF(AND(B21&gt;Threshold,B20&gt;B21), $J$1,$J$2)</f>
+        <f>IF(AND(B21&gt;Threshold,B22&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D21" s="14"/>
@@ -7342,7 +7345,7 @@
         <v>1.77</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>IF(AND(B22&gt;Threshold,B21&gt;B22), $J$1,$J$2)</f>
+        <f>IF(AND(B22&gt;Threshold,B23&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D22" s="14"/>
@@ -7358,7 +7361,7 @@
         <v>1.64</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>IF(AND(B23&gt;Threshold,B22&gt;B23), $J$1,$J$2)</f>
+        <f>IF(AND(B23&gt;Threshold,B24&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D23" s="14"/>
@@ -7374,7 +7377,7 @@
         <v>1.8</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>IF(AND(B24&gt;Threshold,B23&gt;B24), $J$1,$J$2)</f>
+        <f>IF(AND(B24&gt;Threshold,B25&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D24" s="14"/>
@@ -7390,7 +7393,7 @@
         <v>3.18</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>IF(AND(B25&gt;Threshold,B24&gt;B25), $J$1,$J$2)</f>
+        <f>IF(AND(B25&gt;Threshold,B26&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D25" s="14"/>
@@ -7406,8 +7409,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C26" s="14" t="str">
-        <f>IF(AND(B26&gt;Threshold,B25&gt;B26), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B26&gt;Threshold,B27&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D26" s="14"/>
       <c r="F26" s="14"/>
@@ -7422,7 +7425,7 @@
         <v>2.71</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>IF(AND(B27&gt;Threshold,B26&gt;B27), $J$1,$J$2)</f>
+        <f>IF(AND(B27&gt;Threshold,B28&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D27" s="14"/>
@@ -7438,7 +7441,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C28" s="14" t="str">
-        <f>IF(AND(B28&gt;Threshold,B27&gt;B28), $J$1,$J$2)</f>
+        <f>IF(AND(B28&gt;Threshold,B29&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D28" s="14"/>
@@ -7454,7 +7457,7 @@
         <v>2.13</v>
       </c>
       <c r="C29" s="14" t="str">
-        <f>IF(AND(B29&gt;Threshold,B28&gt;B29), $J$1,$J$2)</f>
+        <f>IF(AND(B29&gt;Threshold,B30&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D29" s="14"/>
@@ -7470,7 +7473,7 @@
         <v>1.81</v>
       </c>
       <c r="C30" s="14" t="str">
-        <f>IF(AND(B30&gt;Threshold,B29&gt;B30), $J$1,$J$2)</f>
+        <f>IF(AND(B30&gt;Threshold,B31&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D30" s="14"/>
@@ -7486,7 +7489,7 @@
         <v>1.52</v>
       </c>
       <c r="C31" s="14" t="str">
-        <f>IF(AND(B31&gt;Threshold,B30&gt;B31), $J$1,$J$2)</f>
+        <f>IF(AND(B31&gt;Threshold,B32&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D31" s="14"/>
@@ -7502,7 +7505,7 @@
         <v>1.78</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>IF(AND(B32&gt;Threshold,B31&gt;B32), $J$1,$J$2)</f>
+        <f>IF(AND(B32&gt;Threshold,B33&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D32" s="14"/>
@@ -7518,7 +7521,7 @@
         <v>3.09</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>IF(AND(B33&gt;Threshold,B32&gt;B33), $J$1,$J$2)</f>
+        <f>IF(AND(B33&gt;Threshold,B34&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D33" s="14"/>
@@ -7534,8 +7537,8 @@
         <v>4.43</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>IF(AND(B34&gt;Threshold,B33&gt;B34), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B34&gt;Threshold,B35&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D34" s="14"/>
       <c r="F34" s="14"/>
@@ -7550,7 +7553,7 @@
         <v>2.99</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>IF(AND(B35&gt;Threshold,B34&gt;B35), $J$1,$J$2)</f>
+        <f>IF(AND(B35&gt;Threshold,B36&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D35" s="14"/>
@@ -7566,7 +7569,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>IF(AND(B36&gt;Threshold,B35&gt;B36), $J$1,$J$2)</f>
+        <f>IF(AND(B36&gt;Threshold,B37&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D36" s="14"/>
@@ -7582,7 +7585,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>IF(AND(B37&gt;Threshold,B36&gt;B37), $J$1,$J$2)</f>
+        <f>IF(AND(B37&gt;Threshold,B38&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D37" s="14"/>
@@ -7598,7 +7601,7 @@
         <v>1.8</v>
       </c>
       <c r="C38" s="14" t="str">
-        <f>IF(AND(B38&gt;Threshold,B37&gt;B38), $J$1,$J$2)</f>
+        <f>IF(AND(B38&gt;Threshold,B39&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D38" s="14"/>
@@ -7614,7 +7617,7 @@
         <v>1.64</v>
       </c>
       <c r="C39" s="14" t="str">
-        <f>IF(AND(B39&gt;Threshold,B38&gt;B39), $J$1,$J$2)</f>
+        <f>IF(AND(B39&gt;Threshold,B40&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D39" s="14"/>
@@ -7630,7 +7633,7 @@
         <v>1.68</v>
       </c>
       <c r="C40" s="14" t="str">
-        <f>IF(AND(B40&gt;Threshold,B39&gt;B40), $J$1,$J$2)</f>
+        <f>IF(AND(B40&gt;Threshold,B41&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D40" s="14"/>
@@ -7646,7 +7649,7 @@
         <v>3.03</v>
       </c>
       <c r="C41" s="14" t="str">
-        <f>IF(AND(B41&gt;Threshold,B40&gt;B41), $J$1,$J$2)</f>
+        <f>IF(AND(B41&gt;Threshold,B42&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D41" s="14"/>
@@ -7662,8 +7665,8 @@
         <v>4.58</v>
       </c>
       <c r="C42" s="14" t="str">
-        <f>IF(AND(B42&gt;Threshold,B41&gt;B42), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B42&gt;Threshold,B43&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D42" s="14"/>
       <c r="F42" s="14"/>
@@ -7678,7 +7681,7 @@
         <v>2.99</v>
       </c>
       <c r="C43" s="14" t="str">
-        <f>IF(AND(B43&gt;Threshold,B42&gt;B43), $J$1,$J$2)</f>
+        <f>IF(AND(B43&gt;Threshold,B44&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D43" s="14"/>
@@ -7694,7 +7697,7 @@
         <v>2.15</v>
       </c>
       <c r="C44" s="14" t="str">
-        <f>IF(AND(B44&gt;Threshold,B43&gt;B44), $J$1,$J$2)</f>
+        <f>IF(AND(B44&gt;Threshold,B45&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D44" s="14"/>
@@ -7710,7 +7713,7 @@
         <v>2.16</v>
       </c>
       <c r="C45" s="14" t="str">
-        <f>IF(AND(B45&gt;Threshold,B44&gt;B45), $J$1,$J$2)</f>
+        <f>IF(AND(B45&gt;Threshold,B46&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D45" s="14"/>
@@ -7726,7 +7729,7 @@
         <v>1.87</v>
       </c>
       <c r="C46" s="14" t="str">
-        <f>IF(AND(B46&gt;Threshold,B45&gt;B46), $J$1,$J$2)</f>
+        <f>IF(AND(B46&gt;Threshold,B47&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D46" s="14"/>
@@ -7742,7 +7745,7 @@
         <v>1.63</v>
       </c>
       <c r="C47" s="14" t="str">
-        <f>IF(AND(B47&gt;Threshold,B46&gt;B47), $J$1,$J$2)</f>
+        <f>IF(AND(B47&gt;Threshold,B48&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D47" s="14"/>
@@ -7758,7 +7761,7 @@
         <v>1.76</v>
       </c>
       <c r="C48" s="14" t="str">
-        <f>IF(AND(B48&gt;Threshold,B47&gt;B48), $J$1,$J$2)</f>
+        <f>IF(AND(B48&gt;Threshold,B49&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D48" s="14"/>
@@ -7774,7 +7777,7 @@
         <v>2.6</v>
       </c>
       <c r="C49" s="14" t="str">
-        <f>IF(AND(B49&gt;Threshold,B48&gt;B49), $J$1,$J$2)</f>
+        <f>IF(AND(B49&gt;Threshold,B50&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D49" s="14"/>
@@ -7790,7 +7793,7 @@
         <v>4.63</v>
       </c>
       <c r="C50" s="14" t="str">
-        <f>IF(AND(B50&gt;Threshold,B49&gt;B50), $J$1,$J$2)</f>
+        <f>IF(AND(B50&gt;Threshold,B51&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D50" s="14"/>
@@ -7806,7 +7809,7 @@
         <v>3.53</v>
       </c>
       <c r="C51" s="14" t="str">
-        <f>IF(AND(B51&gt;Threshold,B50&gt;B51), $J$1,$J$2)</f>
+        <f>IF(AND(B51&gt;Threshold,B52&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D51" s="14"/>
@@ -7822,7 +7825,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C52" s="14" t="str">
-        <f>IF(AND(B52&gt;Threshold,B51&gt;B52), $J$1,$J$2)</f>
+        <f>IF(AND(B52&gt;Threshold,B53&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D52" s="14"/>
@@ -7838,7 +7841,7 @@
         <v>2.29</v>
       </c>
       <c r="C53" s="14" t="str">
-        <f>IF(AND(B53&gt;Threshold,B52&gt;B53), $J$1,$J$2)</f>
+        <f>IF(AND(B53&gt;Threshold,B54&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D53" s="14"/>
@@ -7854,7 +7857,7 @@
         <v>1.73</v>
       </c>
       <c r="C54" s="14" t="str">
-        <f>IF(AND(B54&gt;Threshold,B53&gt;B54), $J$1,$J$2)</f>
+        <f>IF(AND(B54&gt;Threshold,B55&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D54" s="14"/>
@@ -7870,7 +7873,7 @@
         <v>1.66</v>
       </c>
       <c r="C55" s="14" t="str">
-        <f>IF(AND(B55&gt;Threshold,B54&gt;B55), $J$1,$J$2)</f>
+        <f>IF(AND(B55&gt;Threshold,B56&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D55" s="14"/>
@@ -7886,7 +7889,7 @@
         <v>1.76</v>
       </c>
       <c r="C56" s="14" t="str">
-        <f>IF(AND(B56&gt;Threshold,B55&gt;B56), $J$1,$J$2)</f>
+        <f>IF(AND(B56&gt;Threshold,B57&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D56" s="14"/>
@@ -7902,7 +7905,7 @@
         <v>2.42</v>
       </c>
       <c r="C57" s="14" t="str">
-        <f>IF(AND(B57&gt;Threshold,B56&gt;B57), $J$1,$J$2)</f>
+        <f>IF(AND(B57&gt;Threshold,B58&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D57" s="14"/>
@@ -7918,7 +7921,7 @@
         <v>4.57</v>
       </c>
       <c r="C58" s="14" t="str">
-        <f>IF(AND(B58&gt;Threshold,B57&gt;B58), $J$1,$J$2)</f>
+        <f>IF(AND(B58&gt;Threshold,B59&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D58" s="14"/>
@@ -7934,7 +7937,7 @@
         <v>3.33</v>
       </c>
       <c r="C59" s="14" t="str">
-        <f>IF(AND(B59&gt;Threshold,B58&gt;B59), $J$1,$J$2)</f>
+        <f>IF(AND(B59&gt;Threshold,B60&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D59" s="14"/>
@@ -7950,7 +7953,7 @@
         <v>2.16</v>
       </c>
       <c r="C60" s="14" t="str">
-        <f>IF(AND(B60&gt;Threshold,B59&gt;B60), $J$1,$J$2)</f>
+        <f>IF(AND(B60&gt;Threshold,B61&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D60" s="14"/>
@@ -7966,7 +7969,7 @@
         <v>2.12</v>
       </c>
       <c r="C61" s="14" t="str">
-        <f>IF(AND(B61&gt;Threshold,B60&gt;B61), $J$1,$J$2)</f>
+        <f>IF(AND(B61&gt;Threshold,B62&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D61" s="14"/>
@@ -7982,7 +7985,7 @@
         <v>1.76</v>
       </c>
       <c r="C62" s="14" t="str">
-        <f>IF(AND(B62&gt;Threshold,B61&gt;B62), $J$1,$J$2)</f>
+        <f>IF(AND(B62&gt;Threshold,B63&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D62" s="14"/>
@@ -7998,7 +8001,7 @@
         <v>1.65</v>
       </c>
       <c r="C63" s="14" t="str">
-        <f>IF(AND(B63&gt;Threshold,B62&gt;B63), $J$1,$J$2)</f>
+        <f>IF(AND(B63&gt;Threshold,B64&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D63" s="14"/>
@@ -8014,7 +8017,7 @@
         <v>1.75</v>
       </c>
       <c r="C64" s="14" t="str">
-        <f>IF(AND(B64&gt;Threshold,B63&gt;B64), $J$1,$J$2)</f>
+        <f>IF(AND(B64&gt;Threshold,B65&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D64" s="14"/>
@@ -8030,7 +8033,7 @@
         <v>2.57</v>
       </c>
       <c r="C65" s="14" t="str">
-        <f>IF(AND(B65&gt;Threshold,B64&gt;B65), $J$1,$J$2)</f>
+        <f>IF(AND(B65&gt;Threshold,B66&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D65" s="14"/>
@@ -8046,7 +8049,7 @@
         <v>4.62</v>
       </c>
       <c r="C66" s="14" t="str">
-        <f>IF(AND(B66&gt;Threshold,B65&gt;B66), $J$1,$J$2)</f>
+        <f>IF(AND(B66&gt;Threshold,B67&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D66" s="14"/>
@@ -8062,7 +8065,7 @@
         <v>3.18</v>
       </c>
       <c r="C67" s="14" t="str">
-        <f>IF(AND(B67&gt;Threshold,B66&gt;B67), $J$1,$J$2)</f>
+        <f>IF(AND(B67&gt;Threshold,B68&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D67" s="14"/>
@@ -8078,7 +8081,7 @@
         <v>2.14</v>
       </c>
       <c r="C68" s="14" t="str">
-        <f>IF(AND(B68&gt;Threshold,B67&gt;B68), $J$1,$J$2)</f>
+        <f>IF(AND(B68&gt;Threshold,B69&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D68" s="14"/>
@@ -8094,7 +8097,7 @@
         <v>2.14</v>
       </c>
       <c r="C69" s="14" t="str">
-        <f>IF(AND(B69&gt;Threshold,B68&gt;B69), $J$1,$J$2)</f>
+        <f>IF(AND(B69&gt;Threshold,B70&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D69" s="14"/>
@@ -8110,7 +8113,7 @@
         <v>1.7</v>
       </c>
       <c r="C70" s="14" t="str">
-        <f>IF(AND(B70&gt;Threshold,B69&gt;B70), $J$1,$J$2)</f>
+        <f>IF(AND(B70&gt;Threshold,B71&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D70" s="14"/>
@@ -8126,7 +8129,7 @@
         <v>1.58</v>
       </c>
       <c r="C71" s="14" t="str">
-        <f>IF(AND(B71&gt;Threshold,B70&gt;B71), $J$1,$J$2)</f>
+        <f>IF(AND(B71&gt;Threshold,B72&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D71" s="14"/>
@@ -8142,7 +8145,7 @@
         <v>1.71</v>
       </c>
       <c r="C72" s="14" t="str">
-        <f>IF(AND(B72&gt;Threshold,B71&gt;B72), $J$1,$J$2)</f>
+        <f>IF(AND(B72&gt;Threshold,B73&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D72" s="14"/>
@@ -8158,7 +8161,7 @@
         <v>2.39</v>
       </c>
       <c r="C73" s="14" t="str">
-        <f>IF(AND(B73&gt;Threshold,B72&gt;B73), $J$1,$J$2)</f>
+        <f>IF(AND(B73&gt;Threshold,B74&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D73" s="14"/>
@@ -8174,8 +8177,8 @@
         <v>4.37</v>
       </c>
       <c r="C74" s="14" t="str">
-        <f>IF(AND(B74&gt;Threshold,B73&gt;B74), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B74&gt;Threshold,B75&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
@@ -8190,7 +8193,7 @@
         <v>2.99</v>
       </c>
       <c r="C75" s="14" t="str">
-        <f>IF(AND(B75&gt;Threshold,B74&gt;B75), $J$1,$J$2)</f>
+        <f>IF(AND(B75&gt;Threshold,B76&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D75" s="14"/>
@@ -8206,7 +8209,7 @@
         <v>1.88</v>
       </c>
       <c r="C76" s="14" t="str">
-        <f>IF(AND(B76&gt;Threshold,B75&gt;B76), $J$1,$J$2)</f>
+        <f>IF(AND(B76&gt;Threshold,B77&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D76" s="14"/>
@@ -8222,7 +8225,7 @@
         <v>1.88</v>
       </c>
       <c r="C77" s="14" t="str">
-        <f>IF(AND(B77&gt;Threshold,B76&gt;B77), $J$1,$J$2)</f>
+        <f>IF(AND(B77&gt;Threshold,B78&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D77" s="14"/>
@@ -8238,7 +8241,7 @@
         <v>1.63</v>
       </c>
       <c r="C78" s="14" t="str">
-        <f>IF(AND(B78&gt;Threshold,B77&gt;B78), $J$1,$J$2)</f>
+        <f>IF(AND(B78&gt;Threshold,B79&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D78" s="14"/>
@@ -8254,7 +8257,7 @@
         <v>1.58</v>
       </c>
       <c r="C79" s="14" t="str">
-        <f>IF(AND(B79&gt;Threshold,B78&gt;B79), $J$1,$J$2)</f>
+        <f>IF(AND(B79&gt;Threshold,B80&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D79" s="14"/>
@@ -8270,7 +8273,7 @@
         <v>1.55</v>
       </c>
       <c r="C80" s="14" t="str">
-        <f>IF(AND(B80&gt;Threshold,B79&gt;B80), $J$1,$J$2)</f>
+        <f>IF(AND(B80&gt;Threshold,B81&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D80" s="14"/>
@@ -8286,7 +8289,7 @@
         <v>1.82</v>
       </c>
       <c r="C81" s="14" t="str">
-        <f>IF(AND(B81&gt;Threshold,B80&gt;B81), $J$1,$J$2)</f>
+        <f>IF(AND(B81&gt;Threshold,B82&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D81" s="14"/>
@@ -8302,7 +8305,7 @@
         <v>3.76</v>
       </c>
       <c r="C82" s="14" t="str">
-        <f>IF(AND(B82&gt;Threshold,B81&gt;B82), $J$1,$J$2)</f>
+        <f>IF(AND(B82&gt;Threshold,B83&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D82" s="14"/>
@@ -8318,7 +8321,7 @@
         <v>3.09</v>
       </c>
       <c r="C83" s="14" t="str">
-        <f>IF(AND(B83&gt;Threshold,B82&gt;B83), $J$1,$J$2)</f>
+        <f>IF(AND(B83&gt;Threshold,B84&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D83" s="14"/>
@@ -8334,7 +8337,7 @@
         <v>2.09</v>
       </c>
       <c r="C84" s="14" t="str">
-        <f>IF(AND(B84&gt;Threshold,B83&gt;B84), $J$1,$J$2)</f>
+        <f>IF(AND(B84&gt;Threshold,B85&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D84" s="14"/>
@@ -8350,7 +8353,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C85" s="14" t="str">
-        <f>IF(AND(B85&gt;Threshold,B84&gt;B85), $J$1,$J$2)</f>
+        <f>IF(AND(B85&gt;Threshold,B86&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D85" s="14"/>
@@ -8366,7 +8369,7 @@
         <v>1.87</v>
       </c>
       <c r="C86" s="14" t="str">
-        <f>IF(AND(B86&gt;Threshold,B85&gt;B86), $J$1,$J$2)</f>
+        <f>IF(AND(B86&gt;Threshold,B87&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D86" s="14"/>
@@ -8382,7 +8385,7 @@
         <v>1.66</v>
       </c>
       <c r="C87" s="14" t="str">
-        <f>IF(AND(B87&gt;Threshold,B86&gt;B87), $J$1,$J$2)</f>
+        <f>IF(AND(B87&gt;Threshold,B88&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D87" s="14"/>
@@ -8398,7 +8401,7 @@
         <v>1.79</v>
       </c>
       <c r="C88" s="14" t="str">
-        <f>IF(AND(B88&gt;Threshold,B87&gt;B88), $J$1,$J$2)</f>
+        <f>IF(AND(B88&gt;Threshold,B89&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D88" s="14"/>
@@ -8414,7 +8417,7 @@
         <v>1.86</v>
       </c>
       <c r="C89" s="14" t="str">
-        <f>IF(AND(B89&gt;Threshold,B88&gt;B89), $J$1,$J$2)</f>
+        <f>IF(AND(B89&gt;Threshold,B90&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D89" s="14"/>
@@ -8430,7 +8433,7 @@
         <v>3.33</v>
       </c>
       <c r="C90" s="14" t="str">
-        <f>IF(AND(B90&gt;Threshold,B89&gt;B90), $J$1,$J$2)</f>
+        <f>IF(AND(B90&gt;Threshold,B91&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D90" s="14"/>
@@ -8446,8 +8449,8 @@
         <v>3.73</v>
       </c>
       <c r="C91" s="14" t="str">
-        <f>IF(AND(B91&gt;Threshold,B90&gt;B91), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B91&gt;Threshold,B92&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D91" s="14"/>
       <c r="F91" s="14"/>
@@ -8462,7 +8465,7 @@
         <v>2.48</v>
       </c>
       <c r="C92" s="14" t="str">
-        <f>IF(AND(B92&gt;Threshold,B91&gt;B92), $J$1,$J$2)</f>
+        <f>IF(AND(B92&gt;Threshold,B93&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D92" s="14"/>
@@ -8478,7 +8481,7 @@
         <v>2.23</v>
       </c>
       <c r="C93" s="14" t="str">
-        <f>IF(AND(B93&gt;Threshold,B92&gt;B93), $J$1,$J$2)</f>
+        <f>IF(AND(B93&gt;Threshold,B94&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D93" s="14"/>
@@ -8494,7 +8497,7 @@
         <v>2.11</v>
       </c>
       <c r="C94" s="14" t="str">
-        <f>IF(AND(B94&gt;Threshold,B93&gt;B94), $J$1,$J$2)</f>
+        <f>IF(AND(B94&gt;Threshold,B95&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D94" s="14"/>
@@ -8510,7 +8513,7 @@
         <v>1.85</v>
       </c>
       <c r="C95" s="14" t="str">
-        <f>IF(AND(B95&gt;Threshold,B94&gt;B95), $J$1,$J$2)</f>
+        <f>IF(AND(B95&gt;Threshold,B96&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D95" s="14"/>
@@ -8526,7 +8529,7 @@
         <v>1.9</v>
       </c>
       <c r="C96" s="14" t="str">
-        <f>IF(AND(B96&gt;Threshold,B95&gt;B96), $J$1,$J$2)</f>
+        <f>IF(AND(B96&gt;Threshold,B97&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D96" s="14"/>
@@ -8542,7 +8545,7 @@
         <v>1.9</v>
       </c>
       <c r="C97" s="14" t="str">
-        <f>IF(AND(B97&gt;Threshold,B96&gt;B97), $J$1,$J$2)</f>
+        <f>IF(AND(B97&gt;Threshold,B98&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D97" s="14"/>
@@ -8558,7 +8561,7 @@
         <v>2.89</v>
       </c>
       <c r="C98" s="14" t="str">
-        <f>IF(AND(B98&gt;Threshold,B97&gt;B98), $J$1,$J$2)</f>
+        <f>IF(AND(B98&gt;Threshold,B99&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D98" s="14"/>
@@ -8574,8 +8577,8 @@
         <v>3.87</v>
       </c>
       <c r="C99" s="14" t="str">
-        <f>IF(AND(B99&gt;Threshold,B98&gt;B99), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B99&gt;Threshold,B100&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D99" s="14"/>
       <c r="F99" s="14"/>
@@ -8590,7 +8593,7 @@
         <v>2.56</v>
       </c>
       <c r="C100" s="14" t="str">
-        <f>IF(AND(B100&gt;Threshold,B99&gt;B100), $J$1,$J$2)</f>
+        <f>IF(AND(B100&gt;Threshold,B101&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D100" s="14"/>
@@ -8606,7 +8609,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C101" s="14" t="str">
-        <f>IF(AND(B101&gt;Threshold,B100&gt;B101), $J$1,$J$2)</f>
+        <f>IF(AND(B101&gt;Threshold,B102&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D101" s="14"/>
@@ -8622,7 +8625,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C102" s="14" t="str">
-        <f>IF(AND(B102&gt;Threshold,B101&gt;B102), $J$1,$J$2)</f>
+        <f>IF(AND(B102&gt;Threshold,B103&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D102" s="14"/>
@@ -8638,7 +8641,7 @@
         <v>1.87</v>
       </c>
       <c r="C103" s="14" t="str">
-        <f>IF(AND(B103&gt;Threshold,B102&gt;B103), $J$1,$J$2)</f>
+        <f>IF(AND(B103&gt;Threshold,B104&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D103" s="14"/>
@@ -8654,7 +8657,7 @@
         <v>1.86</v>
       </c>
       <c r="C104" s="14" t="str">
-        <f>IF(AND(B104&gt;Threshold,B103&gt;B104), $J$1,$J$2)</f>
+        <f>IF(AND(B104&gt;Threshold,B105&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D104" s="14"/>
@@ -8670,7 +8673,7 @@
         <v>1.88</v>
       </c>
       <c r="C105" s="14" t="str">
-        <f>IF(AND(B105&gt;Threshold,B104&gt;B105), $J$1,$J$2)</f>
+        <f>IF(AND(B105&gt;Threshold,B106&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D105" s="14"/>
@@ -8686,7 +8689,7 @@
         <v>2.74</v>
       </c>
       <c r="C106" s="14" t="str">
-        <f>IF(AND(B106&gt;Threshold,B105&gt;B106), $J$1,$J$2)</f>
+        <f>IF(AND(B106&gt;Threshold,B107&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D106" s="14"/>
@@ -8702,8 +8705,8 @@
         <v>3.94</v>
       </c>
       <c r="C107" s="14" t="str">
-        <f>IF(AND(B107&gt;Threshold,B106&gt;B107), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B107&gt;Threshold,B108&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D107" s="14"/>
       <c r="F107" s="14"/>
@@ -8718,7 +8721,7 @@
         <v>2.66</v>
       </c>
       <c r="C108" s="14" t="str">
-        <f>IF(AND(B108&gt;Threshold,B107&gt;B108), $J$1,$J$2)</f>
+        <f>IF(AND(B108&gt;Threshold,B109&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D108" s="14"/>
@@ -8734,7 +8737,7 @@
         <v>2.21</v>
       </c>
       <c r="C109" s="14" t="str">
-        <f>IF(AND(B109&gt;Threshold,B108&gt;B109), $J$1,$J$2)</f>
+        <f>IF(AND(B109&gt;Threshold,B110&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D109" s="14"/>
@@ -8750,7 +8753,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C110" s="14" t="str">
-        <f>IF(AND(B110&gt;Threshold,B109&gt;B110), $J$1,$J$2)</f>
+        <f>IF(AND(B110&gt;Threshold,B111&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D110" s="14"/>
@@ -8766,7 +8769,7 @@
         <v>1.92</v>
       </c>
       <c r="C111" s="14" t="str">
-        <f>IF(AND(B111&gt;Threshold,B110&gt;B111), $J$1,$J$2)</f>
+        <f>IF(AND(B111&gt;Threshold,B112&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D111" s="14"/>
@@ -8782,7 +8785,7 @@
         <v>1.82</v>
       </c>
       <c r="C112" s="14" t="str">
-        <f>IF(AND(B112&gt;Threshold,B111&gt;B112), $J$1,$J$2)</f>
+        <f>IF(AND(B112&gt;Threshold,B113&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D112" s="14"/>
@@ -8798,7 +8801,7 @@
         <v>1.91</v>
       </c>
       <c r="C113" s="14" t="str">
-        <f>IF(AND(B113&gt;Threshold,B112&gt;B113), $J$1,$J$2)</f>
+        <f>IF(AND(B113&gt;Threshold,B114&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D113" s="14"/>
@@ -8814,7 +8817,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C114" s="14" t="str">
-        <f>IF(AND(B114&gt;Threshold,B113&gt;B114), $J$1,$J$2)</f>
+        <f>IF(AND(B114&gt;Threshold,B115&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D114" s="14"/>
@@ -8830,8 +8833,8 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C115" s="14" t="str">
-        <f>IF(AND(B115&gt;Threshold,B114&gt;B115), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B115&gt;Threshold,B116&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D115" s="14"/>
       <c r="F115" s="14"/>
@@ -8846,7 +8849,7 @@
         <v>2.95</v>
       </c>
       <c r="C116" s="14" t="str">
-        <f>IF(AND(B116&gt;Threshold,B115&gt;B116), $J$1,$J$2)</f>
+        <f>IF(AND(B116&gt;Threshold,B117&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D116" s="14"/>
@@ -8862,7 +8865,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C117" s="14" t="str">
-        <f>IF(AND(B117&gt;Threshold,B116&gt;B117), $J$1,$J$2)</f>
+        <f>IF(AND(B117&gt;Threshold,B118&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D117" s="14"/>
@@ -8878,7 +8881,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C118" s="14" t="str">
-        <f>IF(AND(B118&gt;Threshold,B117&gt;B118), $J$1,$J$2)</f>
+        <f>IF(AND(B118&gt;Threshold,B119&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D118" s="14"/>
@@ -8894,7 +8897,7 @@
         <v>1.97</v>
       </c>
       <c r="C119" s="14" t="str">
-        <f>IF(AND(B119&gt;Threshold,B118&gt;B119), $J$1,$J$2)</f>
+        <f>IF(AND(B119&gt;Threshold,B120&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D119" s="14"/>
@@ -8910,7 +8913,7 @@
         <v>1.91</v>
       </c>
       <c r="C120" s="14" t="str">
-        <f>IF(AND(B120&gt;Threshold,B119&gt;B120), $J$1,$J$2)</f>
+        <f>IF(AND(B120&gt;Threshold,B121&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D120" s="14"/>
@@ -8926,7 +8929,7 @@
         <v>1.93</v>
       </c>
       <c r="C121" s="14" t="str">
-        <f>IF(AND(B121&gt;Threshold,B120&gt;B121), $J$1,$J$2)</f>
+        <f>IF(AND(B121&gt;Threshold,B122&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D121" s="14"/>
@@ -8942,7 +8945,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C122" s="14" t="str">
-        <f>IF(AND(B122&gt;Threshold,B121&gt;B122), $J$1,$J$2)</f>
+        <f>IF(AND(B122&gt;Threshold,B123&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D122" s="14"/>
@@ -8958,7 +8961,7 @@
         <v>3.97</v>
       </c>
       <c r="C123" s="14" t="str">
-        <f>IF(AND(B123&gt;Threshold,B122&gt;B123), $J$1,$J$2)</f>
+        <f>IF(AND(B123&gt;Threshold,B124&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D123" s="14"/>
@@ -8974,7 +8977,7 @@
         <v>3.01</v>
       </c>
       <c r="C124" s="14" t="str">
-        <f>IF(AND(B124&gt;Threshold,B123&gt;B124), $J$1,$J$2)</f>
+        <f>IF(AND(B124&gt;Threshold,B125&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D124" s="14"/>
@@ -8990,7 +8993,7 @@
         <v>2.31</v>
       </c>
       <c r="C125" s="14" t="str">
-        <f>IF(AND(B125&gt;Threshold,B124&gt;B125), $J$1,$J$2)</f>
+        <f>IF(AND(B125&gt;Threshold,B126&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D125" s="14"/>
@@ -9006,7 +9009,7 @@
         <v>2.23</v>
       </c>
       <c r="C126" s="14" t="str">
-        <f>IF(AND(B126&gt;Threshold,B125&gt;B126), $J$1,$J$2)</f>
+        <f>IF(AND(B126&gt;Threshold,B127&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D126" s="14"/>
@@ -9022,7 +9025,7 @@
         <v>2.12</v>
       </c>
       <c r="C127" s="14" t="str">
-        <f>IF(AND(B127&gt;Threshold,B126&gt;B127), $J$1,$J$2)</f>
+        <f>IF(AND(B127&gt;Threshold,B128&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D127" s="14"/>
@@ -9038,7 +9041,7 @@
         <v>1.86</v>
       </c>
       <c r="C128" s="14" t="str">
-        <f>IF(AND(B128&gt;Threshold,B127&gt;B128), $J$1,$J$2)</f>
+        <f>IF(AND(B128&gt;Threshold,B129&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D128" s="14"/>
@@ -9054,7 +9057,7 @@
         <v>1.94</v>
       </c>
       <c r="C129" s="14" t="str">
-        <f>IF(AND(B129&gt;Threshold,B128&gt;B129), $J$1,$J$2)</f>
+        <f>IF(AND(B129&gt;Threshold,B130&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D129" s="14"/>
@@ -9070,7 +9073,7 @@
         <v>2.16</v>
       </c>
       <c r="C130" s="14" t="str">
-        <f>IF(AND(B130&gt;Threshold,B129&gt;B130), $J$1,$J$2)</f>
+        <f>IF(AND(B130&gt;Threshold,B131&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D130" s="14"/>
@@ -9086,7 +9089,7 @@
         <v>3.94</v>
       </c>
       <c r="C131" s="14" t="str">
-        <f>IF(AND(B131&gt;Threshold,B130&gt;B131), $J$1,$J$2)</f>
+        <f>IF(AND(B131&gt;Threshold,B132&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D131" s="14"/>
@@ -9102,7 +9105,7 @@
         <v>3.14</v>
       </c>
       <c r="C132" s="14" t="str">
-        <f>IF(AND(B132&gt;Threshold,B131&gt;B132), $J$1,$J$2)</f>
+        <f>IF(AND(B132&gt;Threshold,B133&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D132" s="14"/>
@@ -9118,7 +9121,7 @@
         <v>2.27</v>
       </c>
       <c r="C133" s="14" t="str">
-        <f>IF(AND(B133&gt;Threshold,B132&gt;B133), $J$1,$J$2)</f>
+        <f>IF(AND(B133&gt;Threshold,B134&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D133" s="14"/>
@@ -9134,7 +9137,7 @@
         <v>2.35</v>
       </c>
       <c r="C134" s="14" t="str">
-        <f>IF(AND(B134&gt;Threshold,B133&gt;B134), $J$1,$J$2)</f>
+        <f>IF(AND(B134&gt;Threshold,B135&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D134" s="14"/>
@@ -9150,7 +9153,7 @@
         <v>2.11</v>
       </c>
       <c r="C135" s="14" t="str">
-        <f>IF(AND(B135&gt;Threshold,B134&gt;B135), $J$1,$J$2)</f>
+        <f>IF(AND(B135&gt;Threshold,B136&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D135" s="14"/>
@@ -9166,7 +9169,7 @@
         <v>1.89</v>
       </c>
       <c r="C136" s="14" t="str">
-        <f>IF(AND(B136&gt;Threshold,B135&gt;B136), $J$1,$J$2)</f>
+        <f>IF(AND(B136&gt;Threshold,B137&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D136" s="14"/>
@@ -9182,7 +9185,7 @@
         <v>1.93</v>
       </c>
       <c r="C137" s="14" t="str">
-        <f>IF(AND(B137&gt;Threshold,B136&gt;B137), $J$1,$J$2)</f>
+        <f>IF(AND(B137&gt;Threshold,B138&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D137" s="14"/>
@@ -9198,7 +9201,7 @@
         <v>2.63</v>
       </c>
       <c r="C138" s="14" t="str">
-        <f>IF(AND(B138&gt;Threshold,B137&gt;B138), $J$1,$J$2)</f>
+        <f>IF(AND(B138&gt;Threshold,B139&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D138" s="14"/>
@@ -9214,8 +9217,8 @@
         <v>3.96</v>
       </c>
       <c r="C139" s="14" t="str">
-        <f>IF(AND(B139&gt;Threshold,B138&gt;B139), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B139&gt;Threshold,B140&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D139" s="14"/>
       <c r="F139" s="14"/>
@@ -9230,7 +9233,7 @@
         <v>2.7</v>
       </c>
       <c r="C140" s="14" t="str">
-        <f>IF(AND(B140&gt;Threshold,B139&gt;B140), $J$1,$J$2)</f>
+        <f>IF(AND(B140&gt;Threshold,B141&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D140" s="14"/>
@@ -9246,7 +9249,7 @@
         <v>2.31</v>
       </c>
       <c r="C141" s="14" t="str">
-        <f>IF(AND(B141&gt;Threshold,B140&gt;B141), $J$1,$J$2)</f>
+        <f>IF(AND(B141&gt;Threshold,B142&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D141" s="14"/>
@@ -9262,7 +9265,7 @@
         <v>2.27</v>
       </c>
       <c r="C142" s="14" t="str">
-        <f>IF(AND(B142&gt;Threshold,B141&gt;B142), $J$1,$J$2)</f>
+        <f>IF(AND(B142&gt;Threshold,B143&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D142" s="14"/>
@@ -9278,7 +9281,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C143" s="14" t="str">
-        <f>IF(AND(B143&gt;Threshold,B142&gt;B143), $J$1,$J$2)</f>
+        <f>IF(AND(B143&gt;Threshold,B144&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D143" s="14"/>
@@ -9294,7 +9297,7 @@
         <v>1.9</v>
       </c>
       <c r="C144" s="14" t="str">
-        <f>IF(AND(B144&gt;Threshold,B143&gt;B144), $J$1,$J$2)</f>
+        <f>IF(AND(B144&gt;Threshold,B145&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D144" s="14"/>
@@ -9310,7 +9313,7 @@
         <v>2.15</v>
       </c>
       <c r="C145" s="14" t="str">
-        <f>IF(AND(B145&gt;Threshold,B144&gt;B145), $J$1,$J$2)</f>
+        <f>IF(AND(B145&gt;Threshold,B146&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D145" s="14"/>
@@ -9326,7 +9329,7 @@
         <v>3.13</v>
       </c>
       <c r="C146" s="14" t="str">
-        <f>IF(AND(B146&gt;Threshold,B145&gt;B146), $J$1,$J$2)</f>
+        <f>IF(AND(B146&gt;Threshold,B147&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D146" s="14"/>
@@ -9342,8 +9345,8 @@
         <v>3.95</v>
       </c>
       <c r="C147" s="14" t="str">
-        <f>IF(AND(B147&gt;Threshold,B146&gt;B147), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B147&gt;Threshold,B148&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D147" s="14"/>
       <c r="F147" s="14"/>
@@ -9358,7 +9361,7 @@
         <v>2.67</v>
       </c>
       <c r="C148" s="14" t="str">
-        <f>IF(AND(B148&gt;Threshold,B147&gt;B148), $J$1,$J$2)</f>
+        <f>IF(AND(B148&gt;Threshold,B149&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D148" s="14"/>
@@ -9374,7 +9377,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C149" s="14" t="str">
-        <f>IF(AND(B149&gt;Threshold,B148&gt;B149), $J$1,$J$2)</f>
+        <f>IF(AND(B149&gt;Threshold,B150&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D149" s="14"/>
@@ -9390,7 +9393,7 @@
         <v>2.25</v>
       </c>
       <c r="C150" s="14" t="str">
-        <f>IF(AND(B150&gt;Threshold,B149&gt;B150), $J$1,$J$2)</f>
+        <f>IF(AND(B150&gt;Threshold,B151&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D150" s="14"/>
@@ -9406,7 +9409,7 @@
         <v>2.06</v>
       </c>
       <c r="C151" s="14" t="str">
-        <f>IF(AND(B151&gt;Threshold,B150&gt;B151), $J$1,$J$2)</f>
+        <f>IF(AND(B151&gt;Threshold,B152&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D151" s="14"/>
@@ -9422,7 +9425,7 @@
         <v>1.86</v>
       </c>
       <c r="C152" s="14" t="str">
-        <f>IF(AND(B152&gt;Threshold,B151&gt;B152), $J$1,$J$2)</f>
+        <f>IF(AND(B152&gt;Threshold,B153&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D152" s="14"/>
@@ -9438,7 +9441,7 @@
         <v>2.08</v>
       </c>
       <c r="C153" s="14" t="str">
-        <f>IF(AND(B153&gt;Threshold,B152&gt;B153), $J$1,$J$2)</f>
+        <f>IF(AND(B153&gt;Threshold,B154&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D153" s="14"/>
@@ -9454,7 +9457,7 @@
         <v>3.43</v>
       </c>
       <c r="C154" s="14" t="str">
-        <f>IF(AND(B154&gt;Threshold,B153&gt;B154), $J$1,$J$2)</f>
+        <f>IF(AND(B154&gt;Threshold,B155&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D154" s="14"/>
@@ -9470,8 +9473,8 @@
         <v>3.97</v>
       </c>
       <c r="C155" s="14" t="str">
-        <f>IF(AND(B155&gt;Threshold,B154&gt;B155), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B155&gt;Threshold,B156&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D155" s="14"/>
       <c r="F155" s="14"/>
@@ -9486,7 +9489,7 @@
         <v>2.69</v>
       </c>
       <c r="C156" s="14" t="str">
-        <f>IF(AND(B156&gt;Threshold,B155&gt;B156), $J$1,$J$2)</f>
+        <f>IF(AND(B156&gt;Threshold,B157&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D156" s="14"/>
@@ -9502,7 +9505,7 @@
         <v>2.33</v>
       </c>
       <c r="C157" s="14" t="str">
-        <f>IF(AND(B157&gt;Threshold,B156&gt;B157), $J$1,$J$2)</f>
+        <f>IF(AND(B157&gt;Threshold,B158&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D157" s="14"/>
@@ -9518,7 +9521,7 @@
         <v>2.13</v>
       </c>
       <c r="C158" s="14" t="str">
-        <f>IF(AND(B158&gt;Threshold,B157&gt;B158), $J$1,$J$2)</f>
+        <f>IF(AND(B158&gt;Threshold,B159&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D158" s="14"/>
@@ -9534,7 +9537,7 @@
         <v>1.85</v>
       </c>
       <c r="C159" s="14" t="str">
-        <f>IF(AND(B159&gt;Threshold,B158&gt;B159), $J$1,$J$2)</f>
+        <f>IF(AND(B159&gt;Threshold,B160&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D159" s="14"/>
@@ -9550,7 +9553,7 @@
         <v>1.91</v>
       </c>
       <c r="C160" s="14" t="str">
-        <f>IF(AND(B160&gt;Threshold,B159&gt;B160), $J$1,$J$2)</f>
+        <f>IF(AND(B160&gt;Threshold,B161&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D160" s="14"/>
@@ -9566,7 +9569,7 @@
         <v>1.93</v>
       </c>
       <c r="C161" s="14" t="str">
-        <f>IF(AND(B161&gt;Threshold,B160&gt;B161), $J$1,$J$2)</f>
+        <f>IF(AND(B161&gt;Threshold,B162&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D161" s="14"/>
@@ -9582,7 +9585,7 @@
         <v>3.39</v>
       </c>
       <c r="C162" s="14" t="str">
-        <f>IF(AND(B162&gt;Threshold,B161&gt;B162), $J$1,$J$2)</f>
+        <f>IF(AND(B162&gt;Threshold,B163&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D162" s="14"/>
@@ -9598,8 +9601,8 @@
         <v>3.83</v>
       </c>
       <c r="C163" s="14" t="str">
-        <f>IF(AND(B163&gt;Threshold,B162&gt;B163), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B163&gt;Threshold,B164&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D163" s="14"/>
       <c r="F163" s="14"/>
@@ -9614,7 +9617,7 @@
         <v>2.57</v>
       </c>
       <c r="C164" s="14" t="str">
-        <f>IF(AND(B164&gt;Threshold,B163&gt;B164), $J$1,$J$2)</f>
+        <f>IF(AND(B164&gt;Threshold,B165&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D164" s="14"/>
@@ -9630,7 +9633,7 @@
         <v>2.39</v>
       </c>
       <c r="C165" s="14" t="str">
-        <f>IF(AND(B165&gt;Threshold,B164&gt;B165), $J$1,$J$2)</f>
+        <f>IF(AND(B165&gt;Threshold,B166&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D165" s="14"/>
@@ -9646,7 +9649,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C166" s="14" t="str">
-        <f>IF(AND(B166&gt;Threshold,B165&gt;B166), $J$1,$J$2)</f>
+        <f>IF(AND(B166&gt;Threshold,B167&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D166" s="14"/>
@@ -9662,7 +9665,7 @@
         <v>1.87</v>
       </c>
       <c r="C167" s="14" t="str">
-        <f>IF(AND(B167&gt;Threshold,B166&gt;B167), $J$1,$J$2)</f>
+        <f>IF(AND(B167&gt;Threshold,B168&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D167" s="14"/>
@@ -9678,7 +9681,7 @@
         <v>1.88</v>
       </c>
       <c r="C168" s="14" t="str">
-        <f>IF(AND(B168&gt;Threshold,B167&gt;B168), $J$1,$J$2)</f>
+        <f>IF(AND(B168&gt;Threshold,B169&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D168" s="14"/>
@@ -9694,7 +9697,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C169" s="14" t="str">
-        <f>IF(AND(B169&gt;Threshold,B168&gt;B169), $J$1,$J$2)</f>
+        <f>IF(AND(B169&gt;Threshold,B170&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D169" s="14"/>
@@ -9710,7 +9713,7 @@
         <v>3.64</v>
       </c>
       <c r="C170" s="14" t="str">
-        <f>IF(AND(B170&gt;Threshold,B169&gt;B170), $J$1,$J$2)</f>
+        <f>IF(AND(B170&gt;Threshold,B171&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D170" s="14"/>
@@ -9726,7 +9729,7 @@
         <v>3.58</v>
       </c>
       <c r="C171" s="14" t="str">
-        <f>IF(AND(B171&gt;Threshold,B170&gt;B171), $J$1,$J$2)</f>
+        <f>IF(AND(B171&gt;Threshold,B172&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D171" s="14"/>
@@ -9742,7 +9745,7 @@
         <v>2.41</v>
       </c>
       <c r="C172" s="14" t="str">
-        <f>IF(AND(B172&gt;Threshold,B171&gt;B172), $J$1,$J$2)</f>
+        <f>IF(AND(B172&gt;Threshold,B173&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D172" s="14"/>
@@ -9758,7 +9761,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C173" s="14" t="str">
-        <f>IF(AND(B173&gt;Threshold,B172&gt;B173), $J$1,$J$2)</f>
+        <f>IF(AND(B173&gt;Threshold,B174&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D173" s="14"/>
@@ -9774,7 +9777,7 @@
         <v>2.02</v>
       </c>
       <c r="C174" s="14" t="str">
-        <f>IF(AND(B174&gt;Threshold,B173&gt;B174), $J$1,$J$2)</f>
+        <f>IF(AND(B174&gt;Threshold,B175&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D174" s="14"/>
@@ -9790,7 +9793,7 @@
         <v>1.87</v>
       </c>
       <c r="C175" s="14" t="str">
-        <f>IF(AND(B175&gt;Threshold,B174&gt;B175), $J$1,$J$2)</f>
+        <f>IF(AND(B175&gt;Threshold,B176&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D175" s="14"/>
@@ -9806,7 +9809,7 @@
         <v>1.8</v>
       </c>
       <c r="C176" s="14" t="str">
-        <f>IF(AND(B176&gt;Threshold,B175&gt;B176), $J$1,$J$2)</f>
+        <f>IF(AND(B176&gt;Threshold,B177&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D176" s="14"/>
@@ -9822,7 +9825,7 @@
         <v>1.99</v>
       </c>
       <c r="C177" s="14" t="str">
-        <f>IF(AND(B177&gt;Threshold,B176&gt;B177), $J$1,$J$2)</f>
+        <f>IF(AND(B177&gt;Threshold,B178&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D177" s="14"/>
@@ -9838,7 +9841,7 @@
         <v>3.68</v>
       </c>
       <c r="C178" s="14" t="str">
-        <f>IF(AND(B178&gt;Threshold,B177&gt;B178), $J$1,$J$2)</f>
+        <f>IF(AND(B178&gt;Threshold,B179&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D178" s="14"/>
@@ -9854,7 +9857,7 @@
         <v>3.65</v>
       </c>
       <c r="C179" s="14" t="str">
-        <f>IF(AND(B179&gt;Threshold,B178&gt;B179), $J$1,$J$2)</f>
+        <f>IF(AND(B179&gt;Threshold,B180&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D179" s="14"/>
@@ -9870,7 +9873,7 @@
         <v>2.38</v>
       </c>
       <c r="C180" s="14" t="str">
-        <f>IF(AND(B180&gt;Threshold,B179&gt;B180), $J$1,$J$2)</f>
+        <f>IF(AND(B180&gt;Threshold,B181&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D180" s="14"/>
@@ -9886,7 +9889,7 @@
         <v>2.27</v>
       </c>
       <c r="C181" s="14" t="str">
-        <f>IF(AND(B181&gt;Threshold,B180&gt;B181), $J$1,$J$2)</f>
+        <f>IF(AND(B181&gt;Threshold,B182&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D181" s="14"/>
@@ -9902,7 +9905,7 @@
         <v>2.08</v>
       </c>
       <c r="C182" s="14" t="str">
-        <f>IF(AND(B182&gt;Threshold,B181&gt;B182), $J$1,$J$2)</f>
+        <f>IF(AND(B182&gt;Threshold,B183&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D182" s="14"/>
@@ -9918,7 +9921,7 @@
         <v>1.82</v>
       </c>
       <c r="C183" s="14" t="str">
-        <f>IF(AND(B183&gt;Threshold,B182&gt;B183), $J$1,$J$2)</f>
+        <f>IF(AND(B183&gt;Threshold,B184&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D183" s="14"/>
@@ -9934,7 +9937,7 @@
         <v>1.89</v>
       </c>
       <c r="C184" s="14" t="str">
-        <f>IF(AND(B184&gt;Threshold,B183&gt;B184), $J$1,$J$2)</f>
+        <f>IF(AND(B184&gt;Threshold,B185&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D184" s="14"/>
@@ -9950,7 +9953,7 @@
         <v>1.95</v>
       </c>
       <c r="C185" s="14" t="str">
-        <f>IF(AND(B185&gt;Threshold,B184&gt;B185), $J$1,$J$2)</f>
+        <f>IF(AND(B185&gt;Threshold,B186&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D185" s="14"/>
@@ -9966,7 +9969,7 @@
         <v>3.62</v>
       </c>
       <c r="C186" s="14" t="str">
-        <f>IF(AND(B186&gt;Threshold,B185&gt;B186), $J$1,$J$2)</f>
+        <f>IF(AND(B186&gt;Threshold,B187&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D186" s="14"/>
@@ -9982,8 +9985,8 @@
         <v>3.74</v>
       </c>
       <c r="C187" s="14" t="str">
-        <f>IF(AND(B187&gt;Threshold,B186&gt;B187), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B187&gt;Threshold,B188&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D187" s="14"/>
       <c r="F187" s="14"/>
@@ -9998,7 +10001,7 @@
         <v>2.41</v>
       </c>
       <c r="C188" s="14" t="str">
-        <f>IF(AND(B188&gt;Threshold,B187&gt;B188), $J$1,$J$2)</f>
+        <f>IF(AND(B188&gt;Threshold,B189&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D188" s="14"/>
@@ -10014,7 +10017,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C189" s="14" t="str">
-        <f>IF(AND(B189&gt;Threshold,B188&gt;B189), $J$1,$J$2)</f>
+        <f>IF(AND(B189&gt;Threshold,B190&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D189" s="14"/>
@@ -10030,7 +10033,7 @@
         <v>2.11</v>
       </c>
       <c r="C190" s="14" t="str">
-        <f>IF(AND(B190&gt;Threshold,B189&gt;B190), $J$1,$J$2)</f>
+        <f>IF(AND(B190&gt;Threshold,B191&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D190" s="14"/>
@@ -10046,7 +10049,7 @@
         <v>1.93</v>
       </c>
       <c r="C191" s="14" t="str">
-        <f>IF(AND(B191&gt;Threshold,B190&gt;B191), $J$1,$J$2)</f>
+        <f>IF(AND(B191&gt;Threshold,B192&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D191" s="14"/>
@@ -10062,7 +10065,7 @@
         <v>1.8</v>
       </c>
       <c r="C192" s="14" t="str">
-        <f>IF(AND(B192&gt;Threshold,B191&gt;B192), $J$1,$J$2)</f>
+        <f>IF(AND(B192&gt;Threshold,B193&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D192" s="14"/>
@@ -10078,7 +10081,7 @@
         <v>1.82</v>
       </c>
       <c r="C193" s="14" t="str">
-        <f>IF(AND(B193&gt;Threshold,B192&gt;B193), $J$1,$J$2)</f>
+        <f>IF(AND(B193&gt;Threshold,B194&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D193" s="14"/>
@@ -10094,7 +10097,7 @@
         <v>3.29</v>
       </c>
       <c r="C194" s="14" t="str">
-        <f>IF(AND(B194&gt;Threshold,B193&gt;B194), $J$1,$J$2)</f>
+        <f>IF(AND(B194&gt;Threshold,B195&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D194" s="14"/>
@@ -10110,8 +10113,8 @@
         <v>3.74</v>
       </c>
       <c r="C195" s="14" t="str">
-        <f>IF(AND(B195&gt;Threshold,B194&gt;B195), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B195&gt;Threshold,B196&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D195" s="14"/>
       <c r="F195" s="14"/>
@@ -10126,7 +10129,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C196" s="14" t="str">
-        <f>IF(AND(B196&gt;Threshold,B195&gt;B196), $J$1,$J$2)</f>
+        <f>IF(AND(B196&gt;Threshold,B197&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D196" s="14"/>
@@ -10142,7 +10145,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C197" s="14" t="str">
-        <f>IF(AND(B197&gt;Threshold,B196&gt;B197), $J$1,$J$2)</f>
+        <f>IF(AND(B197&gt;Threshold,B198&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D197" s="14"/>
@@ -10158,7 +10161,7 @@
         <v>2.14</v>
       </c>
       <c r="C198" s="14" t="str">
-        <f>IF(AND(B198&gt;Threshold,B197&gt;B198), $J$1,$J$2)</f>
+        <f>IF(AND(B198&gt;Threshold,B199&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D198" s="14"/>
@@ -10174,7 +10177,7 @@
         <v>1.9</v>
       </c>
       <c r="C199" s="14" t="str">
-        <f>IF(AND(B199&gt;Threshold,B198&gt;B199), $J$1,$J$2)</f>
+        <f>IF(AND(B199&gt;Threshold,B200&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D199" s="14"/>
@@ -10190,7 +10193,7 @@
         <v>1.91</v>
       </c>
       <c r="C200" s="14" t="str">
-        <f>IF(AND(B200&gt;Threshold,B199&gt;B200), $J$1,$J$2)</f>
+        <f>IF(AND(B200&gt;Threshold,B201&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D200" s="14"/>
@@ -10206,7 +10209,7 @@
         <v>2.02</v>
       </c>
       <c r="C201" s="14" t="str">
-        <f>IF(AND(B201&gt;Threshold,B200&gt;B201), $J$1,$J$2)</f>
+        <f>IF(AND(B201&gt;Threshold,B202&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D201" s="14"/>
@@ -10222,7 +10225,7 @@
         <v>3.57</v>
       </c>
       <c r="C202" s="14" t="str">
-        <f>IF(AND(B202&gt;Threshold,B201&gt;B202), $J$1,$J$2)</f>
+        <f>IF(AND(B202&gt;Threshold,B203&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D202" s="14"/>
@@ -10238,7 +10241,7 @@
         <v>3.39</v>
       </c>
       <c r="C203" s="14" t="str">
-        <f>IF(AND(B203&gt;Threshold,B202&gt;B203), $J$1,$J$2)</f>
+        <f>IF(AND(B203&gt;Threshold,B204&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D203" s="14"/>
@@ -10254,7 +10257,7 @@
         <v>2.29</v>
       </c>
       <c r="C204" s="14" t="str">
-        <f>IF(AND(B204&gt;Threshold,B203&gt;B204), $J$1,$J$2)</f>
+        <f>IF(AND(B204&gt;Threshold,B205&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D204" s="14"/>
@@ -10270,7 +10273,7 @@
         <v>2.35</v>
       </c>
       <c r="C205" s="14" t="str">
-        <f>IF(AND(B205&gt;Threshold,B204&gt;B205), $J$1,$J$2)</f>
+        <f>IF(AND(B205&gt;Threshold,B206&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D205" s="14"/>
@@ -10286,7 +10289,7 @@
         <v>2.06</v>
       </c>
       <c r="C206" s="14" t="str">
-        <f>IF(AND(B206&gt;Threshold,B205&gt;B206), $J$1,$J$2)</f>
+        <f>IF(AND(B206&gt;Threshold,B207&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D206" s="14"/>
@@ -10302,7 +10305,7 @@
         <v>1.87</v>
       </c>
       <c r="C207" s="14" t="str">
-        <f>IF(AND(B207&gt;Threshold,B206&gt;B207), $J$1,$J$2)</f>
+        <f>IF(AND(B207&gt;Threshold,B208&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D207" s="14"/>
@@ -10318,7 +10321,7 @@
         <v>1.88</v>
       </c>
       <c r="C208" s="14" t="str">
-        <f>IF(AND(B208&gt;Threshold,B207&gt;B208), $J$1,$J$2)</f>
+        <f>IF(AND(B208&gt;Threshold,B209&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D208" s="14"/>
@@ -10334,7 +10337,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C209" s="14" t="str">
-        <f>IF(AND(B209&gt;Threshold,B208&gt;B209), $J$1,$J$2)</f>
+        <f>IF(AND(B209&gt;Threshold,B210&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D209" s="14"/>
@@ -10350,7 +10353,7 @@
         <v>3.86</v>
       </c>
       <c r="C210" s="14" t="str">
-        <f>IF(AND(B210&gt;Threshold,B209&gt;B210), $J$1,$J$2)</f>
+        <f>IF(AND(B210&gt;Threshold,B211&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D210" s="14"/>
@@ -10366,7 +10369,7 @@
         <v>3.12</v>
       </c>
       <c r="C211" s="14" t="str">
-        <f>IF(AND(B211&gt;Threshold,B210&gt;B211), $J$1,$J$2)</f>
+        <f>IF(AND(B211&gt;Threshold,B212&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D211" s="14"/>
@@ -10382,7 +10385,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C212" s="14" t="str">
-        <f>IF(AND(B212&gt;Threshold,B211&gt;B212), $J$1,$J$2)</f>
+        <f>IF(AND(B212&gt;Threshold,B213&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D212" s="14"/>
@@ -10398,7 +10401,7 @@
         <v>2.23</v>
       </c>
       <c r="C213" s="14" t="str">
-        <f>IF(AND(B213&gt;Threshold,B212&gt;B213), $J$1,$J$2)</f>
+        <f>IF(AND(B213&gt;Threshold,B214&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D213" s="14"/>
@@ -10414,7 +10417,7 @@
         <v>2.02</v>
       </c>
       <c r="C214" s="14" t="str">
-        <f>IF(AND(B214&gt;Threshold,B213&gt;B214), $J$1,$J$2)</f>
+        <f>IF(AND(B214&gt;Threshold,B215&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D214" s="14"/>
@@ -10430,7 +10433,7 @@
         <v>1.92</v>
       </c>
       <c r="C215" s="14" t="str">
-        <f>IF(AND(B215&gt;Threshold,B214&gt;B215), $J$1,$J$2)</f>
+        <f>IF(AND(B215&gt;Threshold,B216&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D215" s="14"/>
@@ -10446,7 +10449,7 @@
         <v>1.93</v>
       </c>
       <c r="C216" s="14" t="str">
-        <f>IF(AND(B216&gt;Threshold,B215&gt;B216), $J$1,$J$2)</f>
+        <f>IF(AND(B216&gt;Threshold,B217&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D216" s="14"/>
@@ -10462,7 +10465,7 @@
         <v>2.84</v>
       </c>
       <c r="C217" s="14" t="str">
-        <f>IF(AND(B217&gt;Threshold,B216&gt;B217), $J$1,$J$2)</f>
+        <f>IF(AND(B217&gt;Threshold,B218&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D217" s="14"/>
@@ -10478,8 +10481,8 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C218" s="14" t="str">
-        <f>IF(AND(B218&gt;Threshold,B217&gt;B218), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B218&gt;Threshold,B219&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D218" s="14"/>
       <c r="F218" s="14"/>
@@ -10494,7 +10497,7 @@
         <v>2.87</v>
       </c>
       <c r="C219" s="14" t="str">
-        <f>IF(AND(B219&gt;Threshold,B218&gt;B219), $J$1,$J$2)</f>
+        <f>IF(AND(B219&gt;Threshold,B220&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D219" s="14"/>
@@ -10510,7 +10513,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C220" s="14" t="str">
-        <f>IF(AND(B220&gt;Threshold,B219&gt;B220), $J$1,$J$2)</f>
+        <f>IF(AND(B220&gt;Threshold,B221&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D220" s="14"/>
@@ -10526,7 +10529,7 @@
         <v>2.31</v>
       </c>
       <c r="C221" s="14" t="str">
-        <f>IF(AND(B221&gt;Threshold,B220&gt;B221), $J$1,$J$2)</f>
+        <f>IF(AND(B221&gt;Threshold,B222&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D221" s="14"/>
@@ -10542,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="14" t="str">
-        <f>IF(AND(B222&gt;Threshold,B221&gt;B222), $J$1,$J$2)</f>
+        <f>IF(AND(B222&gt;Threshold,B223&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D222" s="14"/>
@@ -10558,7 +10561,7 @@
         <v>1.89</v>
       </c>
       <c r="C223" s="14" t="str">
-        <f>IF(AND(B223&gt;Threshold,B222&gt;B223), $J$1,$J$2)</f>
+        <f>IF(AND(B223&gt;Threshold,B224&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D223" s="14"/>
@@ -10574,7 +10577,7 @@
         <v>1.93</v>
       </c>
       <c r="C224" s="14" t="str">
-        <f>IF(AND(B224&gt;Threshold,B223&gt;B224), $J$1,$J$2)</f>
+        <f>IF(AND(B224&gt;Threshold,B225&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D224" s="14"/>
@@ -10590,7 +10593,7 @@
         <v>3.2</v>
       </c>
       <c r="C225" s="14" t="str">
-        <f>IF(AND(B225&gt;Threshold,B224&gt;B225), $J$1,$J$2)</f>
+        <f>IF(AND(B225&gt;Threshold,B226&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D225" s="14"/>
@@ -10606,8 +10609,8 @@
         <v>4.03</v>
       </c>
       <c r="C226" s="14" t="str">
-        <f>IF(AND(B226&gt;Threshold,B225&gt;B226), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B226&gt;Threshold,B227&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D226" s="14"/>
       <c r="F226" s="14"/>
@@ -10622,7 +10625,7 @@
         <v>2.72</v>
       </c>
       <c r="C227" s="14" t="str">
-        <f>IF(AND(B227&gt;Threshold,B226&gt;B227), $J$1,$J$2)</f>
+        <f>IF(AND(B227&gt;Threshold,B228&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D227" s="14"/>
@@ -10638,7 +10641,7 @@
         <v>2.37</v>
       </c>
       <c r="C228" s="14" t="str">
-        <f>IF(AND(B228&gt;Threshold,B227&gt;B228), $J$1,$J$2)</f>
+        <f>IF(AND(B228&gt;Threshold,B229&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D228" s="14"/>
@@ -10654,7 +10657,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C229" s="14" t="str">
-        <f>IF(AND(B229&gt;Threshold,B228&gt;B229), $J$1,$J$2)</f>
+        <f>IF(AND(B229&gt;Threshold,B230&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D229" s="14"/>
@@ -10670,7 +10673,7 @@
         <v>1.97</v>
       </c>
       <c r="C230" s="14" t="str">
-        <f>IF(AND(B230&gt;Threshold,B229&gt;B230), $J$1,$J$2)</f>
+        <f>IF(AND(B230&gt;Threshold,B231&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D230" s="14"/>
@@ -10686,7 +10689,7 @@
         <v>1.9</v>
       </c>
       <c r="C231" s="14" t="str">
-        <f>IF(AND(B231&gt;Threshold,B230&gt;B231), $J$1,$J$2)</f>
+        <f>IF(AND(B231&gt;Threshold,B232&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D231" s="14"/>
@@ -10702,7 +10705,7 @@
         <v>2.1</v>
       </c>
       <c r="C232" s="14" t="str">
-        <f>IF(AND(B232&gt;Threshold,B231&gt;B232), $J$1,$J$2)</f>
+        <f>IF(AND(B232&gt;Threshold,B233&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D232" s="14"/>
@@ -10718,7 +10721,7 @@
         <v>3.97</v>
       </c>
       <c r="C233" s="14" t="str">
-        <f>IF(AND(B233&gt;Threshold,B232&gt;B233), $J$1,$J$2)</f>
+        <f>IF(AND(B233&gt;Threshold,B234&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D233" s="14"/>
@@ -10734,7 +10737,7 @@
         <v>3.58</v>
       </c>
       <c r="C234" s="14" t="str">
-        <f>IF(AND(B234&gt;Threshold,B233&gt;B234), $J$1,$J$2)</f>
+        <f>IF(AND(B234&gt;Threshold,B235&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D234" s="14"/>
@@ -10750,7 +10753,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C235" s="14" t="str">
-        <f>IF(AND(B235&gt;Threshold,B234&gt;B235), $J$1,$J$2)</f>
+        <f>IF(AND(B235&gt;Threshold,B236&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D235" s="14"/>
@@ -10766,7 +10769,7 @@
         <v>2.34</v>
       </c>
       <c r="C236" s="14" t="str">
-        <f>IF(AND(B236&gt;Threshold,B235&gt;B236), $J$1,$J$2)</f>
+        <f>IF(AND(B236&gt;Threshold,B237&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D236" s="14"/>
@@ -10782,7 +10785,7 @@
         <v>2.02</v>
       </c>
       <c r="C237" s="14" t="str">
-        <f>IF(AND(B237&gt;Threshold,B236&gt;B237), $J$1,$J$2)</f>
+        <f>IF(AND(B237&gt;Threshold,B238&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D237" s="14"/>
@@ -10798,7 +10801,7 @@
         <v>1.9</v>
       </c>
       <c r="C238" s="14" t="str">
-        <f>IF(AND(B238&gt;Threshold,B237&gt;B238), $J$1,$J$2)</f>
+        <f>IF(AND(B238&gt;Threshold,B239&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D238" s="14"/>
@@ -10814,7 +10817,7 @@
         <v>1.86</v>
       </c>
       <c r="C239" s="14" t="str">
-        <f>IF(AND(B239&gt;Threshold,B238&gt;B239), $J$1,$J$2)</f>
+        <f>IF(AND(B239&gt;Threshold,B240&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D239" s="14"/>
@@ -10830,7 +10833,7 @@
         <v>2.68</v>
       </c>
       <c r="C240" s="14" t="str">
-        <f>IF(AND(B240&gt;Threshold,B239&gt;B240), $J$1,$J$2)</f>
+        <f>IF(AND(B240&gt;Threshold,B241&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D240" s="14"/>
@@ -10846,7 +10849,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C241" s="14" t="str">
-        <f>IF(AND(B241&gt;Threshold,B240&gt;B241), $J$1,$J$2)</f>
+        <f>IF(AND(B241&gt;Threshold,B242&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D241" s="14"/>
@@ -10862,7 +10865,7 @@
         <v>3.05</v>
       </c>
       <c r="C242" s="14" t="str">
-        <f>IF(AND(B242&gt;Threshold,B241&gt;B242), $J$1,$J$2)</f>
+        <f>IF(AND(B242&gt;Threshold,B243&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D242" s="14"/>
@@ -10878,7 +10881,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C243" s="14" t="str">
-        <f>IF(AND(B243&gt;Threshold,B242&gt;B243), $J$1,$J$2)</f>
+        <f>IF(AND(B243&gt;Threshold,B244&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D243" s="14"/>
@@ -10894,7 +10897,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C244" s="14" t="str">
-        <f>IF(AND(B244&gt;Threshold,B243&gt;B244), $J$1,$J$2)</f>
+        <f>IF(AND(B244&gt;Threshold,B245&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D244" s="14"/>
@@ -10910,7 +10913,7 @@
         <v>1.95</v>
       </c>
       <c r="C245" s="14" t="str">
-        <f>IF(AND(B245&gt;Threshold,B244&gt;B245), $J$1,$J$2)</f>
+        <f>IF(AND(B245&gt;Threshold,B246&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D245" s="14"/>
@@ -10926,7 +10929,7 @@
         <v>1.85</v>
       </c>
       <c r="C246" s="14" t="str">
-        <f>IF(AND(B246&gt;Threshold,B245&gt;B246), $J$1,$J$2)</f>
+        <f>IF(AND(B246&gt;Threshold,B247&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D246" s="14"/>
@@ -10942,7 +10945,7 @@
         <v>1.91</v>
       </c>
       <c r="C247" s="14" t="str">
-        <f>IF(AND(B247&gt;Threshold,B246&gt;B247), $J$1,$J$2)</f>
+        <f>IF(AND(B247&gt;Threshold,B248&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D247" s="14"/>
@@ -10958,7 +10961,7 @@
         <v>3.38</v>
       </c>
       <c r="C248" s="14" t="str">
-        <f>IF(AND(B248&gt;Threshold,B247&gt;B248), $J$1,$J$2)</f>
+        <f>IF(AND(B248&gt;Threshold,B249&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D248" s="14"/>
@@ -10974,8 +10977,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C249" s="14" t="str">
-        <f>IF(AND(B249&gt;Threshold,B248&gt;B249), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B249&gt;Threshold,B250&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D249" s="14"/>
       <c r="F249" s="14"/>
@@ -10990,7 +10993,7 @@
         <v>2.78</v>
       </c>
       <c r="C250" s="14" t="str">
-        <f>IF(AND(B250&gt;Threshold,B249&gt;B250), $J$1,$J$2)</f>
+        <f>IF(AND(B250&gt;Threshold,B251&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D250" s="14"/>
@@ -11006,7 +11009,7 @@
         <v>2.29</v>
       </c>
       <c r="C251" s="14" t="str">
-        <f>IF(AND(B251&gt;Threshold,B250&gt;B251), $J$1,$J$2)</f>
+        <f>IF(AND(B251&gt;Threshold,B252&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D251" s="14"/>
@@ -11022,7 +11025,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C252" s="14" t="str">
-        <f>IF(AND(B252&gt;Threshold,B251&gt;B252), $J$1,$J$2)</f>
+        <f>IF(AND(B252&gt;Threshold,B253&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D252" s="14"/>
@@ -11038,7 +11041,7 @@
         <v>1.76</v>
       </c>
       <c r="C253" s="14" t="str">
-        <f>IF(AND(B253&gt;Threshold,B252&gt;B253), $J$1,$J$2)</f>
+        <f>IF(AND(B253&gt;Threshold,B254&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D253" s="14"/>
@@ -11054,7 +11057,7 @@
         <v>1.87</v>
       </c>
       <c r="C254" s="14" t="str">
-        <f>IF(AND(B254&gt;Threshold,B253&gt;B254), $J$1,$J$2)</f>
+        <f>IF(AND(B254&gt;Threshold,B255&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D254" s="14"/>
@@ -11070,7 +11073,7 @@
         <v>1.91</v>
       </c>
       <c r="C255" s="14" t="str">
-        <f>IF(AND(B255&gt;Threshold,B254&gt;B255), $J$1,$J$2)</f>
+        <f>IF(AND(B255&gt;Threshold,B256&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D255" s="14"/>
@@ -11086,7 +11089,7 @@
         <v>3.92</v>
       </c>
       <c r="C256" s="14" t="str">
-        <f>IF(AND(B256&gt;Threshold,B255&gt;B256), $J$1,$J$2)</f>
+        <f>IF(AND(B256&gt;Threshold,B257&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D256" s="14"/>
@@ -11102,8 +11105,8 @@
         <v>4</v>
       </c>
       <c r="C257" s="14" t="str">
-        <f>IF(AND(B257&gt;Threshold,B256&gt;B257), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B257&gt;Threshold,B258&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D257" s="14"/>
       <c r="F257" s="14"/>
@@ -11118,7 +11121,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C258" s="14" t="str">
-        <f>IF(AND(B258&gt;Threshold,B257&gt;B258), $J$1,$J$2)</f>
+        <f>IF(AND(B258&gt;Threshold,B259&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D258" s="14"/>
@@ -11134,7 +11137,7 @@
         <v>2.29</v>
       </c>
       <c r="C259" s="14" t="str">
-        <f>IF(AND(B259&gt;Threshold,B258&gt;B259), $J$1,$J$2)</f>
+        <f>IF(AND(B259&gt;Threshold,B260&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D259" s="14"/>
@@ -11150,7 +11153,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C260" s="14" t="str">
-        <f>IF(AND(B260&gt;Threshold,B259&gt;B260), $J$1,$J$2)</f>
+        <f>IF(AND(B260&gt;Threshold,B261&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D260" s="14"/>
@@ -11166,7 +11169,7 @@
         <v>1.76</v>
       </c>
       <c r="C261" s="14" t="str">
-        <f>IF(AND(B261&gt;Threshold,B260&gt;B261), $J$1,$J$2)</f>
+        <f>IF(AND(B261&gt;Threshold,B262&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D261" s="14"/>
@@ -11182,7 +11185,7 @@
         <v>1.8</v>
       </c>
       <c r="C262" s="14" t="str">
-        <f>IF(AND(B262&gt;Threshold,B261&gt;B262), $J$1,$J$2)</f>
+        <f>IF(AND(B262&gt;Threshold,B263&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D262" s="14"/>
@@ -11198,7 +11201,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C263" s="14" t="str">
-        <f>IF(AND(B263&gt;Threshold,B262&gt;B263), $J$1,$J$2)</f>
+        <f>IF(AND(B263&gt;Threshold,B264&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D263" s="14"/>
@@ -11214,7 +11217,7 @@
         <v>4.37</v>
       </c>
       <c r="C264" s="14" t="str">
-        <f>IF(AND(B264&gt;Threshold,B263&gt;B264), $J$1,$J$2)</f>
+        <f>IF(AND(B264&gt;Threshold,B265&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D264" s="14"/>
@@ -11230,7 +11233,7 @@
         <v>3.14</v>
       </c>
       <c r="C265" s="14" t="str">
-        <f>IF(AND(B265&gt;Threshold,B264&gt;B265), $J$1,$J$2)</f>
+        <f>IF(AND(B265&gt;Threshold,B266&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D265" s="14"/>
@@ -11246,7 +11249,7 @@
         <v>2.17</v>
       </c>
       <c r="C266" s="14" t="str">
-        <f>IF(AND(B266&gt;Threshold,B265&gt;B266), $J$1,$J$2)</f>
+        <f>IF(AND(B266&gt;Threshold,B267&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D266" s="14"/>
@@ -11262,7 +11265,7 @@
         <v>2.25</v>
       </c>
       <c r="C267" s="14" t="str">
-        <f>IF(AND(B267&gt;Threshold,B266&gt;B267), $J$1,$J$2)</f>
+        <f>IF(AND(B267&gt;Threshold,B268&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D267" s="14"/>
@@ -11278,7 +11281,7 @@
         <v>1.86</v>
       </c>
       <c r="C268" s="14" t="str">
-        <f>IF(AND(B268&gt;Threshold,B267&gt;B268), $J$1,$J$2)</f>
+        <f>IF(AND(B268&gt;Threshold,B269&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D268" s="14"/>
@@ -11294,7 +11297,7 @@
         <v>1.77</v>
       </c>
       <c r="C269" s="14" t="str">
-        <f>IF(AND(B269&gt;Threshold,B268&gt;B269), $J$1,$J$2)</f>
+        <f>IF(AND(B269&gt;Threshold,B270&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D269" s="14"/>
@@ -11310,7 +11313,7 @@
         <v>1.83</v>
       </c>
       <c r="C270" s="14" t="str">
-        <f>IF(AND(B270&gt;Threshold,B269&gt;B270), $J$1,$J$2)</f>
+        <f>IF(AND(B270&gt;Threshold,B271&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D270" s="14"/>
@@ -11326,7 +11329,7 @@
         <v>2.94</v>
       </c>
       <c r="C271" s="14" t="str">
-        <f>IF(AND(B271&gt;Threshold,B270&gt;B271), $J$1,$J$2)</f>
+        <f>IF(AND(B271&gt;Threshold,B272&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D271" s="14"/>
@@ -11342,8 +11345,8 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C272" s="14" t="str">
-        <f>IF(AND(B272&gt;Threshold,B271&gt;B272), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B272&gt;Threshold,B273&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D272" s="14"/>
       <c r="F272" s="14"/>
@@ -11358,7 +11361,7 @@
         <v>2.91</v>
       </c>
       <c r="C273" s="14" t="str">
-        <f>IF(AND(B273&gt;Threshold,B272&gt;B273), $J$1,$J$2)</f>
+        <f>IF(AND(B273&gt;Threshold,B274&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D273" s="14"/>
@@ -11374,7 +11377,7 @@
         <v>2.23</v>
       </c>
       <c r="C274" s="14" t="str">
-        <f>IF(AND(B274&gt;Threshold,B273&gt;B274), $J$1,$J$2)</f>
+        <f>IF(AND(B274&gt;Threshold,B275&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D274" s="14"/>
@@ -11390,7 +11393,7 @@
         <v>2.13</v>
       </c>
       <c r="C275" s="14" t="str">
-        <f>IF(AND(B275&gt;Threshold,B274&gt;B275), $J$1,$J$2)</f>
+        <f>IF(AND(B275&gt;Threshold,B276&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D275" s="14"/>
@@ -11406,7 +11409,7 @@
         <v>1.86</v>
       </c>
       <c r="C276" s="14" t="str">
-        <f>IF(AND(B276&gt;Threshold,B275&gt;B276), $J$1,$J$2)</f>
+        <f>IF(AND(B276&gt;Threshold,B277&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D276" s="14"/>
@@ -11422,7 +11425,7 @@
         <v>1.72</v>
       </c>
       <c r="C277" s="14" t="str">
-        <f>IF(AND(B277&gt;Threshold,B276&gt;B277), $J$1,$J$2)</f>
+        <f>IF(AND(B277&gt;Threshold,B278&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D277" s="14"/>
@@ -11438,7 +11441,7 @@
         <v>1.81</v>
       </c>
       <c r="C278" s="14" t="str">
-        <f>IF(AND(B278&gt;Threshold,B277&gt;B278), $J$1,$J$2)</f>
+        <f>IF(AND(B278&gt;Threshold,B279&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D278" s="14"/>
@@ -11454,7 +11457,7 @@
         <v>3.3</v>
       </c>
       <c r="C279" s="14" t="str">
-        <f>IF(AND(B279&gt;Threshold,B278&gt;B279), $J$1,$J$2)</f>
+        <f>IF(AND(B279&gt;Threshold,B280&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D279" s="14"/>
@@ -11470,8 +11473,8 @@
         <v>4.26</v>
       </c>
       <c r="C280" s="14" t="str">
-        <f>IF(AND(B280&gt;Threshold,B279&gt;B280), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B280&gt;Threshold,B281&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D280" s="14"/>
       <c r="F280" s="14"/>
@@ -11486,7 +11489,7 @@
         <v>2.81</v>
       </c>
       <c r="C281" s="14" t="str">
-        <f>IF(AND(B281&gt;Threshold,B280&gt;B281), $J$1,$J$2)</f>
+        <f>IF(AND(B281&gt;Threshold,B282&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D281" s="14"/>
@@ -11502,7 +11505,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C282" s="14" t="str">
-        <f>IF(AND(B282&gt;Threshold,B281&gt;B282), $J$1,$J$2)</f>
+        <f>IF(AND(B282&gt;Threshold,B283&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D282" s="14"/>
@@ -11518,7 +11521,7 @@
         <v>2.17</v>
       </c>
       <c r="C283" s="14" t="str">
-        <f>IF(AND(B283&gt;Threshold,B282&gt;B283), $J$1,$J$2)</f>
+        <f>IF(AND(B283&gt;Threshold,B284&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D283" s="14"/>
@@ -11534,7 +11537,7 @@
         <v>1.7</v>
       </c>
       <c r="C284" s="14" t="str">
-        <f>IF(AND(B284&gt;Threshold,B283&gt;B284), $J$1,$J$2)</f>
+        <f>IF(AND(B284&gt;Threshold,B285&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D284" s="14"/>
@@ -11550,7 +11553,7 @@
         <v>1.75</v>
       </c>
       <c r="C285" s="14" t="str">
-        <f>IF(AND(B285&gt;Threshold,B284&gt;B285), $J$1,$J$2)</f>
+        <f>IF(AND(B285&gt;Threshold,B286&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D285" s="14"/>
@@ -11566,7 +11569,7 @@
         <v>1.81</v>
       </c>
       <c r="C286" s="14" t="str">
-        <f>IF(AND(B286&gt;Threshold,B285&gt;B286), $J$1,$J$2)</f>
+        <f>IF(AND(B286&gt;Threshold,B287&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D286" s="14"/>
@@ -11582,7 +11585,7 @@
         <v>3.32</v>
       </c>
       <c r="C287" s="14" t="str">
-        <f>IF(AND(B287&gt;Threshold,B286&gt;B287), $J$1,$J$2)</f>
+        <f>IF(AND(B287&gt;Threshold,B288&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D287" s="14"/>
@@ -11598,8 +11601,8 @@
         <v>4.04</v>
       </c>
       <c r="C288" s="14" t="str">
-        <f>IF(AND(B288&gt;Threshold,B287&gt;B288), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B288&gt;Threshold,B289&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D288" s="14"/>
       <c r="F288" s="14"/>
@@ -11614,7 +11617,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C289" s="14" t="str">
-        <f>IF(AND(B289&gt;Threshold,B288&gt;B289), $J$1,$J$2)</f>
+        <f>IF(AND(B289&gt;Threshold,B290&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D289" s="14"/>
@@ -11630,7 +11633,7 @@
         <v>2.29</v>
       </c>
       <c r="C290" s="14" t="str">
-        <f>IF(AND(B290&gt;Threshold,B289&gt;B290), $J$1,$J$2)</f>
+        <f>IF(AND(B290&gt;Threshold,B291&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D290" s="14"/>
@@ -11646,7 +11649,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C291" s="14" t="str">
-        <f>IF(AND(B291&gt;Threshold,B290&gt;B291), $J$1,$J$2)</f>
+        <f>IF(AND(B291&gt;Threshold,B292&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D291" s="14"/>
@@ -11662,7 +11665,7 @@
         <v>1.81</v>
       </c>
       <c r="C292" s="14" t="str">
-        <f>IF(AND(B292&gt;Threshold,B291&gt;B292), $J$1,$J$2)</f>
+        <f>IF(AND(B292&gt;Threshold,B293&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D292" s="14"/>
@@ -11678,7 +11681,7 @@
         <v>1.84</v>
       </c>
       <c r="C293" s="14" t="str">
-        <f>IF(AND(B293&gt;Threshold,B292&gt;B293), $J$1,$J$2)</f>
+        <f>IF(AND(B293&gt;Threshold,B294&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D293" s="14"/>
@@ -11694,7 +11697,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C294" s="14" t="str">
-        <f>IF(AND(B294&gt;Threshold,B293&gt;B294), $J$1,$J$2)</f>
+        <f>IF(AND(B294&gt;Threshold,B295&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D294" s="14"/>
@@ -11710,7 +11713,7 @@
         <v>4.09</v>
       </c>
       <c r="C295" s="14" t="str">
-        <f>IF(AND(B295&gt;Threshold,B294&gt;B295), $J$1,$J$2)</f>
+        <f>IF(AND(B295&gt;Threshold,B296&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D295" s="14"/>
@@ -11726,7 +11729,7 @@
         <v>3.46</v>
       </c>
       <c r="C296" s="14" t="str">
-        <f>IF(AND(B296&gt;Threshold,B295&gt;B296), $J$1,$J$2)</f>
+        <f>IF(AND(B296&gt;Threshold,B297&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D296" s="14"/>
@@ -11742,7 +11745,7 @@
         <v>2.21</v>
       </c>
       <c r="C297" s="14" t="str">
-        <f>IF(AND(B297&gt;Threshold,B296&gt;B297), $J$1,$J$2)</f>
+        <f>IF(AND(B297&gt;Threshold,B298&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D297" s="14"/>
@@ -11758,7 +11761,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C298" s="14" t="str">
-        <f>IF(AND(B298&gt;Threshold,B297&gt;B298), $J$1,$J$2)</f>
+        <f>IF(AND(B298&gt;Threshold,B299&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D298" s="14"/>
@@ -11774,7 +11777,7 @@
         <v>2.02</v>
       </c>
       <c r="C299" s="14" t="str">
-        <f>IF(AND(B299&gt;Threshold,B298&gt;B299), $J$1,$J$2)</f>
+        <f>IF(AND(B299&gt;Threshold,B300&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D299" s="14"/>
@@ -11790,7 +11793,7 @@
         <v>1.84</v>
       </c>
       <c r="C300" s="14" t="str">
-        <f>IF(AND(B300&gt;Threshold,B299&gt;B300), $J$1,$J$2)</f>
+        <f>IF(AND(B300&gt;Threshold,B301&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D300" s="14"/>
@@ -11806,7 +11809,7 @@
         <v>1.83</v>
       </c>
       <c r="C301" s="14" t="str">
-        <f>IF(AND(B301&gt;Threshold,B300&gt;B301), $J$1,$J$2)</f>
+        <f>IF(AND(B301&gt;Threshold,B302&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D301" s="14"/>
@@ -11822,7 +11825,7 @@
         <v>2.76</v>
       </c>
       <c r="C302" s="14" t="str">
-        <f>IF(AND(B302&gt;Threshold,B301&gt;B302), $J$1,$J$2)</f>
+        <f>IF(AND(B302&gt;Threshold,B303&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D302" s="14"/>
@@ -11838,7 +11841,7 @@
         <v>4.46</v>
       </c>
       <c r="C303" s="14" t="str">
-        <f>IF(AND(B303&gt;Threshold,B302&gt;B303), $J$1,$J$2)</f>
+        <f>IF(AND(B303&gt;Threshold,B304&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D303" s="14"/>
@@ -11854,7 +11857,7 @@
         <v>3.03</v>
       </c>
       <c r="C304" s="14" t="str">
-        <f>IF(AND(B304&gt;Threshold,B303&gt;B304), $J$1,$J$2)</f>
+        <f>IF(AND(B304&gt;Threshold,B305&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D304" s="14"/>
@@ -11870,7 +11873,7 @@
         <v>2.34</v>
       </c>
       <c r="C305" s="14" t="str">
-        <f>IF(AND(B305&gt;Threshold,B304&gt;B305), $J$1,$J$2)</f>
+        <f>IF(AND(B305&gt;Threshold,B306&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D305" s="14"/>
@@ -11886,7 +11889,7 @@
         <v>2.27</v>
       </c>
       <c r="C306" s="14" t="str">
-        <f>IF(AND(B306&gt;Threshold,B305&gt;B306), $J$1,$J$2)</f>
+        <f>IF(AND(B306&gt;Threshold,B307&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D306" s="14"/>
@@ -11902,7 +11905,7 @@
         <v>1.93</v>
       </c>
       <c r="C307" s="14" t="str">
-        <f>IF(AND(B307&gt;Threshold,B306&gt;B307), $J$1,$J$2)</f>
+        <f>IF(AND(B307&gt;Threshold,B308&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D307" s="14"/>
@@ -11918,7 +11921,7 @@
         <v>1.85</v>
       </c>
       <c r="C308" s="14" t="str">
-        <f>IF(AND(B308&gt;Threshold,B307&gt;B308), $J$1,$J$2)</f>
+        <f>IF(AND(B308&gt;Threshold,B309&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D308" s="14"/>
@@ -11934,7 +11937,7 @@
         <v>1.86</v>
       </c>
       <c r="C309" s="14" t="str">
-        <f>IF(AND(B309&gt;Threshold,B308&gt;B309), $J$1,$J$2)</f>
+        <f>IF(AND(B309&gt;Threshold,B310&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D309" s="14"/>
@@ -11950,7 +11953,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C310" s="14" t="str">
-        <f>IF(AND(B310&gt;Threshold,B309&gt;B310), $J$1,$J$2)</f>
+        <f>IF(AND(B310&gt;Threshold,B311&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D310" s="14"/>
@@ -11966,7 +11969,7 @@
         <v>4.07</v>
       </c>
       <c r="C311" s="14" t="str">
-        <f>IF(AND(B311&gt;Threshold,B310&gt;B311), $J$1,$J$2)</f>
+        <f>IF(AND(B311&gt;Threshold,B312&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D311" s="14"/>
@@ -11982,7 +11985,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C312" s="14" t="str">
-        <f>IF(AND(B312&gt;Threshold,B311&gt;B312), $J$1,$J$2)</f>
+        <f>IF(AND(B312&gt;Threshold,B313&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D312" s="14"/>
@@ -11998,7 +12001,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C313" s="14" t="str">
-        <f>IF(AND(B313&gt;Threshold,B312&gt;B313), $J$1,$J$2)</f>
+        <f>IF(AND(B313&gt;Threshold,B314&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D313" s="14"/>
@@ -12014,7 +12017,7 @@
         <v>2.21</v>
       </c>
       <c r="C314" s="14" t="str">
-        <f>IF(AND(B314&gt;Threshold,B313&gt;B314), $J$1,$J$2)</f>
+        <f>IF(AND(B314&gt;Threshold,B315&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D314" s="14"/>
@@ -12030,7 +12033,7 @@
         <v>1.78</v>
       </c>
       <c r="C315" s="14" t="str">
-        <f>IF(AND(B315&gt;Threshold,B314&gt;B315), $J$1,$J$2)</f>
+        <f>IF(AND(B315&gt;Threshold,B316&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D315" s="14"/>
@@ -12046,7 +12049,7 @@
         <v>1.82</v>
       </c>
       <c r="C316" s="14" t="str">
-        <f>IF(AND(B316&gt;Threshold,B315&gt;B316), $J$1,$J$2)</f>
+        <f>IF(AND(B316&gt;Threshold,B317&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D316" s="14"/>
@@ -12062,7 +12065,7 @@
         <v>2.8</v>
       </c>
       <c r="C317" s="14" t="str">
-        <f>IF(AND(B317&gt;Threshold,B316&gt;B317), $J$1,$J$2)</f>
+        <f>IF(AND(B317&gt;Threshold,B318&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D317" s="14"/>
@@ -12078,8 +12081,8 @@
         <v>4.58</v>
       </c>
       <c r="C318" s="14" t="str">
-        <f>IF(AND(B318&gt;Threshold,B317&gt;B318), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B318&gt;Threshold,B319&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D318" s="14"/>
       <c r="F318" s="14"/>
@@ -12094,7 +12097,7 @@
         <v>2.83</v>
       </c>
       <c r="C319" s="14" t="str">
-        <f>IF(AND(B319&gt;Threshold,B318&gt;B319), $J$1,$J$2)</f>
+        <f>IF(AND(B319&gt;Threshold,B320&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D319" s="14"/>
@@ -12110,7 +12113,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C320" s="14" t="str">
-        <f>IF(AND(B320&gt;Threshold,B319&gt;B320), $J$1,$J$2)</f>
+        <f>IF(AND(B320&gt;Threshold,B321&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D320" s="14"/>
@@ -12126,7 +12129,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C321" s="14" t="str">
-        <f>IF(AND(B321&gt;Threshold,B320&gt;B321), $J$1,$J$2)</f>
+        <f>IF(AND(B321&gt;Threshold,B322&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D321" s="14"/>
@@ -12142,7 +12145,7 @@
         <v>1.97</v>
       </c>
       <c r="C322" s="14" t="str">
-        <f>IF(AND(B322&gt;Threshold,B321&gt;B322), $J$1,$J$2)</f>
+        <f>IF(AND(B322&gt;Threshold,B323&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D322" s="14"/>
@@ -12158,7 +12161,7 @@
         <v>1.73</v>
       </c>
       <c r="C323" s="14" t="str">
-        <f>IF(AND(B323&gt;Threshold,B322&gt;B323), $J$1,$J$2)</f>
+        <f>IF(AND(B323&gt;Threshold,B324&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D323" s="14"/>
@@ -12174,7 +12177,7 @@
         <v>1.93</v>
       </c>
       <c r="C324" s="14" t="str">
-        <f>IF(AND(B324&gt;Threshold,B323&gt;B324), $J$1,$J$2)</f>
+        <f>IF(AND(B324&gt;Threshold,B325&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D324" s="14"/>
@@ -12190,7 +12193,7 @@
         <v>4.34</v>
       </c>
       <c r="C325" s="14" t="str">
-        <f>IF(AND(B325&gt;Threshold,B324&gt;B325), $J$1,$J$2)</f>
+        <f>IF(AND(B325&gt;Threshold,B326&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D325" s="14"/>
@@ -12206,7 +12209,7 @@
         <v>3.75</v>
       </c>
       <c r="C326" s="14" t="str">
-        <f>IF(AND(B326&gt;Threshold,B325&gt;B326), $J$1,$J$2)</f>
+        <f>IF(AND(B326&gt;Threshold,B327&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D326" s="14"/>
@@ -12222,7 +12225,7 @@
         <v>2.19</v>
       </c>
       <c r="C327" s="14" t="str">
-        <f>IF(AND(B327&gt;Threshold,B326&gt;B327), $J$1,$J$2)</f>
+        <f>IF(AND(B327&gt;Threshold,B328&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D327" s="14"/>
@@ -12238,7 +12241,7 @@
         <v>2.38</v>
       </c>
       <c r="C328" s="14" t="str">
-        <f>IF(AND(B328&gt;Threshold,B327&gt;B328), $J$1,$J$2)</f>
+        <f>IF(AND(B328&gt;Threshold,B329&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D328" s="14"/>
@@ -12254,7 +12257,7 @@
         <v>1.95</v>
       </c>
       <c r="C329" s="14" t="str">
-        <f>IF(AND(B329&gt;Threshold,B328&gt;B329), $J$1,$J$2)</f>
+        <f>IF(AND(B329&gt;Threshold,B330&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D329" s="14"/>
@@ -12270,7 +12273,7 @@
         <v>1.69</v>
       </c>
       <c r="C330" s="14" t="str">
-        <f>IF(AND(B330&gt;Threshold,B329&gt;B330), $J$1,$J$2)</f>
+        <f>IF(AND(B330&gt;Threshold,B331&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D330" s="14"/>
@@ -12286,7 +12289,7 @@
         <v>1.79</v>
       </c>
       <c r="C331" s="14" t="str">
-        <f>IF(AND(B331&gt;Threshold,B330&gt;B331), $J$1,$J$2)</f>
+        <f>IF(AND(B331&gt;Threshold,B332&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D331" s="14"/>
@@ -12302,7 +12305,7 @@
         <v>2.98</v>
       </c>
       <c r="C332" s="14" t="str">
-        <f>IF(AND(B332&gt;Threshold,B331&gt;B332), $J$1,$J$2)</f>
+        <f>IF(AND(B332&gt;Threshold,B333&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D332" s="14"/>
@@ -12318,8 +12321,8 @@
         <v>4.63</v>
       </c>
       <c r="C333" s="14" t="str">
-        <f>IF(AND(B333&gt;Threshold,B332&gt;B333), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B333&gt;Threshold,B334&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D333" s="14"/>
       <c r="F333" s="14"/>
@@ -12334,7 +12337,7 @@
         <v>2.88</v>
       </c>
       <c r="C334" s="14" t="str">
-        <f>IF(AND(B334&gt;Threshold,B333&gt;B334), $J$1,$J$2)</f>
+        <f>IF(AND(B334&gt;Threshold,B335&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D334" s="14"/>
@@ -12350,7 +12353,7 @@
         <v>2.09</v>
       </c>
       <c r="C335" s="14" t="str">
-        <f>IF(AND(B335&gt;Threshold,B334&gt;B335), $J$1,$J$2)</f>
+        <f>IF(AND(B335&gt;Threshold,B336&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D335" s="14"/>
@@ -12366,7 +12369,7 @@
         <v>2.16</v>
       </c>
       <c r="C336" s="14" t="str">
-        <f>IF(AND(B336&gt;Threshold,B335&gt;B336), $J$1,$J$2)</f>
+        <f>IF(AND(B336&gt;Threshold,B337&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D336" s="14"/>
@@ -12382,7 +12385,7 @@
         <v>1.78</v>
       </c>
       <c r="C337" s="14" t="str">
-        <f>IF(AND(B337&gt;Threshold,B336&gt;B337), $J$1,$J$2)</f>
+        <f>IF(AND(B337&gt;Threshold,B338&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D337" s="14"/>
@@ -12398,7 +12401,7 @@
         <v>1.75</v>
       </c>
       <c r="C338" s="14" t="str">
-        <f>IF(AND(B338&gt;Threshold,B337&gt;B338), $J$1,$J$2)</f>
+        <f>IF(AND(B338&gt;Threshold,B339&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D338" s="14"/>
@@ -12414,7 +12417,7 @@
         <v>1.8</v>
       </c>
       <c r="C339" s="14" t="str">
-        <f>IF(AND(B339&gt;Threshold,B338&gt;B339), $J$1,$J$2)</f>
+        <f>IF(AND(B339&gt;Threshold,B340&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D339" s="14"/>
@@ -12430,7 +12433,7 @@
         <v>3.85</v>
       </c>
       <c r="C340" s="14" t="str">
-        <f>IF(AND(B340&gt;Threshold,B339&gt;B340), $J$1,$J$2)</f>
+        <f>IF(AND(B340&gt;Threshold,B341&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D340" s="14"/>
@@ -12446,8 +12449,8 @@
         <v>4.38</v>
       </c>
       <c r="C341" s="14" t="str">
-        <f>IF(AND(B341&gt;Threshold,B340&gt;B341), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B341&gt;Threshold,B342&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D341" s="14"/>
       <c r="F341" s="14"/>
@@ -12462,7 +12465,7 @@
         <v>2.6</v>
       </c>
       <c r="C342" s="14" t="str">
-        <f>IF(AND(B342&gt;Threshold,B341&gt;B342), $J$1,$J$2)</f>
+        <f>IF(AND(B342&gt;Threshold,B343&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D342" s="14"/>
@@ -12478,7 +12481,7 @@
         <v>2.14</v>
       </c>
       <c r="C343" s="14" t="str">
-        <f>IF(AND(B343&gt;Threshold,B342&gt;B343), $J$1,$J$2)</f>
+        <f>IF(AND(B343&gt;Threshold,B344&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D343" s="14"/>
@@ -12494,7 +12497,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C344" s="14" t="str">
-        <f>IF(AND(B344&gt;Threshold,B343&gt;B344), $J$1,$J$2)</f>
+        <f>IF(AND(B344&gt;Threshold,B345&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D344" s="14"/>
@@ -12510,7 +12513,7 @@
         <v>1.74</v>
       </c>
       <c r="C345" s="14" t="str">
-        <f>IF(AND(B345&gt;Threshold,B344&gt;B345), $J$1,$J$2)</f>
+        <f>IF(AND(B345&gt;Threshold,B346&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D345" s="14"/>
@@ -12526,7 +12529,7 @@
         <v>1.73</v>
       </c>
       <c r="C346" s="14" t="str">
-        <f>IF(AND(B346&gt;Threshold,B345&gt;B346), $J$1,$J$2)</f>
+        <f>IF(AND(B346&gt;Threshold,B347&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D346" s="14"/>
@@ -12542,7 +12545,7 @@
         <v>1.84</v>
       </c>
       <c r="C347" s="14" t="str">
-        <f>IF(AND(B347&gt;Threshold,B346&gt;B347), $J$1,$J$2)</f>
+        <f>IF(AND(B347&gt;Threshold,B348&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D347" s="14"/>
@@ -12558,7 +12561,7 @@
         <v>3.58</v>
       </c>
       <c r="C348" s="14" t="str">
-        <f>IF(AND(B348&gt;Threshold,B347&gt;B348), $J$1,$J$2)</f>
+        <f>IF(AND(B348&gt;Threshold,B349&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D348" s="14"/>
@@ -12574,8 +12577,8 @@
         <v>4.38</v>
       </c>
       <c r="C349" s="14" t="str">
-        <f>IF(AND(B349&gt;Threshold,B348&gt;B349), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B349&gt;Threshold,B350&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D349" s="14"/>
       <c r="F349" s="14"/>
@@ -12590,7 +12593,7 @@
         <v>2.6</v>
       </c>
       <c r="C350" s="14" t="str">
-        <f>IF(AND(B350&gt;Threshold,B349&gt;B350), $J$1,$J$2)</f>
+        <f>IF(AND(B350&gt;Threshold,B351&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D350" s="14"/>
@@ -12606,7 +12609,7 @@
         <v>2.21</v>
       </c>
       <c r="C351" s="14" t="str">
-        <f>IF(AND(B351&gt;Threshold,B350&gt;B351), $J$1,$J$2)</f>
+        <f>IF(AND(B351&gt;Threshold,B352&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D351" s="14"/>
@@ -12622,7 +12625,7 @@
         <v>2.13</v>
       </c>
       <c r="C352" s="14" t="str">
-        <f>IF(AND(B352&gt;Threshold,B351&gt;B352), $J$1,$J$2)</f>
+        <f>IF(AND(B352&gt;Threshold,B353&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D352" s="14"/>
@@ -12638,7 +12641,7 @@
         <v>1.72</v>
       </c>
       <c r="C353" s="14" t="str">
-        <f>IF(AND(B353&gt;Threshold,B352&gt;B353), $J$1,$J$2)</f>
+        <f>IF(AND(B353&gt;Threshold,B354&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D353" s="14"/>
@@ -12654,7 +12657,7 @@
         <v>1.77</v>
       </c>
       <c r="C354" s="14" t="str">
-        <f>IF(AND(B354&gt;Threshold,B353&gt;B354), $J$1,$J$2)</f>
+        <f>IF(AND(B354&gt;Threshold,B355&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D354" s="14"/>
@@ -12670,7 +12673,7 @@
         <v>1.79</v>
       </c>
       <c r="C355" s="14" t="str">
-        <f>IF(AND(B355&gt;Threshold,B354&gt;B355), $J$1,$J$2)</f>
+        <f>IF(AND(B355&gt;Threshold,B356&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D355" s="14"/>
@@ -12686,7 +12689,7 @@
         <v>3.62</v>
       </c>
       <c r="C356" s="14" t="str">
-        <f>IF(AND(B356&gt;Threshold,B355&gt;B356), $J$1,$J$2)</f>
+        <f>IF(AND(B356&gt;Threshold,B357&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D356" s="14"/>
@@ -12702,8 +12705,8 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C357" s="14" t="str">
-        <f>IF(AND(B357&gt;Threshold,B356&gt;B357), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B357&gt;Threshold,B358&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D357" s="14"/>
       <c r="F357" s="14"/>
@@ -12718,7 +12721,7 @@
         <v>2.54</v>
       </c>
       <c r="C358" s="14" t="str">
-        <f>IF(AND(B358&gt;Threshold,B357&gt;B358), $J$1,$J$2)</f>
+        <f>IF(AND(B358&gt;Threshold,B359&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D358" s="14"/>
@@ -12734,7 +12737,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C359" s="14" t="str">
-        <f>IF(AND(B359&gt;Threshold,B358&gt;B359), $J$1,$J$2)</f>
+        <f>IF(AND(B359&gt;Threshold,B360&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D359" s="14"/>
@@ -12750,7 +12753,7 @@
         <v>2.15</v>
       </c>
       <c r="C360" s="14" t="str">
-        <f>IF(AND(B360&gt;Threshold,B359&gt;B360), $J$1,$J$2)</f>
+        <f>IF(AND(B360&gt;Threshold,B361&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D360" s="14"/>
@@ -12766,7 +12769,7 @@
         <v>1.78</v>
       </c>
       <c r="C361" s="14" t="str">
-        <f>IF(AND(B361&gt;Threshold,B360&gt;B361), $J$1,$J$2)</f>
+        <f>IF(AND(B361&gt;Threshold,B362&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D361" s="14"/>
@@ -12782,7 +12785,7 @@
         <v>1.74</v>
       </c>
       <c r="C362" s="14" t="str">
-        <f>IF(AND(B362&gt;Threshold,B361&gt;B362), $J$1,$J$2)</f>
+        <f>IF(AND(B362&gt;Threshold,B363&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D362" s="14"/>
@@ -12798,7 +12801,7 @@
         <v>1.8</v>
       </c>
       <c r="C363" s="14" t="str">
-        <f>IF(AND(B363&gt;Threshold,B362&gt;B363), $J$1,$J$2)</f>
+        <f>IF(AND(B363&gt;Threshold,B364&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D363" s="14"/>
@@ -12814,7 +12817,7 @@
         <v>3.89</v>
       </c>
       <c r="C364" s="14" t="str">
-        <f>IF(AND(B364&gt;Threshold,B363&gt;B364), $J$1,$J$2)</f>
+        <f>IF(AND(B364&gt;Threshold,B365&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D364" s="14"/>
@@ -12830,8 +12833,8 @@
         <v>4.21</v>
       </c>
       <c r="C365" s="14" t="str">
-        <f>IF(AND(B365&gt;Threshold,B364&gt;B365), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B365&gt;Threshold,B366&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D365" s="14"/>
       <c r="F365" s="14"/>
@@ -12846,7 +12849,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C366" s="14" t="str">
-        <f>IF(AND(B366&gt;Threshold,B365&gt;B366), $J$1,$J$2)</f>
+        <f>IF(AND(B366&gt;Threshold,B367&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D366" s="14"/>
@@ -12862,7 +12865,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C367" s="14" t="str">
-        <f>IF(AND(B367&gt;Threshold,B366&gt;B367), $J$1,$J$2)</f>
+        <f>IF(AND(B367&gt;Threshold,B368&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D367" s="14"/>
@@ -12878,7 +12881,7 @@
         <v>2.08</v>
       </c>
       <c r="C368" s="14" t="str">
-        <f>IF(AND(B368&gt;Threshold,B367&gt;B368), $J$1,$J$2)</f>
+        <f>IF(AND(B368&gt;Threshold,B369&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D368" s="14"/>
@@ -12894,7 +12897,7 @@
         <v>1.7</v>
       </c>
       <c r="C369" s="14" t="str">
-        <f>IF(AND(B369&gt;Threshold,B368&gt;B369), $J$1,$J$2)</f>
+        <f>IF(AND(B369&gt;Threshold,B370&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D369" s="14"/>
@@ -12910,7 +12913,7 @@
         <v>1.76</v>
       </c>
       <c r="C370" s="14" t="str">
-        <f>IF(AND(B370&gt;Threshold,B369&gt;B370), $J$1,$J$2)</f>
+        <f>IF(AND(B370&gt;Threshold,B371&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D370" s="14"/>
@@ -12926,7 +12929,7 @@
         <v>1.73</v>
       </c>
       <c r="C371" s="14" t="str">
-        <f>IF(AND(B371&gt;Threshold,B370&gt;B371), $J$1,$J$2)</f>
+        <f>IF(AND(B371&gt;Threshold,B372&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D371" s="14"/>
@@ -12942,7 +12945,7 @@
         <v>3.74</v>
       </c>
       <c r="C372" s="14" t="str">
-        <f>IF(AND(B372&gt;Threshold,B371&gt;B372), $J$1,$J$2)</f>
+        <f>IF(AND(B372&gt;Threshold,B373&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D372" s="14"/>
@@ -12958,8 +12961,8 @@
         <v>4.43</v>
       </c>
       <c r="C373" s="14" t="str">
-        <f>IF(AND(B373&gt;Threshold,B372&gt;B373), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B373&gt;Threshold,B374&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D373" s="14"/>
       <c r="F373" s="14"/>
@@ -12974,7 +12977,7 @@
         <v>2.79</v>
       </c>
       <c r="C374" s="14" t="str">
-        <f>IF(AND(B374&gt;Threshold,B373&gt;B374), $J$1,$J$2)</f>
+        <f>IF(AND(B374&gt;Threshold,B375&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D374" s="14"/>
@@ -12990,7 +12993,7 @@
         <v>2.29</v>
       </c>
       <c r="C375" s="14" t="str">
-        <f>IF(AND(B375&gt;Threshold,B374&gt;B375), $J$1,$J$2)</f>
+        <f>IF(AND(B375&gt;Threshold,B376&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D375" s="14"/>
@@ -13006,7 +13009,7 @@
         <v>2.09</v>
       </c>
       <c r="C376" s="14" t="str">
-        <f>IF(AND(B376&gt;Threshold,B375&gt;B376), $J$1,$J$2)</f>
+        <f>IF(AND(B376&gt;Threshold,B377&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D376" s="14"/>
@@ -13022,7 +13025,7 @@
         <v>1.79</v>
       </c>
       <c r="C377" s="14" t="str">
-        <f>IF(AND(B377&gt;Threshold,B376&gt;B377), $J$1,$J$2)</f>
+        <f>IF(AND(B377&gt;Threshold,B378&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D377" s="14"/>
@@ -13038,7 +13041,7 @@
         <v>1.75</v>
       </c>
       <c r="C378" s="14" t="str">
-        <f>IF(AND(B378&gt;Threshold,B377&gt;B378), $J$1,$J$2)</f>
+        <f>IF(AND(B378&gt;Threshold,B379&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D378" s="14"/>
@@ -13054,7 +13057,7 @@
         <v>1.72</v>
       </c>
       <c r="C379" s="14" t="str">
-        <f>IF(AND(B379&gt;Threshold,B378&gt;B379), $J$1,$J$2)</f>
+        <f>IF(AND(B379&gt;Threshold,B380&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D379" s="14"/>
@@ -13070,7 +13073,7 @@
         <v>3.63</v>
       </c>
       <c r="C380" s="14" t="str">
-        <f>IF(AND(B380&gt;Threshold,B379&gt;B380), $J$1,$J$2)</f>
+        <f>IF(AND(B380&gt;Threshold,B381&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D380" s="14"/>
@@ -13086,8 +13089,8 @@
         <v>4.66</v>
       </c>
       <c r="C381" s="14" t="str">
-        <f>IF(AND(B381&gt;Threshold,B380&gt;B381), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B381&gt;Threshold,B382&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D381" s="14"/>
       <c r="F381" s="14"/>
@@ -13102,7 +13105,7 @@
         <v>2.76</v>
       </c>
       <c r="C382" s="14" t="str">
-        <f>IF(AND(B382&gt;Threshold,B381&gt;B382), $J$1,$J$2)</f>
+        <f>IF(AND(B382&gt;Threshold,B383&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D382" s="14"/>
@@ -13118,7 +13121,7 @@
         <v>2.23</v>
       </c>
       <c r="C383" s="14" t="str">
-        <f>IF(AND(B383&gt;Threshold,B382&gt;B383), $J$1,$J$2)</f>
+        <f>IF(AND(B383&gt;Threshold,B384&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D383" s="14"/>
@@ -13134,7 +13137,7 @@
         <v>2.16</v>
       </c>
       <c r="C384" s="14" t="str">
-        <f>IF(AND(B384&gt;Threshold,B383&gt;B384), $J$1,$J$2)</f>
+        <f>IF(AND(B384&gt;Threshold,B385&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D384" s="14"/>
@@ -13150,7 +13153,7 @@
         <v>1.63</v>
       </c>
       <c r="C385" s="14" t="str">
-        <f>IF(AND(B385&gt;Threshold,B384&gt;B385), $J$1,$J$2)</f>
+        <f>IF(AND(B385&gt;Threshold,B386&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D385" s="14"/>
@@ -13166,7 +13169,7 @@
         <v>1.53</v>
       </c>
       <c r="C386" s="14" t="str">
-        <f>IF(AND(B386&gt;Threshold,B385&gt;B386), $J$1,$J$2)</f>
+        <f>IF(AND(B386&gt;Threshold,B387&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D386" s="14"/>
@@ -13182,7 +13185,7 @@
         <v>1.42</v>
       </c>
       <c r="C387" s="14" t="str">
-        <f>IF(AND(B387&gt;Threshold,B386&gt;B387), $J$1,$J$2)</f>
+        <f>IF(AND(B387&gt;Threshold,B388&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D387" s="14"/>
@@ -13198,7 +13201,7 @@
         <v>3.66</v>
       </c>
       <c r="C388" s="14" t="str">
-        <f>IF(AND(B388&gt;Threshold,B387&gt;B388), $J$1,$J$2)</f>
+        <f>IF(AND(B388&gt;Threshold,B389&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D388" s="14"/>
@@ -13214,8 +13217,8 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C389" s="14" t="str">
-        <f>IF(AND(B389&gt;Threshold,B388&gt;B389), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B389&gt;Threshold,B390&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D389" s="14"/>
       <c r="F389" s="14"/>
@@ -13230,7 +13233,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C390" s="14" t="str">
-        <f>IF(AND(B390&gt;Threshold,B389&gt;B390), $J$1,$J$2)</f>
+        <f>IF(AND(B390&gt;Threshold,B391&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D390" s="14"/>
@@ -13246,7 +13249,7 @@
         <v>2.14</v>
       </c>
       <c r="C391" s="14" t="str">
-        <f>IF(AND(B391&gt;Threshold,B390&gt;B391), $J$1,$J$2)</f>
+        <f>IF(AND(B391&gt;Threshold,B392&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D391" s="14"/>
@@ -13262,7 +13265,7 @@
         <v>2.1</v>
       </c>
       <c r="C392" s="14" t="str">
-        <f>IF(AND(B392&gt;Threshold,B391&gt;B392), $J$1,$J$2)</f>
+        <f>IF(AND(B392&gt;Threshold,B393&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D392" s="14"/>
@@ -13278,7 +13281,7 @@
         <v>1.66</v>
       </c>
       <c r="C393" s="14" t="str">
-        <f>IF(AND(B393&gt;Threshold,B392&gt;B393), $J$1,$J$2)</f>
+        <f>IF(AND(B393&gt;Threshold,B394&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D393" s="14"/>
@@ -13294,7 +13297,7 @@
         <v>1.63</v>
       </c>
       <c r="C394" s="14" t="str">
-        <f>IF(AND(B394&gt;Threshold,B393&gt;B394), $J$1,$J$2)</f>
+        <f>IF(AND(B394&gt;Threshold,B395&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D394" s="14"/>
@@ -13310,7 +13313,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C395" s="14" t="str">
-        <f>IF(AND(B395&gt;Threshold,B394&gt;B395), $J$1,$J$2)</f>
+        <f>IF(AND(B395&gt;Threshold,B396&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D395" s="14"/>
@@ -13326,7 +13329,7 @@
         <v>4.7</v>
       </c>
       <c r="C396" s="14" t="str">
-        <f>IF(AND(B396&gt;Threshold,B395&gt;B396), $J$1,$J$2)</f>
+        <f>IF(AND(B396&gt;Threshold,B397&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D396" s="14"/>
@@ -13342,7 +13345,7 @@
         <v>3.31</v>
       </c>
       <c r="C397" s="14" t="str">
-        <f>IF(AND(B397&gt;Threshold,B396&gt;B397), $J$1,$J$2)</f>
+        <f>IF(AND(B397&gt;Threshold,B398&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D397" s="14"/>
@@ -13358,7 +13361,7 @@
         <v>2.09</v>
       </c>
       <c r="C398" s="14" t="str">
-        <f>IF(AND(B398&gt;Threshold,B397&gt;B398), $J$1,$J$2)</f>
+        <f>IF(AND(B398&gt;Threshold,B399&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D398" s="14"/>
@@ -13374,7 +13377,7 @@
         <v>2.13</v>
       </c>
       <c r="C399" s="14" t="str">
-        <f>IF(AND(B399&gt;Threshold,B398&gt;B399), $J$1,$J$2)</f>
+        <f>IF(AND(B399&gt;Threshold,B400&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D399" s="14"/>
@@ -13390,7 +13393,7 @@
         <v>1.72</v>
       </c>
       <c r="C400" s="14" t="str">
-        <f>IF(AND(B400&gt;Threshold,B399&gt;B400), $J$1,$J$2)</f>
+        <f>IF(AND(B400&gt;Threshold,B401&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D400" s="14"/>
@@ -13406,7 +13409,7 @@
         <v>1.5</v>
       </c>
       <c r="C401" s="14" t="str">
-        <f>IF(AND(B401&gt;Threshold,B400&gt;B401), $J$1,$J$2)</f>
+        <f>IF(AND(B401&gt;Threshold,B402&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D401" s="14"/>
@@ -13422,7 +13425,7 @@
         <v>1.63</v>
       </c>
       <c r="C402" s="14" t="str">
-        <f>IF(AND(B402&gt;Threshold,B401&gt;B402), $J$1,$J$2)</f>
+        <f>IF(AND(B402&gt;Threshold,B403&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D402" s="14"/>
@@ -13438,7 +13441,7 @@
         <v>3.27</v>
       </c>
       <c r="C403" s="14" t="str">
-        <f>IF(AND(B403&gt;Threshold,B402&gt;B403), $J$1,$J$2)</f>
+        <f>IF(AND(B403&gt;Threshold,B404&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D403" s="14"/>
@@ -13454,8 +13457,8 @@
         <v>4.12</v>
       </c>
       <c r="C404" s="14" t="str">
-        <f>IF(AND(B404&gt;Threshold,B403&gt;B404), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B404&gt;Threshold,B405&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D404" s="14"/>
       <c r="F404" s="14"/>
@@ -13470,7 +13473,7 @@
         <v>2.56</v>
       </c>
       <c r="C405" s="14" t="str">
-        <f>IF(AND(B405&gt;Threshold,B404&gt;B405), $J$1,$J$2)</f>
+        <f>IF(AND(B405&gt;Threshold,B406&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D405" s="14"/>
@@ -13486,7 +13489,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C406" s="14" t="str">
-        <f>IF(AND(B406&gt;Threshold,B405&gt;B406), $J$1,$J$2)</f>
+        <f>IF(AND(B406&gt;Threshold,B407&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D406" s="14"/>
@@ -13502,7 +13505,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C407" s="14" t="str">
-        <f>IF(AND(B407&gt;Threshold,B406&gt;B407), $J$1,$J$2)</f>
+        <f>IF(AND(B407&gt;Threshold,B408&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D407" s="14"/>
@@ -13518,7 +13521,7 @@
         <v>1.72</v>
       </c>
       <c r="C408" s="14" t="str">
-        <f>IF(AND(B408&gt;Threshold,B407&gt;B408), $J$1,$J$2)</f>
+        <f>IF(AND(B408&gt;Threshold,B409&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D408" s="14"/>
@@ -13534,7 +13537,7 @@
         <v>1.63</v>
       </c>
       <c r="C409" s="14" t="str">
-        <f>IF(AND(B409&gt;Threshold,B408&gt;B409), $J$1,$J$2)</f>
+        <f>IF(AND(B409&gt;Threshold,B410&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D409" s="14"/>
@@ -13550,7 +13553,7 @@
         <v>2.09</v>
       </c>
       <c r="C410" s="14" t="str">
-        <f>IF(AND(B410&gt;Threshold,B409&gt;B410), $J$1,$J$2)</f>
+        <f>IF(AND(B410&gt;Threshold,B411&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D410" s="14"/>
@@ -13566,7 +13569,7 @@
         <v>4.2</v>
       </c>
       <c r="C411" s="14" t="str">
-        <f>IF(AND(B411&gt;Threshold,B410&gt;B411), $J$1,$J$2)</f>
+        <f>IF(AND(B411&gt;Threshold,B412&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D411" s="14"/>
@@ -13582,7 +13585,7 @@
         <v>3.59</v>
       </c>
       <c r="C412" s="14" t="str">
-        <f>IF(AND(B412&gt;Threshold,B411&gt;B412), $J$1,$J$2)</f>
+        <f>IF(AND(B412&gt;Threshold,B413&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D412" s="14"/>
@@ -13598,7 +13601,7 @@
         <v>2.33</v>
       </c>
       <c r="C413" s="14" t="str">
-        <f>IF(AND(B413&gt;Threshold,B412&gt;B413), $J$1,$J$2)</f>
+        <f>IF(AND(B413&gt;Threshold,B414&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D413" s="14"/>
@@ -13614,7 +13617,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C414" s="14" t="str">
-        <f>IF(AND(B414&gt;Threshold,B413&gt;B414), $J$1,$J$2)</f>
+        <f>IF(AND(B414&gt;Threshold,B415&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D414" s="14"/>
@@ -13630,7 +13633,7 @@
         <v>1.95</v>
       </c>
       <c r="C415" s="14" t="str">
-        <f>IF(AND(B415&gt;Threshold,B414&gt;B415), $J$1,$J$2)</f>
+        <f>IF(AND(B415&gt;Threshold,B416&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D415" s="14"/>
@@ -13646,7 +13649,7 @@
         <v>1.74</v>
       </c>
       <c r="C416" s="14" t="str">
-        <f>IF(AND(B416&gt;Threshold,B415&gt;B416), $J$1,$J$2)</f>
+        <f>IF(AND(B416&gt;Threshold,B417&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D416" s="14"/>
@@ -13662,7 +13665,7 @@
         <v>1.78</v>
       </c>
       <c r="C417" s="14" t="str">
-        <f>IF(AND(B417&gt;Threshold,B416&gt;B417), $J$1,$J$2)</f>
+        <f>IF(AND(B417&gt;Threshold,B418&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D417" s="14"/>
@@ -13678,7 +13681,7 @@
         <v>3</v>
       </c>
       <c r="C418" s="14" t="str">
-        <f>IF(AND(B418&gt;Threshold,B417&gt;B418), $J$1,$J$2)</f>
+        <f>IF(AND(B418&gt;Threshold,B419&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D418" s="14"/>
@@ -13694,7 +13697,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C419" s="14" t="str">
-        <f>IF(AND(B419&gt;Threshold,B418&gt;B419), $J$1,$J$2)</f>
+        <f>IF(AND(B419&gt;Threshold,B420&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D419" s="14"/>
@@ -13710,7 +13713,7 @@
         <v>3.08</v>
       </c>
       <c r="C420" s="14" t="str">
-        <f>IF(AND(B420&gt;Threshold,B419&gt;B420), $J$1,$J$2)</f>
+        <f>IF(AND(B420&gt;Threshold,B421&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D420" s="14"/>
@@ -13726,7 +13729,7 @@
         <v>2.31</v>
       </c>
       <c r="C421" s="14" t="str">
-        <f>IF(AND(B421&gt;Threshold,B420&gt;B421), $J$1,$J$2)</f>
+        <f>IF(AND(B421&gt;Threshold,B422&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D421" s="14"/>
@@ -13742,7 +13745,7 @@
         <v>2.23</v>
       </c>
       <c r="C422" s="14" t="str">
-        <f>IF(AND(B422&gt;Threshold,B421&gt;B422), $J$1,$J$2)</f>
+        <f>IF(AND(B422&gt;Threshold,B423&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D422" s="14"/>
@@ -13758,7 +13761,7 @@
         <v>1.74</v>
       </c>
       <c r="C423" s="14" t="str">
-        <f>IF(AND(B423&gt;Threshold,B422&gt;B423), $J$1,$J$2)</f>
+        <f>IF(AND(B423&gt;Threshold,B424&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D423" s="14"/>
@@ -13774,7 +13777,7 @@
         <v>1.7</v>
       </c>
       <c r="C424" s="14" t="str">
-        <f>IF(AND(B424&gt;Threshold,B423&gt;B424), $J$1,$J$2)</f>
+        <f>IF(AND(B424&gt;Threshold,B425&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D424" s="14"/>
@@ -13790,7 +13793,7 @@
         <v>1.94</v>
       </c>
       <c r="C425" s="14" t="str">
-        <f>IF(AND(B425&gt;Threshold,B424&gt;B425), $J$1,$J$2)</f>
+        <f>IF(AND(B425&gt;Threshold,B426&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D425" s="14"/>
@@ -13806,7 +13809,7 @@
         <v>4.37</v>
       </c>
       <c r="C426" s="14" t="str">
-        <f>IF(AND(B426&gt;Threshold,B425&gt;B426), $J$1,$J$2)</f>
+        <f>IF(AND(B426&gt;Threshold,B427&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D426" s="14"/>
@@ -13822,7 +13825,7 @@
         <v>3.87</v>
       </c>
       <c r="C427" s="14" t="str">
-        <f>IF(AND(B427&gt;Threshold,B426&gt;B427), $J$1,$J$2)</f>
+        <f>IF(AND(B427&gt;Threshold,B428&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D427" s="14"/>
@@ -13838,7 +13841,7 @@
         <v>2.39</v>
       </c>
       <c r="C428" s="14" t="str">
-        <f>IF(AND(B428&gt;Threshold,B427&gt;B428), $J$1,$J$2)</f>
+        <f>IF(AND(B428&gt;Threshold,B429&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D428" s="14"/>
@@ -13854,7 +13857,7 @@
         <v>2.21</v>
       </c>
       <c r="C429" s="14" t="str">
-        <f>IF(AND(B429&gt;Threshold,B428&gt;B429), $J$1,$J$2)</f>
+        <f>IF(AND(B429&gt;Threshold,B430&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D429" s="14"/>
@@ -13870,7 +13873,7 @@
         <v>1.93</v>
       </c>
       <c r="C430" s="14" t="str">
-        <f>IF(AND(B430&gt;Threshold,B429&gt;B430), $J$1,$J$2)</f>
+        <f>IF(AND(B430&gt;Threshold,B431&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D430" s="14"/>
@@ -13886,7 +13889,7 @@
         <v>1.56</v>
       </c>
       <c r="C431" s="14" t="str">
-        <f>IF(AND(B431&gt;Threshold,B430&gt;B431), $J$1,$J$2)</f>
+        <f>IF(AND(B431&gt;Threshold,B432&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D431" s="14"/>
@@ -13902,7 +13905,7 @@
         <v>1.7</v>
       </c>
       <c r="C432" s="14" t="str">
-        <f>IF(AND(B432&gt;Threshold,B431&gt;B432), $J$1,$J$2)</f>
+        <f>IF(AND(B432&gt;Threshold,B433&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D432" s="14"/>
@@ -13918,7 +13921,7 @@
         <v>3.09</v>
       </c>
       <c r="C433" s="14" t="str">
-        <f>IF(AND(B433&gt;Threshold,B432&gt;B433), $J$1,$J$2)</f>
+        <f>IF(AND(B433&gt;Threshold,B434&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D433" s="14"/>
@@ -13934,8 +13937,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C434" s="14" t="str">
-        <f>IF(AND(B434&gt;Threshold,B433&gt;B434), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B434&gt;Threshold,B435&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D434" s="14"/>
       <c r="F434" s="14"/>
@@ -13950,7 +13953,7 @@
         <v>2.86</v>
       </c>
       <c r="C435" s="14" t="str">
-        <f>IF(AND(B435&gt;Threshold,B434&gt;B435), $J$1,$J$2)</f>
+        <f>IF(AND(B435&gt;Threshold,B436&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D435" s="14"/>
@@ -13966,7 +13969,7 @@
         <v>2.39</v>
       </c>
       <c r="C436" s="14" t="str">
-        <f>IF(AND(B436&gt;Threshold,B435&gt;B436), $J$1,$J$2)</f>
+        <f>IF(AND(B436&gt;Threshold,B437&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D436" s="14"/>
@@ -13982,7 +13985,7 @@
         <v>2.15</v>
       </c>
       <c r="C437" s="14" t="str">
-        <f>IF(AND(B437&gt;Threshold,B436&gt;B437), $J$1,$J$2)</f>
+        <f>IF(AND(B437&gt;Threshold,B438&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D437" s="14"/>
@@ -13998,7 +14001,7 @@
         <v>1.68</v>
       </c>
       <c r="C438" s="14" t="str">
-        <f>IF(AND(B438&gt;Threshold,B437&gt;B438), $J$1,$J$2)</f>
+        <f>IF(AND(B438&gt;Threshold,B439&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D438" s="14"/>
@@ -14014,7 +14017,7 @@
         <v>1.58</v>
       </c>
       <c r="C439" s="14" t="str">
-        <f>IF(AND(B439&gt;Threshold,B438&gt;B439), $J$1,$J$2)</f>
+        <f>IF(AND(B439&gt;Threshold,B440&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D439" s="14"/>
@@ -14030,7 +14033,7 @@
         <v>1.7</v>
       </c>
       <c r="C440" s="14" t="str">
-        <f>IF(AND(B440&gt;Threshold,B439&gt;B440), $J$1,$J$2)</f>
+        <f>IF(AND(B440&gt;Threshold,B441&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D440" s="14"/>
@@ -14046,7 +14049,7 @@
         <v>4.21</v>
       </c>
       <c r="C441" s="14" t="str">
-        <f>IF(AND(B441&gt;Threshold,B440&gt;B441), $J$1,$J$2)</f>
+        <f>IF(AND(B441&gt;Threshold,B442&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D441" s="14"/>
@@ -14062,8 +14065,8 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C442" s="14" t="str">
-        <f>IF(AND(B442&gt;Threshold,B441&gt;B442), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B442&gt;Threshold,B443&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D442" s="14"/>
       <c r="F442" s="14"/>
@@ -14078,7 +14081,7 @@
         <v>2.67</v>
       </c>
       <c r="C443" s="14" t="str">
-        <f>IF(AND(B443&gt;Threshold,B442&gt;B443), $J$1,$J$2)</f>
+        <f>IF(AND(B443&gt;Threshold,B444&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D443" s="14"/>
@@ -14094,7 +14097,7 @@
         <v>2.27</v>
       </c>
       <c r="C444" s="14" t="str">
-        <f>IF(AND(B444&gt;Threshold,B443&gt;B444), $J$1,$J$2)</f>
+        <f>IF(AND(B444&gt;Threshold,B445&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D444" s="14"/>
@@ -14110,7 +14113,7 @@
         <v>1.98</v>
       </c>
       <c r="C445" s="14" t="str">
-        <f>IF(AND(B445&gt;Threshold,B444&gt;B445), $J$1,$J$2)</f>
+        <f>IF(AND(B445&gt;Threshold,B446&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D445" s="14"/>
@@ -14126,7 +14129,7 @@
         <v>1.52</v>
       </c>
       <c r="C446" s="14" t="str">
-        <f>IF(AND(B446&gt;Threshold,B445&gt;B446), $J$1,$J$2)</f>
+        <f>IF(AND(B446&gt;Threshold,B447&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D446" s="14"/>
@@ -14142,7 +14145,7 @@
         <v>1.65</v>
       </c>
       <c r="C447" s="14" t="str">
-        <f>IF(AND(B447&gt;Threshold,B446&gt;B447), $J$1,$J$2)</f>
+        <f>IF(AND(B447&gt;Threshold,B448&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D447" s="14"/>
@@ -14158,7 +14161,7 @@
         <v>1.62</v>
       </c>
       <c r="C448" s="14" t="str">
-        <f>IF(AND(B448&gt;Threshold,B447&gt;B448), $J$1,$J$2)</f>
+        <f>IF(AND(B448&gt;Threshold,B449&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D448" s="14"/>
@@ -14174,7 +14177,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C449" s="14" t="str">
-        <f>IF(AND(B449&gt;Threshold,B448&gt;B449), $J$1,$J$2)</f>
+        <f>IF(AND(B449&gt;Threshold,B450&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D449" s="14"/>
@@ -14190,8 +14193,8 @@
         <v>4.63</v>
       </c>
       <c r="C450" s="14" t="str">
-        <f>IF(AND(B450&gt;Threshold,B449&gt;B450), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B450&gt;Threshold,B451&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D450" s="14"/>
       <c r="F450" s="14"/>
@@ -14206,7 +14209,7 @@
         <v>2.69</v>
       </c>
       <c r="C451" s="14" t="str">
-        <f>IF(AND(B451&gt;Threshold,B450&gt;B451), $J$1,$J$2)</f>
+        <f>IF(AND(B451&gt;Threshold,B452&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D451" s="14"/>
@@ -14222,7 +14225,7 @@
         <v>2.15</v>
       </c>
       <c r="C452" s="14" t="str">
-        <f>IF(AND(B452&gt;Threshold,B451&gt;B452), $J$1,$J$2)</f>
+        <f>IF(AND(B452&gt;Threshold,B453&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D452" s="14"/>
@@ -14238,7 +14241,7 @@
         <v>1.86</v>
       </c>
       <c r="C453" s="14" t="str">
-        <f>IF(AND(B453&gt;Threshold,B452&gt;B453), $J$1,$J$2)</f>
+        <f>IF(AND(B453&gt;Threshold,B454&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D453" s="14"/>
@@ -14254,7 +14257,7 @@
         <v>1.59</v>
       </c>
       <c r="C454" s="14" t="str">
-        <f>IF(AND(B454&gt;Threshold,B453&gt;B454), $J$1,$J$2)</f>
+        <f>IF(AND(B454&gt;Threshold,B455&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D454" s="14"/>
@@ -14270,7 +14273,7 @@
         <v>1.49</v>
       </c>
       <c r="C455" s="14" t="str">
-        <f>IF(AND(B455&gt;Threshold,B454&gt;B455), $J$1,$J$2)</f>
+        <f>IF(AND(B455&gt;Threshold,B456&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D455" s="14"/>
@@ -14286,7 +14289,7 @@
         <v>1.75</v>
       </c>
       <c r="C456" s="14" t="str">
-        <f>IF(AND(B456&gt;Threshold,B455&gt;B456), $J$1,$J$2)</f>
+        <f>IF(AND(B456&gt;Threshold,B457&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D456" s="14"/>
@@ -14302,7 +14305,7 @@
         <v>3.46</v>
       </c>
       <c r="C457" s="14" t="str">
-        <f>IF(AND(B457&gt;Threshold,B456&gt;B457), $J$1,$J$2)</f>
+        <f>IF(AND(B457&gt;Threshold,B458&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D457" s="14"/>
@@ -14318,8 +14321,8 @@
         <v>4.66</v>
       </c>
       <c r="C458" s="14" t="str">
-        <f>IF(AND(B458&gt;Threshold,B457&gt;B458), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B458&gt;Threshold,B459&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D458" s="14"/>
       <c r="F458" s="14"/>
@@ -14334,7 +14337,7 @@
         <v>2.79</v>
       </c>
       <c r="C459" s="14" t="str">
-        <f>IF(AND(B459&gt;Threshold,B458&gt;B459), $J$1,$J$2)</f>
+        <f>IF(AND(B459&gt;Threshold,B460&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D459" s="14"/>
@@ -14350,7 +14353,7 @@
         <v>2.15</v>
       </c>
       <c r="C460" s="14" t="str">
-        <f>IF(AND(B460&gt;Threshold,B459&gt;B460), $J$1,$J$2)</f>
+        <f>IF(AND(B460&gt;Threshold,B461&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D460" s="14"/>
@@ -14366,7 +14369,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C461" s="14" t="str">
-        <f>IF(AND(B461&gt;Threshold,B460&gt;B461), $J$1,$J$2)</f>
+        <f>IF(AND(B461&gt;Threshold,B462&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D461" s="14"/>
@@ -14382,7 +14385,7 @@
         <v>1.46</v>
       </c>
       <c r="C462" s="14" t="str">
-        <f>IF(AND(B462&gt;Threshold,B461&gt;B462), $J$1,$J$2)</f>
+        <f>IF(AND(B462&gt;Threshold,B463&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D462" s="14"/>
@@ -14398,7 +14401,7 @@
         <v>1.48</v>
       </c>
       <c r="C463" s="14" t="str">
-        <f>IF(AND(B463&gt;Threshold,B462&gt;B463), $J$1,$J$2)</f>
+        <f>IF(AND(B463&gt;Threshold,B464&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D463" s="14"/>
@@ -14414,7 +14417,7 @@
         <v>1.64</v>
       </c>
       <c r="C464" s="14" t="str">
-        <f>IF(AND(B464&gt;Threshold,B463&gt;B464), $J$1,$J$2)</f>
+        <f>IF(AND(B464&gt;Threshold,B465&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D464" s="14"/>
@@ -14430,7 +14433,7 @@
         <v>3.05</v>
       </c>
       <c r="C465" s="14" t="str">
-        <f>IF(AND(B465&gt;Threshold,B464&gt;B465), $J$1,$J$2)</f>
+        <f>IF(AND(B465&gt;Threshold,B466&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D465" s="14"/>
@@ -14446,8 +14449,8 @@
         <v>4.74</v>
       </c>
       <c r="C466" s="14" t="str">
-        <f>IF(AND(B466&gt;Threshold,B465&gt;B466), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B466&gt;Threshold,B467&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D466" s="14"/>
       <c r="F466" s="14"/>
@@ -14462,7 +14465,7 @@
         <v>2.99</v>
       </c>
       <c r="C467" s="14" t="str">
-        <f>IF(AND(B467&gt;Threshold,B466&gt;B467), $J$1,$J$2)</f>
+        <f>IF(AND(B467&gt;Threshold,B468&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D467" s="14"/>
@@ -14478,7 +14481,7 @@
         <v>2.16</v>
       </c>
       <c r="C468" s="14" t="str">
-        <f>IF(AND(B468&gt;Threshold,B467&gt;B468), $J$1,$J$2)</f>
+        <f>IF(AND(B468&gt;Threshold,B469&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D468" s="14"/>
@@ -14494,7 +14497,7 @@
         <v>2.06</v>
       </c>
       <c r="C469" s="14" t="str">
-        <f>IF(AND(B469&gt;Threshold,B468&gt;B469), $J$1,$J$2)</f>
+        <f>IF(AND(B469&gt;Threshold,B470&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D469" s="14"/>
@@ -14510,7 +14513,7 @@
         <v>1.57</v>
       </c>
       <c r="C470" s="14" t="str">
-        <f>IF(AND(B470&gt;Threshold,B469&gt;B470), $J$1,$J$2)</f>
+        <f>IF(AND(B470&gt;Threshold,B471&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D470" s="14"/>
@@ -14526,7 +14529,7 @@
         <v>1.54</v>
       </c>
       <c r="C471" s="14" t="str">
-        <f>IF(AND(B471&gt;Threshold,B470&gt;B471), $J$1,$J$2)</f>
+        <f>IF(AND(B471&gt;Threshold,B472&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D471" s="14"/>
@@ -14542,7 +14545,7 @@
         <v>1.62</v>
       </c>
       <c r="C472" s="14" t="str">
-        <f>IF(AND(B472&gt;Threshold,B471&gt;B472), $J$1,$J$2)</f>
+        <f>IF(AND(B472&gt;Threshold,B473&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D472" s="14"/>
@@ -14558,7 +14561,7 @@
         <v>2.75</v>
       </c>
       <c r="C473" s="14" t="str">
-        <f>IF(AND(B473&gt;Threshold,B472&gt;B473), $J$1,$J$2)</f>
+        <f>IF(AND(B473&gt;Threshold,B474&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D473" s="14"/>
@@ -14574,7 +14577,7 @@
         <v>4.74</v>
       </c>
       <c r="C474" s="14" t="str">
-        <f>IF(AND(B474&gt;Threshold,B473&gt;B474), $J$1,$J$2)</f>
+        <f>IF(AND(B474&gt;Threshold,B475&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D474" s="14"/>
@@ -14590,7 +14593,7 @@
         <v>3.41</v>
       </c>
       <c r="C475" s="14" t="str">
-        <f>IF(AND(B475&gt;Threshold,B474&gt;B475), $J$1,$J$2)</f>
+        <f>IF(AND(B475&gt;Threshold,B476&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D475" s="14"/>
@@ -14606,7 +14609,7 @@
         <v>2.13</v>
       </c>
       <c r="C476" s="14" t="str">
-        <f>IF(AND(B476&gt;Threshold,B475&gt;B476), $J$1,$J$2)</f>
+        <f>IF(AND(B476&gt;Threshold,B477&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D476" s="14"/>
@@ -14622,7 +14625,7 @@
         <v>2.11</v>
       </c>
       <c r="C477" s="14" t="str">
-        <f>IF(AND(B477&gt;Threshold,B476&gt;B477), $J$1,$J$2)</f>
+        <f>IF(AND(B477&gt;Threshold,B478&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D477" s="14"/>
@@ -14638,7 +14641,7 @@
         <v>1.58</v>
       </c>
       <c r="C478" s="14" t="str">
-        <f>IF(AND(B478&gt;Threshold,B477&gt;B478), $J$1,$J$2)</f>
+        <f>IF(AND(B478&gt;Threshold,B479&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D478" s="14"/>
@@ -14654,7 +14657,7 @@
         <v>1.5</v>
       </c>
       <c r="C479" s="14" t="str">
-        <f>IF(AND(B479&gt;Threshold,B478&gt;B479), $J$1,$J$2)</f>
+        <f>IF(AND(B479&gt;Threshold,B480&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D479" s="14"/>
@@ -14670,7 +14673,7 @@
         <v>1.65</v>
       </c>
       <c r="C480" s="14" t="str">
-        <f>IF(AND(B480&gt;Threshold,B479&gt;B480), $J$1,$J$2)</f>
+        <f>IF(AND(B480&gt;Threshold,B481&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D480" s="14"/>
@@ -14686,7 +14689,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C481" s="14" t="str">
-        <f>IF(AND(B481&gt;Threshold,B480&gt;B481), $J$1,$J$2)</f>
+        <f>IF(AND(B481&gt;Threshold,B482&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D481" s="14"/>
@@ -14702,7 +14705,7 @@
         <v>4.74</v>
       </c>
       <c r="C482" s="14" t="str">
-        <f>IF(AND(B482&gt;Threshold,B481&gt;B482), $J$1,$J$2)</f>
+        <f>IF(AND(B482&gt;Threshold,B483&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D482" s="14"/>
@@ -14718,7 +14721,7 @@
         <v>3.91</v>
       </c>
       <c r="C483" s="14" t="str">
-        <f>IF(AND(B483&gt;Threshold,B482&gt;B483), $J$1,$J$2)</f>
+        <f>IF(AND(B483&gt;Threshold,B484&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D483" s="14"/>
@@ -14734,7 +14737,7 @@
         <v>2.16</v>
       </c>
       <c r="C484" s="14" t="str">
-        <f>IF(AND(B484&gt;Threshold,B483&gt;B484), $J$1,$J$2)</f>
+        <f>IF(AND(B484&gt;Threshold,B485&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D484" s="14"/>
@@ -14750,7 +14753,7 @@
         <v>2.14</v>
       </c>
       <c r="C485" s="14" t="str">
-        <f>IF(AND(B485&gt;Threshold,B484&gt;B485), $J$1,$J$2)</f>
+        <f>IF(AND(B485&gt;Threshold,B486&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D485" s="14"/>
@@ -14766,7 +14769,7 @@
         <v>1.67</v>
       </c>
       <c r="C486" s="14" t="str">
-        <f>IF(AND(B486&gt;Threshold,B485&gt;B486), $J$1,$J$2)</f>
+        <f>IF(AND(B486&gt;Threshold,B487&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D486" s="14"/>
@@ -14782,7 +14785,7 @@
         <v>1.43</v>
       </c>
       <c r="C487" s="14" t="str">
-        <f>IF(AND(B487&gt;Threshold,B486&gt;B487), $J$1,$J$2)</f>
+        <f>IF(AND(B487&gt;Threshold,B488&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D487" s="14"/>
@@ -14798,7 +14801,7 @@
         <v>1.63</v>
       </c>
       <c r="C488" s="14" t="str">
-        <f>IF(AND(B488&gt;Threshold,B487&gt;B488), $J$1,$J$2)</f>
+        <f>IF(AND(B488&gt;Threshold,B489&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D488" s="14"/>
@@ -14814,7 +14817,7 @@
         <v>1.74</v>
       </c>
       <c r="C489" s="14" t="str">
-        <f>IF(AND(B489&gt;Threshold,B488&gt;B489), $J$1,$J$2)</f>
+        <f>IF(AND(B489&gt;Threshold,B490&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D489" s="14"/>
@@ -14830,7 +14833,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C490" s="14" t="str">
-        <f>IF(AND(B490&gt;Threshold,B489&gt;B490), $J$1,$J$2)</f>
+        <f>IF(AND(B490&gt;Threshold,B491&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D490" s="14"/>
@@ -14846,7 +14849,7 @@
         <v>4.58</v>
       </c>
       <c r="C491" s="14" t="str">
-        <f>IF(AND(B491&gt;Threshold,B490&gt;B491), $J$1,$J$2)</f>
+        <f>IF(AND(B491&gt;Threshold,B492&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D491" s="14"/>
@@ -14862,7 +14865,7 @@
         <v>2.38</v>
       </c>
       <c r="C492" s="14" t="str">
-        <f>IF(AND(B492&gt;Threshold,B491&gt;B492), $J$1,$J$2)</f>
+        <f>IF(AND(B492&gt;Threshold,B493&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D492" s="14"/>
@@ -14878,7 +14881,7 @@
         <v>2.12</v>
       </c>
       <c r="C493" s="14" t="str">
-        <f>IF(AND(B493&gt;Threshold,B492&gt;B493), $J$1,$J$2)</f>
+        <f>IF(AND(B493&gt;Threshold,B494&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D493" s="14"/>
@@ -14894,7 +14897,7 @@
         <v>1.82</v>
       </c>
       <c r="C494" s="14" t="str">
-        <f>IF(AND(B494&gt;Threshold,B493&gt;B494), $J$1,$J$2)</f>
+        <f>IF(AND(B494&gt;Threshold,B495&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D494" s="14"/>
@@ -14910,7 +14913,7 @@
         <v>1.56</v>
       </c>
       <c r="C495" s="14" t="str">
-        <f>IF(AND(B495&gt;Threshold,B494&gt;B495), $J$1,$J$2)</f>
+        <f>IF(AND(B495&gt;Threshold,B496&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D495" s="14"/>
@@ -14926,7 +14929,7 @@
         <v>1.58</v>
       </c>
       <c r="C496" s="14" t="str">
-        <f>IF(AND(B496&gt;Threshold,B495&gt;B496), $J$1,$J$2)</f>
+        <f>IF(AND(B496&gt;Threshold,B497&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D496" s="14"/>
@@ -14942,7 +14945,7 @@
         <v>1.71</v>
       </c>
       <c r="C497" s="14" t="str">
-        <f>IF(AND(B497&gt;Threshold,B496&gt;B497), $J$1,$J$2)</f>
+        <f>IF(AND(B497&gt;Threshold,B498&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D497" s="14"/>
@@ -14958,7 +14961,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C498" s="14" t="str">
-        <f>IF(AND(B498&gt;Threshold,B497&gt;B498), $J$1,$J$2)</f>
+        <f>IF(AND(B498&gt;Threshold,B499&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D498" s="14"/>
@@ -14974,7 +14977,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C499" s="14" t="str">
-        <f>IF(AND(B499&gt;Threshold,B498&gt;B499), $J$1,$J$2)</f>
+        <f>IF(AND(B499&gt;Threshold,B500&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D499" s="14"/>
@@ -14990,7 +14993,7 @@
         <v>2.23</v>
       </c>
       <c r="C500" s="14" t="str">
-        <f>IF(AND(B500&gt;Threshold,B499&gt;B500), $J$1,$J$2)</f>
+        <f>IF(AND(B500&gt;Threshold,B501&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D500" s="14"/>
@@ -15006,7 +15009,7 @@
         <v>2.12</v>
       </c>
       <c r="C501" s="14" t="str">
-        <f>IF(AND(B501&gt;Threshold,B500&gt;B501), $J$1,$J$2)</f>
+        <f>IF(AND(B501&gt;Threshold,B502&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D501" s="14"/>
@@ -15022,7 +15025,7 @@
         <v>1.83</v>
       </c>
       <c r="C502" s="14" t="str">
-        <f>IF(AND(B502&gt;Threshold,B501&gt;B502), $J$1,$J$2)</f>
+        <f>IF(AND(B502&gt;Threshold,B503&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D502" s="14"/>
@@ -15038,7 +15041,7 @@
         <v>1.5</v>
       </c>
       <c r="C503" s="14" t="str">
-        <f>IF(AND(B503&gt;Threshold,B502&gt;B503), $J$1,$J$2)</f>
+        <f>IF(AND(B503&gt;Threshold,B504&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D503" s="14"/>
@@ -15054,7 +15057,7 @@
         <v>1.56</v>
       </c>
       <c r="C504" s="14" t="str">
-        <f>IF(AND(B504&gt;Threshold,B503&gt;B504), $J$1,$J$2)</f>
+        <f>IF(AND(B504&gt;Threshold,B505&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D504" s="14"/>
@@ -15070,7 +15073,7 @@
         <v>1.74</v>
       </c>
       <c r="C505" s="14" t="str">
-        <f>IF(AND(B505&gt;Threshold,B504&gt;B505), $J$1,$J$2)</f>
+        <f>IF(AND(B505&gt;Threshold,B506&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D505" s="14"/>
@@ -15086,7 +15089,7 @@
         <v>4.57</v>
       </c>
       <c r="C506" s="14" t="str">
-        <f>IF(AND(B506&gt;Threshold,B505&gt;B506), $J$1,$J$2)</f>
+        <f>IF(AND(B506&gt;Threshold,B507&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D506" s="14"/>
@@ -15102,7 +15105,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C507" s="14" t="str">
-        <f>IF(AND(B507&gt;Threshold,B506&gt;B507), $J$1,$J$2)</f>
+        <f>IF(AND(B507&gt;Threshold,B508&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D507" s="14"/>
@@ -15118,7 +15121,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C508" s="14" t="str">
-        <f>IF(AND(B508&gt;Threshold,B507&gt;B508), $J$1,$J$2)</f>
+        <f>IF(AND(B508&gt;Threshold,B509&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D508" s="14"/>
@@ -15134,7 +15137,7 @@
         <v>2.12</v>
       </c>
       <c r="C509" s="14" t="str">
-        <f>IF(AND(B509&gt;Threshold,B508&gt;B509), $J$1,$J$2)</f>
+        <f>IF(AND(B509&gt;Threshold,B510&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D509" s="14"/>
@@ -15150,7 +15153,7 @@
         <v>1.81</v>
       </c>
       <c r="C510" s="14" t="str">
-        <f>IF(AND(B510&gt;Threshold,B509&gt;B510), $J$1,$J$2)</f>
+        <f>IF(AND(B510&gt;Threshold,B511&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D510" s="14"/>
@@ -15166,7 +15169,7 @@
         <v>1.52</v>
       </c>
       <c r="C511" s="14" t="str">
-        <f>IF(AND(B511&gt;Threshold,B510&gt;B511), $J$1,$J$2)</f>
+        <f>IF(AND(B511&gt;Threshold,B512&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D511" s="14"/>
@@ -15182,7 +15185,7 @@
         <v>1.62</v>
       </c>
       <c r="C512" s="14" t="str">
-        <f>IF(AND(B512&gt;Threshold,B511&gt;B512), $J$1,$J$2)</f>
+        <f>IF(AND(B512&gt;Threshold,B513&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D512" s="14"/>
@@ -15198,7 +15201,7 @@
         <v>1.76</v>
       </c>
       <c r="C513" s="14" t="str">
-        <f>IF(AND(B513&gt;Threshold,B512&gt;B513), $J$1,$J$2)</f>
+        <f>IF(AND(B513&gt;Threshold,B514&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D513" s="14"/>
@@ -15214,7 +15217,7 @@
         <v>4.59</v>
       </c>
       <c r="C514" s="14" t="str">
-        <f>IF(AND(B514&gt;Threshold,B513&gt;B514), $J$1,$J$2)</f>
+        <f>IF(AND(B514&gt;Threshold,B515&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D514" s="14"/>
@@ -15230,8 +15233,8 @@
         <v>4.74</v>
       </c>
       <c r="C515" s="14" t="str">
-        <f>IF(AND(B515&gt;Threshold,B514&gt;B515), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B515&gt;Threshold,B516&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D515" s="14"/>
       <c r="F515" s="14"/>
@@ -15246,7 +15249,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C516" s="14" t="str">
-        <f>IF(AND(B516&gt;Threshold,B515&gt;B516), $J$1,$J$2)</f>
+        <f>IF(AND(B516&gt;Threshold,B517&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D516" s="14"/>
@@ -15262,7 +15265,7 @@
         <v>2.08</v>
       </c>
       <c r="C517" s="14" t="str">
-        <f>IF(AND(B517&gt;Threshold,B516&gt;B517), $J$1,$J$2)</f>
+        <f>IF(AND(B517&gt;Threshold,B518&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D517" s="14"/>
@@ -15278,7 +15281,7 @@
         <v>1.91</v>
       </c>
       <c r="C518" s="14" t="str">
-        <f>IF(AND(B518&gt;Threshold,B517&gt;B518), $J$1,$J$2)</f>
+        <f>IF(AND(B518&gt;Threshold,B519&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D518" s="14"/>
@@ -15294,7 +15297,7 @@
         <v>1.48</v>
       </c>
       <c r="C519" s="14" t="str">
-        <f>IF(AND(B519&gt;Threshold,B518&gt;B519), $J$1,$J$2)</f>
+        <f>IF(AND(B519&gt;Threshold,B520&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D519" s="14"/>
@@ -15310,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="C520" s="14" t="str">
-        <f>IF(AND(B520&gt;Threshold,B519&gt;B520), $J$1,$J$2)</f>
+        <f>IF(AND(B520&gt;Threshold,B521&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D520" s="14"/>
@@ -15326,7 +15329,7 @@
         <v>1.62</v>
       </c>
       <c r="C521" s="14" t="str">
-        <f>IF(AND(B521&gt;Threshold,B520&gt;B521), $J$1,$J$2)</f>
+        <f>IF(AND(B521&gt;Threshold,B522&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D521" s="14"/>
@@ -15342,7 +15345,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C522" s="14" t="str">
-        <f>IF(AND(B522&gt;Threshold,B521&gt;B522), $J$1,$J$2)</f>
+        <f>IF(AND(B522&gt;Threshold,B523&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D522" s="14"/>
@@ -15358,8 +15361,8 @@
         <v>4.74</v>
       </c>
       <c r="C523" s="14" t="str">
-        <f>IF(AND(B523&gt;Threshold,B522&gt;B523), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B523&gt;Threshold,B524&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D523" s="14"/>
       <c r="F523" s="14"/>
@@ -15374,7 +15377,7 @@
         <v>2.6</v>
       </c>
       <c r="C524" s="14" t="str">
-        <f>IF(AND(B524&gt;Threshold,B523&gt;B524), $J$1,$J$2)</f>
+        <f>IF(AND(B524&gt;Threshold,B525&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D524" s="14"/>
@@ -15390,7 +15393,7 @@
         <v>2.15</v>
       </c>
       <c r="C525" s="14" t="str">
-        <f>IF(AND(B525&gt;Threshold,B524&gt;B525), $J$1,$J$2)</f>
+        <f>IF(AND(B525&gt;Threshold,B526&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D525" s="14"/>
@@ -15406,7 +15409,7 @@
         <v>1.98</v>
       </c>
       <c r="C526" s="14" t="str">
-        <f>IF(AND(B526&gt;Threshold,B525&gt;B526), $J$1,$J$2)</f>
+        <f>IF(AND(B526&gt;Threshold,B527&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D526" s="14"/>
@@ -15422,7 +15425,7 @@
         <v>1.51</v>
       </c>
       <c r="C527" s="14" t="str">
-        <f>IF(AND(B527&gt;Threshold,B526&gt;B527), $J$1,$J$2)</f>
+        <f>IF(AND(B527&gt;Threshold,B528&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D527" s="14"/>
@@ -15438,7 +15441,7 @@
         <v>1.54</v>
       </c>
       <c r="C528" s="14" t="str">
-        <f>IF(AND(B528&gt;Threshold,B527&gt;B528), $J$1,$J$2)</f>
+        <f>IF(AND(B528&gt;Threshold,B529&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D528" s="14"/>
@@ -15454,7 +15457,7 @@
         <v>1.8</v>
       </c>
       <c r="C529" s="14" t="str">
-        <f>IF(AND(B529&gt;Threshold,B528&gt;B529), $J$1,$J$2)</f>
+        <f>IF(AND(B529&gt;Threshold,B530&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D529" s="14"/>
@@ -15470,7 +15473,7 @@
         <v>4.67</v>
       </c>
       <c r="C530" s="14" t="str">
-        <f>IF(AND(B530&gt;Threshold,B529&gt;B530), $J$1,$J$2)</f>
+        <f>IF(AND(B530&gt;Threshold,B531&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D530" s="14"/>
@@ -15486,7 +15489,7 @@
         <v>4.45</v>
       </c>
       <c r="C531" s="14" t="str">
-        <f>IF(AND(B531&gt;Threshold,B530&gt;B531), $J$1,$J$2)</f>
+        <f>IF(AND(B531&gt;Threshold,B532&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D531" s="14"/>
@@ -15502,7 +15505,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C532" s="14" t="str">
-        <f>IF(AND(B532&gt;Threshold,B531&gt;B532), $J$1,$J$2)</f>
+        <f>IF(AND(B532&gt;Threshold,B533&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D532" s="14"/>
@@ -15518,7 +15521,7 @@
         <v>2.09</v>
       </c>
       <c r="C533" s="14" t="str">
-        <f>IF(AND(B533&gt;Threshold,B532&gt;B533), $J$1,$J$2)</f>
+        <f>IF(AND(B533&gt;Threshold,B534&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D533" s="14"/>
@@ -15534,7 +15537,7 @@
         <v>1.8</v>
       </c>
       <c r="C534" s="14" t="str">
-        <f>IF(AND(B534&gt;Threshold,B533&gt;B534), $J$1,$J$2)</f>
+        <f>IF(AND(B534&gt;Threshold,B535&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D534" s="14"/>
@@ -15550,7 +15553,7 @@
         <v>1.43</v>
       </c>
       <c r="C535" s="14" t="str">
-        <f>IF(AND(B535&gt;Threshold,B534&gt;B535), $J$1,$J$2)</f>
+        <f>IF(AND(B535&gt;Threshold,B536&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D535" s="14"/>
@@ -15566,7 +15569,7 @@
         <v>1.6</v>
       </c>
       <c r="C536" s="14" t="str">
-        <f>IF(AND(B536&gt;Threshold,B535&gt;B536), $J$1,$J$2)</f>
+        <f>IF(AND(B536&gt;Threshold,B537&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D536" s="14"/>
@@ -15582,7 +15585,7 @@
         <v>2.23</v>
       </c>
       <c r="C537" s="14" t="str">
-        <f>IF(AND(B537&gt;Threshold,B536&gt;B537), $J$1,$J$2)</f>
+        <f>IF(AND(B537&gt;Threshold,B538&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D537" s="14"/>
@@ -15598,7 +15601,7 @@
         <v>4.75</v>
       </c>
       <c r="C538" s="14" t="str">
-        <f>IF(AND(B538&gt;Threshold,B537&gt;B538), $J$1,$J$2)</f>
+        <f>IF(AND(B538&gt;Threshold,B539&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D538" s="14"/>
@@ -15614,7 +15617,7 @@
         <v>4.22</v>
       </c>
       <c r="C539" s="14" t="str">
-        <f>IF(AND(B539&gt;Threshold,B538&gt;B539), $J$1,$J$2)</f>
+        <f>IF(AND(B539&gt;Threshold,B540&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D539" s="14"/>
@@ -15630,7 +15633,7 @@
         <v>2.15</v>
       </c>
       <c r="C540" s="14" t="str">
-        <f>IF(AND(B540&gt;Threshold,B539&gt;B540), $J$1,$J$2)</f>
+        <f>IF(AND(B540&gt;Threshold,B541&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D540" s="14"/>
@@ -15646,7 +15649,7 @@
         <v>2.13</v>
       </c>
       <c r="C541" s="14" t="str">
-        <f>IF(AND(B541&gt;Threshold,B540&gt;B541), $J$1,$J$2)</f>
+        <f>IF(AND(B541&gt;Threshold,B542&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D541" s="14"/>
@@ -15662,7 +15665,7 @@
         <v>1.67</v>
       </c>
       <c r="C542" s="14" t="str">
-        <f>IF(AND(B542&gt;Threshold,B541&gt;B542), $J$1,$J$2)</f>
+        <f>IF(AND(B542&gt;Threshold,B543&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D542" s="14"/>
@@ -15678,7 +15681,7 @@
         <v>1.42</v>
       </c>
       <c r="C543" s="14" t="str">
-        <f>IF(AND(B543&gt;Threshold,B542&gt;B543), $J$1,$J$2)</f>
+        <f>IF(AND(B543&gt;Threshold,B544&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D543" s="14"/>
@@ -15694,7 +15697,7 @@
         <v>1.6</v>
       </c>
       <c r="C544" s="14" t="str">
-        <f>IF(AND(B544&gt;Threshold,B543&gt;B544), $J$1,$J$2)</f>
+        <f>IF(AND(B544&gt;Threshold,B545&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D544" s="14"/>
@@ -15710,7 +15713,7 @@
         <v>2.75</v>
       </c>
       <c r="C545" s="14" t="str">
-        <f>IF(AND(B545&gt;Threshold,B544&gt;B545), $J$1,$J$2)</f>
+        <f>IF(AND(B545&gt;Threshold,B546&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D545" s="14"/>
@@ -15726,7 +15729,7 @@
         <v>4.75</v>
       </c>
       <c r="C546" s="14" t="str">
-        <f>IF(AND(B546&gt;Threshold,B545&gt;B546), $J$1,$J$2)</f>
+        <f>IF(AND(B546&gt;Threshold,B547&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D546" s="14"/>
@@ -15742,7 +15745,7 @@
         <v>4.74</v>
       </c>
       <c r="C547" s="14" t="str">
-        <f>IF(AND(B547&gt;Threshold,B546&gt;B547), $J$1,$J$2)</f>
+        <f>IF(AND(B547&gt;Threshold,B548&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D547" s="14"/>
@@ -15758,7 +15761,7 @@
         <v>2.16</v>
       </c>
       <c r="C548" s="14" t="str">
-        <f>IF(AND(B548&gt;Threshold,B547&gt;B548), $J$1,$J$2)</f>
+        <f>IF(AND(B548&gt;Threshold,B549&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D548" s="14"/>
@@ -15774,7 +15777,7 @@
         <v>1.93</v>
       </c>
       <c r="C549" s="14" t="str">
-        <f>IF(AND(B549&gt;Threshold,B548&gt;B549), $J$1,$J$2)</f>
+        <f>IF(AND(B549&gt;Threshold,B550&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D549" s="14"/>
@@ -15790,7 +15793,7 @@
         <v>1.52</v>
       </c>
       <c r="C550" s="14" t="str">
-        <f>IF(AND(B550&gt;Threshold,B549&gt;B550), $J$1,$J$2)</f>
+        <f>IF(AND(B550&gt;Threshold,B551&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D550" s="14"/>
@@ -15806,7 +15809,7 @@
         <v>1.37</v>
       </c>
       <c r="C551" s="14" t="str">
-        <f>IF(AND(B551&gt;Threshold,B550&gt;B551), $J$1,$J$2)</f>
+        <f>IF(AND(B551&gt;Threshold,B552&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D551" s="14"/>
@@ -15822,7 +15825,7 @@
         <v>1.53</v>
       </c>
       <c r="C552" s="14" t="str">
-        <f>IF(AND(B552&gt;Threshold,B551&gt;B552), $J$1,$J$2)</f>
+        <f>IF(AND(B552&gt;Threshold,B553&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D552" s="14"/>
@@ -15838,7 +15841,7 @@
         <v>3.03</v>
       </c>
       <c r="C553" s="14" t="str">
-        <f>IF(AND(B553&gt;Threshold,B552&gt;B553), $J$1,$J$2)</f>
+        <f>IF(AND(B553&gt;Threshold,B554&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D553" s="14"/>
@@ -15854,7 +15857,7 @@
         <v>4.75</v>
       </c>
       <c r="C554" s="14" t="str">
-        <f>IF(AND(B554&gt;Threshold,B553&gt;B554), $J$1,$J$2)</f>
+        <f>IF(AND(B554&gt;Threshold,B555&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D554" s="14"/>
@@ -15870,8 +15873,8 @@
         <v>4.75</v>
       </c>
       <c r="C555" s="14" t="str">
-        <f>IF(AND(B555&gt;Threshold,B554&gt;B555), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B555&gt;Threshold,B556&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D555" s="14"/>
       <c r="F555" s="14"/>
@@ -15886,7 +15889,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C556" s="14" t="str">
-        <f>IF(AND(B556&gt;Threshold,B555&gt;B556), $J$1,$J$2)</f>
+        <f>IF(AND(B556&gt;Threshold,B557&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D556" s="14"/>
@@ -15902,7 +15905,7 @@
         <v>1.83</v>
       </c>
       <c r="C557" s="14" t="str">
-        <f>IF(AND(B557&gt;Threshold,B556&gt;B557), $J$1,$J$2)</f>
+        <f>IF(AND(B557&gt;Threshold,B558&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D557" s="14"/>
@@ -15918,7 +15921,7 @@
         <v>1.45</v>
       </c>
       <c r="C558" s="14" t="str">
-        <f>IF(AND(B558&gt;Threshold,B557&gt;B558), $J$1,$J$2)</f>
+        <f>IF(AND(B558&gt;Threshold,B559&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D558" s="14"/>
@@ -15934,7 +15937,7 @@
         <v>1.42</v>
       </c>
       <c r="C559" s="14" t="str">
-        <f>IF(AND(B559&gt;Threshold,B558&gt;B559), $J$1,$J$2)</f>
+        <f>IF(AND(B559&gt;Threshold,B560&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D559" s="14"/>
@@ -15950,7 +15953,7 @@
         <v>1.54</v>
       </c>
       <c r="C560" s="14" t="str">
-        <f>IF(AND(B560&gt;Threshold,B559&gt;B560), $J$1,$J$2)</f>
+        <f>IF(AND(B560&gt;Threshold,B561&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D560" s="14"/>
@@ -15966,7 +15969,7 @@
         <v>3.78</v>
       </c>
       <c r="C561" s="14" t="str">
-        <f>IF(AND(B561&gt;Threshold,B560&gt;B561), $J$1,$J$2)</f>
+        <f>IF(AND(B561&gt;Threshold,B562&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D561" s="14"/>
@@ -15982,7 +15985,7 @@
         <v>4.75</v>
       </c>
       <c r="C562" s="14" t="str">
-        <f>IF(AND(B562&gt;Threshold,B561&gt;B562), $J$1,$J$2)</f>
+        <f>IF(AND(B562&gt;Threshold,B563&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D562" s="14"/>
@@ -15998,7 +16001,7 @@
         <v>3.83</v>
       </c>
       <c r="C563" s="14" t="str">
-        <f>IF(AND(B563&gt;Threshold,B562&gt;B563), $J$1,$J$2)</f>
+        <f>IF(AND(B563&gt;Threshold,B564&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D563" s="14"/>
@@ -16014,7 +16017,7 @@
         <v>1.89</v>
       </c>
       <c r="C564" s="14" t="str">
-        <f>IF(AND(B564&gt;Threshold,B563&gt;B564), $J$1,$J$2)</f>
+        <f>IF(AND(B564&gt;Threshold,B565&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D564" s="14"/>
@@ -16030,7 +16033,7 @@
         <v>1.71</v>
       </c>
       <c r="C565" s="14" t="str">
-        <f>IF(AND(B565&gt;Threshold,B564&gt;B565), $J$1,$J$2)</f>
+        <f>IF(AND(B565&gt;Threshold,B566&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D565" s="14"/>
@@ -16046,7 +16049,7 @@
         <v>1.36</v>
       </c>
       <c r="C566" s="14" t="str">
-        <f>IF(AND(B566&gt;Threshold,B565&gt;B566), $J$1,$J$2)</f>
+        <f>IF(AND(B566&gt;Threshold,B567&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D566" s="14"/>
@@ -16062,7 +16065,7 @@
         <v>1.44</v>
       </c>
       <c r="C567" s="14" t="str">
-        <f>IF(AND(B567&gt;Threshold,B566&gt;B567), $J$1,$J$2)</f>
+        <f>IF(AND(B567&gt;Threshold,B568&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D567" s="14"/>
@@ -16078,7 +16081,7 @@
         <v>1.48</v>
       </c>
       <c r="C568" s="14" t="str">
-        <f>IF(AND(B568&gt;Threshold,B567&gt;B568), $J$1,$J$2)</f>
+        <f>IF(AND(B568&gt;Threshold,B569&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D568" s="14"/>
@@ -16094,7 +16097,7 @@
         <v>4.75</v>
       </c>
       <c r="C569" s="14" t="str">
-        <f>IF(AND(B569&gt;Threshold,B568&gt;B569), $J$1,$J$2)</f>
+        <f>IF(AND(B569&gt;Threshold,B570&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D569" s="14"/>
@@ -16110,8 +16113,8 @@
         <v>4.75</v>
       </c>
       <c r="C570" s="14" t="str">
-        <f>IF(AND(B570&gt;Threshold,B569&gt;B570), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B570&gt;Threshold,B571&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D570" s="14"/>
       <c r="F570" s="14"/>
@@ -16126,7 +16129,7 @@
         <v>2.85</v>
       </c>
       <c r="C571" s="14" t="str">
-        <f>IF(AND(B571&gt;Threshold,B570&gt;B571), $J$1,$J$2)</f>
+        <f>IF(AND(B571&gt;Threshold,B572&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D571" s="14"/>
@@ -16142,7 +16145,7 @@
         <v>1.71</v>
       </c>
       <c r="C572" s="14" t="str">
-        <f>IF(AND(B572&gt;Threshold,B571&gt;B572), $J$1,$J$2)</f>
+        <f>IF(AND(B572&gt;Threshold,B573&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D572" s="14"/>
@@ -16161,7 +16164,7 @@
         <v>1.54</v>
       </c>
       <c r="C573" s="14" t="str">
-        <f>IF(AND(B573&gt;Threshold,B572&gt;B573), $J$1,$J$2)</f>
+        <f>IF(AND(B573&gt;Threshold,B574&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D573" s="14"/>
@@ -16177,7 +16180,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C574" s="14" t="str">
-        <f>IF(AND(B574&gt;Threshold,B573&gt;B574), $J$1,$J$2)</f>
+        <f>IF(AND(B574&gt;Threshold,B575&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D574" s="14"/>
@@ -16193,7 +16196,7 @@
         <v>1.55</v>
       </c>
       <c r="C575" s="14" t="str">
-        <f>IF(AND(B575&gt;Threshold,B574&gt;B575), $J$1,$J$2)</f>
+        <f>IF(AND(B575&gt;Threshold,B576&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D575" s="14"/>
@@ -16209,7 +16212,7 @@
         <v>1.77</v>
       </c>
       <c r="C576" s="14" t="str">
-        <f>IF(AND(B576&gt;Threshold,B575&gt;B576), $J$1,$J$2)</f>
+        <f>IF(AND(B576&gt;Threshold,B577&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D576" s="14"/>
@@ -16225,7 +16228,7 @@
         <v>4.75</v>
       </c>
       <c r="C577" s="14" t="str">
-        <f>IF(AND(B577&gt;Threshold,B576&gt;B577), $J$1,$J$2)</f>
+        <f>IF(AND(B577&gt;Threshold,B578&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D577" s="14"/>
@@ -16241,8 +16244,8 @@
         <v>4.75</v>
       </c>
       <c r="C578" s="14" t="str">
-        <f>IF(AND(B578&gt;Threshold,B577&gt;B578), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B578&gt;Threshold,B579&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D578" s="14"/>
       <c r="F578" s="14"/>
@@ -16257,7 +16260,7 @@
         <v>2.44</v>
       </c>
       <c r="C579" s="14" t="str">
-        <f>IF(AND(B579&gt;Threshold,B578&gt;B579), $J$1,$J$2)</f>
+        <f>IF(AND(B579&gt;Threshold,B580&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D579" s="14"/>
@@ -16273,7 +16276,7 @@
         <v>1.67</v>
       </c>
       <c r="C580" s="14" t="str">
-        <f>IF(AND(B580&gt;Threshold,B579&gt;B580), $J$1,$J$2)</f>
+        <f>IF(AND(B580&gt;Threshold,B581&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D580" s="14"/>
@@ -16289,7 +16292,7 @@
         <v>1.45</v>
       </c>
       <c r="C581" s="14" t="str">
-        <f>IF(AND(B581&gt;Threshold,B580&gt;B581), $J$1,$J$2)</f>
+        <f>IF(AND(B581&gt;Threshold,B582&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D581" s="14"/>
@@ -16305,7 +16308,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C582" s="14" t="str">
-        <f>IF(AND(B582&gt;Threshold,B581&gt;B582), $J$1,$J$2)</f>
+        <f>IF(AND(B582&gt;Threshold,B583&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D582" s="14"/>
@@ -16321,7 +16324,7 @@
         <v>1.42</v>
       </c>
       <c r="C583" s="14" t="str">
-        <f>IF(AND(B583&gt;Threshold,B582&gt;B583), $J$1,$J$2)</f>
+        <f>IF(AND(B583&gt;Threshold,B584&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D583" s="14"/>
@@ -16337,7 +16340,7 @@
         <v>1.92</v>
       </c>
       <c r="C584" s="14" t="str">
-        <f>IF(AND(B584&gt;Threshold,B583&gt;B584), $J$1,$J$2)</f>
+        <f>IF(AND(B584&gt;Threshold,B585&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D584" s="14"/>
@@ -16353,7 +16356,7 @@
         <v>4.75</v>
       </c>
       <c r="C585" s="14" t="str">
-        <f>IF(AND(B585&gt;Threshold,B584&gt;B585), $J$1,$J$2)</f>
+        <f>IF(AND(B585&gt;Threshold,B586&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D585" s="14"/>
@@ -16369,8 +16372,8 @@
         <v>4.75</v>
       </c>
       <c r="C586" s="14" t="str">
-        <f>IF(AND(B586&gt;Threshold,B585&gt;B586), $J$1,$J$2)</f>
-        <v>Not</v>
+        <f>IF(AND(B586&gt;Threshold,B587&lt;Threshold), $J$1,$J$2)</f>
+        <v>Beat</v>
       </c>
       <c r="D586" s="14"/>
       <c r="F586" s="14"/>
@@ -16385,7 +16388,7 @@
         <v>2.16</v>
       </c>
       <c r="C587" s="14" t="str">
-        <f>IF(AND(B587&gt;Threshold,B586&gt;B587), $J$1,$J$2)</f>
+        <f>IF(AND(B587&gt;Threshold,B588&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D587" s="14"/>
@@ -16401,7 +16404,7 @@
         <v>2.13</v>
       </c>
       <c r="C588" s="14" t="str">
-        <f>IF(AND(B588&gt;Threshold,B587&gt;B588), $J$1,$J$2)</f>
+        <f>IF(AND(B588&gt;Threshold,B589&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D588" s="14"/>
@@ -16417,7 +16420,7 @@
         <v>1.67</v>
       </c>
       <c r="C589" s="14" t="str">
-        <f>IF(AND(B589&gt;Threshold,B588&gt;B589), $J$1,$J$2)</f>
+        <f>IF(AND(B589&gt;Threshold,B590&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D589" s="14"/>
@@ -16433,7 +16436,7 @@
         <v>1.42</v>
       </c>
       <c r="C590" s="14" t="str">
-        <f>IF(AND(B590&gt;Threshold,B589&gt;B590), $J$1,$J$2)</f>
+        <f>IF(AND(B590&gt;Threshold,B591&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D590" s="14"/>
@@ -16449,7 +16452,7 @@
         <v>1.6</v>
       </c>
       <c r="C591" s="14" t="str">
-        <f>IF(AND(B591&gt;Threshold,B590&gt;B591), $J$1,$J$2)</f>
+        <f>IF(AND(B591&gt;Threshold,B592&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D591" s="14"/>
@@ -16465,7 +16468,7 @@
         <v>2.75</v>
       </c>
       <c r="C592" s="14" t="str">
-        <f>IF(AND(B592&gt;Threshold,B591&gt;B592), $J$1,$J$2)</f>
+        <f>IF(AND(B592&gt;Threshold,B593&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D592" s="14"/>
@@ -16481,7 +16484,7 @@
         <v>4.75</v>
       </c>
       <c r="C593" s="14" t="str">
-        <f>IF(AND(B593&gt;Threshold,B592&gt;B593), $J$1,$J$2)</f>
+        <f>IF(AND(B593&gt;Threshold,B594&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D593" s="14"/>
@@ -16497,7 +16500,7 @@
         <v>4.74</v>
       </c>
       <c r="C594" s="14" t="str">
-        <f>IF(AND(B594&gt;Threshold,B593&gt;B594), $J$1,$J$2)</f>
+        <f>IF(AND(B594&gt;Threshold,B595&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D594" s="14"/>
@@ -16513,7 +16516,7 @@
         <v>2.16</v>
       </c>
       <c r="C595" s="14" t="str">
-        <f>IF(AND(B595&gt;Threshold,B594&gt;B595), $J$1,$J$2)</f>
+        <f>IF(AND(B595&gt;Threshold,B596&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D595" s="14"/>
@@ -16529,7 +16532,7 @@
         <v>1.67</v>
       </c>
       <c r="C596" s="14" t="str">
-        <f>IF(AND(B596&gt;Threshold,B595&gt;B596), $J$1,$J$2)</f>
+        <f>IF(AND(B596&gt;Threshold,B597&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D596" s="14"/>
@@ -16545,7 +16548,7 @@
         <v>1.45</v>
       </c>
       <c r="C597" s="14" t="str">
-        <f>IF(AND(B597&gt;Threshold,B596&gt;B597), $J$1,$J$2)</f>
+        <f>IF(AND(B597&gt;Threshold,B598&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D597" s="14"/>
@@ -16561,7 +16564,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C598" s="14" t="str">
-        <f>IF(AND(B598&gt;Threshold,B597&gt;B598), $J$1,$J$2)</f>
+        <f>IF(AND(B598&gt;Threshold,B599&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D598" s="14"/>
@@ -16577,7 +16580,7 @@
         <v>1.42</v>
       </c>
       <c r="C599" s="14" t="str">
-        <f>IF(AND(B599&gt;Threshold,B598&gt;B599), $J$1,$J$2)</f>
+        <f>IF(AND(B599&gt;Threshold,B600&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D599" s="14"/>
@@ -16593,7 +16596,7 @@
         <v>1.92</v>
       </c>
       <c r="C600" s="14" t="str">
-        <f>IF(AND(B600&gt;Threshold,B599&gt;B600), $J$1,$J$2)</f>
+        <f>IF(AND(B600&gt;Threshold,B601&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D600" s="14"/>
@@ -16609,7 +16612,7 @@
         <v>4.75</v>
       </c>
       <c r="C601" s="14" t="str">
-        <f>IF(AND(B601&gt;Threshold,B600&gt;B601), $J$1,$J$2)</f>
+        <f>IF(AND(B601&gt;Threshold,ISBLANK(B602&lt;Threshold)), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D601" s="14"/>

--- a/self_paced/ENGG1811_spreadsheet_lab.xlsx
+++ b/self_paced/ENGG1811_spreadsheet_lab.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - UNSW\Coding\engg1811\self_paced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CF5E8-E379-49F1-AE12-E9614420EE2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6955FF9-0533-43B8-B64A-9217D6EED8EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BirMjOQMnRt0KxuAAnBaaNQvLMsoGXJvrJbFT7I81+zjMojhy19GMe3Wk051hPaoo5SEox3Nw6bC8OjQEPsLaA==" workbookSaltValue="8hp2Wgrb2RjZOU6UgYOjqQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4333353-DF9F-F147-AC41-CE4ED384F43B}"/>
+    <workbookView minimized="1" xWindow="30060" yWindow="3840" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F4333353-DF9F-F147-AC41-CE4ED384F43B}"/>
   </bookViews>
   <sheets>
     <sheet name="Freefall" sheetId="1" r:id="rId1"/>
@@ -7050,7 +7050,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>IF(AND(B4&gt;Threshold,B5&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C4:C67" si="0">IF(AND(B4&gt;Threshold,B5&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D4" s="14"/>
@@ -7073,7 +7073,7 @@
         <v>1.83</v>
       </c>
       <c r="C5" s="14" t="str">
-        <f>IF(AND(B5&gt;Threshold,B6&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D5" s="14"/>
@@ -7089,7 +7089,7 @@
         <v>1.62</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>IF(AND(B6&gt;Threshold,B7&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D6" s="14"/>
@@ -7105,7 +7105,7 @@
         <v>1.74</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>IF(AND(B7&gt;Threshold,B8&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D7" s="14"/>
@@ -7121,7 +7121,7 @@
         <v>1.78</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>IF(AND(B8&gt;Threshold,B9&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D8" s="14"/>
@@ -7137,7 +7137,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>IF(AND(B9&gt;Threshold,B10&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D9" s="14"/>
@@ -7153,7 +7153,7 @@
         <v>4.26</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f>IF(AND(B10&gt;Threshold,B11&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D10" s="14"/>
@@ -7169,7 +7169,7 @@
         <v>2.52</v>
       </c>
       <c r="C11" s="14" t="str">
-        <f>IF(AND(B11&gt;Threshold,B12&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D11" s="14"/>
@@ -7185,7 +7185,7 @@
         <v>2.29</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>IF(AND(B12&gt;Threshold,B13&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D12" s="14"/>
@@ -7201,7 +7201,7 @@
         <v>2.04</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>IF(AND(B13&gt;Threshold,B14&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D13" s="14"/>
@@ -7217,7 +7217,7 @@
         <v>1.72</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>IF(AND(B14&gt;Threshold,B15&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D14" s="14"/>
@@ -7233,7 +7233,7 @@
         <v>1.75</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>IF(AND(B15&gt;Threshold,B16&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D15" s="14"/>
@@ -7249,7 +7249,7 @@
         <v>1.74</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>IF(AND(B16&gt;Threshold,B17&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D16" s="14"/>
@@ -7265,7 +7265,7 @@
         <v>3.46</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>IF(AND(B17&gt;Threshold,B18&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D17" s="14"/>
@@ -7281,7 +7281,7 @@
         <v>4.26</v>
       </c>
       <c r="C18" s="14" t="str">
-        <f>IF(AND(B18&gt;Threshold,B19&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D18" s="14"/>
@@ -7297,7 +7297,7 @@
         <v>2.62</v>
       </c>
       <c r="C19" s="14" t="str">
-        <f>IF(AND(B19&gt;Threshold,B20&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D19" s="14"/>
@@ -7313,7 +7313,7 @@
         <v>2.13</v>
       </c>
       <c r="C20" s="14" t="str">
-        <f>IF(AND(B20&gt;Threshold,B21&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D20" s="14"/>
@@ -7329,7 +7329,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C21" s="14" t="str">
-        <f>IF(AND(B21&gt;Threshold,B22&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D21" s="14"/>
@@ -7345,7 +7345,7 @@
         <v>1.77</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>IF(AND(B22&gt;Threshold,B23&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D22" s="14"/>
@@ -7361,7 +7361,7 @@
         <v>1.64</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>IF(AND(B23&gt;Threshold,B24&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D23" s="14"/>
@@ -7377,7 +7377,7 @@
         <v>1.8</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>IF(AND(B24&gt;Threshold,B25&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D24" s="14"/>
@@ -7393,7 +7393,7 @@
         <v>3.18</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>IF(AND(B25&gt;Threshold,B26&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D25" s="14"/>
@@ -7409,7 +7409,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C26" s="14" t="str">
-        <f>IF(AND(B26&gt;Threshold,B27&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D26" s="14"/>
@@ -7425,7 +7425,7 @@
         <v>2.71</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>IF(AND(B27&gt;Threshold,B28&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D27" s="14"/>
@@ -7441,7 +7441,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C28" s="14" t="str">
-        <f>IF(AND(B28&gt;Threshold,B29&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D28" s="14"/>
@@ -7457,7 +7457,7 @@
         <v>2.13</v>
       </c>
       <c r="C29" s="14" t="str">
-        <f>IF(AND(B29&gt;Threshold,B30&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D29" s="14"/>
@@ -7473,7 +7473,7 @@
         <v>1.81</v>
       </c>
       <c r="C30" s="14" t="str">
-        <f>IF(AND(B30&gt;Threshold,B31&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D30" s="14"/>
@@ -7489,7 +7489,7 @@
         <v>1.52</v>
       </c>
       <c r="C31" s="14" t="str">
-        <f>IF(AND(B31&gt;Threshold,B32&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D31" s="14"/>
@@ -7505,7 +7505,7 @@
         <v>1.78</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>IF(AND(B32&gt;Threshold,B33&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D32" s="14"/>
@@ -7521,7 +7521,7 @@
         <v>3.09</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>IF(AND(B33&gt;Threshold,B34&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D33" s="14"/>
@@ -7537,7 +7537,7 @@
         <v>4.43</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>IF(AND(B34&gt;Threshold,B35&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D34" s="14"/>
@@ -7553,7 +7553,7 @@
         <v>2.99</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>IF(AND(B35&gt;Threshold,B36&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D35" s="14"/>
@@ -7569,7 +7569,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>IF(AND(B36&gt;Threshold,B37&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D36" s="14"/>
@@ -7585,7 +7585,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>IF(AND(B37&gt;Threshold,B38&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D37" s="14"/>
@@ -7601,7 +7601,7 @@
         <v>1.8</v>
       </c>
       <c r="C38" s="14" t="str">
-        <f>IF(AND(B38&gt;Threshold,B39&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D38" s="14"/>
@@ -7617,7 +7617,7 @@
         <v>1.64</v>
       </c>
       <c r="C39" s="14" t="str">
-        <f>IF(AND(B39&gt;Threshold,B40&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D39" s="14"/>
@@ -7633,7 +7633,7 @@
         <v>1.68</v>
       </c>
       <c r="C40" s="14" t="str">
-        <f>IF(AND(B40&gt;Threshold,B41&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D40" s="14"/>
@@ -7649,7 +7649,7 @@
         <v>3.03</v>
       </c>
       <c r="C41" s="14" t="str">
-        <f>IF(AND(B41&gt;Threshold,B42&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D41" s="14"/>
@@ -7665,7 +7665,7 @@
         <v>4.58</v>
       </c>
       <c r="C42" s="14" t="str">
-        <f>IF(AND(B42&gt;Threshold,B43&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D42" s="14"/>
@@ -7681,7 +7681,7 @@
         <v>2.99</v>
       </c>
       <c r="C43" s="14" t="str">
-        <f>IF(AND(B43&gt;Threshold,B44&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D43" s="14"/>
@@ -7697,7 +7697,7 @@
         <v>2.15</v>
       </c>
       <c r="C44" s="14" t="str">
-        <f>IF(AND(B44&gt;Threshold,B45&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D44" s="14"/>
@@ -7713,7 +7713,7 @@
         <v>2.16</v>
       </c>
       <c r="C45" s="14" t="str">
-        <f>IF(AND(B45&gt;Threshold,B46&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D45" s="14"/>
@@ -7729,7 +7729,7 @@
         <v>1.87</v>
       </c>
       <c r="C46" s="14" t="str">
-        <f>IF(AND(B46&gt;Threshold,B47&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D46" s="14"/>
@@ -7745,7 +7745,7 @@
         <v>1.63</v>
       </c>
       <c r="C47" s="14" t="str">
-        <f>IF(AND(B47&gt;Threshold,B48&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D47" s="14"/>
@@ -7761,7 +7761,7 @@
         <v>1.76</v>
       </c>
       <c r="C48" s="14" t="str">
-        <f>IF(AND(B48&gt;Threshold,B49&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D48" s="14"/>
@@ -7777,7 +7777,7 @@
         <v>2.6</v>
       </c>
       <c r="C49" s="14" t="str">
-        <f>IF(AND(B49&gt;Threshold,B50&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D49" s="14"/>
@@ -7793,7 +7793,7 @@
         <v>4.63</v>
       </c>
       <c r="C50" s="14" t="str">
-        <f>IF(AND(B50&gt;Threshold,B51&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D50" s="14"/>
@@ -7809,7 +7809,7 @@
         <v>3.53</v>
       </c>
       <c r="C51" s="14" t="str">
-        <f>IF(AND(B51&gt;Threshold,B52&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D51" s="14"/>
@@ -7825,7 +7825,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C52" s="14" t="str">
-        <f>IF(AND(B52&gt;Threshold,B53&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D52" s="14"/>
@@ -7841,7 +7841,7 @@
         <v>2.29</v>
       </c>
       <c r="C53" s="14" t="str">
-        <f>IF(AND(B53&gt;Threshold,B54&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D53" s="14"/>
@@ -7857,7 +7857,7 @@
         <v>1.73</v>
       </c>
       <c r="C54" s="14" t="str">
-        <f>IF(AND(B54&gt;Threshold,B55&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D54" s="14"/>
@@ -7873,7 +7873,7 @@
         <v>1.66</v>
       </c>
       <c r="C55" s="14" t="str">
-        <f>IF(AND(B55&gt;Threshold,B56&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D55" s="14"/>
@@ -7889,7 +7889,7 @@
         <v>1.76</v>
       </c>
       <c r="C56" s="14" t="str">
-        <f>IF(AND(B56&gt;Threshold,B57&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D56" s="14"/>
@@ -7905,7 +7905,7 @@
         <v>2.42</v>
       </c>
       <c r="C57" s="14" t="str">
-        <f>IF(AND(B57&gt;Threshold,B58&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D57" s="14"/>
@@ -7921,7 +7921,7 @@
         <v>4.57</v>
       </c>
       <c r="C58" s="14" t="str">
-        <f>IF(AND(B58&gt;Threshold,B59&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D58" s="14"/>
@@ -7937,7 +7937,7 @@
         <v>3.33</v>
       </c>
       <c r="C59" s="14" t="str">
-        <f>IF(AND(B59&gt;Threshold,B60&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D59" s="14"/>
@@ -7953,7 +7953,7 @@
         <v>2.16</v>
       </c>
       <c r="C60" s="14" t="str">
-        <f>IF(AND(B60&gt;Threshold,B61&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D60" s="14"/>
@@ -7969,7 +7969,7 @@
         <v>2.12</v>
       </c>
       <c r="C61" s="14" t="str">
-        <f>IF(AND(B61&gt;Threshold,B62&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D61" s="14"/>
@@ -7985,7 +7985,7 @@
         <v>1.76</v>
       </c>
       <c r="C62" s="14" t="str">
-        <f>IF(AND(B62&gt;Threshold,B63&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D62" s="14"/>
@@ -8001,7 +8001,7 @@
         <v>1.65</v>
       </c>
       <c r="C63" s="14" t="str">
-        <f>IF(AND(B63&gt;Threshold,B64&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D63" s="14"/>
@@ -8017,7 +8017,7 @@
         <v>1.75</v>
       </c>
       <c r="C64" s="14" t="str">
-        <f>IF(AND(B64&gt;Threshold,B65&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D64" s="14"/>
@@ -8033,7 +8033,7 @@
         <v>2.57</v>
       </c>
       <c r="C65" s="14" t="str">
-        <f>IF(AND(B65&gt;Threshold,B66&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D65" s="14"/>
@@ -8049,7 +8049,7 @@
         <v>4.62</v>
       </c>
       <c r="C66" s="14" t="str">
-        <f>IF(AND(B66&gt;Threshold,B67&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Not</v>
       </c>
       <c r="D66" s="14"/>
@@ -8065,7 +8065,7 @@
         <v>3.18</v>
       </c>
       <c r="C67" s="14" t="str">
-        <f>IF(AND(B67&gt;Threshold,B68&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="0"/>
         <v>Beat</v>
       </c>
       <c r="D67" s="14"/>
@@ -8081,7 +8081,7 @@
         <v>2.14</v>
       </c>
       <c r="C68" s="14" t="str">
-        <f>IF(AND(B68&gt;Threshold,B69&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C68:C131" si="1">IF(AND(B68&gt;Threshold,B69&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D68" s="14"/>
@@ -8097,7 +8097,7 @@
         <v>2.14</v>
       </c>
       <c r="C69" s="14" t="str">
-        <f>IF(AND(B69&gt;Threshold,B70&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D69" s="14"/>
@@ -8113,7 +8113,7 @@
         <v>1.7</v>
       </c>
       <c r="C70" s="14" t="str">
-        <f>IF(AND(B70&gt;Threshold,B71&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D70" s="14"/>
@@ -8129,7 +8129,7 @@
         <v>1.58</v>
       </c>
       <c r="C71" s="14" t="str">
-        <f>IF(AND(B71&gt;Threshold,B72&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D71" s="14"/>
@@ -8145,7 +8145,7 @@
         <v>1.71</v>
       </c>
       <c r="C72" s="14" t="str">
-        <f>IF(AND(B72&gt;Threshold,B73&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D72" s="14"/>
@@ -8161,7 +8161,7 @@
         <v>2.39</v>
       </c>
       <c r="C73" s="14" t="str">
-        <f>IF(AND(B73&gt;Threshold,B74&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D73" s="14"/>
@@ -8177,7 +8177,7 @@
         <v>4.37</v>
       </c>
       <c r="C74" s="14" t="str">
-        <f>IF(AND(B74&gt;Threshold,B75&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D74" s="14"/>
@@ -8193,7 +8193,7 @@
         <v>2.99</v>
       </c>
       <c r="C75" s="14" t="str">
-        <f>IF(AND(B75&gt;Threshold,B76&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D75" s="14"/>
@@ -8209,7 +8209,7 @@
         <v>1.88</v>
       </c>
       <c r="C76" s="14" t="str">
-        <f>IF(AND(B76&gt;Threshold,B77&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D76" s="14"/>
@@ -8225,7 +8225,7 @@
         <v>1.88</v>
       </c>
       <c r="C77" s="14" t="str">
-        <f>IF(AND(B77&gt;Threshold,B78&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D77" s="14"/>
@@ -8241,7 +8241,7 @@
         <v>1.63</v>
       </c>
       <c r="C78" s="14" t="str">
-        <f>IF(AND(B78&gt;Threshold,B79&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D78" s="14"/>
@@ -8257,7 +8257,7 @@
         <v>1.58</v>
       </c>
       <c r="C79" s="14" t="str">
-        <f>IF(AND(B79&gt;Threshold,B80&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D79" s="14"/>
@@ -8273,7 +8273,7 @@
         <v>1.55</v>
       </c>
       <c r="C80" s="14" t="str">
-        <f>IF(AND(B80&gt;Threshold,B81&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D80" s="14"/>
@@ -8289,7 +8289,7 @@
         <v>1.82</v>
       </c>
       <c r="C81" s="14" t="str">
-        <f>IF(AND(B81&gt;Threshold,B82&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D81" s="14"/>
@@ -8305,7 +8305,7 @@
         <v>3.76</v>
       </c>
       <c r="C82" s="14" t="str">
-        <f>IF(AND(B82&gt;Threshold,B83&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D82" s="14"/>
@@ -8321,7 +8321,7 @@
         <v>3.09</v>
       </c>
       <c r="C83" s="14" t="str">
-        <f>IF(AND(B83&gt;Threshold,B84&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D83" s="14"/>
@@ -8337,7 +8337,7 @@
         <v>2.09</v>
       </c>
       <c r="C84" s="14" t="str">
-        <f>IF(AND(B84&gt;Threshold,B85&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D84" s="14"/>
@@ -8353,7 +8353,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C85" s="14" t="str">
-        <f>IF(AND(B85&gt;Threshold,B86&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D85" s="14"/>
@@ -8369,7 +8369,7 @@
         <v>1.87</v>
       </c>
       <c r="C86" s="14" t="str">
-        <f>IF(AND(B86&gt;Threshold,B87&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D86" s="14"/>
@@ -8385,7 +8385,7 @@
         <v>1.66</v>
       </c>
       <c r="C87" s="14" t="str">
-        <f>IF(AND(B87&gt;Threshold,B88&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D87" s="14"/>
@@ -8401,7 +8401,7 @@
         <v>1.79</v>
       </c>
       <c r="C88" s="14" t="str">
-        <f>IF(AND(B88&gt;Threshold,B89&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D88" s="14"/>
@@ -8417,7 +8417,7 @@
         <v>1.86</v>
       </c>
       <c r="C89" s="14" t="str">
-        <f>IF(AND(B89&gt;Threshold,B90&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D89" s="14"/>
@@ -8433,7 +8433,7 @@
         <v>3.33</v>
       </c>
       <c r="C90" s="14" t="str">
-        <f>IF(AND(B90&gt;Threshold,B91&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D90" s="14"/>
@@ -8449,7 +8449,7 @@
         <v>3.73</v>
       </c>
       <c r="C91" s="14" t="str">
-        <f>IF(AND(B91&gt;Threshold,B92&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D91" s="14"/>
@@ -8465,7 +8465,7 @@
         <v>2.48</v>
       </c>
       <c r="C92" s="14" t="str">
-        <f>IF(AND(B92&gt;Threshold,B93&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D92" s="14"/>
@@ -8481,7 +8481,7 @@
         <v>2.23</v>
       </c>
       <c r="C93" s="14" t="str">
-        <f>IF(AND(B93&gt;Threshold,B94&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D93" s="14"/>
@@ -8497,7 +8497,7 @@
         <v>2.11</v>
       </c>
       <c r="C94" s="14" t="str">
-        <f>IF(AND(B94&gt;Threshold,B95&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D94" s="14"/>
@@ -8513,7 +8513,7 @@
         <v>1.85</v>
       </c>
       <c r="C95" s="14" t="str">
-        <f>IF(AND(B95&gt;Threshold,B96&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D95" s="14"/>
@@ -8529,7 +8529,7 @@
         <v>1.9</v>
       </c>
       <c r="C96" s="14" t="str">
-        <f>IF(AND(B96&gt;Threshold,B97&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D96" s="14"/>
@@ -8545,7 +8545,7 @@
         <v>1.9</v>
       </c>
       <c r="C97" s="14" t="str">
-        <f>IF(AND(B97&gt;Threshold,B98&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D97" s="14"/>
@@ -8561,7 +8561,7 @@
         <v>2.89</v>
       </c>
       <c r="C98" s="14" t="str">
-        <f>IF(AND(B98&gt;Threshold,B99&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D98" s="14"/>
@@ -8577,7 +8577,7 @@
         <v>3.87</v>
       </c>
       <c r="C99" s="14" t="str">
-        <f>IF(AND(B99&gt;Threshold,B100&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D99" s="14"/>
@@ -8593,7 +8593,7 @@
         <v>2.56</v>
       </c>
       <c r="C100" s="14" t="str">
-        <f>IF(AND(B100&gt;Threshold,B101&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D100" s="14"/>
@@ -8609,7 +8609,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C101" s="14" t="str">
-        <f>IF(AND(B101&gt;Threshold,B102&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D101" s="14"/>
@@ -8625,7 +8625,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C102" s="14" t="str">
-        <f>IF(AND(B102&gt;Threshold,B103&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D102" s="14"/>
@@ -8641,7 +8641,7 @@
         <v>1.87</v>
       </c>
       <c r="C103" s="14" t="str">
-        <f>IF(AND(B103&gt;Threshold,B104&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D103" s="14"/>
@@ -8657,7 +8657,7 @@
         <v>1.86</v>
       </c>
       <c r="C104" s="14" t="str">
-        <f>IF(AND(B104&gt;Threshold,B105&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D104" s="14"/>
@@ -8673,7 +8673,7 @@
         <v>1.88</v>
       </c>
       <c r="C105" s="14" t="str">
-        <f>IF(AND(B105&gt;Threshold,B106&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D105" s="14"/>
@@ -8689,7 +8689,7 @@
         <v>2.74</v>
       </c>
       <c r="C106" s="14" t="str">
-        <f>IF(AND(B106&gt;Threshold,B107&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D106" s="14"/>
@@ -8705,7 +8705,7 @@
         <v>3.94</v>
       </c>
       <c r="C107" s="14" t="str">
-        <f>IF(AND(B107&gt;Threshold,B108&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D107" s="14"/>
@@ -8721,7 +8721,7 @@
         <v>2.66</v>
       </c>
       <c r="C108" s="14" t="str">
-        <f>IF(AND(B108&gt;Threshold,B109&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D108" s="14"/>
@@ -8737,7 +8737,7 @@
         <v>2.21</v>
       </c>
       <c r="C109" s="14" t="str">
-        <f>IF(AND(B109&gt;Threshold,B110&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D109" s="14"/>
@@ -8753,7 +8753,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C110" s="14" t="str">
-        <f>IF(AND(B110&gt;Threshold,B111&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D110" s="14"/>
@@ -8769,7 +8769,7 @@
         <v>1.92</v>
       </c>
       <c r="C111" s="14" t="str">
-        <f>IF(AND(B111&gt;Threshold,B112&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D111" s="14"/>
@@ -8785,7 +8785,7 @@
         <v>1.82</v>
       </c>
       <c r="C112" s="14" t="str">
-        <f>IF(AND(B112&gt;Threshold,B113&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D112" s="14"/>
@@ -8801,7 +8801,7 @@
         <v>1.91</v>
       </c>
       <c r="C113" s="14" t="str">
-        <f>IF(AND(B113&gt;Threshold,B114&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D113" s="14"/>
@@ -8817,7 +8817,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C114" s="14" t="str">
-        <f>IF(AND(B114&gt;Threshold,B115&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D114" s="14"/>
@@ -8833,7 +8833,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C115" s="14" t="str">
-        <f>IF(AND(B115&gt;Threshold,B116&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D115" s="14"/>
@@ -8849,7 +8849,7 @@
         <v>2.95</v>
       </c>
       <c r="C116" s="14" t="str">
-        <f>IF(AND(B116&gt;Threshold,B117&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D116" s="14"/>
@@ -8865,7 +8865,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C117" s="14" t="str">
-        <f>IF(AND(B117&gt;Threshold,B118&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D117" s="14"/>
@@ -8881,7 +8881,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C118" s="14" t="str">
-        <f>IF(AND(B118&gt;Threshold,B119&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D118" s="14"/>
@@ -8897,7 +8897,7 @@
         <v>1.97</v>
       </c>
       <c r="C119" s="14" t="str">
-        <f>IF(AND(B119&gt;Threshold,B120&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D119" s="14"/>
@@ -8913,7 +8913,7 @@
         <v>1.91</v>
       </c>
       <c r="C120" s="14" t="str">
-        <f>IF(AND(B120&gt;Threshold,B121&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D120" s="14"/>
@@ -8929,7 +8929,7 @@
         <v>1.93</v>
       </c>
       <c r="C121" s="14" t="str">
-        <f>IF(AND(B121&gt;Threshold,B122&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D121" s="14"/>
@@ -8945,7 +8945,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C122" s="14" t="str">
-        <f>IF(AND(B122&gt;Threshold,B123&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D122" s="14"/>
@@ -8961,7 +8961,7 @@
         <v>3.97</v>
       </c>
       <c r="C123" s="14" t="str">
-        <f>IF(AND(B123&gt;Threshold,B124&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D123" s="14"/>
@@ -8977,7 +8977,7 @@
         <v>3.01</v>
       </c>
       <c r="C124" s="14" t="str">
-        <f>IF(AND(B124&gt;Threshold,B125&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Beat</v>
       </c>
       <c r="D124" s="14"/>
@@ -8993,7 +8993,7 @@
         <v>2.31</v>
       </c>
       <c r="C125" s="14" t="str">
-        <f>IF(AND(B125&gt;Threshold,B126&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D125" s="14"/>
@@ -9009,7 +9009,7 @@
         <v>2.23</v>
       </c>
       <c r="C126" s="14" t="str">
-        <f>IF(AND(B126&gt;Threshold,B127&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D126" s="14"/>
@@ -9025,7 +9025,7 @@
         <v>2.12</v>
       </c>
       <c r="C127" s="14" t="str">
-        <f>IF(AND(B127&gt;Threshold,B128&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D127" s="14"/>
@@ -9041,7 +9041,7 @@
         <v>1.86</v>
       </c>
       <c r="C128" s="14" t="str">
-        <f>IF(AND(B128&gt;Threshold,B129&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D128" s="14"/>
@@ -9057,7 +9057,7 @@
         <v>1.94</v>
       </c>
       <c r="C129" s="14" t="str">
-        <f>IF(AND(B129&gt;Threshold,B130&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D129" s="14"/>
@@ -9073,7 +9073,7 @@
         <v>2.16</v>
       </c>
       <c r="C130" s="14" t="str">
-        <f>IF(AND(B130&gt;Threshold,B131&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D130" s="14"/>
@@ -9089,7 +9089,7 @@
         <v>3.94</v>
       </c>
       <c r="C131" s="14" t="str">
-        <f>IF(AND(B131&gt;Threshold,B132&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="1"/>
         <v>Not</v>
       </c>
       <c r="D131" s="14"/>
@@ -9105,7 +9105,7 @@
         <v>3.14</v>
       </c>
       <c r="C132" s="14" t="str">
-        <f>IF(AND(B132&gt;Threshold,B133&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C132:C195" si="2">IF(AND(B132&gt;Threshold,B133&lt;Threshold), $J$1,$J$2)</f>
         <v>Beat</v>
       </c>
       <c r="D132" s="14"/>
@@ -9121,7 +9121,7 @@
         <v>2.27</v>
       </c>
       <c r="C133" s="14" t="str">
-        <f>IF(AND(B133&gt;Threshold,B134&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D133" s="14"/>
@@ -9137,7 +9137,7 @@
         <v>2.35</v>
       </c>
       <c r="C134" s="14" t="str">
-        <f>IF(AND(B134&gt;Threshold,B135&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D134" s="14"/>
@@ -9153,7 +9153,7 @@
         <v>2.11</v>
       </c>
       <c r="C135" s="14" t="str">
-        <f>IF(AND(B135&gt;Threshold,B136&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D135" s="14"/>
@@ -9169,7 +9169,7 @@
         <v>1.89</v>
       </c>
       <c r="C136" s="14" t="str">
-        <f>IF(AND(B136&gt;Threshold,B137&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D136" s="14"/>
@@ -9185,7 +9185,7 @@
         <v>1.93</v>
       </c>
       <c r="C137" s="14" t="str">
-        <f>IF(AND(B137&gt;Threshold,B138&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D137" s="14"/>
@@ -9201,7 +9201,7 @@
         <v>2.63</v>
       </c>
       <c r="C138" s="14" t="str">
-        <f>IF(AND(B138&gt;Threshold,B139&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D138" s="14"/>
@@ -9217,7 +9217,7 @@
         <v>3.96</v>
       </c>
       <c r="C139" s="14" t="str">
-        <f>IF(AND(B139&gt;Threshold,B140&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D139" s="14"/>
@@ -9233,7 +9233,7 @@
         <v>2.7</v>
       </c>
       <c r="C140" s="14" t="str">
-        <f>IF(AND(B140&gt;Threshold,B141&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D140" s="14"/>
@@ -9249,7 +9249,7 @@
         <v>2.31</v>
       </c>
       <c r="C141" s="14" t="str">
-        <f>IF(AND(B141&gt;Threshold,B142&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D141" s="14"/>
@@ -9265,7 +9265,7 @@
         <v>2.27</v>
       </c>
       <c r="C142" s="14" t="str">
-        <f>IF(AND(B142&gt;Threshold,B143&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D142" s="14"/>
@@ -9281,7 +9281,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C143" s="14" t="str">
-        <f>IF(AND(B143&gt;Threshold,B144&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D143" s="14"/>
@@ -9297,7 +9297,7 @@
         <v>1.9</v>
       </c>
       <c r="C144" s="14" t="str">
-        <f>IF(AND(B144&gt;Threshold,B145&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D144" s="14"/>
@@ -9313,7 +9313,7 @@
         <v>2.15</v>
       </c>
       <c r="C145" s="14" t="str">
-        <f>IF(AND(B145&gt;Threshold,B146&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D145" s="14"/>
@@ -9329,7 +9329,7 @@
         <v>3.13</v>
       </c>
       <c r="C146" s="14" t="str">
-        <f>IF(AND(B146&gt;Threshold,B147&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D146" s="14"/>
@@ -9345,7 +9345,7 @@
         <v>3.95</v>
       </c>
       <c r="C147" s="14" t="str">
-        <f>IF(AND(B147&gt;Threshold,B148&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D147" s="14"/>
@@ -9361,7 +9361,7 @@
         <v>2.67</v>
       </c>
       <c r="C148" s="14" t="str">
-        <f>IF(AND(B148&gt;Threshold,B149&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D148" s="14"/>
@@ -9377,7 +9377,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C149" s="14" t="str">
-        <f>IF(AND(B149&gt;Threshold,B150&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D149" s="14"/>
@@ -9393,7 +9393,7 @@
         <v>2.25</v>
       </c>
       <c r="C150" s="14" t="str">
-        <f>IF(AND(B150&gt;Threshold,B151&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D150" s="14"/>
@@ -9409,7 +9409,7 @@
         <v>2.06</v>
       </c>
       <c r="C151" s="14" t="str">
-        <f>IF(AND(B151&gt;Threshold,B152&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D151" s="14"/>
@@ -9425,7 +9425,7 @@
         <v>1.86</v>
       </c>
       <c r="C152" s="14" t="str">
-        <f>IF(AND(B152&gt;Threshold,B153&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D152" s="14"/>
@@ -9441,7 +9441,7 @@
         <v>2.08</v>
       </c>
       <c r="C153" s="14" t="str">
-        <f>IF(AND(B153&gt;Threshold,B154&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D153" s="14"/>
@@ -9457,7 +9457,7 @@
         <v>3.43</v>
       </c>
       <c r="C154" s="14" t="str">
-        <f>IF(AND(B154&gt;Threshold,B155&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D154" s="14"/>
@@ -9473,7 +9473,7 @@
         <v>3.97</v>
       </c>
       <c r="C155" s="14" t="str">
-        <f>IF(AND(B155&gt;Threshold,B156&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D155" s="14"/>
@@ -9489,7 +9489,7 @@
         <v>2.69</v>
       </c>
       <c r="C156" s="14" t="str">
-        <f>IF(AND(B156&gt;Threshold,B157&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D156" s="14"/>
@@ -9505,7 +9505,7 @@
         <v>2.33</v>
       </c>
       <c r="C157" s="14" t="str">
-        <f>IF(AND(B157&gt;Threshold,B158&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D157" s="14"/>
@@ -9521,7 +9521,7 @@
         <v>2.13</v>
       </c>
       <c r="C158" s="14" t="str">
-        <f>IF(AND(B158&gt;Threshold,B159&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D158" s="14"/>
@@ -9537,7 +9537,7 @@
         <v>1.85</v>
       </c>
       <c r="C159" s="14" t="str">
-        <f>IF(AND(B159&gt;Threshold,B160&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D159" s="14"/>
@@ -9553,7 +9553,7 @@
         <v>1.91</v>
       </c>
       <c r="C160" s="14" t="str">
-        <f>IF(AND(B160&gt;Threshold,B161&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D160" s="14"/>
@@ -9569,7 +9569,7 @@
         <v>1.93</v>
       </c>
       <c r="C161" s="14" t="str">
-        <f>IF(AND(B161&gt;Threshold,B162&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D161" s="14"/>
@@ -9585,7 +9585,7 @@
         <v>3.39</v>
       </c>
       <c r="C162" s="14" t="str">
-        <f>IF(AND(B162&gt;Threshold,B163&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D162" s="14"/>
@@ -9601,7 +9601,7 @@
         <v>3.83</v>
       </c>
       <c r="C163" s="14" t="str">
-        <f>IF(AND(B163&gt;Threshold,B164&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D163" s="14"/>
@@ -9617,7 +9617,7 @@
         <v>2.57</v>
       </c>
       <c r="C164" s="14" t="str">
-        <f>IF(AND(B164&gt;Threshold,B165&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D164" s="14"/>
@@ -9633,7 +9633,7 @@
         <v>2.39</v>
       </c>
       <c r="C165" s="14" t="str">
-        <f>IF(AND(B165&gt;Threshold,B166&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D165" s="14"/>
@@ -9649,7 +9649,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C166" s="14" t="str">
-        <f>IF(AND(B166&gt;Threshold,B167&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D166" s="14"/>
@@ -9665,7 +9665,7 @@
         <v>1.87</v>
       </c>
       <c r="C167" s="14" t="str">
-        <f>IF(AND(B167&gt;Threshold,B168&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D167" s="14"/>
@@ -9681,7 +9681,7 @@
         <v>1.88</v>
       </c>
       <c r="C168" s="14" t="str">
-        <f>IF(AND(B168&gt;Threshold,B169&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D168" s="14"/>
@@ -9697,7 +9697,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C169" s="14" t="str">
-        <f>IF(AND(B169&gt;Threshold,B170&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D169" s="14"/>
@@ -9713,7 +9713,7 @@
         <v>3.64</v>
       </c>
       <c r="C170" s="14" t="str">
-        <f>IF(AND(B170&gt;Threshold,B171&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D170" s="14"/>
@@ -9729,7 +9729,7 @@
         <v>3.58</v>
       </c>
       <c r="C171" s="14" t="str">
-        <f>IF(AND(B171&gt;Threshold,B172&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D171" s="14"/>
@@ -9745,7 +9745,7 @@
         <v>2.41</v>
       </c>
       <c r="C172" s="14" t="str">
-        <f>IF(AND(B172&gt;Threshold,B173&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D172" s="14"/>
@@ -9761,7 +9761,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C173" s="14" t="str">
-        <f>IF(AND(B173&gt;Threshold,B174&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D173" s="14"/>
@@ -9777,7 +9777,7 @@
         <v>2.02</v>
       </c>
       <c r="C174" s="14" t="str">
-        <f>IF(AND(B174&gt;Threshold,B175&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D174" s="14"/>
@@ -9793,7 +9793,7 @@
         <v>1.87</v>
       </c>
       <c r="C175" s="14" t="str">
-        <f>IF(AND(B175&gt;Threshold,B176&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D175" s="14"/>
@@ -9809,7 +9809,7 @@
         <v>1.8</v>
       </c>
       <c r="C176" s="14" t="str">
-        <f>IF(AND(B176&gt;Threshold,B177&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D176" s="14"/>
@@ -9825,7 +9825,7 @@
         <v>1.99</v>
       </c>
       <c r="C177" s="14" t="str">
-        <f>IF(AND(B177&gt;Threshold,B178&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D177" s="14"/>
@@ -9841,7 +9841,7 @@
         <v>3.68</v>
       </c>
       <c r="C178" s="14" t="str">
-        <f>IF(AND(B178&gt;Threshold,B179&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D178" s="14"/>
@@ -9857,7 +9857,7 @@
         <v>3.65</v>
       </c>
       <c r="C179" s="14" t="str">
-        <f>IF(AND(B179&gt;Threshold,B180&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D179" s="14"/>
@@ -9873,7 +9873,7 @@
         <v>2.38</v>
       </c>
       <c r="C180" s="14" t="str">
-        <f>IF(AND(B180&gt;Threshold,B181&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D180" s="14"/>
@@ -9889,7 +9889,7 @@
         <v>2.27</v>
       </c>
       <c r="C181" s="14" t="str">
-        <f>IF(AND(B181&gt;Threshold,B182&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D181" s="14"/>
@@ -9905,7 +9905,7 @@
         <v>2.08</v>
       </c>
       <c r="C182" s="14" t="str">
-        <f>IF(AND(B182&gt;Threshold,B183&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D182" s="14"/>
@@ -9921,7 +9921,7 @@
         <v>1.82</v>
       </c>
       <c r="C183" s="14" t="str">
-        <f>IF(AND(B183&gt;Threshold,B184&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D183" s="14"/>
@@ -9937,7 +9937,7 @@
         <v>1.89</v>
       </c>
       <c r="C184" s="14" t="str">
-        <f>IF(AND(B184&gt;Threshold,B185&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D184" s="14"/>
@@ -9953,7 +9953,7 @@
         <v>1.95</v>
       </c>
       <c r="C185" s="14" t="str">
-        <f>IF(AND(B185&gt;Threshold,B186&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D185" s="14"/>
@@ -9969,7 +9969,7 @@
         <v>3.62</v>
       </c>
       <c r="C186" s="14" t="str">
-        <f>IF(AND(B186&gt;Threshold,B187&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D186" s="14"/>
@@ -9985,7 +9985,7 @@
         <v>3.74</v>
       </c>
       <c r="C187" s="14" t="str">
-        <f>IF(AND(B187&gt;Threshold,B188&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D187" s="14"/>
@@ -10001,7 +10001,7 @@
         <v>2.41</v>
       </c>
       <c r="C188" s="14" t="str">
-        <f>IF(AND(B188&gt;Threshold,B189&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D188" s="14"/>
@@ -10017,7 +10017,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C189" s="14" t="str">
-        <f>IF(AND(B189&gt;Threshold,B190&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D189" s="14"/>
@@ -10033,7 +10033,7 @@
         <v>2.11</v>
       </c>
       <c r="C190" s="14" t="str">
-        <f>IF(AND(B190&gt;Threshold,B191&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D190" s="14"/>
@@ -10049,7 +10049,7 @@
         <v>1.93</v>
       </c>
       <c r="C191" s="14" t="str">
-        <f>IF(AND(B191&gt;Threshold,B192&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D191" s="14"/>
@@ -10065,7 +10065,7 @@
         <v>1.8</v>
       </c>
       <c r="C192" s="14" t="str">
-        <f>IF(AND(B192&gt;Threshold,B193&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D192" s="14"/>
@@ -10081,7 +10081,7 @@
         <v>1.82</v>
       </c>
       <c r="C193" s="14" t="str">
-        <f>IF(AND(B193&gt;Threshold,B194&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D193" s="14"/>
@@ -10097,7 +10097,7 @@
         <v>3.29</v>
       </c>
       <c r="C194" s="14" t="str">
-        <f>IF(AND(B194&gt;Threshold,B195&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Not</v>
       </c>
       <c r="D194" s="14"/>
@@ -10113,7 +10113,7 @@
         <v>3.74</v>
       </c>
       <c r="C195" s="14" t="str">
-        <f>IF(AND(B195&gt;Threshold,B196&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="2"/>
         <v>Beat</v>
       </c>
       <c r="D195" s="14"/>
@@ -10129,7 +10129,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C196" s="14" t="str">
-        <f>IF(AND(B196&gt;Threshold,B197&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C196:C259" si="3">IF(AND(B196&gt;Threshold,B197&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D196" s="14"/>
@@ -10145,7 +10145,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C197" s="14" t="str">
-        <f>IF(AND(B197&gt;Threshold,B198&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D197" s="14"/>
@@ -10161,7 +10161,7 @@
         <v>2.14</v>
       </c>
       <c r="C198" s="14" t="str">
-        <f>IF(AND(B198&gt;Threshold,B199&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D198" s="14"/>
@@ -10177,7 +10177,7 @@
         <v>1.9</v>
       </c>
       <c r="C199" s="14" t="str">
-        <f>IF(AND(B199&gt;Threshold,B200&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D199" s="14"/>
@@ -10193,7 +10193,7 @@
         <v>1.91</v>
       </c>
       <c r="C200" s="14" t="str">
-        <f>IF(AND(B200&gt;Threshold,B201&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D200" s="14"/>
@@ -10209,7 +10209,7 @@
         <v>2.02</v>
       </c>
       <c r="C201" s="14" t="str">
-        <f>IF(AND(B201&gt;Threshold,B202&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D201" s="14"/>
@@ -10225,7 +10225,7 @@
         <v>3.57</v>
       </c>
       <c r="C202" s="14" t="str">
-        <f>IF(AND(B202&gt;Threshold,B203&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D202" s="14"/>
@@ -10241,7 +10241,7 @@
         <v>3.39</v>
       </c>
       <c r="C203" s="14" t="str">
-        <f>IF(AND(B203&gt;Threshold,B204&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D203" s="14"/>
@@ -10257,7 +10257,7 @@
         <v>2.29</v>
       </c>
       <c r="C204" s="14" t="str">
-        <f>IF(AND(B204&gt;Threshold,B205&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D204" s="14"/>
@@ -10273,7 +10273,7 @@
         <v>2.35</v>
       </c>
       <c r="C205" s="14" t="str">
-        <f>IF(AND(B205&gt;Threshold,B206&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D205" s="14"/>
@@ -10289,7 +10289,7 @@
         <v>2.06</v>
       </c>
       <c r="C206" s="14" t="str">
-        <f>IF(AND(B206&gt;Threshold,B207&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D206" s="14"/>
@@ -10305,7 +10305,7 @@
         <v>1.87</v>
       </c>
       <c r="C207" s="14" t="str">
-        <f>IF(AND(B207&gt;Threshold,B208&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D207" s="14"/>
@@ -10321,7 +10321,7 @@
         <v>1.88</v>
       </c>
       <c r="C208" s="14" t="str">
-        <f>IF(AND(B208&gt;Threshold,B209&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D208" s="14"/>
@@ -10337,7 +10337,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C209" s="14" t="str">
-        <f>IF(AND(B209&gt;Threshold,B210&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D209" s="14"/>
@@ -10353,7 +10353,7 @@
         <v>3.86</v>
       </c>
       <c r="C210" s="14" t="str">
-        <f>IF(AND(B210&gt;Threshold,B211&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D210" s="14"/>
@@ -10369,7 +10369,7 @@
         <v>3.12</v>
       </c>
       <c r="C211" s="14" t="str">
-        <f>IF(AND(B211&gt;Threshold,B212&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D211" s="14"/>
@@ -10385,7 +10385,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C212" s="14" t="str">
-        <f>IF(AND(B212&gt;Threshold,B213&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D212" s="14"/>
@@ -10401,7 +10401,7 @@
         <v>2.23</v>
       </c>
       <c r="C213" s="14" t="str">
-        <f>IF(AND(B213&gt;Threshold,B214&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D213" s="14"/>
@@ -10417,7 +10417,7 @@
         <v>2.02</v>
       </c>
       <c r="C214" s="14" t="str">
-        <f>IF(AND(B214&gt;Threshold,B215&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D214" s="14"/>
@@ -10433,7 +10433,7 @@
         <v>1.92</v>
       </c>
       <c r="C215" s="14" t="str">
-        <f>IF(AND(B215&gt;Threshold,B216&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D215" s="14"/>
@@ -10449,7 +10449,7 @@
         <v>1.93</v>
       </c>
       <c r="C216" s="14" t="str">
-        <f>IF(AND(B216&gt;Threshold,B217&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D216" s="14"/>
@@ -10465,7 +10465,7 @@
         <v>2.84</v>
       </c>
       <c r="C217" s="14" t="str">
-        <f>IF(AND(B217&gt;Threshold,B218&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D217" s="14"/>
@@ -10481,7 +10481,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C218" s="14" t="str">
-        <f>IF(AND(B218&gt;Threshold,B219&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D218" s="14"/>
@@ -10497,7 +10497,7 @@
         <v>2.87</v>
       </c>
       <c r="C219" s="14" t="str">
-        <f>IF(AND(B219&gt;Threshold,B220&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D219" s="14"/>
@@ -10513,7 +10513,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C220" s="14" t="str">
-        <f>IF(AND(B220&gt;Threshold,B221&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D220" s="14"/>
@@ -10529,7 +10529,7 @@
         <v>2.31</v>
       </c>
       <c r="C221" s="14" t="str">
-        <f>IF(AND(B221&gt;Threshold,B222&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D221" s="14"/>
@@ -10545,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="14" t="str">
-        <f>IF(AND(B222&gt;Threshold,B223&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D222" s="14"/>
@@ -10561,7 +10561,7 @@
         <v>1.89</v>
       </c>
       <c r="C223" s="14" t="str">
-        <f>IF(AND(B223&gt;Threshold,B224&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D223" s="14"/>
@@ -10577,7 +10577,7 @@
         <v>1.93</v>
       </c>
       <c r="C224" s="14" t="str">
-        <f>IF(AND(B224&gt;Threshold,B225&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D224" s="14"/>
@@ -10593,7 +10593,7 @@
         <v>3.2</v>
       </c>
       <c r="C225" s="14" t="str">
-        <f>IF(AND(B225&gt;Threshold,B226&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D225" s="14"/>
@@ -10609,7 +10609,7 @@
         <v>4.03</v>
       </c>
       <c r="C226" s="14" t="str">
-        <f>IF(AND(B226&gt;Threshold,B227&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D226" s="14"/>
@@ -10625,7 +10625,7 @@
         <v>2.72</v>
       </c>
       <c r="C227" s="14" t="str">
-        <f>IF(AND(B227&gt;Threshold,B228&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D227" s="14"/>
@@ -10641,7 +10641,7 @@
         <v>2.37</v>
       </c>
       <c r="C228" s="14" t="str">
-        <f>IF(AND(B228&gt;Threshold,B229&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D228" s="14"/>
@@ -10657,7 +10657,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C229" s="14" t="str">
-        <f>IF(AND(B229&gt;Threshold,B230&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D229" s="14"/>
@@ -10673,7 +10673,7 @@
         <v>1.97</v>
       </c>
       <c r="C230" s="14" t="str">
-        <f>IF(AND(B230&gt;Threshold,B231&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D230" s="14"/>
@@ -10689,7 +10689,7 @@
         <v>1.9</v>
       </c>
       <c r="C231" s="14" t="str">
-        <f>IF(AND(B231&gt;Threshold,B232&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D231" s="14"/>
@@ -10705,7 +10705,7 @@
         <v>2.1</v>
       </c>
       <c r="C232" s="14" t="str">
-        <f>IF(AND(B232&gt;Threshold,B233&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D232" s="14"/>
@@ -10721,7 +10721,7 @@
         <v>3.97</v>
       </c>
       <c r="C233" s="14" t="str">
-        <f>IF(AND(B233&gt;Threshold,B234&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D233" s="14"/>
@@ -10737,7 +10737,7 @@
         <v>3.58</v>
       </c>
       <c r="C234" s="14" t="str">
-        <f>IF(AND(B234&gt;Threshold,B235&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D234" s="14"/>
@@ -10753,7 +10753,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C235" s="14" t="str">
-        <f>IF(AND(B235&gt;Threshold,B236&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D235" s="14"/>
@@ -10769,7 +10769,7 @@
         <v>2.34</v>
       </c>
       <c r="C236" s="14" t="str">
-        <f>IF(AND(B236&gt;Threshold,B237&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D236" s="14"/>
@@ -10785,7 +10785,7 @@
         <v>2.02</v>
       </c>
       <c r="C237" s="14" t="str">
-        <f>IF(AND(B237&gt;Threshold,B238&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D237" s="14"/>
@@ -10801,7 +10801,7 @@
         <v>1.9</v>
       </c>
       <c r="C238" s="14" t="str">
-        <f>IF(AND(B238&gt;Threshold,B239&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D238" s="14"/>
@@ -10817,7 +10817,7 @@
         <v>1.86</v>
       </c>
       <c r="C239" s="14" t="str">
-        <f>IF(AND(B239&gt;Threshold,B240&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D239" s="14"/>
@@ -10833,7 +10833,7 @@
         <v>2.68</v>
       </c>
       <c r="C240" s="14" t="str">
-        <f>IF(AND(B240&gt;Threshold,B241&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D240" s="14"/>
@@ -10849,7 +10849,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C241" s="14" t="str">
-        <f>IF(AND(B241&gt;Threshold,B242&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D241" s="14"/>
@@ -10865,7 +10865,7 @@
         <v>3.05</v>
       </c>
       <c r="C242" s="14" t="str">
-        <f>IF(AND(B242&gt;Threshold,B243&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D242" s="14"/>
@@ -10881,7 +10881,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C243" s="14" t="str">
-        <f>IF(AND(B243&gt;Threshold,B244&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D243" s="14"/>
@@ -10897,7 +10897,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C244" s="14" t="str">
-        <f>IF(AND(B244&gt;Threshold,B245&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D244" s="14"/>
@@ -10913,7 +10913,7 @@
         <v>1.95</v>
       </c>
       <c r="C245" s="14" t="str">
-        <f>IF(AND(B245&gt;Threshold,B246&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D245" s="14"/>
@@ -10929,7 +10929,7 @@
         <v>1.85</v>
       </c>
       <c r="C246" s="14" t="str">
-        <f>IF(AND(B246&gt;Threshold,B247&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D246" s="14"/>
@@ -10945,7 +10945,7 @@
         <v>1.91</v>
       </c>
       <c r="C247" s="14" t="str">
-        <f>IF(AND(B247&gt;Threshold,B248&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D247" s="14"/>
@@ -10961,7 +10961,7 @@
         <v>3.38</v>
       </c>
       <c r="C248" s="14" t="str">
-        <f>IF(AND(B248&gt;Threshold,B249&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D248" s="14"/>
@@ -10977,7 +10977,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C249" s="14" t="str">
-        <f>IF(AND(B249&gt;Threshold,B250&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D249" s="14"/>
@@ -10993,7 +10993,7 @@
         <v>2.78</v>
       </c>
       <c r="C250" s="14" t="str">
-        <f>IF(AND(B250&gt;Threshold,B251&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D250" s="14"/>
@@ -11009,7 +11009,7 @@
         <v>2.29</v>
       </c>
       <c r="C251" s="14" t="str">
-        <f>IF(AND(B251&gt;Threshold,B252&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D251" s="14"/>
@@ -11025,7 +11025,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C252" s="14" t="str">
-        <f>IF(AND(B252&gt;Threshold,B253&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D252" s="14"/>
@@ -11041,7 +11041,7 @@
         <v>1.76</v>
       </c>
       <c r="C253" s="14" t="str">
-        <f>IF(AND(B253&gt;Threshold,B254&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D253" s="14"/>
@@ -11057,7 +11057,7 @@
         <v>1.87</v>
       </c>
       <c r="C254" s="14" t="str">
-        <f>IF(AND(B254&gt;Threshold,B255&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D254" s="14"/>
@@ -11073,7 +11073,7 @@
         <v>1.91</v>
       </c>
       <c r="C255" s="14" t="str">
-        <f>IF(AND(B255&gt;Threshold,B256&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D255" s="14"/>
@@ -11089,7 +11089,7 @@
         <v>3.92</v>
       </c>
       <c r="C256" s="14" t="str">
-        <f>IF(AND(B256&gt;Threshold,B257&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D256" s="14"/>
@@ -11105,7 +11105,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="14" t="str">
-        <f>IF(AND(B257&gt;Threshold,B258&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Beat</v>
       </c>
       <c r="D257" s="14"/>
@@ -11121,7 +11121,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C258" s="14" t="str">
-        <f>IF(AND(B258&gt;Threshold,B259&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D258" s="14"/>
@@ -11137,7 +11137,7 @@
         <v>2.29</v>
       </c>
       <c r="C259" s="14" t="str">
-        <f>IF(AND(B259&gt;Threshold,B260&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="3"/>
         <v>Not</v>
       </c>
       <c r="D259" s="14"/>
@@ -11153,7 +11153,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C260" s="14" t="str">
-        <f>IF(AND(B260&gt;Threshold,B261&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C260:C323" si="4">IF(AND(B260&gt;Threshold,B261&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D260" s="14"/>
@@ -11169,7 +11169,7 @@
         <v>1.76</v>
       </c>
       <c r="C261" s="14" t="str">
-        <f>IF(AND(B261&gt;Threshold,B262&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D261" s="14"/>
@@ -11185,7 +11185,7 @@
         <v>1.8</v>
       </c>
       <c r="C262" s="14" t="str">
-        <f>IF(AND(B262&gt;Threshold,B263&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D262" s="14"/>
@@ -11201,7 +11201,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C263" s="14" t="str">
-        <f>IF(AND(B263&gt;Threshold,B264&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D263" s="14"/>
@@ -11217,7 +11217,7 @@
         <v>4.37</v>
       </c>
       <c r="C264" s="14" t="str">
-        <f>IF(AND(B264&gt;Threshold,B265&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D264" s="14"/>
@@ -11233,7 +11233,7 @@
         <v>3.14</v>
       </c>
       <c r="C265" s="14" t="str">
-        <f>IF(AND(B265&gt;Threshold,B266&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D265" s="14"/>
@@ -11249,7 +11249,7 @@
         <v>2.17</v>
       </c>
       <c r="C266" s="14" t="str">
-        <f>IF(AND(B266&gt;Threshold,B267&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D266" s="14"/>
@@ -11265,7 +11265,7 @@
         <v>2.25</v>
       </c>
       <c r="C267" s="14" t="str">
-        <f>IF(AND(B267&gt;Threshold,B268&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D267" s="14"/>
@@ -11281,7 +11281,7 @@
         <v>1.86</v>
       </c>
       <c r="C268" s="14" t="str">
-        <f>IF(AND(B268&gt;Threshold,B269&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D268" s="14"/>
@@ -11297,7 +11297,7 @@
         <v>1.77</v>
       </c>
       <c r="C269" s="14" t="str">
-        <f>IF(AND(B269&gt;Threshold,B270&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D269" s="14"/>
@@ -11313,7 +11313,7 @@
         <v>1.83</v>
       </c>
       <c r="C270" s="14" t="str">
-        <f>IF(AND(B270&gt;Threshold,B271&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D270" s="14"/>
@@ -11329,7 +11329,7 @@
         <v>2.94</v>
       </c>
       <c r="C271" s="14" t="str">
-        <f>IF(AND(B271&gt;Threshold,B272&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D271" s="14"/>
@@ -11345,7 +11345,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C272" s="14" t="str">
-        <f>IF(AND(B272&gt;Threshold,B273&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D272" s="14"/>
@@ -11361,7 +11361,7 @@
         <v>2.91</v>
       </c>
       <c r="C273" s="14" t="str">
-        <f>IF(AND(B273&gt;Threshold,B274&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D273" s="14"/>
@@ -11377,7 +11377,7 @@
         <v>2.23</v>
       </c>
       <c r="C274" s="14" t="str">
-        <f>IF(AND(B274&gt;Threshold,B275&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D274" s="14"/>
@@ -11393,7 +11393,7 @@
         <v>2.13</v>
       </c>
       <c r="C275" s="14" t="str">
-        <f>IF(AND(B275&gt;Threshold,B276&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D275" s="14"/>
@@ -11409,7 +11409,7 @@
         <v>1.86</v>
       </c>
       <c r="C276" s="14" t="str">
-        <f>IF(AND(B276&gt;Threshold,B277&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D276" s="14"/>
@@ -11425,7 +11425,7 @@
         <v>1.72</v>
       </c>
       <c r="C277" s="14" t="str">
-        <f>IF(AND(B277&gt;Threshold,B278&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D277" s="14"/>
@@ -11441,7 +11441,7 @@
         <v>1.81</v>
       </c>
       <c r="C278" s="14" t="str">
-        <f>IF(AND(B278&gt;Threshold,B279&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D278" s="14"/>
@@ -11457,7 +11457,7 @@
         <v>3.3</v>
       </c>
       <c r="C279" s="14" t="str">
-        <f>IF(AND(B279&gt;Threshold,B280&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D279" s="14"/>
@@ -11473,7 +11473,7 @@
         <v>4.26</v>
       </c>
       <c r="C280" s="14" t="str">
-        <f>IF(AND(B280&gt;Threshold,B281&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D280" s="14"/>
@@ -11489,7 +11489,7 @@
         <v>2.81</v>
       </c>
       <c r="C281" s="14" t="str">
-        <f>IF(AND(B281&gt;Threshold,B282&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D281" s="14"/>
@@ -11505,7 +11505,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C282" s="14" t="str">
-        <f>IF(AND(B282&gt;Threshold,B283&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D282" s="14"/>
@@ -11521,7 +11521,7 @@
         <v>2.17</v>
       </c>
       <c r="C283" s="14" t="str">
-        <f>IF(AND(B283&gt;Threshold,B284&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D283" s="14"/>
@@ -11537,7 +11537,7 @@
         <v>1.7</v>
       </c>
       <c r="C284" s="14" t="str">
-        <f>IF(AND(B284&gt;Threshold,B285&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D284" s="14"/>
@@ -11553,7 +11553,7 @@
         <v>1.75</v>
       </c>
       <c r="C285" s="14" t="str">
-        <f>IF(AND(B285&gt;Threshold,B286&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D285" s="14"/>
@@ -11569,7 +11569,7 @@
         <v>1.81</v>
       </c>
       <c r="C286" s="14" t="str">
-        <f>IF(AND(B286&gt;Threshold,B287&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D286" s="14"/>
@@ -11585,7 +11585,7 @@
         <v>3.32</v>
       </c>
       <c r="C287" s="14" t="str">
-        <f>IF(AND(B287&gt;Threshold,B288&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D287" s="14"/>
@@ -11601,7 +11601,7 @@
         <v>4.04</v>
       </c>
       <c r="C288" s="14" t="str">
-        <f>IF(AND(B288&gt;Threshold,B289&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D288" s="14"/>
@@ -11617,7 +11617,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C289" s="14" t="str">
-        <f>IF(AND(B289&gt;Threshold,B290&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D289" s="14"/>
@@ -11633,7 +11633,7 @@
         <v>2.29</v>
       </c>
       <c r="C290" s="14" t="str">
-        <f>IF(AND(B290&gt;Threshold,B291&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D290" s="14"/>
@@ -11649,7 +11649,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C291" s="14" t="str">
-        <f>IF(AND(B291&gt;Threshold,B292&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D291" s="14"/>
@@ -11665,7 +11665,7 @@
         <v>1.81</v>
       </c>
       <c r="C292" s="14" t="str">
-        <f>IF(AND(B292&gt;Threshold,B293&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D292" s="14"/>
@@ -11681,7 +11681,7 @@
         <v>1.84</v>
       </c>
       <c r="C293" s="14" t="str">
-        <f>IF(AND(B293&gt;Threshold,B294&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D293" s="14"/>
@@ -11697,7 +11697,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C294" s="14" t="str">
-        <f>IF(AND(B294&gt;Threshold,B295&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D294" s="14"/>
@@ -11713,7 +11713,7 @@
         <v>4.09</v>
       </c>
       <c r="C295" s="14" t="str">
-        <f>IF(AND(B295&gt;Threshold,B296&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D295" s="14"/>
@@ -11729,7 +11729,7 @@
         <v>3.46</v>
       </c>
       <c r="C296" s="14" t="str">
-        <f>IF(AND(B296&gt;Threshold,B297&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D296" s="14"/>
@@ -11745,7 +11745,7 @@
         <v>2.21</v>
       </c>
       <c r="C297" s="14" t="str">
-        <f>IF(AND(B297&gt;Threshold,B298&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D297" s="14"/>
@@ -11761,7 +11761,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C298" s="14" t="str">
-        <f>IF(AND(B298&gt;Threshold,B299&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D298" s="14"/>
@@ -11777,7 +11777,7 @@
         <v>2.02</v>
       </c>
       <c r="C299" s="14" t="str">
-        <f>IF(AND(B299&gt;Threshold,B300&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D299" s="14"/>
@@ -11793,7 +11793,7 @@
         <v>1.84</v>
       </c>
       <c r="C300" s="14" t="str">
-        <f>IF(AND(B300&gt;Threshold,B301&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D300" s="14"/>
@@ -11809,7 +11809,7 @@
         <v>1.83</v>
       </c>
       <c r="C301" s="14" t="str">
-        <f>IF(AND(B301&gt;Threshold,B302&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D301" s="14"/>
@@ -11825,7 +11825,7 @@
         <v>2.76</v>
       </c>
       <c r="C302" s="14" t="str">
-        <f>IF(AND(B302&gt;Threshold,B303&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D302" s="14"/>
@@ -11841,7 +11841,7 @@
         <v>4.46</v>
       </c>
       <c r="C303" s="14" t="str">
-        <f>IF(AND(B303&gt;Threshold,B304&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D303" s="14"/>
@@ -11857,7 +11857,7 @@
         <v>3.03</v>
       </c>
       <c r="C304" s="14" t="str">
-        <f>IF(AND(B304&gt;Threshold,B305&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D304" s="14"/>
@@ -11873,7 +11873,7 @@
         <v>2.34</v>
       </c>
       <c r="C305" s="14" t="str">
-        <f>IF(AND(B305&gt;Threshold,B306&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D305" s="14"/>
@@ -11889,7 +11889,7 @@
         <v>2.27</v>
       </c>
       <c r="C306" s="14" t="str">
-        <f>IF(AND(B306&gt;Threshold,B307&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D306" s="14"/>
@@ -11905,7 +11905,7 @@
         <v>1.93</v>
       </c>
       <c r="C307" s="14" t="str">
-        <f>IF(AND(B307&gt;Threshold,B308&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D307" s="14"/>
@@ -11921,7 +11921,7 @@
         <v>1.85</v>
       </c>
       <c r="C308" s="14" t="str">
-        <f>IF(AND(B308&gt;Threshold,B309&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D308" s="14"/>
@@ -11937,7 +11937,7 @@
         <v>1.86</v>
       </c>
       <c r="C309" s="14" t="str">
-        <f>IF(AND(B309&gt;Threshold,B310&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D309" s="14"/>
@@ -11953,7 +11953,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C310" s="14" t="str">
-        <f>IF(AND(B310&gt;Threshold,B311&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D310" s="14"/>
@@ -11969,7 +11969,7 @@
         <v>4.07</v>
       </c>
       <c r="C311" s="14" t="str">
-        <f>IF(AND(B311&gt;Threshold,B312&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D311" s="14"/>
@@ -11985,7 +11985,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C312" s="14" t="str">
-        <f>IF(AND(B312&gt;Threshold,B313&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D312" s="14"/>
@@ -12001,7 +12001,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C313" s="14" t="str">
-        <f>IF(AND(B313&gt;Threshold,B314&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D313" s="14"/>
@@ -12017,7 +12017,7 @@
         <v>2.21</v>
       </c>
       <c r="C314" s="14" t="str">
-        <f>IF(AND(B314&gt;Threshold,B315&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D314" s="14"/>
@@ -12033,7 +12033,7 @@
         <v>1.78</v>
       </c>
       <c r="C315" s="14" t="str">
-        <f>IF(AND(B315&gt;Threshold,B316&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D315" s="14"/>
@@ -12049,7 +12049,7 @@
         <v>1.82</v>
       </c>
       <c r="C316" s="14" t="str">
-        <f>IF(AND(B316&gt;Threshold,B317&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D316" s="14"/>
@@ -12065,7 +12065,7 @@
         <v>2.8</v>
       </c>
       <c r="C317" s="14" t="str">
-        <f>IF(AND(B317&gt;Threshold,B318&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D317" s="14"/>
@@ -12081,7 +12081,7 @@
         <v>4.58</v>
       </c>
       <c r="C318" s="14" t="str">
-        <f>IF(AND(B318&gt;Threshold,B319&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Beat</v>
       </c>
       <c r="D318" s="14"/>
@@ -12097,7 +12097,7 @@
         <v>2.83</v>
       </c>
       <c r="C319" s="14" t="str">
-        <f>IF(AND(B319&gt;Threshold,B320&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D319" s="14"/>
@@ -12113,7 +12113,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C320" s="14" t="str">
-        <f>IF(AND(B320&gt;Threshold,B321&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D320" s="14"/>
@@ -12129,7 +12129,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C321" s="14" t="str">
-        <f>IF(AND(B321&gt;Threshold,B322&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D321" s="14"/>
@@ -12145,7 +12145,7 @@
         <v>1.97</v>
       </c>
       <c r="C322" s="14" t="str">
-        <f>IF(AND(B322&gt;Threshold,B323&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D322" s="14"/>
@@ -12161,7 +12161,7 @@
         <v>1.73</v>
       </c>
       <c r="C323" s="14" t="str">
-        <f>IF(AND(B323&gt;Threshold,B324&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="4"/>
         <v>Not</v>
       </c>
       <c r="D323" s="14"/>
@@ -12177,7 +12177,7 @@
         <v>1.93</v>
       </c>
       <c r="C324" s="14" t="str">
-        <f>IF(AND(B324&gt;Threshold,B325&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C324:C387" si="5">IF(AND(B324&gt;Threshold,B325&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D324" s="14"/>
@@ -12193,7 +12193,7 @@
         <v>4.34</v>
       </c>
       <c r="C325" s="14" t="str">
-        <f>IF(AND(B325&gt;Threshold,B326&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D325" s="14"/>
@@ -12209,7 +12209,7 @@
         <v>3.75</v>
       </c>
       <c r="C326" s="14" t="str">
-        <f>IF(AND(B326&gt;Threshold,B327&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D326" s="14"/>
@@ -12225,7 +12225,7 @@
         <v>2.19</v>
       </c>
       <c r="C327" s="14" t="str">
-        <f>IF(AND(B327&gt;Threshold,B328&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D327" s="14"/>
@@ -12241,7 +12241,7 @@
         <v>2.38</v>
       </c>
       <c r="C328" s="14" t="str">
-        <f>IF(AND(B328&gt;Threshold,B329&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D328" s="14"/>
@@ -12257,7 +12257,7 @@
         <v>1.95</v>
       </c>
       <c r="C329" s="14" t="str">
-        <f>IF(AND(B329&gt;Threshold,B330&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D329" s="14"/>
@@ -12273,7 +12273,7 @@
         <v>1.69</v>
       </c>
       <c r="C330" s="14" t="str">
-        <f>IF(AND(B330&gt;Threshold,B331&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D330" s="14"/>
@@ -12289,7 +12289,7 @@
         <v>1.79</v>
       </c>
       <c r="C331" s="14" t="str">
-        <f>IF(AND(B331&gt;Threshold,B332&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D331" s="14"/>
@@ -12305,7 +12305,7 @@
         <v>2.98</v>
       </c>
       <c r="C332" s="14" t="str">
-        <f>IF(AND(B332&gt;Threshold,B333&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D332" s="14"/>
@@ -12321,7 +12321,7 @@
         <v>4.63</v>
       </c>
       <c r="C333" s="14" t="str">
-        <f>IF(AND(B333&gt;Threshold,B334&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D333" s="14"/>
@@ -12337,7 +12337,7 @@
         <v>2.88</v>
       </c>
       <c r="C334" s="14" t="str">
-        <f>IF(AND(B334&gt;Threshold,B335&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D334" s="14"/>
@@ -12353,7 +12353,7 @@
         <v>2.09</v>
       </c>
       <c r="C335" s="14" t="str">
-        <f>IF(AND(B335&gt;Threshold,B336&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D335" s="14"/>
@@ -12369,7 +12369,7 @@
         <v>2.16</v>
       </c>
       <c r="C336" s="14" t="str">
-        <f>IF(AND(B336&gt;Threshold,B337&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D336" s="14"/>
@@ -12385,7 +12385,7 @@
         <v>1.78</v>
       </c>
       <c r="C337" s="14" t="str">
-        <f>IF(AND(B337&gt;Threshold,B338&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D337" s="14"/>
@@ -12401,7 +12401,7 @@
         <v>1.75</v>
       </c>
       <c r="C338" s="14" t="str">
-        <f>IF(AND(B338&gt;Threshold,B339&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D338" s="14"/>
@@ -12417,7 +12417,7 @@
         <v>1.8</v>
       </c>
       <c r="C339" s="14" t="str">
-        <f>IF(AND(B339&gt;Threshold,B340&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D339" s="14"/>
@@ -12433,7 +12433,7 @@
         <v>3.85</v>
       </c>
       <c r="C340" s="14" t="str">
-        <f>IF(AND(B340&gt;Threshold,B341&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D340" s="14"/>
@@ -12449,7 +12449,7 @@
         <v>4.38</v>
       </c>
       <c r="C341" s="14" t="str">
-        <f>IF(AND(B341&gt;Threshold,B342&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D341" s="14"/>
@@ -12465,7 +12465,7 @@
         <v>2.6</v>
       </c>
       <c r="C342" s="14" t="str">
-        <f>IF(AND(B342&gt;Threshold,B343&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D342" s="14"/>
@@ -12481,7 +12481,7 @@
         <v>2.14</v>
       </c>
       <c r="C343" s="14" t="str">
-        <f>IF(AND(B343&gt;Threshold,B344&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D343" s="14"/>
@@ -12497,7 +12497,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C344" s="14" t="str">
-        <f>IF(AND(B344&gt;Threshold,B345&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D344" s="14"/>
@@ -12513,7 +12513,7 @@
         <v>1.74</v>
       </c>
       <c r="C345" s="14" t="str">
-        <f>IF(AND(B345&gt;Threshold,B346&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D345" s="14"/>
@@ -12529,7 +12529,7 @@
         <v>1.73</v>
       </c>
       <c r="C346" s="14" t="str">
-        <f>IF(AND(B346&gt;Threshold,B347&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D346" s="14"/>
@@ -12545,7 +12545,7 @@
         <v>1.84</v>
       </c>
       <c r="C347" s="14" t="str">
-        <f>IF(AND(B347&gt;Threshold,B348&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D347" s="14"/>
@@ -12561,7 +12561,7 @@
         <v>3.58</v>
       </c>
       <c r="C348" s="14" t="str">
-        <f>IF(AND(B348&gt;Threshold,B349&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D348" s="14"/>
@@ -12577,7 +12577,7 @@
         <v>4.38</v>
       </c>
       <c r="C349" s="14" t="str">
-        <f>IF(AND(B349&gt;Threshold,B350&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D349" s="14"/>
@@ -12593,7 +12593,7 @@
         <v>2.6</v>
       </c>
       <c r="C350" s="14" t="str">
-        <f>IF(AND(B350&gt;Threshold,B351&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D350" s="14"/>
@@ -12609,7 +12609,7 @@
         <v>2.21</v>
       </c>
       <c r="C351" s="14" t="str">
-        <f>IF(AND(B351&gt;Threshold,B352&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D351" s="14"/>
@@ -12625,7 +12625,7 @@
         <v>2.13</v>
       </c>
       <c r="C352" s="14" t="str">
-        <f>IF(AND(B352&gt;Threshold,B353&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D352" s="14"/>
@@ -12641,7 +12641,7 @@
         <v>1.72</v>
       </c>
       <c r="C353" s="14" t="str">
-        <f>IF(AND(B353&gt;Threshold,B354&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D353" s="14"/>
@@ -12657,7 +12657,7 @@
         <v>1.77</v>
       </c>
       <c r="C354" s="14" t="str">
-        <f>IF(AND(B354&gt;Threshold,B355&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D354" s="14"/>
@@ -12673,7 +12673,7 @@
         <v>1.79</v>
       </c>
       <c r="C355" s="14" t="str">
-        <f>IF(AND(B355&gt;Threshold,B356&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D355" s="14"/>
@@ -12689,7 +12689,7 @@
         <v>3.62</v>
       </c>
       <c r="C356" s="14" t="str">
-        <f>IF(AND(B356&gt;Threshold,B357&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D356" s="14"/>
@@ -12705,7 +12705,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C357" s="14" t="str">
-        <f>IF(AND(B357&gt;Threshold,B358&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D357" s="14"/>
@@ -12721,7 +12721,7 @@
         <v>2.54</v>
       </c>
       <c r="C358" s="14" t="str">
-        <f>IF(AND(B358&gt;Threshold,B359&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D358" s="14"/>
@@ -12737,7 +12737,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C359" s="14" t="str">
-        <f>IF(AND(B359&gt;Threshold,B360&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D359" s="14"/>
@@ -12753,7 +12753,7 @@
         <v>2.15</v>
       </c>
       <c r="C360" s="14" t="str">
-        <f>IF(AND(B360&gt;Threshold,B361&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D360" s="14"/>
@@ -12769,7 +12769,7 @@
         <v>1.78</v>
       </c>
       <c r="C361" s="14" t="str">
-        <f>IF(AND(B361&gt;Threshold,B362&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D361" s="14"/>
@@ -12785,7 +12785,7 @@
         <v>1.74</v>
       </c>
       <c r="C362" s="14" t="str">
-        <f>IF(AND(B362&gt;Threshold,B363&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D362" s="14"/>
@@ -12801,7 +12801,7 @@
         <v>1.8</v>
       </c>
       <c r="C363" s="14" t="str">
-        <f>IF(AND(B363&gt;Threshold,B364&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D363" s="14"/>
@@ -12817,7 +12817,7 @@
         <v>3.89</v>
       </c>
       <c r="C364" s="14" t="str">
-        <f>IF(AND(B364&gt;Threshold,B365&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D364" s="14"/>
@@ -12833,7 +12833,7 @@
         <v>4.21</v>
       </c>
       <c r="C365" s="14" t="str">
-        <f>IF(AND(B365&gt;Threshold,B366&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D365" s="14"/>
@@ -12849,7 +12849,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C366" s="14" t="str">
-        <f>IF(AND(B366&gt;Threshold,B367&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D366" s="14"/>
@@ -12865,7 +12865,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C367" s="14" t="str">
-        <f>IF(AND(B367&gt;Threshold,B368&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D367" s="14"/>
@@ -12881,7 +12881,7 @@
         <v>2.08</v>
       </c>
       <c r="C368" s="14" t="str">
-        <f>IF(AND(B368&gt;Threshold,B369&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D368" s="14"/>
@@ -12897,7 +12897,7 @@
         <v>1.7</v>
       </c>
       <c r="C369" s="14" t="str">
-        <f>IF(AND(B369&gt;Threshold,B370&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D369" s="14"/>
@@ -12913,7 +12913,7 @@
         <v>1.76</v>
       </c>
       <c r="C370" s="14" t="str">
-        <f>IF(AND(B370&gt;Threshold,B371&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D370" s="14"/>
@@ -12929,7 +12929,7 @@
         <v>1.73</v>
       </c>
       <c r="C371" s="14" t="str">
-        <f>IF(AND(B371&gt;Threshold,B372&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D371" s="14"/>
@@ -12945,7 +12945,7 @@
         <v>3.74</v>
       </c>
       <c r="C372" s="14" t="str">
-        <f>IF(AND(B372&gt;Threshold,B373&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D372" s="14"/>
@@ -12961,7 +12961,7 @@
         <v>4.43</v>
       </c>
       <c r="C373" s="14" t="str">
-        <f>IF(AND(B373&gt;Threshold,B374&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D373" s="14"/>
@@ -12977,7 +12977,7 @@
         <v>2.79</v>
       </c>
       <c r="C374" s="14" t="str">
-        <f>IF(AND(B374&gt;Threshold,B375&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D374" s="14"/>
@@ -12993,7 +12993,7 @@
         <v>2.29</v>
       </c>
       <c r="C375" s="14" t="str">
-        <f>IF(AND(B375&gt;Threshold,B376&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D375" s="14"/>
@@ -13009,7 +13009,7 @@
         <v>2.09</v>
       </c>
       <c r="C376" s="14" t="str">
-        <f>IF(AND(B376&gt;Threshold,B377&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D376" s="14"/>
@@ -13025,7 +13025,7 @@
         <v>1.79</v>
       </c>
       <c r="C377" s="14" t="str">
-        <f>IF(AND(B377&gt;Threshold,B378&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D377" s="14"/>
@@ -13041,7 +13041,7 @@
         <v>1.75</v>
       </c>
       <c r="C378" s="14" t="str">
-        <f>IF(AND(B378&gt;Threshold,B379&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D378" s="14"/>
@@ -13057,7 +13057,7 @@
         <v>1.72</v>
       </c>
       <c r="C379" s="14" t="str">
-        <f>IF(AND(B379&gt;Threshold,B380&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D379" s="14"/>
@@ -13073,7 +13073,7 @@
         <v>3.63</v>
       </c>
       <c r="C380" s="14" t="str">
-        <f>IF(AND(B380&gt;Threshold,B381&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D380" s="14"/>
@@ -13089,7 +13089,7 @@
         <v>4.66</v>
       </c>
       <c r="C381" s="14" t="str">
-        <f>IF(AND(B381&gt;Threshold,B382&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Beat</v>
       </c>
       <c r="D381" s="14"/>
@@ -13105,7 +13105,7 @@
         <v>2.76</v>
       </c>
       <c r="C382" s="14" t="str">
-        <f>IF(AND(B382&gt;Threshold,B383&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D382" s="14"/>
@@ -13121,7 +13121,7 @@
         <v>2.23</v>
       </c>
       <c r="C383" s="14" t="str">
-        <f>IF(AND(B383&gt;Threshold,B384&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D383" s="14"/>
@@ -13137,7 +13137,7 @@
         <v>2.16</v>
       </c>
       <c r="C384" s="14" t="str">
-        <f>IF(AND(B384&gt;Threshold,B385&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D384" s="14"/>
@@ -13153,7 +13153,7 @@
         <v>1.63</v>
       </c>
       <c r="C385" s="14" t="str">
-        <f>IF(AND(B385&gt;Threshold,B386&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D385" s="14"/>
@@ -13169,7 +13169,7 @@
         <v>1.53</v>
       </c>
       <c r="C386" s="14" t="str">
-        <f>IF(AND(B386&gt;Threshold,B387&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D386" s="14"/>
@@ -13185,7 +13185,7 @@
         <v>1.42</v>
       </c>
       <c r="C387" s="14" t="str">
-        <f>IF(AND(B387&gt;Threshold,B388&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="5"/>
         <v>Not</v>
       </c>
       <c r="D387" s="14"/>
@@ -13201,7 +13201,7 @@
         <v>3.66</v>
       </c>
       <c r="C388" s="14" t="str">
-        <f>IF(AND(B388&gt;Threshold,B389&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C388:C451" si="6">IF(AND(B388&gt;Threshold,B389&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D388" s="14"/>
@@ -13217,7 +13217,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="C389" s="14" t="str">
-        <f>IF(AND(B389&gt;Threshold,B390&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D389" s="14"/>
@@ -13233,7 +13233,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C390" s="14" t="str">
-        <f>IF(AND(B390&gt;Threshold,B391&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D390" s="14"/>
@@ -13249,7 +13249,7 @@
         <v>2.14</v>
       </c>
       <c r="C391" s="14" t="str">
-        <f>IF(AND(B391&gt;Threshold,B392&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D391" s="14"/>
@@ -13265,7 +13265,7 @@
         <v>2.1</v>
       </c>
       <c r="C392" s="14" t="str">
-        <f>IF(AND(B392&gt;Threshold,B393&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D392" s="14"/>
@@ -13281,7 +13281,7 @@
         <v>1.66</v>
       </c>
       <c r="C393" s="14" t="str">
-        <f>IF(AND(B393&gt;Threshold,B394&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D393" s="14"/>
@@ -13297,7 +13297,7 @@
         <v>1.63</v>
       </c>
       <c r="C394" s="14" t="str">
-        <f>IF(AND(B394&gt;Threshold,B395&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D394" s="14"/>
@@ -13313,7 +13313,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C395" s="14" t="str">
-        <f>IF(AND(B395&gt;Threshold,B396&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D395" s="14"/>
@@ -13329,7 +13329,7 @@
         <v>4.7</v>
       </c>
       <c r="C396" s="14" t="str">
-        <f>IF(AND(B396&gt;Threshold,B397&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D396" s="14"/>
@@ -13345,7 +13345,7 @@
         <v>3.31</v>
       </c>
       <c r="C397" s="14" t="str">
-        <f>IF(AND(B397&gt;Threshold,B398&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D397" s="14"/>
@@ -13361,7 +13361,7 @@
         <v>2.09</v>
       </c>
       <c r="C398" s="14" t="str">
-        <f>IF(AND(B398&gt;Threshold,B399&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D398" s="14"/>
@@ -13377,7 +13377,7 @@
         <v>2.13</v>
       </c>
       <c r="C399" s="14" t="str">
-        <f>IF(AND(B399&gt;Threshold,B400&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D399" s="14"/>
@@ -13393,7 +13393,7 @@
         <v>1.72</v>
       </c>
       <c r="C400" s="14" t="str">
-        <f>IF(AND(B400&gt;Threshold,B401&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D400" s="14"/>
@@ -13409,7 +13409,7 @@
         <v>1.5</v>
       </c>
       <c r="C401" s="14" t="str">
-        <f>IF(AND(B401&gt;Threshold,B402&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D401" s="14"/>
@@ -13425,7 +13425,7 @@
         <v>1.63</v>
       </c>
       <c r="C402" s="14" t="str">
-        <f>IF(AND(B402&gt;Threshold,B403&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D402" s="14"/>
@@ -13441,7 +13441,7 @@
         <v>3.27</v>
       </c>
       <c r="C403" s="14" t="str">
-        <f>IF(AND(B403&gt;Threshold,B404&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D403" s="14"/>
@@ -13457,7 +13457,7 @@
         <v>4.12</v>
       </c>
       <c r="C404" s="14" t="str">
-        <f>IF(AND(B404&gt;Threshold,B405&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D404" s="14"/>
@@ -13473,7 +13473,7 @@
         <v>2.56</v>
       </c>
       <c r="C405" s="14" t="str">
-        <f>IF(AND(B405&gt;Threshold,B406&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D405" s="14"/>
@@ -13489,7 +13489,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C406" s="14" t="str">
-        <f>IF(AND(B406&gt;Threshold,B407&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D406" s="14"/>
@@ -13505,7 +13505,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C407" s="14" t="str">
-        <f>IF(AND(B407&gt;Threshold,B408&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D407" s="14"/>
@@ -13521,7 +13521,7 @@
         <v>1.72</v>
       </c>
       <c r="C408" s="14" t="str">
-        <f>IF(AND(B408&gt;Threshold,B409&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D408" s="14"/>
@@ -13537,7 +13537,7 @@
         <v>1.63</v>
       </c>
       <c r="C409" s="14" t="str">
-        <f>IF(AND(B409&gt;Threshold,B410&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D409" s="14"/>
@@ -13553,7 +13553,7 @@
         <v>2.09</v>
       </c>
       <c r="C410" s="14" t="str">
-        <f>IF(AND(B410&gt;Threshold,B411&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D410" s="14"/>
@@ -13569,7 +13569,7 @@
         <v>4.2</v>
       </c>
       <c r="C411" s="14" t="str">
-        <f>IF(AND(B411&gt;Threshold,B412&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D411" s="14"/>
@@ -13585,7 +13585,7 @@
         <v>3.59</v>
       </c>
       <c r="C412" s="14" t="str">
-        <f>IF(AND(B412&gt;Threshold,B413&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D412" s="14"/>
@@ -13601,7 +13601,7 @@
         <v>2.33</v>
       </c>
       <c r="C413" s="14" t="str">
-        <f>IF(AND(B413&gt;Threshold,B414&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D413" s="14"/>
@@ -13617,7 +13617,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="C414" s="14" t="str">
-        <f>IF(AND(B414&gt;Threshold,B415&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D414" s="14"/>
@@ -13633,7 +13633,7 @@
         <v>1.95</v>
       </c>
       <c r="C415" s="14" t="str">
-        <f>IF(AND(B415&gt;Threshold,B416&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D415" s="14"/>
@@ -13649,7 +13649,7 @@
         <v>1.74</v>
       </c>
       <c r="C416" s="14" t="str">
-        <f>IF(AND(B416&gt;Threshold,B417&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D416" s="14"/>
@@ -13665,7 +13665,7 @@
         <v>1.78</v>
       </c>
       <c r="C417" s="14" t="str">
-        <f>IF(AND(B417&gt;Threshold,B418&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D417" s="14"/>
@@ -13681,7 +13681,7 @@
         <v>3</v>
       </c>
       <c r="C418" s="14" t="str">
-        <f>IF(AND(B418&gt;Threshold,B419&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D418" s="14"/>
@@ -13697,7 +13697,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C419" s="14" t="str">
-        <f>IF(AND(B419&gt;Threshold,B420&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D419" s="14"/>
@@ -13713,7 +13713,7 @@
         <v>3.08</v>
       </c>
       <c r="C420" s="14" t="str">
-        <f>IF(AND(B420&gt;Threshold,B421&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D420" s="14"/>
@@ -13729,7 +13729,7 @@
         <v>2.31</v>
       </c>
       <c r="C421" s="14" t="str">
-        <f>IF(AND(B421&gt;Threshold,B422&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D421" s="14"/>
@@ -13745,7 +13745,7 @@
         <v>2.23</v>
       </c>
       <c r="C422" s="14" t="str">
-        <f>IF(AND(B422&gt;Threshold,B423&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D422" s="14"/>
@@ -13761,7 +13761,7 @@
         <v>1.74</v>
       </c>
       <c r="C423" s="14" t="str">
-        <f>IF(AND(B423&gt;Threshold,B424&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D423" s="14"/>
@@ -13777,7 +13777,7 @@
         <v>1.7</v>
       </c>
       <c r="C424" s="14" t="str">
-        <f>IF(AND(B424&gt;Threshold,B425&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D424" s="14"/>
@@ -13793,7 +13793,7 @@
         <v>1.94</v>
       </c>
       <c r="C425" s="14" t="str">
-        <f>IF(AND(B425&gt;Threshold,B426&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D425" s="14"/>
@@ -13809,7 +13809,7 @@
         <v>4.37</v>
       </c>
       <c r="C426" s="14" t="str">
-        <f>IF(AND(B426&gt;Threshold,B427&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D426" s="14"/>
@@ -13825,7 +13825,7 @@
         <v>3.87</v>
       </c>
       <c r="C427" s="14" t="str">
-        <f>IF(AND(B427&gt;Threshold,B428&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D427" s="14"/>
@@ -13841,7 +13841,7 @@
         <v>2.39</v>
       </c>
       <c r="C428" s="14" t="str">
-        <f>IF(AND(B428&gt;Threshold,B429&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D428" s="14"/>
@@ -13857,7 +13857,7 @@
         <v>2.21</v>
       </c>
       <c r="C429" s="14" t="str">
-        <f>IF(AND(B429&gt;Threshold,B430&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D429" s="14"/>
@@ -13873,7 +13873,7 @@
         <v>1.93</v>
       </c>
       <c r="C430" s="14" t="str">
-        <f>IF(AND(B430&gt;Threshold,B431&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D430" s="14"/>
@@ -13889,7 +13889,7 @@
         <v>1.56</v>
       </c>
       <c r="C431" s="14" t="str">
-        <f>IF(AND(B431&gt;Threshold,B432&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D431" s="14"/>
@@ -13905,7 +13905,7 @@
         <v>1.7</v>
       </c>
       <c r="C432" s="14" t="str">
-        <f>IF(AND(B432&gt;Threshold,B433&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D432" s="14"/>
@@ -13921,7 +13921,7 @@
         <v>3.09</v>
       </c>
       <c r="C433" s="14" t="str">
-        <f>IF(AND(B433&gt;Threshold,B434&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D433" s="14"/>
@@ -13937,7 +13937,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C434" s="14" t="str">
-        <f>IF(AND(B434&gt;Threshold,B435&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D434" s="14"/>
@@ -13953,7 +13953,7 @@
         <v>2.86</v>
       </c>
       <c r="C435" s="14" t="str">
-        <f>IF(AND(B435&gt;Threshold,B436&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D435" s="14"/>
@@ -13969,7 +13969,7 @@
         <v>2.39</v>
       </c>
       <c r="C436" s="14" t="str">
-        <f>IF(AND(B436&gt;Threshold,B437&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D436" s="14"/>
@@ -13985,7 +13985,7 @@
         <v>2.15</v>
       </c>
       <c r="C437" s="14" t="str">
-        <f>IF(AND(B437&gt;Threshold,B438&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D437" s="14"/>
@@ -14001,7 +14001,7 @@
         <v>1.68</v>
       </c>
       <c r="C438" s="14" t="str">
-        <f>IF(AND(B438&gt;Threshold,B439&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D438" s="14"/>
@@ -14017,7 +14017,7 @@
         <v>1.58</v>
       </c>
       <c r="C439" s="14" t="str">
-        <f>IF(AND(B439&gt;Threshold,B440&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D439" s="14"/>
@@ -14033,7 +14033,7 @@
         <v>1.7</v>
       </c>
       <c r="C440" s="14" t="str">
-        <f>IF(AND(B440&gt;Threshold,B441&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D440" s="14"/>
@@ -14049,7 +14049,7 @@
         <v>4.21</v>
       </c>
       <c r="C441" s="14" t="str">
-        <f>IF(AND(B441&gt;Threshold,B442&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D441" s="14"/>
@@ -14065,7 +14065,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C442" s="14" t="str">
-        <f>IF(AND(B442&gt;Threshold,B443&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D442" s="14"/>
@@ -14081,7 +14081,7 @@
         <v>2.67</v>
       </c>
       <c r="C443" s="14" t="str">
-        <f>IF(AND(B443&gt;Threshold,B444&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D443" s="14"/>
@@ -14097,7 +14097,7 @@
         <v>2.27</v>
       </c>
       <c r="C444" s="14" t="str">
-        <f>IF(AND(B444&gt;Threshold,B445&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D444" s="14"/>
@@ -14113,7 +14113,7 @@
         <v>1.98</v>
       </c>
       <c r="C445" s="14" t="str">
-        <f>IF(AND(B445&gt;Threshold,B446&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D445" s="14"/>
@@ -14129,7 +14129,7 @@
         <v>1.52</v>
       </c>
       <c r="C446" s="14" t="str">
-        <f>IF(AND(B446&gt;Threshold,B447&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D446" s="14"/>
@@ -14145,7 +14145,7 @@
         <v>1.65</v>
       </c>
       <c r="C447" s="14" t="str">
-        <f>IF(AND(B447&gt;Threshold,B448&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D447" s="14"/>
@@ -14161,7 +14161,7 @@
         <v>1.62</v>
       </c>
       <c r="C448" s="14" t="str">
-        <f>IF(AND(B448&gt;Threshold,B449&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D448" s="14"/>
@@ -14177,7 +14177,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C449" s="14" t="str">
-        <f>IF(AND(B449&gt;Threshold,B450&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D449" s="14"/>
@@ -14193,7 +14193,7 @@
         <v>4.63</v>
       </c>
       <c r="C450" s="14" t="str">
-        <f>IF(AND(B450&gt;Threshold,B451&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Beat</v>
       </c>
       <c r="D450" s="14"/>
@@ -14209,7 +14209,7 @@
         <v>2.69</v>
       </c>
       <c r="C451" s="14" t="str">
-        <f>IF(AND(B451&gt;Threshold,B452&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="6"/>
         <v>Not</v>
       </c>
       <c r="D451" s="14"/>
@@ -14225,7 +14225,7 @@
         <v>2.15</v>
       </c>
       <c r="C452" s="14" t="str">
-        <f>IF(AND(B452&gt;Threshold,B453&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C452:C515" si="7">IF(AND(B452&gt;Threshold,B453&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D452" s="14"/>
@@ -14241,7 +14241,7 @@
         <v>1.86</v>
       </c>
       <c r="C453" s="14" t="str">
-        <f>IF(AND(B453&gt;Threshold,B454&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D453" s="14"/>
@@ -14257,7 +14257,7 @@
         <v>1.59</v>
       </c>
       <c r="C454" s="14" t="str">
-        <f>IF(AND(B454&gt;Threshold,B455&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D454" s="14"/>
@@ -14273,7 +14273,7 @@
         <v>1.49</v>
       </c>
       <c r="C455" s="14" t="str">
-        <f>IF(AND(B455&gt;Threshold,B456&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D455" s="14"/>
@@ -14289,7 +14289,7 @@
         <v>1.75</v>
       </c>
       <c r="C456" s="14" t="str">
-        <f>IF(AND(B456&gt;Threshold,B457&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D456" s="14"/>
@@ -14305,7 +14305,7 @@
         <v>3.46</v>
       </c>
       <c r="C457" s="14" t="str">
-        <f>IF(AND(B457&gt;Threshold,B458&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D457" s="14"/>
@@ -14321,7 +14321,7 @@
         <v>4.66</v>
       </c>
       <c r="C458" s="14" t="str">
-        <f>IF(AND(B458&gt;Threshold,B459&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D458" s="14"/>
@@ -14337,7 +14337,7 @@
         <v>2.79</v>
       </c>
       <c r="C459" s="14" t="str">
-        <f>IF(AND(B459&gt;Threshold,B460&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D459" s="14"/>
@@ -14353,7 +14353,7 @@
         <v>2.15</v>
       </c>
       <c r="C460" s="14" t="str">
-        <f>IF(AND(B460&gt;Threshold,B461&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D460" s="14"/>
@@ -14369,7 +14369,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C461" s="14" t="str">
-        <f>IF(AND(B461&gt;Threshold,B462&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D461" s="14"/>
@@ -14385,7 +14385,7 @@
         <v>1.46</v>
       </c>
       <c r="C462" s="14" t="str">
-        <f>IF(AND(B462&gt;Threshold,B463&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D462" s="14"/>
@@ -14401,7 +14401,7 @@
         <v>1.48</v>
       </c>
       <c r="C463" s="14" t="str">
-        <f>IF(AND(B463&gt;Threshold,B464&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D463" s="14"/>
@@ -14417,7 +14417,7 @@
         <v>1.64</v>
       </c>
       <c r="C464" s="14" t="str">
-        <f>IF(AND(B464&gt;Threshold,B465&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D464" s="14"/>
@@ -14433,7 +14433,7 @@
         <v>3.05</v>
       </c>
       <c r="C465" s="14" t="str">
-        <f>IF(AND(B465&gt;Threshold,B466&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D465" s="14"/>
@@ -14449,7 +14449,7 @@
         <v>4.74</v>
       </c>
       <c r="C466" s="14" t="str">
-        <f>IF(AND(B466&gt;Threshold,B467&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D466" s="14"/>
@@ -14465,7 +14465,7 @@
         <v>2.99</v>
       </c>
       <c r="C467" s="14" t="str">
-        <f>IF(AND(B467&gt;Threshold,B468&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D467" s="14"/>
@@ -14481,7 +14481,7 @@
         <v>2.16</v>
       </c>
       <c r="C468" s="14" t="str">
-        <f>IF(AND(B468&gt;Threshold,B469&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D468" s="14"/>
@@ -14497,7 +14497,7 @@
         <v>2.06</v>
       </c>
       <c r="C469" s="14" t="str">
-        <f>IF(AND(B469&gt;Threshold,B470&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D469" s="14"/>
@@ -14513,7 +14513,7 @@
         <v>1.57</v>
       </c>
       <c r="C470" s="14" t="str">
-        <f>IF(AND(B470&gt;Threshold,B471&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D470" s="14"/>
@@ -14529,7 +14529,7 @@
         <v>1.54</v>
       </c>
       <c r="C471" s="14" t="str">
-        <f>IF(AND(B471&gt;Threshold,B472&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D471" s="14"/>
@@ -14545,7 +14545,7 @@
         <v>1.62</v>
       </c>
       <c r="C472" s="14" t="str">
-        <f>IF(AND(B472&gt;Threshold,B473&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D472" s="14"/>
@@ -14561,7 +14561,7 @@
         <v>2.75</v>
       </c>
       <c r="C473" s="14" t="str">
-        <f>IF(AND(B473&gt;Threshold,B474&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D473" s="14"/>
@@ -14577,7 +14577,7 @@
         <v>4.74</v>
       </c>
       <c r="C474" s="14" t="str">
-        <f>IF(AND(B474&gt;Threshold,B475&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D474" s="14"/>
@@ -14593,7 +14593,7 @@
         <v>3.41</v>
       </c>
       <c r="C475" s="14" t="str">
-        <f>IF(AND(B475&gt;Threshold,B476&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D475" s="14"/>
@@ -14609,7 +14609,7 @@
         <v>2.13</v>
       </c>
       <c r="C476" s="14" t="str">
-        <f>IF(AND(B476&gt;Threshold,B477&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D476" s="14"/>
@@ -14625,7 +14625,7 @@
         <v>2.11</v>
       </c>
       <c r="C477" s="14" t="str">
-        <f>IF(AND(B477&gt;Threshold,B478&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D477" s="14"/>
@@ -14641,7 +14641,7 @@
         <v>1.58</v>
       </c>
       <c r="C478" s="14" t="str">
-        <f>IF(AND(B478&gt;Threshold,B479&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D478" s="14"/>
@@ -14657,7 +14657,7 @@
         <v>1.5</v>
       </c>
       <c r="C479" s="14" t="str">
-        <f>IF(AND(B479&gt;Threshold,B480&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D479" s="14"/>
@@ -14673,7 +14673,7 @@
         <v>1.65</v>
       </c>
       <c r="C480" s="14" t="str">
-        <f>IF(AND(B480&gt;Threshold,B481&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D480" s="14"/>
@@ -14689,7 +14689,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C481" s="14" t="str">
-        <f>IF(AND(B481&gt;Threshold,B482&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D481" s="14"/>
@@ -14705,7 +14705,7 @@
         <v>4.74</v>
       </c>
       <c r="C482" s="14" t="str">
-        <f>IF(AND(B482&gt;Threshold,B483&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D482" s="14"/>
@@ -14721,7 +14721,7 @@
         <v>3.91</v>
       </c>
       <c r="C483" s="14" t="str">
-        <f>IF(AND(B483&gt;Threshold,B484&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D483" s="14"/>
@@ -14737,7 +14737,7 @@
         <v>2.16</v>
       </c>
       <c r="C484" s="14" t="str">
-        <f>IF(AND(B484&gt;Threshold,B485&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D484" s="14"/>
@@ -14753,7 +14753,7 @@
         <v>2.14</v>
       </c>
       <c r="C485" s="14" t="str">
-        <f>IF(AND(B485&gt;Threshold,B486&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D485" s="14"/>
@@ -14769,7 +14769,7 @@
         <v>1.67</v>
       </c>
       <c r="C486" s="14" t="str">
-        <f>IF(AND(B486&gt;Threshold,B487&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D486" s="14"/>
@@ -14785,7 +14785,7 @@
         <v>1.43</v>
       </c>
       <c r="C487" s="14" t="str">
-        <f>IF(AND(B487&gt;Threshold,B488&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D487" s="14"/>
@@ -14801,7 +14801,7 @@
         <v>1.63</v>
       </c>
       <c r="C488" s="14" t="str">
-        <f>IF(AND(B488&gt;Threshold,B489&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D488" s="14"/>
@@ -14817,7 +14817,7 @@
         <v>1.74</v>
       </c>
       <c r="C489" s="14" t="str">
-        <f>IF(AND(B489&gt;Threshold,B490&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D489" s="14"/>
@@ -14833,7 +14833,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C490" s="14" t="str">
-        <f>IF(AND(B490&gt;Threshold,B491&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D490" s="14"/>
@@ -14849,7 +14849,7 @@
         <v>4.58</v>
       </c>
       <c r="C491" s="14" t="str">
-        <f>IF(AND(B491&gt;Threshold,B492&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D491" s="14"/>
@@ -14865,7 +14865,7 @@
         <v>2.38</v>
       </c>
       <c r="C492" s="14" t="str">
-        <f>IF(AND(B492&gt;Threshold,B493&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D492" s="14"/>
@@ -14881,7 +14881,7 @@
         <v>2.12</v>
       </c>
       <c r="C493" s="14" t="str">
-        <f>IF(AND(B493&gt;Threshold,B494&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D493" s="14"/>
@@ -14897,7 +14897,7 @@
         <v>1.82</v>
       </c>
       <c r="C494" s="14" t="str">
-        <f>IF(AND(B494&gt;Threshold,B495&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D494" s="14"/>
@@ -14913,7 +14913,7 @@
         <v>1.56</v>
       </c>
       <c r="C495" s="14" t="str">
-        <f>IF(AND(B495&gt;Threshold,B496&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D495" s="14"/>
@@ -14929,7 +14929,7 @@
         <v>1.58</v>
       </c>
       <c r="C496" s="14" t="str">
-        <f>IF(AND(B496&gt;Threshold,B497&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D496" s="14"/>
@@ -14945,7 +14945,7 @@
         <v>1.71</v>
       </c>
       <c r="C497" s="14" t="str">
-        <f>IF(AND(B497&gt;Threshold,B498&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D497" s="14"/>
@@ -14961,7 +14961,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="C498" s="14" t="str">
-        <f>IF(AND(B498&gt;Threshold,B499&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D498" s="14"/>
@@ -14977,7 +14977,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C499" s="14" t="str">
-        <f>IF(AND(B499&gt;Threshold,B500&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D499" s="14"/>
@@ -14993,7 +14993,7 @@
         <v>2.23</v>
       </c>
       <c r="C500" s="14" t="str">
-        <f>IF(AND(B500&gt;Threshold,B501&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D500" s="14"/>
@@ -15009,7 +15009,7 @@
         <v>2.12</v>
       </c>
       <c r="C501" s="14" t="str">
-        <f>IF(AND(B501&gt;Threshold,B502&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D501" s="14"/>
@@ -15025,7 +15025,7 @@
         <v>1.83</v>
       </c>
       <c r="C502" s="14" t="str">
-        <f>IF(AND(B502&gt;Threshold,B503&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D502" s="14"/>
@@ -15041,7 +15041,7 @@
         <v>1.5</v>
       </c>
       <c r="C503" s="14" t="str">
-        <f>IF(AND(B503&gt;Threshold,B504&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D503" s="14"/>
@@ -15057,7 +15057,7 @@
         <v>1.56</v>
       </c>
       <c r="C504" s="14" t="str">
-        <f>IF(AND(B504&gt;Threshold,B505&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D504" s="14"/>
@@ -15073,7 +15073,7 @@
         <v>1.74</v>
       </c>
       <c r="C505" s="14" t="str">
-        <f>IF(AND(B505&gt;Threshold,B506&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D505" s="14"/>
@@ -15089,7 +15089,7 @@
         <v>4.57</v>
       </c>
       <c r="C506" s="14" t="str">
-        <f>IF(AND(B506&gt;Threshold,B507&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D506" s="14"/>
@@ -15105,7 +15105,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C507" s="14" t="str">
-        <f>IF(AND(B507&gt;Threshold,B508&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D507" s="14"/>
@@ -15121,7 +15121,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C508" s="14" t="str">
-        <f>IF(AND(B508&gt;Threshold,B509&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D508" s="14"/>
@@ -15137,7 +15137,7 @@
         <v>2.12</v>
       </c>
       <c r="C509" s="14" t="str">
-        <f>IF(AND(B509&gt;Threshold,B510&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D509" s="14"/>
@@ -15153,7 +15153,7 @@
         <v>1.81</v>
       </c>
       <c r="C510" s="14" t="str">
-        <f>IF(AND(B510&gt;Threshold,B511&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D510" s="14"/>
@@ -15169,7 +15169,7 @@
         <v>1.52</v>
       </c>
       <c r="C511" s="14" t="str">
-        <f>IF(AND(B511&gt;Threshold,B512&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D511" s="14"/>
@@ -15185,7 +15185,7 @@
         <v>1.62</v>
       </c>
       <c r="C512" s="14" t="str">
-        <f>IF(AND(B512&gt;Threshold,B513&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D512" s="14"/>
@@ -15201,7 +15201,7 @@
         <v>1.76</v>
       </c>
       <c r="C513" s="14" t="str">
-        <f>IF(AND(B513&gt;Threshold,B514&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D513" s="14"/>
@@ -15217,7 +15217,7 @@
         <v>4.59</v>
       </c>
       <c r="C514" s="14" t="str">
-        <f>IF(AND(B514&gt;Threshold,B515&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Not</v>
       </c>
       <c r="D514" s="14"/>
@@ -15233,7 +15233,7 @@
         <v>4.74</v>
       </c>
       <c r="C515" s="14" t="str">
-        <f>IF(AND(B515&gt;Threshold,B516&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="7"/>
         <v>Beat</v>
       </c>
       <c r="D515" s="14"/>
@@ -15249,7 +15249,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C516" s="14" t="str">
-        <f>IF(AND(B516&gt;Threshold,B517&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C516:C579" si="8">IF(AND(B516&gt;Threshold,B517&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D516" s="14"/>
@@ -15265,7 +15265,7 @@
         <v>2.08</v>
       </c>
       <c r="C517" s="14" t="str">
-        <f>IF(AND(B517&gt;Threshold,B518&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D517" s="14"/>
@@ -15281,7 +15281,7 @@
         <v>1.91</v>
       </c>
       <c r="C518" s="14" t="str">
-        <f>IF(AND(B518&gt;Threshold,B519&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D518" s="14"/>
@@ -15297,7 +15297,7 @@
         <v>1.48</v>
       </c>
       <c r="C519" s="14" t="str">
-        <f>IF(AND(B519&gt;Threshold,B520&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D519" s="14"/>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="C520" s="14" t="str">
-        <f>IF(AND(B520&gt;Threshold,B521&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D520" s="14"/>
@@ -15329,7 +15329,7 @@
         <v>1.62</v>
       </c>
       <c r="C521" s="14" t="str">
-        <f>IF(AND(B521&gt;Threshold,B522&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D521" s="14"/>
@@ -15345,7 +15345,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C522" s="14" t="str">
-        <f>IF(AND(B522&gt;Threshold,B523&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D522" s="14"/>
@@ -15361,7 +15361,7 @@
         <v>4.74</v>
       </c>
       <c r="C523" s="14" t="str">
-        <f>IF(AND(B523&gt;Threshold,B524&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D523" s="14"/>
@@ -15377,7 +15377,7 @@
         <v>2.6</v>
       </c>
       <c r="C524" s="14" t="str">
-        <f>IF(AND(B524&gt;Threshold,B525&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D524" s="14"/>
@@ -15393,7 +15393,7 @@
         <v>2.15</v>
       </c>
       <c r="C525" s="14" t="str">
-        <f>IF(AND(B525&gt;Threshold,B526&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D525" s="14"/>
@@ -15409,7 +15409,7 @@
         <v>1.98</v>
       </c>
       <c r="C526" s="14" t="str">
-        <f>IF(AND(B526&gt;Threshold,B527&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D526" s="14"/>
@@ -15425,7 +15425,7 @@
         <v>1.51</v>
       </c>
       <c r="C527" s="14" t="str">
-        <f>IF(AND(B527&gt;Threshold,B528&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D527" s="14"/>
@@ -15441,7 +15441,7 @@
         <v>1.54</v>
       </c>
       <c r="C528" s="14" t="str">
-        <f>IF(AND(B528&gt;Threshold,B529&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D528" s="14"/>
@@ -15457,7 +15457,7 @@
         <v>1.8</v>
       </c>
       <c r="C529" s="14" t="str">
-        <f>IF(AND(B529&gt;Threshold,B530&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D529" s="14"/>
@@ -15473,7 +15473,7 @@
         <v>4.67</v>
       </c>
       <c r="C530" s="14" t="str">
-        <f>IF(AND(B530&gt;Threshold,B531&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D530" s="14"/>
@@ -15489,7 +15489,7 @@
         <v>4.45</v>
       </c>
       <c r="C531" s="14" t="str">
-        <f>IF(AND(B531&gt;Threshold,B532&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D531" s="14"/>
@@ -15505,7 +15505,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C532" s="14" t="str">
-        <f>IF(AND(B532&gt;Threshold,B533&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D532" s="14"/>
@@ -15521,7 +15521,7 @@
         <v>2.09</v>
       </c>
       <c r="C533" s="14" t="str">
-        <f>IF(AND(B533&gt;Threshold,B534&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D533" s="14"/>
@@ -15537,7 +15537,7 @@
         <v>1.8</v>
       </c>
       <c r="C534" s="14" t="str">
-        <f>IF(AND(B534&gt;Threshold,B535&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D534" s="14"/>
@@ -15553,7 +15553,7 @@
         <v>1.43</v>
       </c>
       <c r="C535" s="14" t="str">
-        <f>IF(AND(B535&gt;Threshold,B536&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D535" s="14"/>
@@ -15569,7 +15569,7 @@
         <v>1.6</v>
       </c>
       <c r="C536" s="14" t="str">
-        <f>IF(AND(B536&gt;Threshold,B537&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D536" s="14"/>
@@ -15585,7 +15585,7 @@
         <v>2.23</v>
       </c>
       <c r="C537" s="14" t="str">
-        <f>IF(AND(B537&gt;Threshold,B538&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D537" s="14"/>
@@ -15601,7 +15601,7 @@
         <v>4.75</v>
       </c>
       <c r="C538" s="14" t="str">
-        <f>IF(AND(B538&gt;Threshold,B539&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D538" s="14"/>
@@ -15617,7 +15617,7 @@
         <v>4.22</v>
       </c>
       <c r="C539" s="14" t="str">
-        <f>IF(AND(B539&gt;Threshold,B540&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D539" s="14"/>
@@ -15633,7 +15633,7 @@
         <v>2.15</v>
       </c>
       <c r="C540" s="14" t="str">
-        <f>IF(AND(B540&gt;Threshold,B541&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D540" s="14"/>
@@ -15649,7 +15649,7 @@
         <v>2.13</v>
       </c>
       <c r="C541" s="14" t="str">
-        <f>IF(AND(B541&gt;Threshold,B542&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D541" s="14"/>
@@ -15665,7 +15665,7 @@
         <v>1.67</v>
       </c>
       <c r="C542" s="14" t="str">
-        <f>IF(AND(B542&gt;Threshold,B543&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D542" s="14"/>
@@ -15681,7 +15681,7 @@
         <v>1.42</v>
       </c>
       <c r="C543" s="14" t="str">
-        <f>IF(AND(B543&gt;Threshold,B544&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D543" s="14"/>
@@ -15697,7 +15697,7 @@
         <v>1.6</v>
       </c>
       <c r="C544" s="14" t="str">
-        <f>IF(AND(B544&gt;Threshold,B545&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D544" s="14"/>
@@ -15713,7 +15713,7 @@
         <v>2.75</v>
       </c>
       <c r="C545" s="14" t="str">
-        <f>IF(AND(B545&gt;Threshold,B546&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D545" s="14"/>
@@ -15729,7 +15729,7 @@
         <v>4.75</v>
       </c>
       <c r="C546" s="14" t="str">
-        <f>IF(AND(B546&gt;Threshold,B547&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D546" s="14"/>
@@ -15745,7 +15745,7 @@
         <v>4.74</v>
       </c>
       <c r="C547" s="14" t="str">
-        <f>IF(AND(B547&gt;Threshold,B548&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D547" s="14"/>
@@ -15761,7 +15761,7 @@
         <v>2.16</v>
       </c>
       <c r="C548" s="14" t="str">
-        <f>IF(AND(B548&gt;Threshold,B549&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D548" s="14"/>
@@ -15777,7 +15777,7 @@
         <v>1.93</v>
       </c>
       <c r="C549" s="14" t="str">
-        <f>IF(AND(B549&gt;Threshold,B550&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D549" s="14"/>
@@ -15793,7 +15793,7 @@
         <v>1.52</v>
       </c>
       <c r="C550" s="14" t="str">
-        <f>IF(AND(B550&gt;Threshold,B551&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D550" s="14"/>
@@ -15809,7 +15809,7 @@
         <v>1.37</v>
       </c>
       <c r="C551" s="14" t="str">
-        <f>IF(AND(B551&gt;Threshold,B552&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D551" s="14"/>
@@ -15825,7 +15825,7 @@
         <v>1.53</v>
       </c>
       <c r="C552" s="14" t="str">
-        <f>IF(AND(B552&gt;Threshold,B553&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D552" s="14"/>
@@ -15841,7 +15841,7 @@
         <v>3.03</v>
       </c>
       <c r="C553" s="14" t="str">
-        <f>IF(AND(B553&gt;Threshold,B554&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D553" s="14"/>
@@ -15857,7 +15857,7 @@
         <v>4.75</v>
       </c>
       <c r="C554" s="14" t="str">
-        <f>IF(AND(B554&gt;Threshold,B555&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D554" s="14"/>
@@ -15873,7 +15873,7 @@
         <v>4.75</v>
       </c>
       <c r="C555" s="14" t="str">
-        <f>IF(AND(B555&gt;Threshold,B556&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D555" s="14"/>
@@ -15889,7 +15889,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C556" s="14" t="str">
-        <f>IF(AND(B556&gt;Threshold,B557&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D556" s="14"/>
@@ -15905,7 +15905,7 @@
         <v>1.83</v>
       </c>
       <c r="C557" s="14" t="str">
-        <f>IF(AND(B557&gt;Threshold,B558&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D557" s="14"/>
@@ -15921,7 +15921,7 @@
         <v>1.45</v>
       </c>
       <c r="C558" s="14" t="str">
-        <f>IF(AND(B558&gt;Threshold,B559&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D558" s="14"/>
@@ -15937,7 +15937,7 @@
         <v>1.42</v>
       </c>
       <c r="C559" s="14" t="str">
-        <f>IF(AND(B559&gt;Threshold,B560&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D559" s="14"/>
@@ -15953,7 +15953,7 @@
         <v>1.54</v>
       </c>
       <c r="C560" s="14" t="str">
-        <f>IF(AND(B560&gt;Threshold,B561&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D560" s="14"/>
@@ -15969,7 +15969,7 @@
         <v>3.78</v>
       </c>
       <c r="C561" s="14" t="str">
-        <f>IF(AND(B561&gt;Threshold,B562&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D561" s="14"/>
@@ -15985,7 +15985,7 @@
         <v>4.75</v>
       </c>
       <c r="C562" s="14" t="str">
-        <f>IF(AND(B562&gt;Threshold,B563&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D562" s="14"/>
@@ -16001,7 +16001,7 @@
         <v>3.83</v>
       </c>
       <c r="C563" s="14" t="str">
-        <f>IF(AND(B563&gt;Threshold,B564&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D563" s="14"/>
@@ -16017,7 +16017,7 @@
         <v>1.89</v>
       </c>
       <c r="C564" s="14" t="str">
-        <f>IF(AND(B564&gt;Threshold,B565&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D564" s="14"/>
@@ -16033,7 +16033,7 @@
         <v>1.71</v>
       </c>
       <c r="C565" s="14" t="str">
-        <f>IF(AND(B565&gt;Threshold,B566&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D565" s="14"/>
@@ -16049,7 +16049,7 @@
         <v>1.36</v>
       </c>
       <c r="C566" s="14" t="str">
-        <f>IF(AND(B566&gt;Threshold,B567&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D566" s="14"/>
@@ -16065,7 +16065,7 @@
         <v>1.44</v>
       </c>
       <c r="C567" s="14" t="str">
-        <f>IF(AND(B567&gt;Threshold,B568&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D567" s="14"/>
@@ -16081,7 +16081,7 @@
         <v>1.48</v>
       </c>
       <c r="C568" s="14" t="str">
-        <f>IF(AND(B568&gt;Threshold,B569&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D568" s="14"/>
@@ -16097,7 +16097,7 @@
         <v>4.75</v>
       </c>
       <c r="C569" s="14" t="str">
-        <f>IF(AND(B569&gt;Threshold,B570&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D569" s="14"/>
@@ -16113,7 +16113,7 @@
         <v>4.75</v>
       </c>
       <c r="C570" s="14" t="str">
-        <f>IF(AND(B570&gt;Threshold,B571&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D570" s="14"/>
@@ -16129,7 +16129,7 @@
         <v>2.85</v>
       </c>
       <c r="C571" s="14" t="str">
-        <f>IF(AND(B571&gt;Threshold,B572&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D571" s="14"/>
@@ -16145,7 +16145,7 @@
         <v>1.71</v>
       </c>
       <c r="C572" s="14" t="str">
-        <f>IF(AND(B572&gt;Threshold,B573&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D572" s="14"/>
@@ -16164,7 +16164,7 @@
         <v>1.54</v>
       </c>
       <c r="C573" s="14" t="str">
-        <f>IF(AND(B573&gt;Threshold,B574&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D573" s="14"/>
@@ -16180,7 +16180,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C574" s="14" t="str">
-        <f>IF(AND(B574&gt;Threshold,B575&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D574" s="14"/>
@@ -16196,7 +16196,7 @@
         <v>1.55</v>
       </c>
       <c r="C575" s="14" t="str">
-        <f>IF(AND(B575&gt;Threshold,B576&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D575" s="14"/>
@@ -16212,7 +16212,7 @@
         <v>1.77</v>
       </c>
       <c r="C576" s="14" t="str">
-        <f>IF(AND(B576&gt;Threshold,B577&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D576" s="14"/>
@@ -16228,7 +16228,7 @@
         <v>4.75</v>
       </c>
       <c r="C577" s="14" t="str">
-        <f>IF(AND(B577&gt;Threshold,B578&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D577" s="14"/>
@@ -16244,7 +16244,7 @@
         <v>4.75</v>
       </c>
       <c r="C578" s="14" t="str">
-        <f>IF(AND(B578&gt;Threshold,B579&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Beat</v>
       </c>
       <c r="D578" s="14"/>
@@ -16260,7 +16260,7 @@
         <v>2.44</v>
       </c>
       <c r="C579" s="14" t="str">
-        <f>IF(AND(B579&gt;Threshold,B580&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="8"/>
         <v>Not</v>
       </c>
       <c r="D579" s="14"/>
@@ -16276,7 +16276,7 @@
         <v>1.67</v>
       </c>
       <c r="C580" s="14" t="str">
-        <f>IF(AND(B580&gt;Threshold,B581&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" ref="C580:C643" si="9">IF(AND(B580&gt;Threshold,B581&lt;Threshold), $J$1,$J$2)</f>
         <v>Not</v>
       </c>
       <c r="D580" s="14"/>
@@ -16292,7 +16292,7 @@
         <v>1.45</v>
       </c>
       <c r="C581" s="14" t="str">
-        <f>IF(AND(B581&gt;Threshold,B582&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D581" s="14"/>
@@ -16308,7 +16308,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C582" s="14" t="str">
-        <f>IF(AND(B582&gt;Threshold,B583&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D582" s="14"/>
@@ -16324,7 +16324,7 @@
         <v>1.42</v>
       </c>
       <c r="C583" s="14" t="str">
-        <f>IF(AND(B583&gt;Threshold,B584&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D583" s="14"/>
@@ -16340,7 +16340,7 @@
         <v>1.92</v>
       </c>
       <c r="C584" s="14" t="str">
-        <f>IF(AND(B584&gt;Threshold,B585&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D584" s="14"/>
@@ -16356,7 +16356,7 @@
         <v>4.75</v>
       </c>
       <c r="C585" s="14" t="str">
-        <f>IF(AND(B585&gt;Threshold,B586&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D585" s="14"/>
@@ -16372,7 +16372,7 @@
         <v>4.75</v>
       </c>
       <c r="C586" s="14" t="str">
-        <f>IF(AND(B586&gt;Threshold,B587&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Beat</v>
       </c>
       <c r="D586" s="14"/>
@@ -16388,7 +16388,7 @@
         <v>2.16</v>
       </c>
       <c r="C587" s="14" t="str">
-        <f>IF(AND(B587&gt;Threshold,B588&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D587" s="14"/>
@@ -16404,7 +16404,7 @@
         <v>2.13</v>
       </c>
       <c r="C588" s="14" t="str">
-        <f>IF(AND(B588&gt;Threshold,B589&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D588" s="14"/>
@@ -16420,7 +16420,7 @@
         <v>1.67</v>
       </c>
       <c r="C589" s="14" t="str">
-        <f>IF(AND(B589&gt;Threshold,B590&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D589" s="14"/>
@@ -16436,7 +16436,7 @@
         <v>1.42</v>
       </c>
       <c r="C590" s="14" t="str">
-        <f>IF(AND(B590&gt;Threshold,B591&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D590" s="14"/>
@@ -16452,7 +16452,7 @@
         <v>1.6</v>
       </c>
       <c r="C591" s="14" t="str">
-        <f>IF(AND(B591&gt;Threshold,B592&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D591" s="14"/>
@@ -16468,7 +16468,7 @@
         <v>2.75</v>
       </c>
       <c r="C592" s="14" t="str">
-        <f>IF(AND(B592&gt;Threshold,B593&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D592" s="14"/>
@@ -16484,7 +16484,7 @@
         <v>4.75</v>
       </c>
       <c r="C593" s="14" t="str">
-        <f>IF(AND(B593&gt;Threshold,B594&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D593" s="14"/>
@@ -16500,7 +16500,7 @@
         <v>4.74</v>
       </c>
       <c r="C594" s="14" t="str">
-        <f>IF(AND(B594&gt;Threshold,B595&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Beat</v>
       </c>
       <c r="D594" s="14"/>
@@ -16516,7 +16516,7 @@
         <v>2.16</v>
       </c>
       <c r="C595" s="14" t="str">
-        <f>IF(AND(B595&gt;Threshold,B596&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D595" s="14"/>
@@ -16532,7 +16532,7 @@
         <v>1.67</v>
       </c>
       <c r="C596" s="14" t="str">
-        <f>IF(AND(B596&gt;Threshold,B597&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D596" s="14"/>
@@ -16548,7 +16548,7 @@
         <v>1.45</v>
       </c>
       <c r="C597" s="14" t="str">
-        <f>IF(AND(B597&gt;Threshold,B598&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D597" s="14"/>
@@ -16564,7 +16564,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C598" s="14" t="str">
-        <f>IF(AND(B598&gt;Threshold,B599&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D598" s="14"/>
@@ -16580,7 +16580,7 @@
         <v>1.42</v>
       </c>
       <c r="C599" s="14" t="str">
-        <f>IF(AND(B599&gt;Threshold,B600&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D599" s="14"/>
@@ -16596,7 +16596,7 @@
         <v>1.92</v>
       </c>
       <c r="C600" s="14" t="str">
-        <f>IF(AND(B600&gt;Threshold,B601&lt;Threshold), $J$1,$J$2)</f>
+        <f t="shared" si="9"/>
         <v>Not</v>
       </c>
       <c r="D600" s="14"/>
